--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="381">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -1088,6 +1088,36 @@
   </si>
   <si>
     <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bigbettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana</t>
   </si>
 </sst>
 </file>
@@ -3660,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="21">
-        <v>0.8</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="I26" s="21">
         <v>10</v>
@@ -3697,7 +3727,7 @@
       <c r="A27" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="21" t="str">
         <f>B26+1</f>
         <v>25</v>
       </c>
@@ -3724,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="21">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="K27" s="21">
         <v>0</v>
@@ -3755,7 +3785,7 @@
       <c r="A28" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="26" t="str">
         <f>B27+1</f>
         <v>26</v>
       </c>
@@ -3812,7 +3842,7 @@
       <c r="A29" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="27" t="str">
         <f>B28+1</f>
         <v>27</v>
       </c>
@@ -3959,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>0.4</v>
+        <v>0.400000005960464</v>
       </c>
       <c r="L2" s="3">
         <v>-1</v>
@@ -3985,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="22">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H3" s="22">
         <v>0</v>
@@ -3997,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="22">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="L3" s="22">
         <v>0</v>
@@ -4023,7 +4053,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="22">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H4" s="22">
         <v>3</v>
@@ -4061,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="22">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H5" s="22">
         <v>0</v>
@@ -4073,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="22">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="L5" s="22">
         <v>0</v>
@@ -4099,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="24">
-        <v>0.7</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="H6" s="24">
         <v>0</v>
@@ -4111,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="24">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="L6" s="24">
         <v>1</v>
@@ -4137,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="24">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H7" s="24">
         <v>6</v>
@@ -4175,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="24">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H8" s="24">
         <v>0</v>
@@ -4187,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="24">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="L8" s="24">
         <v>1</v>
@@ -4213,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="11">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -4225,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="11">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="L9" s="11">
         <v>2</v>
@@ -4251,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="11">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H10" s="11">
         <v>9</v>
@@ -4289,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="11">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
@@ -4301,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="11">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="L11" s="11">
         <v>2</v>
@@ -4339,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="21">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="L12" s="21">
         <v>3</v>
@@ -4415,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="21">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="L14" s="21">
         <v>3</v>
@@ -4527,6 +4557,48 @@
       <c r="D6" s="3">
         <f>boss!G4</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4722,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.8</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G2" s="3">
         <v>30</v>
@@ -4757,7 +4829,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3">
-        <v>0.8</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G3" s="3">
         <v>30</v>
@@ -4792,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.85</v>
+        <v>0.850000023841858</v>
       </c>
       <c r="G4" s="3">
         <v>30</v>
@@ -4807,6 +4879,76 @@
         <v>174</v>
       </c>
       <c r="K4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5">
+        <v>550</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6">
+        <v>750</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6">
         <v>100</v>
       </c>
     </row>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="230"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
-    <sheet name="monster" sheetId="5" r:id="rId2"/>
-    <sheet name="enproj" sheetId="6" r:id="rId3"/>
-    <sheet name="status" sheetId="2" r:id="rId4"/>
-    <sheet name="boss" sheetId="3" r:id="rId5"/>
-    <sheet name="stage" sheetId="4" r:id="rId6"/>
+    <sheet name="skin" sheetId="7" r:id="rId2"/>
+    <sheet name="monster" sheetId="5" r:id="rId3"/>
+    <sheet name="enproj" sheetId="6" r:id="rId4"/>
+    <sheet name="status" sheetId="2" r:id="rId5"/>
+    <sheet name="boss" sheetId="3" r:id="rId6"/>
+    <sheet name="quest" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="563">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -1083,41 +1084,577 @@
   <si>
     <t xml:space="preserve">유물 장착 슬롯 증가</t>
   </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bigbettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">풀사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돌사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">귤사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전구사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">야수사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로봇사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뱀파이어사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이스크림사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천사사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">황금갑옷사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거미사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">gLnjGlJPQUGceqv9MtI+jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bDmF5v4opUOLjBB580DUog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j4aRpfkhWUCwpugwL7yhOw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v6FaRzn/yUS4jftoTtNfsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMhXnyt3XUWslXDy/Eccmw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5CW4lEGYZEqJ8sFOtlJVVw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a+XFhtKj2Em7xW1tms05Zw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oJlQTylhPUGaWX/Zndg2HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDD/hjzPHU+kTQf39Dvtnw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tY/x47zy/U+9d/dQf4L+Xg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kUpxVrSyPke7VlIQ+ty+ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e+gqMj+a0kePNLaic882PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVpFmf14gE+JTvE5tq+oTw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bBCBYzcq5kaQf7V57bsU5Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV8CtlguXEufFOcfSPnFWw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LmBUHti4IU6ufw+5njPwTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invSwamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iceHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invincible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticDmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch_explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unch_explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">겨울에 만들어진 눈사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈대신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">머리의 전구로 어둠을 밝힌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잃은 체력 1%당 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 4개증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">늪지 무효\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무적 발동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잃은 체력 1%당 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">늪지 무효\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">ERzaZOy2RkmFqdq+1HEN0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invSlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scare_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_butterfly</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">WfxNB+MGn06c0Mxh9qi6TQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfly_bgPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfly_smPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=boss!G6</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">H2iGbbqnQ0OIrx3EtElI8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2lgjDXLyUStHASDlJTf+Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가을까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1년 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하루</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1마리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강화1회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">특정스킨으로 1회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고 1회</t>
+  </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bigbettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana</t>
+    <t xml:space="preserve">oMhQHIWj/EC8ngg9JcK0OA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn3M8GN9A0S40ubcMn7hgA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYLWhSg54UWwAGA4uBn3KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2vw6eVoubE2FX4RhcWa2Gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2hLdUHeKEOMFjkn8uKZ1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YnmthZe2OUS0F2IvwXzx/w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0aZgm2DJLU6UAd3Lphp+qw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jc5TTOZymkyTL+nsgg7Cww</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1792,7 @@
       <name val="맑은 고딕"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1463,20 +2000,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1639,6 +2164,561 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
@@ -1789,7 +2869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
@@ -1865,13 +2945,412 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2194,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3842,7 +5321,7 @@
       <c r="A29" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B29" s="27" t="str">
+      <c r="B29" s="12" t="str">
         <f>B28+1</f>
         <v>27</v>
       </c>
@@ -3905,550 +5384,1482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.87999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
-    <col min="4" max="9" width="9.00500011" customWidth="1"/>
-    <col min="11" max="11" width="13.88000011" customWidth="1"/>
+    <col min="1" max="1" width="27.37999916" customWidth="1"/>
+    <col min="3" max="3" width="15.13000011" customWidth="1"/>
+    <col min="6" max="6" width="9.00500011" customWidth="1"/>
+    <col min="10" max="10" width="9.00500011" customWidth="1"/>
+    <col min="13" max="13" width="9.00500011" style="5" customWidth="1"/>
+    <col min="20" max="20" width="9.00500011" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
+    <row r="1" spans="1:28">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="T1" s="114" t="s">
+        <v>444</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="66">
+        <v>0</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="65">
+        <v>0</v>
+      </c>
+      <c r="J2" s="65">
+        <v>0</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="L2" s="65">
+        <v>0</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="N2" s="64">
+        <v>1</v>
+      </c>
+      <c r="O2" s="65">
+        <v>1</v>
+      </c>
+      <c r="P2" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="65">
+        <v>1</v>
+      </c>
+      <c r="R2" s="65">
+        <v>1</v>
+      </c>
+      <c r="S2" s="65">
+        <v>1</v>
+      </c>
+      <c r="T2" s="70">
+        <v>1</v>
+      </c>
+      <c r="U2" s="66">
+        <v>1</v>
+      </c>
+      <c r="V2" s="64">
+        <v>0</v>
+      </c>
+      <c r="W2" s="65">
+        <v>0</v>
+      </c>
+      <c r="X2" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="60">
+        <v>0</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="59">
+        <v>0</v>
+      </c>
+      <c r="J3" s="59">
+        <v>0</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="L3" s="59">
+        <v>0</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>431</v>
+      </c>
+      <c r="N3" s="58">
+        <v>1</v>
+      </c>
+      <c r="O3" s="59">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="P3" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>1</v>
+      </c>
+      <c r="R3" s="59">
+        <v>1</v>
+      </c>
+      <c r="S3" s="59">
+        <v>1</v>
+      </c>
+      <c r="T3" s="71">
+        <v>1</v>
+      </c>
+      <c r="U3" s="60">
+        <v>1</v>
+      </c>
+      <c r="V3" s="58">
+        <v>0</v>
+      </c>
+      <c r="W3" s="59">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="X3" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="17.25">
+      <c r="A4" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="63">
+        <v>0</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" s="62">
+        <v>0</v>
+      </c>
+      <c r="J4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L4" s="62">
+        <v>0</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="N4" s="61">
+        <v>1</v>
+      </c>
+      <c r="O4" s="62">
+        <v>1</v>
+      </c>
+      <c r="P4" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="R4" s="62">
+        <v>1</v>
+      </c>
+      <c r="S4" s="62">
+        <v>1</v>
+      </c>
+      <c r="T4" s="72">
+        <v>1</v>
+      </c>
+      <c r="U4" s="63">
+        <v>1</v>
+      </c>
+      <c r="V4" s="61">
+        <v>0</v>
+      </c>
+      <c r="W4" s="62">
+        <v>0</v>
+      </c>
+      <c r="X4" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="62">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="Z4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="69">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="I5" s="68">
+        <v>0</v>
+      </c>
+      <c r="J5" s="68">
+        <v>0</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="L5" s="68">
+        <v>0</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>460</v>
+      </c>
+      <c r="N5" s="67">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="O5" s="68">
+        <v>1</v>
+      </c>
+      <c r="P5" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="68">
+        <v>1</v>
+      </c>
+      <c r="R5" s="68">
+        <v>1</v>
+      </c>
+      <c r="S5" s="68">
+        <v>1</v>
+      </c>
+      <c r="T5" s="73">
+        <v>1</v>
+      </c>
+      <c r="U5" s="69">
+        <v>1</v>
+      </c>
+      <c r="V5" s="67">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="W5" s="68">
+        <v>0</v>
+      </c>
+      <c r="X5" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="40">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="N6" s="39">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1</v>
+      </c>
+      <c r="T6" s="74">
+        <v>1.00999999046326</v>
+      </c>
+      <c r="U6" s="40">
+        <v>1</v>
+      </c>
+      <c r="V6" s="39">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="40">
+        <v>0.0099999997764826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="17.25">
+      <c r="A7" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="51">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>431</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="I7" s="50">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="L7" s="50">
+        <v>0</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="N7" s="49">
+        <v>1</v>
+      </c>
+      <c r="O7" s="50">
+        <v>1</v>
+      </c>
+      <c r="P7" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>1</v>
+      </c>
+      <c r="R7" s="50">
+        <v>1</v>
+      </c>
+      <c r="S7" s="50">
+        <v>1</v>
+      </c>
+      <c r="T7" s="75">
+        <v>1</v>
+      </c>
+      <c r="U7" s="51">
+        <v>1</v>
+      </c>
+      <c r="V7" s="49">
+        <v>0</v>
+      </c>
+      <c r="W7" s="50">
+        <v>0</v>
+      </c>
+      <c r="X7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="57">
+        <v>500</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" s="56">
+        <v>1</v>
+      </c>
+      <c r="J8" s="56">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="L8" s="56">
+        <v>0</v>
+      </c>
+      <c r="M8" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="N8" s="55">
+        <v>1</v>
+      </c>
+      <c r="O8" s="56">
+        <v>1</v>
+      </c>
+      <c r="P8" s="56">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>1</v>
+      </c>
+      <c r="R8" s="56">
+        <v>1</v>
+      </c>
+      <c r="S8" s="56">
+        <v>1</v>
+      </c>
+      <c r="T8" s="76">
+        <v>1</v>
+      </c>
+      <c r="U8" s="57">
+        <v>1</v>
+      </c>
+      <c r="V8" s="55">
+        <v>0</v>
+      </c>
+      <c r="W8" s="56">
+        <v>0</v>
+      </c>
+      <c r="X8" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="42">
+        <v>500</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="J9" s="26">
+        <v>1</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="L9" s="26">
+        <v>4</v>
+      </c>
+      <c r="M9" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="N9" s="41">
+        <v>1</v>
+      </c>
+      <c r="O9" s="26">
+        <v>1</v>
+      </c>
+      <c r="P9" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>1</v>
+      </c>
+      <c r="R9" s="26">
+        <v>1</v>
+      </c>
+      <c r="S9" s="26">
+        <v>1</v>
+      </c>
+      <c r="T9" s="77">
+        <v>1</v>
+      </c>
+      <c r="U9" s="42">
+        <v>1</v>
+      </c>
+      <c r="V9" s="41">
+        <v>0</v>
+      </c>
+      <c r="W9" s="26">
+        <v>0</v>
+      </c>
+      <c r="X9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="42">
+        <v>500</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="N10" s="41">
+        <v>1</v>
+      </c>
+      <c r="O10" s="26">
+        <v>1</v>
+      </c>
+      <c r="P10" s="26">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>1</v>
+      </c>
+      <c r="R10" s="26">
+        <v>1</v>
+      </c>
+      <c r="S10" s="26">
+        <v>1</v>
+      </c>
+      <c r="T10" s="77">
+        <v>1</v>
+      </c>
+      <c r="U10" s="42">
+        <v>1</v>
+      </c>
+      <c r="V10" s="41">
+        <v>0</v>
+      </c>
+      <c r="W10" s="26">
+        <v>0</v>
+      </c>
+      <c r="X10" s="26">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" s="42">
+        <v>500</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="I11" s="26">
+        <v>5</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.150000005960464</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="N11" s="41">
+        <v>1</v>
+      </c>
+      <c r="O11" s="26">
+        <v>1</v>
+      </c>
+      <c r="P11" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>1</v>
+      </c>
+      <c r="R11" s="26">
+        <v>1</v>
+      </c>
+      <c r="S11" s="26">
+        <v>1</v>
+      </c>
+      <c r="T11" s="77">
+        <v>1</v>
+      </c>
+      <c r="U11" s="42">
+        <v>1</v>
+      </c>
+      <c r="V11" s="41">
+        <v>0</v>
+      </c>
+      <c r="W11" s="26">
+        <v>0</v>
+      </c>
+      <c r="X11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="42">
+        <v>500</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="N12" s="41">
+        <v>1</v>
+      </c>
+      <c r="O12" s="26">
+        <v>1</v>
+      </c>
+      <c r="P12" s="26">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>1</v>
+      </c>
+      <c r="R12" s="26">
+        <v>1</v>
+      </c>
+      <c r="S12" s="26">
+        <v>1</v>
+      </c>
+      <c r="T12" s="77">
+        <v>1</v>
+      </c>
+      <c r="U12" s="42">
+        <v>1</v>
+      </c>
+      <c r="V12" s="41">
+        <v>0</v>
+      </c>
+      <c r="W12" s="26">
+        <v>0</v>
+      </c>
+      <c r="X12" s="26">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" s="42">
+        <v>500</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="N13" s="41">
+        <v>1</v>
+      </c>
+      <c r="O13" s="26">
+        <v>1</v>
+      </c>
+      <c r="P13" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>1</v>
+      </c>
+      <c r="R13" s="26">
+        <v>1</v>
+      </c>
+      <c r="S13" s="26">
+        <v>1</v>
+      </c>
+      <c r="T13" s="77">
+        <v>1</v>
+      </c>
+      <c r="U13" s="42">
+        <v>1.04999995231628</v>
+      </c>
+      <c r="V13" s="41">
+        <v>0</v>
+      </c>
+      <c r="W13" s="26">
+        <v>0</v>
+      </c>
+      <c r="X13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="42">
+        <v>500</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="I14" s="26">
+        <v>30</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+      <c r="M14" s="77" t="s">
+        <v>468</v>
+      </c>
+      <c r="N14" s="41">
+        <v>1</v>
+      </c>
+      <c r="O14" s="26">
+        <v>1</v>
+      </c>
+      <c r="P14" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>1</v>
+      </c>
+      <c r="R14" s="26">
+        <v>1</v>
+      </c>
+      <c r="S14" s="26">
+        <v>1</v>
+      </c>
+      <c r="T14" s="77">
+        <v>1</v>
+      </c>
+      <c r="U14" s="42">
+        <v>1</v>
+      </c>
+      <c r="V14" s="41">
+        <v>0</v>
+      </c>
+      <c r="W14" s="26">
+        <v>0</v>
+      </c>
+      <c r="X14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" s="42">
+        <v>500</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="I15" s="26">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.400000005960464</v>
-      </c>
-      <c r="L2" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="22">
-        <v>30</v>
-      </c>
-      <c r="D3" s="22">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>1</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="22">
-        <v>40</v>
-      </c>
-      <c r="D4" s="22">
-        <v>10</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="J15" s="26">
+        <v>1</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="L15" s="26">
         <v>3</v>
       </c>
-      <c r="G4" s="22">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H4" s="22">
-        <v>3</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="22">
-        <v>50</v>
-      </c>
-      <c r="D5" s="22">
-        <v>20</v>
-      </c>
-      <c r="E5" s="22">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>1</v>
-      </c>
-      <c r="K5" s="22">
+      <c r="M15" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="N15" s="41">
+        <v>1</v>
+      </c>
+      <c r="O15" s="26">
+        <v>1</v>
+      </c>
+      <c r="P15" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>1</v>
+      </c>
+      <c r="R15" s="26">
+        <v>1</v>
+      </c>
+      <c r="S15" s="26">
+        <v>1</v>
+      </c>
+      <c r="T15" s="77">
+        <v>1</v>
+      </c>
+      <c r="U15" s="42">
+        <v>1</v>
+      </c>
+      <c r="V15" s="41">
+        <v>0</v>
+      </c>
+      <c r="W15" s="26">
+        <v>0</v>
+      </c>
+      <c r="X15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="42">
+        <v>500</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0</v>
+      </c>
+      <c r="M16" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="N16" s="41">
+        <v>1</v>
+      </c>
+      <c r="O16" s="26">
         <v>1.10000002384186</v>
       </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="24">
-        <v>60</v>
-      </c>
-      <c r="D6" s="24">
-        <v>20</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0.699999988079071</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <v>2</v>
-      </c>
-      <c r="K6" s="24">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="L6" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="24">
-        <v>70</v>
-      </c>
-      <c r="D7" s="24">
-        <v>15</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
-        <v>3</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H7" s="24">
-        <v>6</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>2</v>
-      </c>
-      <c r="K7" s="24">
-        <v>1</v>
-      </c>
-      <c r="L7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="24">
-        <v>80</v>
-      </c>
-      <c r="D8" s="24">
-        <v>25</v>
-      </c>
-      <c r="E8" s="24">
-        <v>4</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <v>2</v>
-      </c>
-      <c r="K8" s="24">
+      <c r="P16" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>1</v>
+      </c>
+      <c r="R16" s="26">
+        <v>1</v>
+      </c>
+      <c r="S16" s="26">
+        <v>1</v>
+      </c>
+      <c r="T16" s="77">
+        <v>1</v>
+      </c>
+      <c r="U16" s="42">
+        <v>1</v>
+      </c>
+      <c r="V16" s="41">
+        <v>0</v>
+      </c>
+      <c r="W16" s="26">
+        <v>0</v>
+      </c>
+      <c r="X16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="17.25">
+      <c r="A17" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" s="45">
+        <v>500</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>431</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="I17" s="44">
+        <v>0</v>
+      </c>
+      <c r="J17" s="44">
+        <v>0</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="L17" s="44">
+        <v>0</v>
+      </c>
+      <c r="M17" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="N17" s="43">
         <v>1.10000002384186</v>
       </c>
-      <c r="L8" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="11">
-        <v>90</v>
-      </c>
-      <c r="D9" s="11">
-        <v>25</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>3</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="L9" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="11">
-        <v>100</v>
-      </c>
-      <c r="D10" s="11">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H10" s="11">
-        <v>9</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>3</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="11">
-        <v>110</v>
-      </c>
-      <c r="D11" s="11">
-        <v>30</v>
-      </c>
-      <c r="E11" s="11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="O17" s="44">
         <v>1.10000002384186</v>
       </c>
-      <c r="L11" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="21">
-        <v>120</v>
-      </c>
-      <c r="D12" s="21">
-        <v>30</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0.649999976158142</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>4</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="L12" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="21">
-        <v>130</v>
-      </c>
-      <c r="D13" s="21">
-        <v>25</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>3</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H13" s="21">
-        <v>12</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>4</v>
-      </c>
-      <c r="K13" s="21">
-        <v>1</v>
-      </c>
-      <c r="L13" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="21">
-        <v>140</v>
-      </c>
-      <c r="D14" s="21">
-        <v>35</v>
-      </c>
-      <c r="E14" s="21">
-        <v>8</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0.600000023841858</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>4</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="P17" s="44">
         <v>1.10000002384186</v>
       </c>
-      <c r="L14" s="21">
-        <v>3</v>
+      <c r="Q17" s="44">
+        <v>1</v>
+      </c>
+      <c r="R17" s="44">
+        <v>1</v>
+      </c>
+      <c r="S17" s="44">
+        <v>1</v>
+      </c>
+      <c r="T17" s="78">
+        <v>1</v>
+      </c>
+      <c r="U17" s="45">
+        <v>1</v>
+      </c>
+      <c r="V17" s="43">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="W17" s="44">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="X17" s="44">
+        <v>0.0099999997764826</v>
+      </c>
+      <c r="Y17" s="44">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="44">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4460,10 +6871,523 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:D6"/>
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="27.87999916" customWidth="1"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1"/>
+    <col min="4" max="8" width="9.00500011" customWidth="1"/>
+    <col min="10" max="10" width="13.88000011" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="22">
+        <v>30</v>
+      </c>
+      <c r="D3" s="22">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="22">
+        <v>40</v>
+      </c>
+      <c r="D4" s="22">
+        <v>10</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G4" s="22">
+        <v>3</v>
+      </c>
+      <c r="H4" s="22">
+        <v>3</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="22">
+        <v>50</v>
+      </c>
+      <c r="D5" s="22">
+        <v>20</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="24">
+        <v>60</v>
+      </c>
+      <c r="D6" s="24">
+        <v>20</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>2</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="24">
+        <v>70</v>
+      </c>
+      <c r="D7" s="24">
+        <v>15</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G7" s="24">
+        <v>6</v>
+      </c>
+      <c r="H7" s="24">
+        <v>3</v>
+      </c>
+      <c r="I7" s="24">
+        <v>2</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="24">
+        <v>80</v>
+      </c>
+      <c r="D8" s="24">
+        <v>25</v>
+      </c>
+      <c r="E8" s="24">
+        <v>4</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>2</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="11">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="11">
+        <v>100</v>
+      </c>
+      <c r="D10" s="11">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G10" s="11">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="11">
+        <v>110</v>
+      </c>
+      <c r="D11" s="11">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="21">
+        <v>120</v>
+      </c>
+      <c r="D12" s="21">
+        <v>30</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.649999976158142</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>4</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="K12" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="21">
+        <v>130</v>
+      </c>
+      <c r="D13" s="21">
+        <v>25</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G13" s="21">
+        <v>12</v>
+      </c>
+      <c r="H13" s="21">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21">
+        <v>4</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="21">
+        <v>140</v>
+      </c>
+      <c r="D14" s="21">
+        <v>35</v>
+      </c>
+      <c r="E14" s="21">
+        <v>8</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>4</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1.10000002384186</v>
+      </c>
+      <c r="K14" s="21">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4559,46 +7483,91 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f>boss!G6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <f>boss!G6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="3">
+        <f>boss!H6</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4608,12 +7577,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J1:J3"/>
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4727,12 +7696,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4778,7 +7747,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4813,7 +7782,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4848,7 +7817,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4882,73 +7851,73 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>550</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>35</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>35</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="3">
         <v>750</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.800000011920929</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>30</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>30</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>100</v>
       </c>
     </row>
@@ -4959,104 +7928,253 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="9.00500011" customWidth="1"/>
-    <col min="4" max="4" width="12.88000011" customWidth="1"/>
-    <col min="5" max="5" width="11.00500011" customWidth="1"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1"/>
+    <col min="4" max="5" width="11.75500011" customWidth="1"/>
+    <col min="7" max="7" width="15.75500011" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>534</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>388</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>555</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="3">
+        <v>500</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>556</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" s="3">
+        <v>500</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G5" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H5" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
+      <c r="G6" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="320" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -15,1646 +15,1709 @@
     <sheet name="boss" sheetId="3" r:id="rId6"/>
     <sheet name="quest" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="152511" calcOnSave="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="563">
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우박</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음회오리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스에이지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay_reduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작은불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거대한불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강한불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/halficicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/iceage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/blizzard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icetornado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1YI39qlEIkehcQKXsHTyUg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWTscmjKlESMcPHMRe0hXg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAdmjT6HC0y8LOsa1qMZvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x0MEnXpXpkSAeJdx9u1dxA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nv7SgpakukyznybxDxXzKg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rrTgjWmPmE6tye/yifLCyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8z2pJ9jvp0qxuwrUhRrmyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Txp9XKcq6kSTovn/H/3gjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jZ9q6LkxFkil8RL3lc0PPg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FkSB7SxxhE+q+XE4G8ZT4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPruJLqK1ESOVRcE3QyTlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2WySlC4shUOPDHA9oxYaKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iW548VF8UEGD+vAuXhtSAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillrange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="585">
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>눈덩이</t>
+  </si>
+  <si>
+    <t>고드름</t>
+  </si>
+  <si>
+    <t>반달고드름</t>
+  </si>
+  <si>
+    <t>빙벽</t>
+  </si>
+  <si>
+    <t>우박</t>
+  </si>
+  <si>
+    <t>얼음회오리</t>
+  </si>
+  <si>
+    <t>아이스에이지</t>
+  </si>
+  <si>
+    <t>블리자드</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>att_increase</t>
+  </si>
+  <si>
+    <t>delay_reduce</t>
+  </si>
+  <si>
+    <t>size_increase</t>
+  </si>
+  <si>
+    <t>count_increase</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>작은불씨</t>
+  </si>
+  <si>
+    <t>불씨</t>
+  </si>
+  <si>
+    <t>거대한불씨</t>
+  </si>
+  <si>
+    <t>불정령</t>
+  </si>
+  <si>
+    <t>강한불정령</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sprite/snowball</t>
+  </si>
+  <si>
+    <t>sprite/icicle</t>
+  </si>
+  <si>
+    <t>sprite/halficicle</t>
+  </si>
+  <si>
+    <t>sprite/icewall</t>
+  </si>
+  <si>
+    <t>sprite/hail</t>
+  </si>
+  <si>
+    <t>sprite/iceage</t>
+  </si>
+  <si>
+    <t>sprite/blizzard</t>
+  </si>
+  <si>
+    <t>sprite/icetornado</t>
+  </si>
+  <si>
+    <t>1YI39qlEIkehcQKXsHTyUg</t>
+  </si>
+  <si>
+    <t>NWTscmjKlESMcPHMRe0hXg</t>
+  </si>
+  <si>
+    <t>BAdmjT6HC0y8LOsa1qMZvg</t>
+  </si>
+  <si>
+    <t>x0MEnXpXpkSAeJdx9u1dxA</t>
+  </si>
+  <si>
+    <t>Nv7SgpakukyznybxDxXzKg</t>
+  </si>
+  <si>
+    <t>rrTgjWmPmE6tye/yifLCyQ</t>
+  </si>
+  <si>
+    <t>8z2pJ9jvp0qxuwrUhRrmyQ</t>
+  </si>
+  <si>
+    <t>Txp9XKcq6kSTovn/H/3gjw</t>
+  </si>
+  <si>
+    <t>jZ9q6LkxFkil8RL3lc0PPg</t>
+  </si>
+  <si>
+    <t>FkSB7SxxhE+q+XE4G8ZT4w</t>
+  </si>
+  <si>
+    <t>EPruJLqK1ESOVRcE3QyTlw</t>
+  </si>
+  <si>
+    <t>2WySlC4shUOPDHA9oxYaKw</t>
+  </si>
+  <si>
+    <t>iW548VF8UEGD+vAuXhtSAQ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hpgen</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>attspeed</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>skillrange</t>
+  </si>
+  <si>
+    <t>killamount</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e7AXSZh+E0eaC78EFNa29g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
+    <t>e7AXSZh+E0eaC78EFNa29g</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">eHf0vPp+wk2aU5E4yd7/Yg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_increase</t>
+    <t>eHf0vPp+wk2aU5E4yd7/Yg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>mop_fire</t>
+  </si>
+  <si>
+    <t>mop_bok</t>
+  </si>
+  <si>
+    <t>mop_stick</t>
+  </si>
+  <si>
+    <t>mop_turtle</t>
+  </si>
+  <si>
+    <t>mop_bluefire</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>stage_appear</t>
+  </si>
+  <si>
+    <t>round_appear</t>
+  </si>
+  <si>
+    <t>hp_increase</t>
+  </si>
+  <si>
+    <t>exp_increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">l84s0jqeJ0+ShvpHGehKgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1xmfc5j9REe0ZHIX8rDf8w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kTDzILh6IE+jkW2qF+KXAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9VCtUFsTA0WcVNS71DsQNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uALCIjfaEky3G92iAmHJ9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bird</t>
+    <t>l84s0jqeJ0+ShvpHGehKgA</t>
+  </si>
+  <si>
+    <t>1xmfc5j9REe0ZHIX8rDf8w</t>
+  </si>
+  <si>
+    <t>kTDzILh6IE+jkW2qF+KXAw</t>
+  </si>
+  <si>
+    <t>9VCtUFsTA0WcVNS71DsQNA</t>
+  </si>
+  <si>
+    <t>uALCIjfaEky3G92iAmHJ9w</t>
+  </si>
+  <si>
+    <t>mop_bird</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">8gAo9LyP60OMAwTdoY8wrw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priceamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_cow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase</t>
+    <t>8gAo9LyP60OMAwTdoY8wrw</t>
+  </si>
+  <si>
+    <t>priceamount</t>
+  </si>
+  <si>
+    <t>boss_bird</t>
+  </si>
+  <si>
+    <t>boss_</t>
+  </si>
+  <si>
+    <t>boss_golem</t>
+  </si>
+  <si>
+    <t>boss_rock</t>
+  </si>
+  <si>
+    <t>boss_cow</t>
+  </si>
+  <si>
+    <t>boss_bear</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">4WVxc3VSx0O0tna/lL5NCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7LLesioQ0kSNXqcpCaDbeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JtRPf/ABQkK6YzgnTjqc1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mL8Q/tFX90CNwPiHYkk0GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tEcjfw23XkCu//y+zqlQJQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/ictone</t>
+    <t>4WVxc3VSx0O0tna/lL5NCA</t>
+  </si>
+  <si>
+    <t>7LLesioQ0kSNXqcpCaDbeg</t>
+  </si>
+  <si>
+    <t>JtRPf/ABQkK6YzgnTjqc1Q</t>
+  </si>
+  <si>
+    <t>mL8Q/tFX90CNwPiHYkk0GA</t>
+  </si>
+  <si>
+    <t>tEcjfw23XkCu//y+zqlQJQ</t>
+  </si>
+  <si>
+    <t>얼음뭉치</t>
+  </si>
+  <si>
+    <t>눈뭉치</t>
+  </si>
+  <si>
+    <t>sprite/ictone</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">zIrXoinId0iFNhZHl1++bA</t>
+    <t>zIrXoinId0iFNhZHl1++bA</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">xL0ZSRTaC0mmTc44mg8IMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVjVGRJbj0GkW3ghHwH8Tg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayHEKjsd8UqG8GU1Xt6tTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5y8+mUBukKyaU5ZN30mZg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR2VPmVTTUGofKgvmFjHVQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O7aBnzSfm0ariTzPxBExFw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlpgBelcX0qncpw9BzBXKQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3UfqJRRF0SPgkVBkbx3hw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCpjVMj5JUqt9ziS5P3awQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speed</t>
+    <t>xL0ZSRTaC0mmTc44mg8IMw</t>
+  </si>
+  <si>
+    <t>KVjVGRJbj0GkW3ghHwH8Tg</t>
+  </si>
+  <si>
+    <t>ayHEKjsd8UqG8GU1Xt6tTw</t>
+  </si>
+  <si>
+    <t>Q5y8+mUBukKyaU5ZN30mZg</t>
+  </si>
+  <si>
+    <t>GR2VPmVTTUGofKgvmFjHVQ</t>
+  </si>
+  <si>
+    <t>O7aBnzSfm0ariTzPxBExFw</t>
+  </si>
+  <si>
+    <t>GlpgBelcX0qncpw9BzBXKQ</t>
+  </si>
+  <si>
+    <t>Q3UfqJRRF0SPgkVBkbx3hw</t>
+  </si>
+  <si>
+    <t>XCpjVMj5JUqt9ziS5P3awQ</t>
+  </si>
+  <si>
+    <t>mop_ant</t>
+  </si>
+  <si>
+    <t>mop_jack</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">jebfgtgwy0aCi3wyFmHn7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E37YclCUk0atKge3NbdvOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈폭탄</t>
+    <t>jebfgtgwy0aCi3wyFmHn7A</t>
+  </si>
+  <si>
+    <t>E37YclCUk0atKge3NbdvOQ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>얼음주먹</t>
+  </si>
+  <si>
+    <t>눈폭탄</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">sAlSjuwkNkmox3HyjOQPlQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음방어막</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음빠따</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소용돌이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음파동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적</t>
-  </si>
-  <si>
-    <t xml:space="preserve">산탄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstaacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuee</t>
+    <t>sAlSjuwkNkmox3HyjOQPlQ</t>
+  </si>
+  <si>
+    <t>patt</t>
+  </si>
+  <si>
+    <t>pspeed</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>얼음방어막</t>
+  </si>
+  <si>
+    <t>얼음빠따</t>
+  </si>
+  <si>
+    <t>소용돌이</t>
+  </si>
+  <si>
+    <t>얼음파동</t>
+  </si>
+  <si>
+    <t>무적</t>
+  </si>
+  <si>
+    <t>산탄</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>keep_increase</t>
+  </si>
+  <si>
+    <t>obstaacle</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>continuee</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">u9VGjry1BESzo46bAmXOQg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HJCxWuQGLEyzxZkpf/s7+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejPA7ZZvkKW83lA1QUQCQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1BTnZfB2kWbObm+5JLgSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iYqYA2TFhU6d36X/SwpGHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wXhpxA4yqEW1NBNV40y6rA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lnrq0Qp3nEu1QeUh1ApxEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEnZnNX24kWluYtm4cqJfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UwutR9kZ3EixiomFUKMhTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnqtLH8SiUq5SfVK11iPqA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA5d+nQZzEWyxoNuhU+Naw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tq+CR0pBE0CX5vqWS90PAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJG8FHa00aP7U66nf0Aqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K+N6+YPVECfus1pPsfuXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be8bZ1lxC0+P00Vb0G3asQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hQT4FoA9pke18i999uPtaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
+    <t>u9VGjry1BESzo46bAmXOQg</t>
+  </si>
+  <si>
+    <t>HJCxWuQGLEyzxZkpf/s7+Q</t>
+  </si>
+  <si>
+    <t>dejPA7ZZvkKW83lA1QUQCQ</t>
+  </si>
+  <si>
+    <t>K1BTnZfB2kWbObm+5JLgSQ</t>
+  </si>
+  <si>
+    <t>iYqYA2TFhU6d36X/SwpGHA</t>
+  </si>
+  <si>
+    <t>wXhpxA4yqEW1NBNV40y6rA</t>
+  </si>
+  <si>
+    <t>Lnrq0Qp3nEu1QeUh1ApxEA</t>
+  </si>
+  <si>
+    <t>FEnZnNX24kWluYtm4cqJfg</t>
+  </si>
+  <si>
+    <t>UwutR9kZ3EixiomFUKMhTg</t>
+  </si>
+  <si>
+    <t>tnqtLH8SiUq5SfVK11iPqA</t>
+  </si>
+  <si>
+    <t>SA5d+nQZzEWyxoNuhU+Naw</t>
+  </si>
+  <si>
+    <t>Tq+CR0pBE0CX5vqWS90PAw</t>
+  </si>
+  <si>
+    <t>TAJG8FHa00aP7U66nf0Aqw</t>
+  </si>
+  <si>
+    <t>4K+N6+YPVECfus1pPsfuXQ</t>
+  </si>
+  <si>
+    <t>be8bZ1lxC0+P00Vb0G3asQ</t>
+  </si>
+  <si>
+    <t>hQT4FoA9pke18i999uPtaw</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>conditionA</t>
+  </si>
+  <si>
+    <t>conditionB</t>
+  </si>
+  <si>
+    <t>conditionT</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>appear_time</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">S4cO+7g73kSC//RCNr49Eg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5Eog+fJivU2oDVll81v+QQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zNS43tSa4kmhOggLqnp2/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0io+FmkfESkyDRr3Lsivg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_mam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_carb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_deer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map</t>
+    <t>S4cO+7g73kSC//RCNr49Eg</t>
+  </si>
+  <si>
+    <t>5Eog+fJivU2oDVll81v+QQ</t>
+  </si>
+  <si>
+    <t>zNS43tSa4kmhOggLqnp2/A</t>
+  </si>
+  <si>
+    <t>M0io+FmkfESkyDRr3Lsivg</t>
+  </si>
+  <si>
+    <t>mob_fire</t>
+  </si>
+  <si>
+    <t>mob_bok</t>
+  </si>
+  <si>
+    <t>mob_stick</t>
+  </si>
+  <si>
+    <t>mob_turtle</t>
+  </si>
+  <si>
+    <t>mob_ant</t>
+  </si>
+  <si>
+    <t>mob_jack</t>
+  </si>
+  <si>
+    <t>mob_bluefire</t>
+  </si>
+  <si>
+    <t>mob_mam</t>
+  </si>
+  <si>
+    <t>mob_carb</t>
+  </si>
+  <si>
+    <t>mob_deer</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">UqOBjr+LakW9OE61quvEOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7oP5n9ovXEK+bbIC8iuZMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QEm467P+ck6FXvY1BWI/QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oN7gigvYvkCP1gYaQUFzpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiaNlJj0D02QBXqMTggxXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t>UqOBjr+LakW9OE61quvEOQ</t>
+  </si>
+  <si>
+    <t>7oP5n9ovXEK+bbIC8iuZMA</t>
+  </si>
+  <si>
+    <t>QEm467P+ck6FXvY1BWI/QA</t>
+  </si>
+  <si>
+    <t>oN7gigvYvkCP1gYaQUFzpg</t>
+  </si>
+  <si>
+    <t>xiaNlJj0D02QBXqMTggxXA</t>
+  </si>
+  <si>
+    <t>sizex</t>
+  </si>
+  <si>
+    <t>sizey</t>
+  </si>
+  <si>
+    <t>snowrock0</t>
+  </si>
+  <si>
+    <t>snowrock1</t>
+  </si>
+  <si>
+    <t>snowrock2</t>
+  </si>
+  <si>
+    <t>snowrock3</t>
+  </si>
+  <si>
+    <t>rock0</t>
+  </si>
+  <si>
+    <t>rock1</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>mob_crab</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">utfj/KusT0q9e9ADgg8p9g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3YdoHHnJEmHPLOHPk8tHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lLIxSPJ5jk6H8IhzXjd5Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+r0e9D3k7kuvrrcjW7rTWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N6Ah1yXV/0mnzDRZhUhoew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7q1A0hzTv0e0ZkrUDizxDQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JiEy726Vn0i6qgPI9aQTRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXygPyEDNESF1Uo4kpU9UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D/jPgeJpjkiT0hqDPsmOZw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill1</t>
+    <t>utfj/KusT0q9e9ADgg8p9g</t>
+  </si>
+  <si>
+    <t>f3YdoHHnJEmHPLOHPk8tHA</t>
+  </si>
+  <si>
+    <t>lLIxSPJ5jk6H8IhzXjd5Ag</t>
+  </si>
+  <si>
+    <t>+r0e9D3k7kuvrrcjW7rTWA</t>
+  </si>
+  <si>
+    <t>N6Ah1yXV/0mnzDRZhUhoew</t>
+  </si>
+  <si>
+    <t>7q1A0hzTv0e0ZkrUDizxDQ</t>
+  </si>
+  <si>
+    <t>JiEy726Vn0i6qgPI9aQTRQ</t>
+  </si>
+  <si>
+    <t>OXygPyEDNESF1Uo4kpU9UA</t>
+  </si>
+  <si>
+    <t>D/jPgeJpjkiT0hqDPsmOZw</t>
+  </si>
+  <si>
+    <t>boss_owl</t>
+  </si>
+  <si>
+    <t>skill0</t>
+  </si>
+  <si>
+    <t>skill1</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">W3z0ATuqbkKttkboCpXzTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9oZ4bAUw3EaaXJyde7jotg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p7Lei6NHm0mU6A3yoCYsjQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w8cURakZekSSKtD9r+3WnA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m4KGirv16U+HZ1CPc/XEAQ</t>
+    <t>W3z0ATuqbkKttkboCpXzTg</t>
+  </si>
+  <si>
+    <t>9oZ4bAUw3EaaXJyde7jotg</t>
+  </si>
+  <si>
+    <t>p7Lei6NHm0mU6A3yoCYsjQ</t>
+  </si>
+  <si>
+    <t>w8cURakZekSSKtD9r+3WnA</t>
+  </si>
+  <si>
+    <t>m4KGirv16U+HZ1CPc/XEAQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">j6havu18FkO2GTlo+CyQyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N5N6gU+ysEqOQbdz1hczog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">552Me0Rk506ghDFAyrQSwA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsxP8eNXM0mKlWitTcpTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osCjoq/EX0WhMYuWNZYtkg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxlvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력재생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿨타임감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시전속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치획득량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회복량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infomation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력을 얻는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 시전속도를 단축시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치 획득량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회복량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘 뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">단단한 얼음으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뾰족한 얼음이 적을 관통한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달얼음을 여러갈래로 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 우박이!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽을 생성해 길을 막는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력이 있는 빙벽을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 몰아쳐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대상에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어막을</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력의 방어막을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">근접한 적을 빠따로 떨쳐낸다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 시간동안 무적이 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음 산탄을 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 50% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val</t>
+    <t>j6havu18FkO2GTlo+CyQyg</t>
+  </si>
+  <si>
+    <t>N5N6gU+ysEqOQbdz1hczog</t>
+  </si>
+  <si>
+    <t>552Me0Rk506ghDFAyrQSwA</t>
+  </si>
+  <si>
+    <t>jsxP8eNXM0mKlWitTcpTGA</t>
+  </si>
+  <si>
+    <t>osCjoq/EX0WhMYuWNZYtkg</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>maxlvl</t>
+  </si>
+  <si>
+    <t>max_level</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>방어력</t>
+  </si>
+  <si>
+    <t>체력재생</t>
+  </si>
+  <si>
+    <t>쿨타임감소</t>
+  </si>
+  <si>
+    <t>스킬크기</t>
+  </si>
+  <si>
+    <t>시전속도</t>
+  </si>
+  <si>
+    <t>경험치</t>
+  </si>
+  <si>
+    <t>경험치획득량</t>
+  </si>
+  <si>
+    <t>회복량</t>
+  </si>
+  <si>
+    <t>이동속도</t>
+  </si>
+  <si>
+    <t>infomation</t>
+  </si>
+  <si>
+    <t>최대체력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>방어력을 얻는다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복시킨다.</t>
+  </si>
+  <si>
+    <t>스킬의 속도</t>
+  </si>
+  <si>
+    <t>스킬의 시전속도를 단축시킨다.</t>
+  </si>
+  <si>
+    <t>경험치 획득량이 증가한다.</t>
+  </si>
+  <si>
+    <t>스킬크기가 증가한다.</t>
+  </si>
+  <si>
+    <t>모든 회복량이 증가한다.</t>
+  </si>
+  <si>
+    <t>이동속도가 증가한다.</t>
+  </si>
+  <si>
+    <t>최대체력을 증가한다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가한다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>잘뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>잘 뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>얼음주먹으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>단단한 얼음으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>뾰족한 얼음이 적을 관통한다.</t>
+  </si>
+  <si>
+    <t>반달얼음을 여러갈래로 발사한다.</t>
+  </si>
+  <si>
+    <t>하늘에서 우박이!</t>
+  </si>
+  <si>
+    <t>빙벽을 생성해 길을 막는다.</t>
+  </si>
+  <si>
+    <t>일정 체력이 있는 빙벽을 생성한다.</t>
+  </si>
+  <si>
+    <t>눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>블리자드를 몰아쳐</t>
+  </si>
+  <si>
+    <t>블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>대상에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>적에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>방어막을</t>
+  </si>
+  <si>
+    <t>일정 체력의 방어막을 생성한다.</t>
+  </si>
+  <si>
+    <t>근접한 적을 빠따로 떨쳐낸다.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>일정 시간동안 무적이 된다.</t>
+  </si>
+  <si>
+    <t>얼음 산탄을 발사한다.</t>
+  </si>
+  <si>
+    <t>체력 50% 증가</t>
+  </si>
+  <si>
+    <t>공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>val</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">7G/uy/d+XUq+hb1idKgcKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhBbNsmDpUOy343k+irhhw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2qdwH+Eqq0qi76gM+HEpSg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dGD2J/13Ak60ubtLOTmU7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hluuyb8xDkq3igjPq3UZrQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lZ58eF6zQEqU7UxPZqxY5g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+fNq81zBhk2AJPDimVASnQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGgTfHjnFUu5Yx8sijXu/Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wfu556tlIkGpgHS1/b8wRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_term</t>
+    <t>7G/uy/d+XUq+hb1idKgcKw</t>
+  </si>
+  <si>
+    <t>nhBbNsmDpUOy343k+irhhw</t>
+  </si>
+  <si>
+    <t>2qdwH+Eqq0qi76gM+HEpSg</t>
+  </si>
+  <si>
+    <t>dGD2J/13Ak60ubtLOTmU7A</t>
+  </si>
+  <si>
+    <t>hluuyb8xDkq3igjPq3UZrQ</t>
+  </si>
+  <si>
+    <t>lZ58eF6zQEqU7UxPZqxY5g</t>
+  </si>
+  <si>
+    <t>+fNq81zBhk2AJPDimVASnQ</t>
+  </si>
+  <si>
+    <t>GGgTfHjnFUu5Yx8sijXu/Q</t>
+  </si>
+  <si>
+    <t>Wfu556tlIkGpgHS1/b8wRQ</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>appear_term</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e3ywpdo+tkG3rGFzadDOZQ</t>
+    <t>e3ywpdo+tkG3rGFzadDOZQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ou4jSwVOP0WiG5CBsppWRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천둥망치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병을 던저 광역 지속 피해를 입힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
+    <t>ou4jSwVOP0WiG5CBsppWRA</t>
+  </si>
+  <si>
+    <t>독병</t>
+  </si>
+  <si>
+    <t>천둥망치</t>
+  </si>
+  <si>
+    <t>독병을 던저 광역 지속 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">BIr97MzFFEqSkH79ajRcIQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80jHuiqyGkmbPMFYa7j/WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmqeNM7xnEiwpUgalIDKuQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7Zq+FZr4EU2JUSJGYb5l3w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyGjwUuGSU28kZnltbYfyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8EUv2r2Q3Umy56rbAoz3YA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VeBdIaS8+kW7pD5h7TjldA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owl_shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bear_shot</t>
+    <t>BIr97MzFFEqSkH79ajRcIQ</t>
+  </si>
+  <si>
+    <t>80jHuiqyGkmbPMFYa7j/WA</t>
+  </si>
+  <si>
+    <t>SmqeNM7xnEiwpUgalIDKuQ</t>
+  </si>
+  <si>
+    <t>7Zq+FZr4EU2JUSJGYb5l3w</t>
+  </si>
+  <si>
+    <t>nyGjwUuGSU28kZnltbYfyg</t>
+  </si>
+  <si>
+    <t>8EUv2r2Q3Umy56rbAoz3YA</t>
+  </si>
+  <si>
+    <t>VeBdIaS8+kW7pD5h7TjldA</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>fireball</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>owl_shot</t>
+  </si>
+  <si>
+    <t>bear_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">z65T2Hcot0+fcRJxc1V4ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6q3skcv+nUCSzHwhTFtnVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrRaKBXFPkmy/QSsvp6HtQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1sZU2dREyQjNX69/i7XQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">번개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중력장</t>
-  </si>
-  <si>
-    <t xml:space="preserve">친구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아돈빠가돈!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌌드라욘마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌋드라요마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 주기적으로 번개가 친다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_snail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_beetle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_flamingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_dragonfly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_candle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_rino</t>
+    <t>z65T2Hcot0+fcRJxc1V4ZA</t>
+  </si>
+  <si>
+    <t>6q3skcv+nUCSzHwhTFtnVw</t>
+  </si>
+  <si>
+    <t>jrRaKBXFPkmy/QSsvp6HtQ</t>
+  </si>
+  <si>
+    <t>hc1sZU2dREyQjNX69/i7XQ</t>
+  </si>
+  <si>
+    <t>번개</t>
+  </si>
+  <si>
+    <t>지뢰</t>
+  </si>
+  <si>
+    <t>중력장</t>
+  </si>
+  <si>
+    <t>친구</t>
+  </si>
+  <si>
+    <t>적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
+  </si>
+  <si>
+    <t>아돈빠가돈!</t>
+  </si>
+  <si>
+    <t>쌌드라욘마인~</t>
+  </si>
+  <si>
+    <t>쌋드라요마인~</t>
+  </si>
+  <si>
+    <t>하늘에서 주기적으로 번개가 친다.</t>
+  </si>
+  <si>
+    <t>mob_snail</t>
+  </si>
+  <si>
+    <t>mob_beetle</t>
+  </si>
+  <si>
+    <t>mob_monkey</t>
+  </si>
+  <si>
+    <t>mob_flamingo</t>
+  </si>
+  <si>
+    <t>mob_dragonfly</t>
+  </si>
+  <si>
+    <t>mob_candle</t>
+  </si>
+  <si>
+    <t>mob_rino</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ovShOG9vz0qBynU3N7A27A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xL7qVxJe9kysLVTIKmzuuA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUdRpRMhK0G1XmYAGm6uEw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cMp9+kAl8UGgcTM+7tuyXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP9AY1x9sUa2WAweqi0Hyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z72/TXkgfEOAI1RcEnbf9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ZQSDtiDc0+ujLraF9ULlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zBnDreY2EUyIgqqT0I1oCg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwv52fG5a0uz2w+Mw1X1EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80qA8yn0HkK7i+4isj1VAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO77fenG+EGDXqDfjx0GwQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bwGMcqR0B0uFKpIP/arGGw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXMW6jdsDkqbQDiagvTvAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_scarecrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scarecrow_shot</t>
+    <t>ovShOG9vz0qBynU3N7A27A</t>
+  </si>
+  <si>
+    <t>xL7qVxJe9kysLVTIKmzuuA</t>
+  </si>
+  <si>
+    <t>TUdRpRMhK0G1XmYAGm6uEw</t>
+  </si>
+  <si>
+    <t>cMp9+kAl8UGgcTM+7tuyXA</t>
+  </si>
+  <si>
+    <t>JP9AY1x9sUa2WAweqi0Hyg</t>
+  </si>
+  <si>
+    <t>z72/TXkgfEOAI1RcEnbf9w</t>
+  </si>
+  <si>
+    <t>6ZQSDtiDc0+ujLraF9ULlw</t>
+  </si>
+  <si>
+    <t>zBnDreY2EUyIgqqT0I1oCg</t>
+  </si>
+  <si>
+    <t>Zwv52fG5a0uz2w+Mw1X1EA</t>
+  </si>
+  <si>
+    <t>80qA8yn0HkK7i+4isj1VAA</t>
+  </si>
+  <si>
+    <t>MO77fenG+EGDXqDfjx0GwQ</t>
+  </si>
+  <si>
+    <t>bwGMcqR0B0uFKpIP/arGGw</t>
+  </si>
+  <si>
+    <t>XXMW6jdsDkqbQDiagvTvAA</t>
+  </si>
+  <si>
+    <t>boss_scarecrow</t>
+  </si>
+  <si>
+    <t>scarecrow_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">Og45GfRUM0CqJQUz3H+9AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vVPBgEN7WUi/lGlzyJ5/Qg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유물 장착 슬롯 증가</t>
+    <t>Og45GfRUM0CqJQUz3H+9AA</t>
+  </si>
+  <si>
+    <t>vVPBgEN7WUi/lGlzyJ5/Qg</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>슬롯</t>
+  </si>
+  <si>
+    <t>슬롯증가</t>
+  </si>
+  <si>
+    <t>유물 장착 슬롯 증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bigbettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">풀사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귤사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전구사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야수사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로봇사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뱀파이어사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스크림사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">황금갑옷사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거미사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
+    <t>DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t>OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t>boss_flower</t>
+  </si>
+  <si>
+    <t>1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t>boss_bigbettle</t>
+  </si>
+  <si>
+    <t>kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t>flower_thorn</t>
+  </si>
+  <si>
+    <t>PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t>flower_mine</t>
+  </si>
+  <si>
+    <t>1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>skinname</t>
+  </si>
+  <si>
+    <t>눈사람</t>
+  </si>
+  <si>
+    <t>불사람</t>
+  </si>
+  <si>
+    <t>풀사람</t>
+  </si>
+  <si>
+    <t>돌사람</t>
+  </si>
+  <si>
+    <t>귤사람</t>
+  </si>
+  <si>
+    <t>전구사람</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>야수사람</t>
+  </si>
+  <si>
+    <t>로봇사람</t>
+  </si>
+  <si>
+    <t>뱀파이어사람</t>
+  </si>
+  <si>
+    <t>아이스크림사람</t>
+  </si>
+  <si>
+    <t>천사사람</t>
+  </si>
+  <si>
+    <t>황금갑옷사람</t>
+  </si>
+  <si>
+    <t>네모사람</t>
+  </si>
+  <si>
+    <t>지뢰사람</t>
+  </si>
+  <si>
+    <t>거미사람</t>
+  </si>
+  <si>
+    <t>용사사람</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>type0</t>
+  </si>
+  <si>
+    <t>val0</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">gLnjGlJPQUGceqv9MtI+jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bDmF5v4opUOLjBB580DUog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j4aRpfkhWUCwpugwL7yhOw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v6FaRzn/yUS4jftoTtNfsw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nMhXnyt3XUWslXDy/Eccmw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5CW4lEGYZEqJ8sFOtlJVVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a+XFhtKj2Em7xW1tms05Zw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oJlQTylhPUGaWX/Zndg2HQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZDD/hjzPHU+kTQf39Dvtnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tY/x47zy/U+9d/dQf4L+Xg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kUpxVrSyPke7VlIQ+ty+ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e+gqMj+a0kePNLaic882PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVpFmf14gE+JTvE5tq+oTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bBCBYzcq5kaQf7V57bsU5Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV8CtlguXEufFOcfSPnFWw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LmBUHti4IU6ufw+5njPwTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSwamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iceHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frozen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invincible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criticDmg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">겨울에 만들어진 눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈대신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머리의 전구로 어둠을 밝힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 4개증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적 발동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
+    <t>gLnjGlJPQUGceqv9MtI+jg</t>
+  </si>
+  <si>
+    <t>bDmF5v4opUOLjBB580DUog</t>
+  </si>
+  <si>
+    <t>j4aRpfkhWUCwpugwL7yhOw</t>
+  </si>
+  <si>
+    <t>v6FaRzn/yUS4jftoTtNfsw</t>
+  </si>
+  <si>
+    <t>nMhXnyt3XUWslXDy/Eccmw</t>
+  </si>
+  <si>
+    <t>5CW4lEGYZEqJ8sFOtlJVVw</t>
+  </si>
+  <si>
+    <t>a+XFhtKj2Em7xW1tms05Zw</t>
+  </si>
+  <si>
+    <t>oJlQTylhPUGaWX/Zndg2HQ</t>
+  </si>
+  <si>
+    <t>ZDD/hjzPHU+kTQf39Dvtnw</t>
+  </si>
+  <si>
+    <t>tY/x47zy/U+9d/dQf4L+Xg</t>
+  </si>
+  <si>
+    <t>kUpxVrSyPke7VlIQ+ty+ng</t>
+  </si>
+  <si>
+    <t>e+gqMj+a0kePNLaic882PA</t>
+  </si>
+  <si>
+    <t>PVpFmf14gE+JTvE5tq+oTw</t>
+  </si>
+  <si>
+    <t>bBCBYzcq5kaQf7V57bsU5Q</t>
+  </si>
+  <si>
+    <t>NV8CtlguXEufFOcfSPnFWw</t>
+  </si>
+  <si>
+    <t>LmBUHti4IU6ufw+5njPwTQ</t>
+  </si>
+  <si>
+    <t>typeB</t>
+  </si>
+  <si>
+    <t>typeF</t>
+  </si>
+  <si>
+    <t>Fval</t>
+  </si>
+  <si>
+    <t>typeI</t>
+  </si>
+  <si>
+    <t>Ival</t>
+  </si>
+  <si>
+    <t>snowball</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Fval1</t>
+  </si>
+  <si>
+    <t>Fval0</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>d_hp</t>
+  </si>
+  <si>
+    <t>d_hpgen</t>
+  </si>
+  <si>
+    <t>d_def</t>
+  </si>
+  <si>
+    <t>d_att</t>
+  </si>
+  <si>
+    <t>d_cool</t>
+  </si>
+  <si>
+    <t>d_exp</t>
+  </si>
+  <si>
+    <t>d_coin</t>
+  </si>
+  <si>
+    <t>a_hp</t>
+  </si>
+  <si>
+    <t>ex_hp</t>
+  </si>
+  <si>
+    <t>ex_hpgen</t>
+  </si>
+  <si>
+    <t>ex_def</t>
+  </si>
+  <si>
+    <t>ex_att</t>
+  </si>
+  <si>
+    <t>ex_cool</t>
+  </si>
+  <si>
+    <t>ex_exp</t>
+  </si>
+  <si>
+    <t>ex_coin</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>invSwamp</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>rebirth</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>iceHeal</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>invincible</t>
+  </si>
+  <si>
+    <t>d_speed</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>criticDmg</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>ch_explain</t>
+  </si>
+  <si>
+    <t>unch_explain</t>
+  </si>
+  <si>
+    <t>겨울에 만들어진 눈사람</t>
+  </si>
+  <si>
+    <t>여름한정</t>
+  </si>
+  <si>
+    <t>눈대신</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.</t>
+  </si>
+  <si>
+    <t>머리의 전구로 어둠을 밝힌다.</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 4개증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n%증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
+  </si>
+  <si>
+    <t>무적 발동</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ERzaZOy2RkmFqdq+1HEN0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scare_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_butterfly</t>
+    <t>ERzaZOy2RkmFqdq+1HEN0w</t>
+  </si>
+  <si>
+    <t>invSlow</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>scare_fire</t>
+  </si>
+  <si>
+    <t>boss_butterfly</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">WfxNB+MGn06c0Mxh9qi6TQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_bgPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_smPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=boss!G6</t>
+    <t>WfxNB+MGn06c0Mxh9qi6TQ</t>
+  </si>
+  <si>
+    <t>bfly_bgPoison</t>
+  </si>
+  <si>
+    <t>bfly_smPoison</t>
+  </si>
+  <si>
+    <t>=boss!G6</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">H2iGbbqnQ0OIrx3EtElI8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2lgjDXLyUStHASDlJTf+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가을까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1년 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하루</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1마리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강화1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">특정스킨으로 1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광고 1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">oMhQHIWj/EC8ngg9JcK0OA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn3M8GN9A0S40ubcMn7hgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYLWhSg54UWwAGA4uBn3KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2vw6eVoubE2FX4RhcWa2Gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2hLdUHeKEOMFjkn8uKZ1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YnmthZe2OUS0F2IvwXzx/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0aZgm2DJLU6UAd3Lphp+qw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jc5TTOZymkyTL+nsgg7Cww</t>
+    <t>H2iGbbqnQ0OIrx3EtElI8g</t>
+  </si>
+  <si>
+    <t>D2lgjDXLyUStHASDlJTf+Q</t>
+  </si>
+  <si>
+    <t>questName</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>봄까지 버티기</t>
+  </si>
+  <si>
+    <t>여름까지 버티기</t>
+  </si>
+  <si>
+    <t>가을까지 버티기</t>
+  </si>
+  <si>
+    <t>1년 버티기</t>
+  </si>
+  <si>
+    <t>버티기</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>하루</t>
+  </si>
+  <si>
+    <t>1마리</t>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>10번</t>
+  </si>
+  <si>
+    <t>questType</t>
+  </si>
+  <si>
+    <t>강화1회</t>
+  </si>
+  <si>
+    <t>특정스킨으로 1회</t>
+  </si>
+  <si>
+    <t>광고 1회</t>
+  </si>
+  <si/>
+  <si>
+    <t>oMhQHIWj/EC8ngg9JcK0OA</t>
+  </si>
+  <si>
+    <t>tn3M8GN9A0S40ubcMn7hgA</t>
+  </si>
+  <si>
+    <t>FYLWhSg54UWwAGA4uBn3KA</t>
+  </si>
+  <si>
+    <t>2vw6eVoubE2FX4RhcWa2Gw</t>
+  </si>
+  <si>
+    <t>I2hLdUHeKEOMFjkn8uKZ1Q</t>
+  </si>
+  <si>
+    <t>YnmthZe2OUS0F2IvwXzx/w</t>
+  </si>
+  <si>
+    <t>0aZgm2DJLU6UAd3Lphp+qw</t>
+  </si>
+  <si>
+    <t>Jc5TTOZymkyTL+nsgg7Cww</t>
+  </si>
+  <si/>
+  <si>
+    <t>hZ5zXDn9pEau0jHAGnXPSw</t>
+  </si>
+  <si>
+    <t>WPQJ3pXzQ0+JXwy8wQ4dIg</t>
+  </si>
+  <si>
+    <t>Gh9WTIDO102/V9jEpX7Hug</t>
+  </si>
+  <si>
+    <t>47GYdDEOAUSm0AH87BJJjg</t>
+  </si>
+  <si>
+    <t>ObWi0F4A6U2Tf76nPoOcfg</t>
+  </si>
+  <si>
+    <t>hq6MdF1mHECN16RcyqBTtw</t>
+  </si>
+  <si>
+    <t>kSYQdp7c7UGfSpse9ezboQ</t>
+  </si>
+  <si>
+    <t>ApPa6gHqNEGEi/VRoSCArg</t>
+  </si>
+  <si>
+    <t>2iQCymteB02RoDlUQLkYjw</t>
+  </si>
+  <si>
+    <t>Bh+K4BC8KESXkMcgOi2iSA</t>
+  </si>
+  <si>
+    <t>0f0mQNjS7ESDJEecRxc4ig</t>
+  </si>
+  <si>
+    <t>gQ8tV6Qyo0i87zD5bsPQMw</t>
+  </si>
+  <si>
+    <t>vf2Vz4Dykk2UAywywrIc7g</t>
+  </si>
+  <si>
+    <t>1ByLRWNnYUe3Sy+PYVgV2g</t>
+  </si>
+  <si>
+    <t>vTygID9He0yuztzCQ6n+rQ</t>
+  </si>
+  <si>
+    <t>DL/xgk/tTU+/YwFGlDT1Jg</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>day_rein</t>
+  </si>
+  <si>
+    <t>day_skin</t>
+  </si>
+  <si>
+    <t>day_ad</t>
+  </si>
+  <si>
+    <t>rein</t>
   </si>
 </sst>
 </file>
@@ -1668,131 +1731,131 @@
   </numFmts>
   <fonts count="23">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.79998"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
+      <color theme="7" tint="0.799980"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1852,19 +1915,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
+        <fgColor theme="4" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
+        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
+        <fgColor theme="4" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1876,19 +1939,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
+        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999"/>
+        <fgColor theme="5" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
+        <fgColor theme="5" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1900,19 +1963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
+        <fgColor theme="6" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
+        <fgColor theme="6" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
+        <fgColor theme="6" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1924,19 +1987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
+        <fgColor theme="7" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
+        <fgColor theme="7" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
+        <fgColor theme="7" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1948,19 +2011,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
+        <fgColor theme="8" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999"/>
+        <fgColor theme="8" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
+        <fgColor theme="8" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1972,19 +2035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
+        <fgColor theme="9" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
+        <fgColor theme="9" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
+        <fgColor theme="9" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1997,6 +2060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7070"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.099980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2086,7 +2155,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39998"/>
+        <color theme="4" tint="0.399980"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2721,159 +2790,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+  <cellXfs count="162">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2882,7 +2951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2894,37 +2963,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2933,37 +3002,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2975,55 +3044,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3035,76 +3104,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3113,103 +3182,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3221,31 +3290,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3254,103 +3323,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3677,24 +3749,24 @@
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.62999916" customWidth="1"/>
-    <col min="2" max="2" width="6.25500011" customWidth="1"/>
-    <col min="3" max="3" width="13.00500011" customWidth="1"/>
-    <col min="4" max="4" width="10.63000011" customWidth="1"/>
-    <col min="5" max="5" width="56.50500107" customWidth="1"/>
-    <col min="6" max="6" width="70.50499725" customWidth="1"/>
-    <col min="7" max="7" width="7.88000011" customWidth="1"/>
-    <col min="8" max="8" width="6.38000011" customWidth="1"/>
-    <col min="9" max="9" width="11.50500011" customWidth="1"/>
-    <col min="10" max="10" width="6.00500011" customWidth="1"/>
-    <col min="11" max="11" width="12.75500011" customWidth="1"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1"/>
-    <col min="13" max="13" width="13.75500011" customWidth="1"/>
-    <col min="14" max="14" width="12.50500011" customWidth="1"/>
-    <col min="15" max="15" width="6.38000011" customWidth="1"/>
-    <col min="16" max="18" width="14.38000011" customWidth="1"/>
+    <col min="1" max="1" width="27.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="6.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="13.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="56.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="70.50499725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="7.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="11.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="6.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="18" width="14.38000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5377,7 +5449,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -5390,14 +5462,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.37999916" customWidth="1"/>
-    <col min="3" max="3" width="15.13000011" customWidth="1"/>
-    <col min="6" max="6" width="9.00500011" customWidth="1"/>
-    <col min="10" max="10" width="9.00500011" customWidth="1"/>
-    <col min="13" max="13" width="9.00500011" style="5" customWidth="1"/>
-    <col min="20" max="20" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="27.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="20" max="20" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -5658,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="17.25">
+    <row r="4" spans="1:28" ht="17.250000">
       <c r="A4" s="61" t="s">
         <v>411</v>
       </c>
@@ -5916,7 +5988,7 @@
         <v>0.0099999997764826</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="17.25">
+    <row r="7" spans="1:28" ht="17.250000">
       <c r="A7" s="49" t="s">
         <v>414</v>
       </c>
@@ -6776,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="17.25">
+    <row r="17" spans="1:28" ht="17.250000">
       <c r="A17" s="43" t="s">
         <v>424</v>
       </c>
@@ -6864,28 +6936,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.87999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
-    <col min="4" max="8" width="9.00500011" customWidth="1"/>
-    <col min="10" max="10" width="13.88000011" customWidth="1"/>
+    <col min="1" max="1" width="27.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="13.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6911,16 +6983,13 @@
         <v>132</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>347</v>
       </c>
@@ -6946,16 +7015,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="3">
-        <v>0.400000005960464</v>
-      </c>
-      <c r="K2" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="22" t="s">
         <v>348</v>
       </c>
@@ -6969,7 +7035,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="22">
         <v>0.600000023841858</v>
@@ -6981,16 +7047,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J3" s="22">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="22" t="s">
         <v>349</v>
       </c>
@@ -6998,16 +7061,16 @@
         <v>340</v>
       </c>
       <c r="C4" s="22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="22">
         <v>10</v>
       </c>
       <c r="E4" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="22">
-        <v>0.600000023841858</v>
+        <v>0.65</v>
       </c>
       <c r="G4" s="22">
         <v>3</v>
@@ -7019,13 +7082,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="22">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="22" t="s">
         <v>350</v>
       </c>
@@ -7033,13 +7093,13 @@
         <v>339</v>
       </c>
       <c r="C5" s="22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" s="22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="22">
         <v>0.600000023841858</v>
@@ -7051,16 +7111,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="22">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J5" s="22">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="24" t="s">
         <v>351</v>
       </c>
@@ -7068,7 +7125,7 @@
         <v>342</v>
       </c>
       <c r="C6" s="24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D6" s="24">
         <v>20</v>
@@ -7077,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="24">
-        <v>0.699999988079071</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="24">
         <v>0</v>
@@ -7086,16 +7143,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="24">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="24">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="K6" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="24" t="s">
         <v>352</v>
       </c>
@@ -7103,7 +7157,7 @@
         <v>341</v>
       </c>
       <c r="C7" s="24">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D7" s="24">
         <v>15</v>
@@ -7112,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="24">
-        <v>0.600000023841858</v>
+        <v>0.65</v>
       </c>
       <c r="G7" s="24">
         <v>6</v>
@@ -7121,16 +7175,13 @@
         <v>3</v>
       </c>
       <c r="I7" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="24">
         <v>1</v>
       </c>
-      <c r="K7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="24" t="s">
         <v>353</v>
       </c>
@@ -7138,13 +7189,13 @@
         <v>208</v>
       </c>
       <c r="C8" s="24">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D8" s="24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="24">
         <v>0.600000023841858</v>
@@ -7156,16 +7207,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="24">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J8" s="24">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="K8" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="11" t="s">
         <v>354</v>
       </c>
@@ -7173,16 +7221,16 @@
         <v>343</v>
       </c>
       <c r="C9" s="11">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0.600000023841858</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
@@ -7191,16 +7239,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="11">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="J9" s="11">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="K9" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="A10" s="11" t="s">
         <v>355</v>
       </c>
@@ -7208,16 +7253,16 @@
         <v>344</v>
       </c>
       <c r="C10" s="11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" s="11">
-        <v>0.600000023841858</v>
+        <v>0.72</v>
       </c>
       <c r="G10" s="11">
         <v>9</v>
@@ -7226,16 +7271,13 @@
         <v>3</v>
       </c>
       <c r="I10" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11" s="11" t="s">
         <v>356</v>
       </c>
@@ -7243,16 +7285,16 @@
         <v>345</v>
       </c>
       <c r="C11" s="11">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E11" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="11">
-        <v>0.600000023841858</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -7261,16 +7303,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="J11" s="11">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="K11" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12" s="21" t="s">
         <v>357</v>
       </c>
@@ -7278,16 +7317,16 @@
         <v>189</v>
       </c>
       <c r="C12" s="21">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D12" s="21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E12" s="21">
         <v>0</v>
       </c>
       <c r="F12" s="21">
-        <v>0.649999976158142</v>
+        <v>0.6</v>
       </c>
       <c r="G12" s="21">
         <v>0</v>
@@ -7296,16 +7335,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="21">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="J12" s="21">
-        <v>0.899999976158142</v>
-      </c>
-      <c r="K12" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:10">
       <c r="A13" s="21" t="s">
         <v>358</v>
       </c>
@@ -7313,16 +7349,16 @@
         <v>182</v>
       </c>
       <c r="C13" s="21">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D13" s="21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E13" s="21">
         <v>0</v>
       </c>
       <c r="F13" s="21">
-        <v>0.600000023841858</v>
+        <v>0.65</v>
       </c>
       <c r="G13" s="21">
         <v>12</v>
@@ -7331,16 +7367,13 @@
         <v>3</v>
       </c>
       <c r="I13" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" s="21">
-        <v>1</v>
-      </c>
-      <c r="K13" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="A14" s="21" t="s">
         <v>359</v>
       </c>
@@ -7348,13 +7381,13 @@
         <v>187</v>
       </c>
       <c r="C14" s="21">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D14" s="21">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E14" s="21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F14" s="21">
         <v>0.600000023841858</v>
@@ -7366,18 +7399,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="21">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="J14" s="21">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="K14" s="21">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7387,192 +7417,194 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="161" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="21">
+        <f>boss!D2*boss!G2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="21">
+        <f>boss!D2*boss!H2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <f>boss!D3*boss!G3</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <f>boss!D3*boss!H3</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <f>boss!D4*boss!G4</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <f>boss!D4*boss!H4</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <f>boss!G2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <f>boss!D5*boss!G5</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <f>boss!G3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <f>boss!G4</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <f>boss!G6</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="3">
-        <f>boss!G6</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="3">
-        <f>boss!H6</f>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <f>boss!D6*boss!H6</f>
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7585,12 +7617,12 @@
       <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1"/>
-    <col min="4" max="4" width="12.63000011" customWidth="1"/>
-    <col min="7" max="7" width="11.50500011" customWidth="1"/>
-    <col min="8" max="9" width="12.63000011" customWidth="1"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="11.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="9" width="12.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7691,7 +7723,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7701,14 +7733,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.62999916" customWidth="1"/>
-    <col min="2" max="2" width="15.13000011" customWidth="1"/>
-    <col min="5" max="8" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="26.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7748,28 +7780,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>525</v>
       </c>
       <c r="C2" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="3">
         <v>30</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
         <v>0.800000011920929</v>
       </c>
       <c r="G2" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -7778,33 +7810,33 @@
         <v>174</v>
       </c>
       <c r="K2" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>307</v>
+        <v>576</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="C3" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="3">
-        <v>30</v>
+        <v>1.2</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -7813,33 +7845,33 @@
         <v>174</v>
       </c>
       <c r="K3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>364</v>
+        <v>577</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C4" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>0.850000023841858</v>
+        <v>0.85</v>
       </c>
       <c r="G4" s="3">
-        <v>30</v>
+        <v>1.1</v>
       </c>
       <c r="H4" s="3">
-        <v>30</v>
+        <v>1.1</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -7848,33 +7880,33 @@
         <v>174</v>
       </c>
       <c r="K4" s="3">
-        <v>100</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>371</v>
+        <v>578</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>372</v>
+        <v>220</v>
       </c>
       <c r="C5" s="3">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="3">
         <v>30</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G5" s="3">
-        <v>35</v>
+        <v>1.25</v>
       </c>
       <c r="H5" s="3">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -7883,33 +7915,33 @@
         <v>174</v>
       </c>
       <c r="K5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>373</v>
+        <v>579</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>525</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3">
         <v>0.800000011920929</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>1.2</v>
       </c>
       <c r="H6" s="3">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -7918,12 +7950,12 @@
         <v>174</v>
       </c>
       <c r="K6" s="3">
-        <v>100</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7933,14 +7965,15 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="3" max="3" width="10.63000011" customWidth="1"/>
-    <col min="4" max="5" width="11.75500011" customWidth="1"/>
-    <col min="7" max="7" width="15.75500011" customWidth="1"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="5" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="15.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7973,8 +8006,8 @@
       <c r="A2" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
+      <c r="B2" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -7999,8 +8032,8 @@
       <c r="A3" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
+      <c r="B3" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -8025,8 +8058,8 @@
       <c r="A4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
+      <c r="B4" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -8051,8 +8084,8 @@
       <c r="A5" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B5" s="3">
-        <v>3</v>
+      <c r="B5" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -8077,8 +8110,8 @@
       <c r="A6" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B6" s="3">
-        <v>4</v>
+      <c r="B6" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -8103,8 +8136,8 @@
       <c r="A7" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -8129,8 +8162,8 @@
       <c r="A8" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B8" s="3">
-        <v>6</v>
+      <c r="B8" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -8155,8 +8188,8 @@
       <c r="A9" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B9" s="3">
-        <v>7</v>
+      <c r="B9" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -8179,7 +8212,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
-  <workbookPr/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="320" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -15,1709 +15,1765 @@
     <sheet name="boss" sheetId="3" r:id="rId6"/>
     <sheet name="quest" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" calcOnSave="0" iterate="1"/>
+  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="585">
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>눈덩이</t>
-  </si>
-  <si>
-    <t>고드름</t>
-  </si>
-  <si>
-    <t>반달고드름</t>
-  </si>
-  <si>
-    <t>빙벽</t>
-  </si>
-  <si>
-    <t>우박</t>
-  </si>
-  <si>
-    <t>얼음회오리</t>
-  </si>
-  <si>
-    <t>아이스에이지</t>
-  </si>
-  <si>
-    <t>블리자드</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>att_increase</t>
-  </si>
-  <si>
-    <t>delay_reduce</t>
-  </si>
-  <si>
-    <t>size_increase</t>
-  </si>
-  <si>
-    <t>count_increase</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>att</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>작은불씨</t>
-  </si>
-  <si>
-    <t>불씨</t>
-  </si>
-  <si>
-    <t>거대한불씨</t>
-  </si>
-  <si>
-    <t>불정령</t>
-  </si>
-  <si>
-    <t>강한불정령</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>monster</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>sprite/snowball</t>
-  </si>
-  <si>
-    <t>sprite/icicle</t>
-  </si>
-  <si>
-    <t>sprite/halficicle</t>
-  </si>
-  <si>
-    <t>sprite/icewall</t>
-  </si>
-  <si>
-    <t>sprite/hail</t>
-  </si>
-  <si>
-    <t>sprite/iceage</t>
-  </si>
-  <si>
-    <t>sprite/blizzard</t>
-  </si>
-  <si>
-    <t>sprite/icetornado</t>
-  </si>
-  <si>
-    <t>1YI39qlEIkehcQKXsHTyUg</t>
-  </si>
-  <si>
-    <t>NWTscmjKlESMcPHMRe0hXg</t>
-  </si>
-  <si>
-    <t>BAdmjT6HC0y8LOsa1qMZvg</t>
-  </si>
-  <si>
-    <t>x0MEnXpXpkSAeJdx9u1dxA</t>
-  </si>
-  <si>
-    <t>Nv7SgpakukyznybxDxXzKg</t>
-  </si>
-  <si>
-    <t>rrTgjWmPmE6tye/yifLCyQ</t>
-  </si>
-  <si>
-    <t>8z2pJ9jvp0qxuwrUhRrmyQ</t>
-  </si>
-  <si>
-    <t>Txp9XKcq6kSTovn/H/3gjw</t>
-  </si>
-  <si>
-    <t>jZ9q6LkxFkil8RL3lc0PPg</t>
-  </si>
-  <si>
-    <t>FkSB7SxxhE+q+XE4G8ZT4w</t>
-  </si>
-  <si>
-    <t>EPruJLqK1ESOVRcE3QyTlw</t>
-  </si>
-  <si>
-    <t>2WySlC4shUOPDHA9oxYaKw</t>
-  </si>
-  <si>
-    <t>iW548VF8UEGD+vAuXhtSAQ</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>hpgen</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>attspeed</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>skillrange</t>
-  </si>
-  <si>
-    <t>killamount</t>
-  </si>
-  <si>
-    <t>status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고드름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반달고드름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빙벽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우박</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음회오리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이스에이지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블리자드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delay_reduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작은불씨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불씨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거대한불씨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불정령</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강한불정령</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/snowball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/icicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/halficicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/icewall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/iceage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/blizzard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/icetornado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1YI39qlEIkehcQKXsHTyUg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NWTscmjKlESMcPHMRe0hXg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAdmjT6HC0y8LOsa1qMZvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x0MEnXpXpkSAeJdx9u1dxA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nv7SgpakukyznybxDxXzKg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rrTgjWmPmE6tye/yifLCyQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8z2pJ9jvp0qxuwrUhRrmyQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Txp9XKcq6kSTovn/H/3gjw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jZ9q6LkxFkil8RL3lc0PPg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FkSB7SxxhE+q+XE4G8ZT4w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPruJLqK1ESOVRcE3QyTlw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2WySlC4shUOPDHA9oxYaKw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iW548VF8UEGD+vAuXhtSAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attspeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillrange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">killamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
   </si>
   <si/>
   <si>
-    <t>e7AXSZh+E0eaC78EFNa29g</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>default</t>
+    <t xml:space="preserve">e7AXSZh+E0eaC78EFNa29g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si/>
   <si>
-    <t>eHf0vPp+wk2aU5E4yd7/Yg</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>mop_fire</t>
-  </si>
-  <si>
-    <t>mop_bok</t>
-  </si>
-  <si>
-    <t>mop_stick</t>
-  </si>
-  <si>
-    <t>mop_turtle</t>
-  </si>
-  <si>
-    <t>mop_bluefire</t>
-  </si>
-  <si>
-    <t>appear</t>
-  </si>
-  <si>
-    <t>stage_appear</t>
-  </si>
-  <si>
-    <t>round_appear</t>
-  </si>
-  <si>
-    <t>hp_increase</t>
-  </si>
-  <si>
-    <t>exp_increase</t>
+    <t xml:space="preserve">eHf0vPp+wk2aU5E4yd7/Yg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_bok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_bluefire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage_appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round_appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp_increase</t>
   </si>
   <si/>
   <si>
-    <t>l84s0jqeJ0+ShvpHGehKgA</t>
-  </si>
-  <si>
-    <t>1xmfc5j9REe0ZHIX8rDf8w</t>
-  </si>
-  <si>
-    <t>kTDzILh6IE+jkW2qF+KXAw</t>
-  </si>
-  <si>
-    <t>9VCtUFsTA0WcVNS71DsQNA</t>
-  </si>
-  <si>
-    <t>uALCIjfaEky3G92iAmHJ9w</t>
-  </si>
-  <si>
-    <t>mop_bird</t>
+    <t xml:space="preserve">l84s0jqeJ0+ShvpHGehKgA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1xmfc5j9REe0ZHIX8rDf8w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kTDzILh6IE+jkW2qF+KXAw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9VCtUFsTA0WcVNS71DsQNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uALCIjfaEky3G92iAmHJ9w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_bird</t>
   </si>
   <si/>
   <si>
-    <t>8gAo9LyP60OMAwTdoY8wrw</t>
-  </si>
-  <si>
-    <t>priceamount</t>
-  </si>
-  <si>
-    <t>boss_bird</t>
-  </si>
-  <si>
-    <t>boss_</t>
-  </si>
-  <si>
-    <t>boss_golem</t>
-  </si>
-  <si>
-    <t>boss_rock</t>
-  </si>
-  <si>
-    <t>boss_cow</t>
-  </si>
-  <si>
-    <t>boss_bear</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t xml:space="preserve">8gAo9LyP60OMAwTdoY8wrw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priceamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase</t>
   </si>
   <si/>
   <si>
-    <t>4WVxc3VSx0O0tna/lL5NCA</t>
-  </si>
-  <si>
-    <t>7LLesioQ0kSNXqcpCaDbeg</t>
-  </si>
-  <si>
-    <t>JtRPf/ABQkK6YzgnTjqc1Q</t>
-  </si>
-  <si>
-    <t>mL8Q/tFX90CNwPiHYkk0GA</t>
-  </si>
-  <si>
-    <t>tEcjfw23XkCu//y+zqlQJQ</t>
-  </si>
-  <si>
-    <t>얼음뭉치</t>
-  </si>
-  <si>
-    <t>눈뭉치</t>
-  </si>
-  <si>
-    <t>sprite/ictone</t>
+    <t xml:space="preserve">4WVxc3VSx0O0tna/lL5NCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7LLesioQ0kSNXqcpCaDbeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JtRPf/ABQkK6YzgnTjqc1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mL8Q/tFX90CNwPiHYkk0GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tEcjfw23XkCu//y+zqlQJQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음뭉치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈뭉치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/ictone</t>
   </si>
   <si/>
   <si>
-    <t>zIrXoinId0iFNhZHl1++bA</t>
+    <t xml:space="preserve">zIrXoinId0iFNhZHl1++bA</t>
   </si>
   <si/>
   <si>
-    <t>xL0ZSRTaC0mmTc44mg8IMw</t>
-  </si>
-  <si>
-    <t>KVjVGRJbj0GkW3ghHwH8Tg</t>
-  </si>
-  <si>
-    <t>ayHEKjsd8UqG8GU1Xt6tTw</t>
-  </si>
-  <si>
-    <t>Q5y8+mUBukKyaU5ZN30mZg</t>
-  </si>
-  <si>
-    <t>GR2VPmVTTUGofKgvmFjHVQ</t>
-  </si>
-  <si>
-    <t>O7aBnzSfm0ariTzPxBExFw</t>
-  </si>
-  <si>
-    <t>GlpgBelcX0qncpw9BzBXKQ</t>
-  </si>
-  <si>
-    <t>Q3UfqJRRF0SPgkVBkbx3hw</t>
-  </si>
-  <si>
-    <t>XCpjVMj5JUqt9ziS5P3awQ</t>
-  </si>
-  <si>
-    <t>mop_ant</t>
-  </si>
-  <si>
-    <t>mop_jack</t>
-  </si>
-  <si>
-    <t>speed</t>
+    <t xml:space="preserve">xL0ZSRTaC0mmTc44mg8IMw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVjVGRJbj0GkW3ghHwH8Tg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayHEKjsd8UqG8GU1Xt6tTw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5y8+mUBukKyaU5ZN30mZg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR2VPmVTTUGofKgvmFjHVQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O7aBnzSfm0ariTzPxBExFw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlpgBelcX0qncpw9BzBXKQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3UfqJRRF0SPgkVBkbx3hw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCpjVMj5JUqt9ziS5P3awQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speed</t>
   </si>
   <si/>
   <si>
-    <t>jebfgtgwy0aCi3wyFmHn7A</t>
-  </si>
-  <si>
-    <t>E37YclCUk0atKge3NbdvOQ</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>얼음주먹</t>
-  </si>
-  <si>
-    <t>눈폭탄</t>
+    <t xml:space="preserve">jebfgtgwy0aCi3wyFmHn7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E37YclCUk0atKge3NbdvOQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음주먹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈폭탄</t>
   </si>
   <si/>
   <si>
-    <t>sAlSjuwkNkmox3HyjOQPlQ</t>
-  </si>
-  <si>
-    <t>patt</t>
-  </si>
-  <si>
-    <t>pspeed</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>얼음방어막</t>
-  </si>
-  <si>
-    <t>얼음빠따</t>
-  </si>
-  <si>
-    <t>소용돌이</t>
-  </si>
-  <si>
-    <t>얼음파동</t>
-  </si>
-  <si>
-    <t>무적</t>
-  </si>
-  <si>
-    <t>산탄</t>
-  </si>
-  <si>
-    <t>explain</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>keep_increase</t>
-  </si>
-  <si>
-    <t>obstaacle</t>
-  </si>
-  <si>
-    <t>obstacle</t>
-  </si>
-  <si>
-    <t>continue</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>continuee</t>
+    <t xml:space="preserve">sAlSjuwkNkmox3HyjOQPlQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pspeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음방어막</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음빠따</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소용돌이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음파동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">산탄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obstaacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obstacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuee</t>
   </si>
   <si/>
   <si>
-    <t>u9VGjry1BESzo46bAmXOQg</t>
-  </si>
-  <si>
-    <t>HJCxWuQGLEyzxZkpf/s7+Q</t>
-  </si>
-  <si>
-    <t>dejPA7ZZvkKW83lA1QUQCQ</t>
-  </si>
-  <si>
-    <t>K1BTnZfB2kWbObm+5JLgSQ</t>
-  </si>
-  <si>
-    <t>iYqYA2TFhU6d36X/SwpGHA</t>
-  </si>
-  <si>
-    <t>wXhpxA4yqEW1NBNV40y6rA</t>
-  </si>
-  <si>
-    <t>Lnrq0Qp3nEu1QeUh1ApxEA</t>
-  </si>
-  <si>
-    <t>FEnZnNX24kWluYtm4cqJfg</t>
-  </si>
-  <si>
-    <t>UwutR9kZ3EixiomFUKMhTg</t>
-  </si>
-  <si>
-    <t>tnqtLH8SiUq5SfVK11iPqA</t>
-  </si>
-  <si>
-    <t>SA5d+nQZzEWyxoNuhU+Naw</t>
-  </si>
-  <si>
-    <t>Tq+CR0pBE0CX5vqWS90PAw</t>
-  </si>
-  <si>
-    <t>TAJG8FHa00aP7U66nf0Aqw</t>
-  </si>
-  <si>
-    <t>4K+N6+YPVECfus1pPsfuXQ</t>
-  </si>
-  <si>
-    <t>be8bZ1lxC0+P00Vb0G3asQ</t>
-  </si>
-  <si>
-    <t>hQT4FoA9pke18i999uPtaw</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>conditionA</t>
-  </si>
-  <si>
-    <t>conditionB</t>
-  </si>
-  <si>
-    <t>conditionT</t>
-  </si>
-  <si>
-    <t>reward</t>
-  </si>
-  <si>
-    <t>appear_time</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t xml:space="preserve">u9VGjry1BESzo46bAmXOQg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJCxWuQGLEyzxZkpf/s7+Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dejPA7ZZvkKW83lA1QUQCQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1BTnZfB2kWbObm+5JLgSQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iYqYA2TFhU6d36X/SwpGHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wXhpxA4yqEW1NBNV40y6rA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lnrq0Qp3nEu1QeUh1ApxEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEnZnNX24kWluYtm4cqJfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UwutR9kZ3EixiomFUKMhTg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnqtLH8SiUq5SfVK11iPqA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA5d+nQZzEWyxoNuhU+Naw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tq+CR0pBE0CX5vqWS90PAw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAJG8FHa00aP7U66nf0Aqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K+N6+YPVECfus1pPsfuXQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be8bZ1lxC0+P00Vb0G3asQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hQT4FoA9pke18i999uPtaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si/>
   <si>
-    <t>S4cO+7g73kSC//RCNr49Eg</t>
-  </si>
-  <si>
-    <t>5Eog+fJivU2oDVll81v+QQ</t>
-  </si>
-  <si>
-    <t>zNS43tSa4kmhOggLqnp2/A</t>
-  </si>
-  <si>
-    <t>M0io+FmkfESkyDRr3Lsivg</t>
-  </si>
-  <si>
-    <t>mob_fire</t>
-  </si>
-  <si>
-    <t>mob_bok</t>
-  </si>
-  <si>
-    <t>mob_stick</t>
-  </si>
-  <si>
-    <t>mob_turtle</t>
-  </si>
-  <si>
-    <t>mob_ant</t>
-  </si>
-  <si>
-    <t>mob_jack</t>
-  </si>
-  <si>
-    <t>mob_bluefire</t>
-  </si>
-  <si>
-    <t>mob_mam</t>
-  </si>
-  <si>
-    <t>mob_carb</t>
-  </si>
-  <si>
-    <t>mob_deer</t>
-  </si>
-  <si>
-    <t>map</t>
+    <t xml:space="preserve">S4cO+7g73kSC//RCNr49Eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Eog+fJivU2oDVll81v+QQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zNS43tSa4kmhOggLqnp2/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0io+FmkfESkyDRr3Lsivg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_bok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_bluefire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_mam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_carb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_deer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
   </si>
   <si/>
   <si>
-    <t>UqOBjr+LakW9OE61quvEOQ</t>
-  </si>
-  <si>
-    <t>7oP5n9ovXEK+bbIC8iuZMA</t>
-  </si>
-  <si>
-    <t>QEm467P+ck6FXvY1BWI/QA</t>
-  </si>
-  <si>
-    <t>oN7gigvYvkCP1gYaQUFzpg</t>
-  </si>
-  <si>
-    <t>xiaNlJj0D02QBXqMTggxXA</t>
-  </si>
-  <si>
-    <t>sizex</t>
-  </si>
-  <si>
-    <t>sizey</t>
-  </si>
-  <si>
-    <t>snowrock0</t>
-  </si>
-  <si>
-    <t>snowrock1</t>
-  </si>
-  <si>
-    <t>snowrock2</t>
-  </si>
-  <si>
-    <t>snowrock3</t>
-  </si>
-  <si>
-    <t>rock0</t>
-  </si>
-  <si>
-    <t>rock1</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>skull</t>
-  </si>
-  <si>
-    <t>rib</t>
-  </si>
-  <si>
-    <t>mob_crab</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t xml:space="preserve">UqOBjr+LakW9OE61quvEOQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7oP5n9ovXEK+bbIC8iuZMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QEm467P+ck6FXvY1BWI/QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oN7gigvYvkCP1gYaQUFzpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaNlJj0D02QBXqMTggxXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sizex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sizey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si/>
   <si>
-    <t>utfj/KusT0q9e9ADgg8p9g</t>
-  </si>
-  <si>
-    <t>f3YdoHHnJEmHPLOHPk8tHA</t>
-  </si>
-  <si>
-    <t>lLIxSPJ5jk6H8IhzXjd5Ag</t>
-  </si>
-  <si>
-    <t>+r0e9D3k7kuvrrcjW7rTWA</t>
-  </si>
-  <si>
-    <t>N6Ah1yXV/0mnzDRZhUhoew</t>
-  </si>
-  <si>
-    <t>7q1A0hzTv0e0ZkrUDizxDQ</t>
-  </si>
-  <si>
-    <t>JiEy726Vn0i6qgPI9aQTRQ</t>
-  </si>
-  <si>
-    <t>OXygPyEDNESF1Uo4kpU9UA</t>
-  </si>
-  <si>
-    <t>D/jPgeJpjkiT0hqDPsmOZw</t>
-  </si>
-  <si>
-    <t>boss_owl</t>
-  </si>
-  <si>
-    <t>skill0</t>
-  </si>
-  <si>
-    <t>skill1</t>
+    <t xml:space="preserve">utfj/KusT0q9e9ADgg8p9g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3YdoHHnJEmHPLOHPk8tHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lLIxSPJ5jk6H8IhzXjd5Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+r0e9D3k7kuvrrcjW7rTWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N6Ah1yXV/0mnzDRZhUhoew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7q1A0hzTv0e0ZkrUDizxDQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JiEy726Vn0i6qgPI9aQTRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXygPyEDNESF1Uo4kpU9UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D/jPgeJpjkiT0hqDPsmOZw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill1</t>
   </si>
   <si/>
   <si>
-    <t>W3z0ATuqbkKttkboCpXzTg</t>
-  </si>
-  <si>
-    <t>9oZ4bAUw3EaaXJyde7jotg</t>
-  </si>
-  <si>
-    <t>p7Lei6NHm0mU6A3yoCYsjQ</t>
-  </si>
-  <si>
-    <t>w8cURakZekSSKtD9r+3WnA</t>
-  </si>
-  <si>
-    <t>m4KGirv16U+HZ1CPc/XEAQ</t>
+    <t xml:space="preserve">W3z0ATuqbkKttkboCpXzTg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9oZ4bAUw3EaaXJyde7jotg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p7Lei6NHm0mU6A3yoCYsjQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w8cURakZekSSKtD9r+3WnA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4KGirv16U+HZ1CPc/XEAQ</t>
   </si>
   <si/>
   <si>
-    <t>j6havu18FkO2GTlo+CyQyg</t>
-  </si>
-  <si>
-    <t>N5N6gU+ysEqOQbdz1hczog</t>
-  </si>
-  <si>
-    <t>552Me0Rk506ghDFAyrQSwA</t>
-  </si>
-  <si>
-    <t>jsxP8eNXM0mKlWitTcpTGA</t>
-  </si>
-  <si>
-    <t>osCjoq/EX0WhMYuWNZYtkg</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>maxlvl</t>
-  </si>
-  <si>
-    <t>max_level</t>
-  </si>
-  <si>
-    <t>체력</t>
-  </si>
-  <si>
-    <t>공격력</t>
-  </si>
-  <si>
-    <t>방어력</t>
-  </si>
-  <si>
-    <t>체력재생</t>
-  </si>
-  <si>
-    <t>쿨타임감소</t>
-  </si>
-  <si>
-    <t>스킬크기</t>
-  </si>
-  <si>
-    <t>시전속도</t>
-  </si>
-  <si>
-    <t>경험치</t>
-  </si>
-  <si>
-    <t>경험치획득량</t>
-  </si>
-  <si>
-    <t>회복량</t>
-  </si>
-  <si>
-    <t>이동속도</t>
-  </si>
-  <si>
-    <t>infomation</t>
-  </si>
-  <si>
-    <t>최대체력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t>공격력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t>방어력을 얻는다.</t>
-  </si>
-  <si>
-    <t>매초 소량의 체력을 회복시킨다.</t>
-  </si>
-  <si>
-    <t>스킬의 속도</t>
-  </si>
-  <si>
-    <t>스킬의 시전속도를 단축시킨다.</t>
-  </si>
-  <si>
-    <t>경험치 획득량이 증가한다.</t>
-  </si>
-  <si>
-    <t>스킬크기가 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 회복량이 증가한다.</t>
-  </si>
-  <si>
-    <t>이동속도가 증가한다.</t>
-  </si>
-  <si>
-    <t>최대체력을 증가한다.</t>
-  </si>
-  <si>
-    <t>공격력을 증가한다.</t>
-  </si>
-  <si>
-    <t>매초 소량의 체력을 회복한다.</t>
-  </si>
-  <si>
-    <t>잘뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t>잘 뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t>얼음주먹으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>단단한 얼음으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>뾰족한 얼음이 적을 관통한다.</t>
-  </si>
-  <si>
-    <t>반달얼음을 여러갈래로 발사한다.</t>
-  </si>
-  <si>
-    <t>하늘에서 우박이!</t>
-  </si>
-  <si>
-    <t>빙벽을 생성해 길을 막는다.</t>
-  </si>
-  <si>
-    <t>일정 체력이 있는 빙벽을 생성한다.</t>
-  </si>
-  <si>
-    <t>눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
-  </si>
-  <si>
-    <t>순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t>블리자드를 몰아쳐</t>
-  </si>
-  <si>
-    <t>블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t>대상에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t>적에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t>방어막을</t>
-  </si>
-  <si>
-    <t>일정 체력의 방어막을 생성한다.</t>
-  </si>
-  <si>
-    <t>근접한 적을 빠따로 떨쳐낸다.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>일정 시간동안 무적이 된다.</t>
-  </si>
-  <si>
-    <t>얼음 산탄을 발사한다.</t>
-  </si>
-  <si>
-    <t>체력 50% 증가</t>
-  </si>
-  <si>
-    <t>공격력 10% 증가</t>
-  </si>
-  <si>
-    <t>val</t>
+    <t xml:space="preserve">j6havu18FkO2GTlo+CyQyg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N5N6gU+ysEqOQbdz1hczog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552Me0Rk506ghDFAyrQSwA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsxP8eNXM0mKlWitTcpTGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osCjoq/EX0WhMYuWNZYtkg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxlvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력재생</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쿨타임감소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬크기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시전속도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경험치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경험치획득량</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회복량</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이동속도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infomation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최대체력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어력을 얻는다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매초 소량의 체력을 회복시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬의 속도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬의 시전속도를 단축시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경험치 획득량이 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬크기가 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 회복량이 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이동속도가 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최대체력을 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력을 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매초 소량의 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잘뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잘 뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음주먹으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">단단한 얼음으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뾰족한 얼음이 적을 관통한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반달얼음을 여러갈래로 발사한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하늘에서 우박이!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빙벽을 생성해 길을 막는다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일정 체력이 있는 빙벽을 생성한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블리자드를 몰아쳐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대상에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">적에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어막을</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일정 체력의 방어막을 생성한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">근접한 적을 빠따로 떨쳐낸다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일정 시간동안 무적이 된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음 산탄을 발사한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력 50% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val</t>
   </si>
   <si/>
   <si>
-    <t>7G/uy/d+XUq+hb1idKgcKw</t>
-  </si>
-  <si>
-    <t>nhBbNsmDpUOy343k+irhhw</t>
-  </si>
-  <si>
-    <t>2qdwH+Eqq0qi76gM+HEpSg</t>
-  </si>
-  <si>
-    <t>dGD2J/13Ak60ubtLOTmU7A</t>
-  </si>
-  <si>
-    <t>hluuyb8xDkq3igjPq3UZrQ</t>
-  </si>
-  <si>
-    <t>lZ58eF6zQEqU7UxPZqxY5g</t>
-  </si>
-  <si>
-    <t>+fNq81zBhk2AJPDimVASnQ</t>
-  </si>
-  <si>
-    <t>GGgTfHjnFUu5Yx8sijXu/Q</t>
-  </si>
-  <si>
-    <t>Wfu556tlIkGpgHS1/b8wRQ</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>appear_term</t>
+    <t xml:space="preserve">7G/uy/d+XUq+hb1idKgcKw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhBbNsmDpUOy343k+irhhw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2qdwH+Eqq0qi76gM+HEpSg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dGD2J/13Ak60ubtLOTmU7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hluuyb8xDkq3igjPq3UZrQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lZ58eF6zQEqU7UxPZqxY5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+fNq81zBhk2AJPDimVASnQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGgTfHjnFUu5Yx8sijXu/Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wfu556tlIkGpgHS1/b8wRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear_term</t>
   </si>
   <si/>
   <si>
-    <t>e3ywpdo+tkG3rGFzadDOZQ</t>
+    <t xml:space="preserve">e3ywpdo+tkG3rGFzadDOZQ</t>
   </si>
   <si/>
   <si>
-    <t>ou4jSwVOP0WiG5CBsppWRA</t>
-  </si>
-  <si>
-    <t>독병</t>
-  </si>
-  <si>
-    <t>천둥망치</t>
-  </si>
-  <si>
-    <t>독병을 던저 광역 지속 피해를 입힌다.</t>
-  </si>
-  <si>
-    <t>강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
+    <t xml:space="preserve">ou4jSwVOP0WiG5CBsppWRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독병</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천둥망치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독병을 던저 광역 지속 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
   </si>
   <si/>
   <si>
-    <t>BIr97MzFFEqSkH79ajRcIQ</t>
-  </si>
-  <si>
-    <t>80jHuiqyGkmbPMFYa7j/WA</t>
-  </si>
-  <si>
-    <t>SmqeNM7xnEiwpUgalIDKuQ</t>
-  </si>
-  <si>
-    <t>7Zq+FZr4EU2JUSJGYb5l3w</t>
-  </si>
-  <si>
-    <t>nyGjwUuGSU28kZnltbYfyg</t>
-  </si>
-  <si>
-    <t>8EUv2r2Q3Umy56rbAoz3YA</t>
-  </si>
-  <si>
-    <t>VeBdIaS8+kW7pD5h7TjldA</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>fireball</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>owl_shot</t>
-  </si>
-  <si>
-    <t>bear_shot</t>
+    <t xml:space="preserve">BIr97MzFFEqSkH79ajRcIQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80jHuiqyGkmbPMFYa7j/WA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmqeNM7xnEiwpUgalIDKuQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7Zq+FZr4EU2JUSJGYb5l3w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nyGjwUuGSU28kZnltbYfyg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8EUv2r2Q3Umy56rbAoz3YA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VeBdIaS8+kW7pD5h7TjldA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fireball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owl_shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear_shot</t>
   </si>
   <si/>
   <si>
-    <t>z65T2Hcot0+fcRJxc1V4ZA</t>
-  </si>
-  <si>
-    <t>6q3skcv+nUCSzHwhTFtnVw</t>
-  </si>
-  <si>
-    <t>jrRaKBXFPkmy/QSsvp6HtQ</t>
-  </si>
-  <si>
-    <t>hc1sZU2dREyQjNX69/i7XQ</t>
-  </si>
-  <si>
-    <t>번개</t>
-  </si>
-  <si>
-    <t>지뢰</t>
-  </si>
-  <si>
-    <t>중력장</t>
-  </si>
-  <si>
-    <t>친구</t>
-  </si>
-  <si>
-    <t>적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
-  </si>
-  <si>
-    <t>아돈빠가돈!</t>
-  </si>
-  <si>
-    <t>쌌드라욘마인~</t>
-  </si>
-  <si>
-    <t>쌋드라요마인~</t>
-  </si>
-  <si>
-    <t>하늘에서 주기적으로 번개가 친다.</t>
-  </si>
-  <si>
-    <t>mob_snail</t>
-  </si>
-  <si>
-    <t>mob_beetle</t>
-  </si>
-  <si>
-    <t>mob_monkey</t>
-  </si>
-  <si>
-    <t>mob_flamingo</t>
-  </si>
-  <si>
-    <t>mob_dragonfly</t>
-  </si>
-  <si>
-    <t>mob_candle</t>
-  </si>
-  <si>
-    <t>mob_rino</t>
+    <t xml:space="preserve">z65T2Hcot0+fcRJxc1V4ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6q3skcv+nUCSzHwhTFtnVw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jrRaKBXFPkmy/QSsvp6HtQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hc1sZU2dREyQjNX69/i7XQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">번개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중력장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">친구</t>
+  </si>
+  <si>
+    <t xml:space="preserve">적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아돈빠가돈!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌌드라욘마인~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌋드라요마인~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하늘에서 주기적으로 번개가 친다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_snail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_beetle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_flamingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_dragonfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_candle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_rino</t>
   </si>
   <si/>
   <si>
-    <t>ovShOG9vz0qBynU3N7A27A</t>
-  </si>
-  <si>
-    <t>xL7qVxJe9kysLVTIKmzuuA</t>
-  </si>
-  <si>
-    <t>TUdRpRMhK0G1XmYAGm6uEw</t>
-  </si>
-  <si>
-    <t>cMp9+kAl8UGgcTM+7tuyXA</t>
-  </si>
-  <si>
-    <t>JP9AY1x9sUa2WAweqi0Hyg</t>
-  </si>
-  <si>
-    <t>z72/TXkgfEOAI1RcEnbf9w</t>
-  </si>
-  <si>
-    <t>6ZQSDtiDc0+ujLraF9ULlw</t>
-  </si>
-  <si>
-    <t>zBnDreY2EUyIgqqT0I1oCg</t>
-  </si>
-  <si>
-    <t>Zwv52fG5a0uz2w+Mw1X1EA</t>
-  </si>
-  <si>
-    <t>80qA8yn0HkK7i+4isj1VAA</t>
-  </si>
-  <si>
-    <t>MO77fenG+EGDXqDfjx0GwQ</t>
-  </si>
-  <si>
-    <t>bwGMcqR0B0uFKpIP/arGGw</t>
-  </si>
-  <si>
-    <t>XXMW6jdsDkqbQDiagvTvAA</t>
-  </si>
-  <si>
-    <t>boss_scarecrow</t>
-  </si>
-  <si>
-    <t>scarecrow_shot</t>
+    <t xml:space="preserve">ovShOG9vz0qBynU3N7A27A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xL7qVxJe9kysLVTIKmzuuA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUdRpRMhK0G1XmYAGm6uEw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cMp9+kAl8UGgcTM+7tuyXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP9AY1x9sUa2WAweqi0Hyg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z72/TXkgfEOAI1RcEnbf9w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ZQSDtiDc0+ujLraF9ULlw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zBnDreY2EUyIgqqT0I1oCg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwv52fG5a0uz2w+Mw1X1EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80qA8yn0HkK7i+4isj1VAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO77fenG+EGDXqDfjx0GwQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bwGMcqR0B0uFKpIP/arGGw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXMW6jdsDkqbQDiagvTvAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_scarecrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scarecrow_shot</t>
   </si>
   <si/>
   <si>
-    <t>Og45GfRUM0CqJQUz3H+9AA</t>
-  </si>
-  <si>
-    <t>vVPBgEN7WUi/lGlzyJ5/Qg</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>슬롯</t>
-  </si>
-  <si>
-    <t>슬롯증가</t>
-  </si>
-  <si>
-    <t>유물 장착 슬롯 증가</t>
+    <t xml:space="preserve">Og45GfRUM0CqJQUz3H+9AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vVPBgEN7WUi/lGlzyJ5/Qg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">슬롯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">슬롯증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유물 장착 슬롯 증가</t>
   </si>
   <si/>
   <si>
-    <t>DUqi+8ckB0qblBzm6KlcNg</t>
-  </si>
-  <si>
-    <t>OP592CHEkEqaCW4o+WCZNw</t>
-  </si>
-  <si>
-    <t>boss_flower</t>
-  </si>
-  <si>
-    <t>1Ym7RLkBgUCA9I+gVXisAQ</t>
-  </si>
-  <si>
-    <t>boss_bigbettle</t>
-  </si>
-  <si>
-    <t>kdsl2jzhtU6rPAELOI8Tbw</t>
-  </si>
-  <si>
-    <t>flower_thorn</t>
-  </si>
-  <si>
-    <t>PtYsPmNIh06wyUfSH4KX0w</t>
-  </si>
-  <si>
-    <t>flower_mine</t>
-  </si>
-  <si>
-    <t>1EG4vgTgYUO8MktQYh1lag</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>skinname</t>
-  </si>
-  <si>
-    <t>눈사람</t>
-  </si>
-  <si>
-    <t>불사람</t>
-  </si>
-  <si>
-    <t>풀사람</t>
-  </si>
-  <si>
-    <t>돌사람</t>
-  </si>
-  <si>
-    <t>귤사람</t>
-  </si>
-  <si>
-    <t>전구사람</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>야수사람</t>
-  </si>
-  <si>
-    <t>로봇사람</t>
-  </si>
-  <si>
-    <t>뱀파이어사람</t>
-  </si>
-  <si>
-    <t>아이스크림사람</t>
-  </si>
-  <si>
-    <t>천사사람</t>
-  </si>
-  <si>
-    <t>황금갑옷사람</t>
-  </si>
-  <si>
-    <t>네모사람</t>
-  </si>
-  <si>
-    <t>지뢰사람</t>
-  </si>
-  <si>
-    <t>거미사람</t>
-  </si>
-  <si>
-    <t>용사사람</t>
-  </si>
-  <si>
-    <t>quest</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>gem</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>type0</t>
-  </si>
-  <si>
-    <t>val0</t>
-  </si>
-  <si>
-    <t>type1</t>
-  </si>
-  <si>
-    <t>val1</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bigbettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">풀사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돌사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">귤사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전구사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">야수사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로봇사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뱀파이어사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이스크림사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천사사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">황금갑옷사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거미사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
   <si/>
   <si>
-    <t>gLnjGlJPQUGceqv9MtI+jg</t>
-  </si>
-  <si>
-    <t>bDmF5v4opUOLjBB580DUog</t>
-  </si>
-  <si>
-    <t>j4aRpfkhWUCwpugwL7yhOw</t>
-  </si>
-  <si>
-    <t>v6FaRzn/yUS4jftoTtNfsw</t>
-  </si>
-  <si>
-    <t>nMhXnyt3XUWslXDy/Eccmw</t>
-  </si>
-  <si>
-    <t>5CW4lEGYZEqJ8sFOtlJVVw</t>
-  </si>
-  <si>
-    <t>a+XFhtKj2Em7xW1tms05Zw</t>
-  </si>
-  <si>
-    <t>oJlQTylhPUGaWX/Zndg2HQ</t>
-  </si>
-  <si>
-    <t>ZDD/hjzPHU+kTQf39Dvtnw</t>
-  </si>
-  <si>
-    <t>tY/x47zy/U+9d/dQf4L+Xg</t>
-  </si>
-  <si>
-    <t>kUpxVrSyPke7VlIQ+ty+ng</t>
-  </si>
-  <si>
-    <t>e+gqMj+a0kePNLaic882PA</t>
-  </si>
-  <si>
-    <t>PVpFmf14gE+JTvE5tq+oTw</t>
-  </si>
-  <si>
-    <t>bBCBYzcq5kaQf7V57bsU5Q</t>
-  </si>
-  <si>
-    <t>NV8CtlguXEufFOcfSPnFWw</t>
-  </si>
-  <si>
-    <t>LmBUHti4IU6ufw+5njPwTQ</t>
-  </si>
-  <si>
-    <t>typeB</t>
-  </si>
-  <si>
-    <t>typeF</t>
-  </si>
-  <si>
-    <t>Fval</t>
-  </si>
-  <si>
-    <t>typeI</t>
-  </si>
-  <si>
-    <t>Ival</t>
-  </si>
-  <si>
-    <t>snowball</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>Fval1</t>
-  </si>
-  <si>
-    <t>Fval0</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>d_hp</t>
-  </si>
-  <si>
-    <t>d_hpgen</t>
-  </si>
-  <si>
-    <t>d_def</t>
-  </si>
-  <si>
-    <t>d_att</t>
-  </si>
-  <si>
-    <t>d_cool</t>
-  </si>
-  <si>
-    <t>d_exp</t>
-  </si>
-  <si>
-    <t>d_coin</t>
-  </si>
-  <si>
-    <t>a_hp</t>
-  </si>
-  <si>
-    <t>ex_hp</t>
-  </si>
-  <si>
-    <t>ex_hpgen</t>
-  </si>
-  <si>
-    <t>ex_def</t>
-  </si>
-  <si>
-    <t>ex_att</t>
-  </si>
-  <si>
-    <t>ex_cool</t>
-  </si>
-  <si>
-    <t>ex_exp</t>
-  </si>
-  <si>
-    <t>ex_coin</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>invSwamp</t>
-  </si>
-  <si>
-    <t>wild</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>rebirth</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>citrus</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>iceHeal</t>
-  </si>
-  <si>
-    <t>frozen</t>
-  </si>
-  <si>
-    <t>invincible</t>
-  </si>
-  <si>
-    <t>d_speed</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>criticDmg</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>ch_explain</t>
-  </si>
-  <si>
-    <t>unch_explain</t>
-  </si>
-  <si>
-    <t>겨울에 만들어진 눈사람</t>
-  </si>
-  <si>
-    <t>여름한정</t>
-  </si>
-  <si>
-    <t>눈대신</t>
-  </si>
-  <si>
-    <t>눈 대신 돌을 던진다.</t>
-  </si>
-  <si>
-    <t>눈 대신 귤을 던진다.</t>
-  </si>
-  <si>
-    <t>네모난 눈을 던진다.</t>
-  </si>
-  <si>
-    <t>머리의 전구로 어둠을 밝힌다.</t>
-  </si>
-  <si>
-    <t>잃은 체력 1%당 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t>지뢰 개수 4개증가</t>
-  </si>
-  <si>
-    <t>지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t>늪지 무효\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
-  </si>
-  <si>
-    <t>여름한정 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t>봄한정 체력재생량 n%증가</t>
-  </si>
-  <si>
-    <t>봄한정 체력재생량 n% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 돌을 던진다.\\n체력 n% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
-  </si>
-  <si>
-    <t>무적 발동</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t>눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
-  </si>
-  <si>
-    <t>네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
-  </si>
-  <si>
-    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
-  </si>
-  <si>
-    <t>봄한정 체력재생량 a% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 돌을 던진다.\\n체력 a% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
-  </si>
-  <si>
-    <t>잃은 체력 1%당 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t>지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t>늪지 무효\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
-  </si>
-  <si>
-    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
-  </si>
-  <si>
-    <t>네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
-  </si>
-  <si>
-    <t>눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t>여름한정 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t>30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
+    <t xml:space="preserve">gLnjGlJPQUGceqv9MtI+jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bDmF5v4opUOLjBB580DUog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j4aRpfkhWUCwpugwL7yhOw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v6FaRzn/yUS4jftoTtNfsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMhXnyt3XUWslXDy/Eccmw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5CW4lEGYZEqJ8sFOtlJVVw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a+XFhtKj2Em7xW1tms05Zw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oJlQTylhPUGaWX/Zndg2HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDD/hjzPHU+kTQf39Dvtnw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tY/x47zy/U+9d/dQf4L+Xg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kUpxVrSyPke7VlIQ+ty+ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e+gqMj+a0kePNLaic882PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVpFmf14gE+JTvE5tq+oTw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bBCBYzcq5kaQf7V57bsU5Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV8CtlguXEufFOcfSPnFWw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LmBUHti4IU6ufw+5njPwTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invSwamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iceHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invincible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticDmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch_explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unch_explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">겨울에 만들어진 눈사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈대신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">머리의 전구로 어둠을 밝힌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잃은 체력 1%당 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 4개증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">늪지 무효\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무적 발동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잃은 체력 1%당 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">늪지 무효\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
   </si>
   <si/>
   <si>
-    <t>ERzaZOy2RkmFqdq+1HEN0w</t>
-  </si>
-  <si>
-    <t>invSlow</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>scare_fire</t>
-  </si>
-  <si>
-    <t>boss_butterfly</t>
+    <t xml:space="preserve">ERzaZOy2RkmFqdq+1HEN0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invSlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scare_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_butterfly</t>
   </si>
   <si/>
   <si>
-    <t>WfxNB+MGn06c0Mxh9qi6TQ</t>
-  </si>
-  <si>
-    <t>bfly_bgPoison</t>
-  </si>
-  <si>
-    <t>bfly_smPoison</t>
-  </si>
-  <si>
-    <t>=boss!G6</t>
+    <t xml:space="preserve">WfxNB+MGn06c0Mxh9qi6TQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfly_bgPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfly_smPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=boss!G6</t>
   </si>
   <si/>
   <si>
-    <t>H2iGbbqnQ0OIrx3EtElI8g</t>
-  </si>
-  <si>
-    <t>D2lgjDXLyUStHASDlJTf+Q</t>
-  </si>
-  <si>
-    <t>questName</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>봄까지 버티기</t>
-  </si>
-  <si>
-    <t>여름까지 버티기</t>
-  </si>
-  <si>
-    <t>가을까지 버티기</t>
-  </si>
-  <si>
-    <t>1년 버티기</t>
-  </si>
-  <si>
-    <t>버티기</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>artifact</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>reinforce</t>
-  </si>
-  <si>
-    <t>하루</t>
-  </si>
-  <si>
-    <t>1마리</t>
-  </si>
-  <si>
-    <t>1개</t>
-  </si>
-  <si>
-    <t>10번</t>
-  </si>
-  <si>
-    <t>questType</t>
-  </si>
-  <si>
-    <t>강화1회</t>
-  </si>
-  <si>
-    <t>특정스킨으로 1회</t>
-  </si>
-  <si>
-    <t>광고 1회</t>
+    <t xml:space="preserve">H2iGbbqnQ0OIrx3EtElI8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2lgjDXLyUStHASDlJTf+Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가을까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1년 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하루</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1마리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강화1회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">특정스킨으로 1회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고 1회</t>
   </si>
   <si/>
   <si>
-    <t>oMhQHIWj/EC8ngg9JcK0OA</t>
-  </si>
-  <si>
-    <t>tn3M8GN9A0S40ubcMn7hgA</t>
-  </si>
-  <si>
-    <t>FYLWhSg54UWwAGA4uBn3KA</t>
-  </si>
-  <si>
-    <t>2vw6eVoubE2FX4RhcWa2Gw</t>
-  </si>
-  <si>
-    <t>I2hLdUHeKEOMFjkn8uKZ1Q</t>
-  </si>
-  <si>
-    <t>YnmthZe2OUS0F2IvwXzx/w</t>
-  </si>
-  <si>
-    <t>0aZgm2DJLU6UAd3Lphp+qw</t>
-  </si>
-  <si>
-    <t>Jc5TTOZymkyTL+nsgg7Cww</t>
+    <t xml:space="preserve">oMhQHIWj/EC8ngg9JcK0OA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn3M8GN9A0S40ubcMn7hgA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYLWhSg54UWwAGA4uBn3KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2vw6eVoubE2FX4RhcWa2Gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2hLdUHeKEOMFjkn8uKZ1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YnmthZe2OUS0F2IvwXzx/w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0aZgm2DJLU6UAd3Lphp+qw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jc5TTOZymkyTL+nsgg7Cww</t>
   </si>
   <si/>
   <si>
-    <t>hZ5zXDn9pEau0jHAGnXPSw</t>
-  </si>
-  <si>
-    <t>WPQJ3pXzQ0+JXwy8wQ4dIg</t>
-  </si>
-  <si>
-    <t>Gh9WTIDO102/V9jEpX7Hug</t>
-  </si>
-  <si>
-    <t>47GYdDEOAUSm0AH87BJJjg</t>
-  </si>
-  <si>
-    <t>ObWi0F4A6U2Tf76nPoOcfg</t>
-  </si>
-  <si>
-    <t>hq6MdF1mHECN16RcyqBTtw</t>
-  </si>
-  <si>
-    <t>kSYQdp7c7UGfSpse9ezboQ</t>
-  </si>
-  <si>
-    <t>ApPa6gHqNEGEi/VRoSCArg</t>
-  </si>
-  <si>
-    <t>2iQCymteB02RoDlUQLkYjw</t>
-  </si>
-  <si>
-    <t>Bh+K4BC8KESXkMcgOi2iSA</t>
-  </si>
-  <si>
-    <t>0f0mQNjS7ESDJEecRxc4ig</t>
-  </si>
-  <si>
-    <t>gQ8tV6Qyo0i87zD5bsPQMw</t>
-  </si>
-  <si>
-    <t>vf2Vz4Dykk2UAywywrIc7g</t>
-  </si>
-  <si>
-    <t>1ByLRWNnYUe3Sy+PYVgV2g</t>
-  </si>
-  <si>
-    <t>vTygID9He0yuztzCQ6n+rQ</t>
-  </si>
-  <si>
-    <t>DL/xgk/tTU+/YwFGlDT1Jg</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>day_rein</t>
-  </si>
-  <si>
-    <t>day_skin</t>
-  </si>
-  <si>
-    <t>day_ad</t>
-  </si>
-  <si>
-    <t>rein</t>
+    <t xml:space="preserve">hZ5zXDn9pEau0jHAGnXPSw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPQJ3pXzQ0+JXwy8wQ4dIg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gh9WTIDO102/V9jEpX7Hug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47GYdDEOAUSm0AH87BJJjg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObWi0F4A6U2Tf76nPoOcfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hq6MdF1mHECN16RcyqBTtw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kSYQdp7c7UGfSpse9ezboQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApPa6gHqNEGEi/VRoSCArg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2iQCymteB02RoDlUQLkYjw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bh+K4BC8KESXkMcgOi2iSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f0mQNjS7ESDJEecRxc4ig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gQ8tV6Qyo0i87zD5bsPQMw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vf2Vz4Dykk2UAywywrIc7g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ByLRWNnYUe3Sy+PYVgV2g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vTygID9He0yuztzCQ6n+rQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL/xgk/tTU+/YwFGlDT1Jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_rein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fireman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grassman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrusman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulbman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sildman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mineman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robotman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icecreamman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldenarmorman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angelman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squareman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiderman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vampireman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heroman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildman</t>
   </si>
 </sst>
 </file>
@@ -1731,128 +1787,128 @@
   </numFmts>
   <fonts count="23">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <color theme="10"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
-      <color theme="11"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF3F3F76"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF3F3F3F"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF9C6500"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
-      <color theme="0"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF7F7F7F"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="7" tint="0.79998"/>
       <name val="맑은 고딕"/>
-      <color theme="7" tint="0.799980"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1915,19 +1971,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor theme="4" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
+        <fgColor theme="4" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
+        <fgColor theme="4" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1939,19 +1995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
+        <fgColor theme="5" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
+        <fgColor theme="5" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1963,19 +2019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
+        <fgColor theme="6" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
+        <fgColor theme="6" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
+        <fgColor theme="6" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1987,19 +2043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
+        <fgColor theme="7" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
+        <fgColor theme="7" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
+        <fgColor theme="7" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2011,19 +2067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
+        <fgColor theme="8" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <fgColor theme="8" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
+        <fgColor theme="8" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2035,19 +2091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor theme="9" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
+        <fgColor theme="9" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="9" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2065,12 +2121,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.099980"/>
+        <fgColor theme="2" tint="-0.09998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2155,7 +2211,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
+        <color theme="4" tint="0.39998"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2788,161 +2844,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyAlignment="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="172">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2951,7 +3078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2963,37 +3090,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3002,37 +3129,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3044,55 +3171,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3104,76 +3231,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3182,103 +3309,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3290,31 +3417,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3323,106 +3450,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3749,24 +3906,24 @@
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="6.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="13.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="56.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="70.50499725" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="7.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="6.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="11.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="6.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="12.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="13.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="12.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" width="6.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="18" width="14.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="27.62999916" customWidth="1"/>
+    <col min="2" max="2" width="6.25500011" customWidth="1"/>
+    <col min="3" max="3" width="13.00500011" customWidth="1"/>
+    <col min="4" max="4" width="10.63000011" customWidth="1"/>
+    <col min="5" max="5" width="56.50500107" customWidth="1"/>
+    <col min="6" max="6" width="70.50499725" customWidth="1"/>
+    <col min="7" max="7" width="7.88000011" customWidth="1"/>
+    <col min="8" max="8" width="6.38000011" customWidth="1"/>
+    <col min="9" max="9" width="11.50500011" customWidth="1"/>
+    <col min="10" max="10" width="6.00500011" customWidth="1"/>
+    <col min="11" max="11" width="12.75500011" customWidth="1"/>
+    <col min="12" max="12" width="5.63000011" customWidth="1"/>
+    <col min="13" max="13" width="13.75500011" customWidth="1"/>
+    <col min="14" max="14" width="12.50500011" customWidth="1"/>
+    <col min="15" max="15" width="6.38000011" customWidth="1"/>
+    <col min="16" max="18" width="14.38000011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5012,7 +5169,7 @@
         <v>0.5</v>
       </c>
       <c r="I22" s="21">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J22" s="21">
         <v>4</v>
@@ -5449,30 +5606,32 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="20" max="20" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="27.37999916" customWidth="1"/>
+    <col min="2" max="2" width="16.75499916" customWidth="1"/>
+    <col min="3" max="3" width="15.13000011" customWidth="1"/>
+    <col min="4" max="4" width="7.38000011" customWidth="1"/>
+    <col min="7" max="7" width="9.00500011" customWidth="1"/>
+    <col min="11" max="11" width="9.00500011" customWidth="1"/>
+    <col min="14" max="14" width="9.00500011" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.00500011" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -5482,126 +5641,129 @@
       <c r="C1" s="79" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="162" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="F1" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="H1" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="I1" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="J1" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="K1" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="L1" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="114" t="s">
         <v>444</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="W1" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
         <v>409</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>64</v>
+        <v>586</v>
       </c>
       <c r="C2" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="66">
-        <v>0</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="66">
+        <v>0</v>
+      </c>
+      <c r="G2" s="81" t="s">
         <v>431</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="I2" s="65">
-        <v>0</v>
+      <c r="I2" s="65" t="s">
+        <v>431</v>
       </c>
       <c r="J2" s="65">
         <v>0</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="65">
+        <v>0</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="L2" s="65">
-        <v>0</v>
-      </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="65">
+        <v>0</v>
+      </c>
+      <c r="N2" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="64">
-        <v>1</v>
-      </c>
-      <c r="O2" s="65">
+      <c r="O2" s="64">
         <v>1</v>
       </c>
       <c r="P2" s="65">
@@ -5616,16 +5778,16 @@
       <c r="S2" s="65">
         <v>1</v>
       </c>
-      <c r="T2" s="70">
-        <v>1</v>
-      </c>
-      <c r="U2" s="66">
-        <v>1</v>
-      </c>
-      <c r="V2" s="64">
-        <v>0</v>
-      </c>
-      <c r="W2" s="65">
+      <c r="T2" s="65">
+        <v>1</v>
+      </c>
+      <c r="U2" s="70">
+        <v>1</v>
+      </c>
+      <c r="V2" s="66">
+        <v>1</v>
+      </c>
+      <c r="W2" s="64">
         <v>0</v>
       </c>
       <c r="X2" s="65">
@@ -5640,59 +5802,62 @@
       <c r="AA2" s="65">
         <v>0</v>
       </c>
-      <c r="AB2" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AB2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="58" t="s">
         <v>410</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>65</v>
+        <v>587</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>399</v>
       </c>
-      <c r="E3" s="60">
-        <v>0</v>
-      </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="60">
+        <v>0</v>
+      </c>
+      <c r="G3" s="82" t="s">
         <v>436</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>431</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="I3" s="59">
-        <v>0</v>
+      <c r="I3" s="59" t="s">
+        <v>431</v>
       </c>
       <c r="J3" s="59">
         <v>0</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="59">
+        <v>0</v>
+      </c>
+      <c r="L3" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="L3" s="59">
-        <v>0</v>
-      </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="59">
+        <v>0</v>
+      </c>
+      <c r="N3" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="N3" s="58">
-        <v>1</v>
-      </c>
-      <c r="O3" s="59">
+      <c r="O3" s="58">
+        <v>1</v>
+      </c>
+      <c r="P3" s="59">
         <v>1.20000004768372</v>
       </c>
-      <c r="P3" s="59">
-        <v>1</v>
-      </c>
       <c r="Q3" s="59">
         <v>1</v>
       </c>
@@ -5702,21 +5867,21 @@
       <c r="S3" s="59">
         <v>1</v>
       </c>
-      <c r="T3" s="71">
-        <v>1</v>
-      </c>
-      <c r="U3" s="60">
-        <v>1</v>
-      </c>
-      <c r="V3" s="58">
-        <v>0</v>
-      </c>
-      <c r="W3" s="59">
+      <c r="T3" s="59">
+        <v>1</v>
+      </c>
+      <c r="U3" s="71">
+        <v>1</v>
+      </c>
+      <c r="V3" s="60">
+        <v>1</v>
+      </c>
+      <c r="W3" s="58">
+        <v>0</v>
+      </c>
+      <c r="X3" s="59">
         <v>0.0099999997764826</v>
       </c>
-      <c r="X3" s="59">
-        <v>0</v>
-      </c>
       <c r="Y3" s="59">
         <v>0</v>
       </c>
@@ -5726,142 +5891,148 @@
       <c r="AA3" s="59">
         <v>0</v>
       </c>
-      <c r="AB3" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="17.250000">
+      <c r="AB3" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17.25">
       <c r="A4" s="61" t="s">
         <v>411</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>66</v>
+        <v>588</v>
       </c>
       <c r="C4" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="E4" s="63">
-        <v>0</v>
-      </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="63">
+        <v>0</v>
+      </c>
+      <c r="G4" s="83" t="s">
         <v>437</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>431</v>
       </c>
       <c r="H4" s="62" t="s">
         <v>431</v>
       </c>
-      <c r="I4" s="62">
-        <v>0</v>
+      <c r="I4" s="62" t="s">
+        <v>431</v>
       </c>
       <c r="J4" s="62">
         <v>0</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="L4" s="62" t="s">
         <v>431</v>
       </c>
-      <c r="L4" s="62">
-        <v>0</v>
-      </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="62">
+        <v>0</v>
+      </c>
+      <c r="N4" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="N4" s="61">
-        <v>1</v>
-      </c>
-      <c r="O4" s="62">
+      <c r="O4" s="61">
         <v>1</v>
       </c>
       <c r="P4" s="62">
         <v>1</v>
       </c>
       <c r="Q4" s="62">
+        <v>1</v>
+      </c>
+      <c r="R4" s="62">
         <v>1.00999999046326</v>
       </c>
-      <c r="R4" s="62">
-        <v>1</v>
-      </c>
       <c r="S4" s="62">
         <v>1</v>
       </c>
-      <c r="T4" s="72">
-        <v>1</v>
-      </c>
-      <c r="U4" s="63">
-        <v>1</v>
-      </c>
-      <c r="V4" s="61">
-        <v>0</v>
-      </c>
-      <c r="W4" s="62">
+      <c r="T4" s="62">
+        <v>1</v>
+      </c>
+      <c r="U4" s="72">
+        <v>1</v>
+      </c>
+      <c r="V4" s="63">
+        <v>1</v>
+      </c>
+      <c r="W4" s="61">
         <v>0</v>
       </c>
       <c r="X4" s="62">
         <v>0</v>
       </c>
       <c r="Y4" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="62">
         <v>0.0099999997764826</v>
       </c>
-      <c r="Z4" s="62">
-        <v>0</v>
-      </c>
       <c r="AA4" s="62">
         <v>0</v>
       </c>
-      <c r="AB4" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AB4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="67" t="s">
         <v>412</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>67</v>
+        <v>589</v>
       </c>
       <c r="C5" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="69">
+      <c r="F5" s="69">
         <v>50000</v>
       </c>
-      <c r="F5" s="84" t="s">
-        <v>431</v>
-      </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="84" t="s">
         <v>431</v>
       </c>
       <c r="H5" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="I5" s="68">
-        <v>0</v>
+      <c r="I5" s="68" t="s">
+        <v>431</v>
       </c>
       <c r="J5" s="68">
         <v>0</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="68">
+        <v>0</v>
+      </c>
+      <c r="L5" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="L5" s="68">
-        <v>0</v>
-      </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="68">
+        <v>0</v>
+      </c>
+      <c r="N5" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="N5" s="67">
+      <c r="O5" s="67">
         <v>1.29999995231628</v>
       </c>
-      <c r="O5" s="68">
-        <v>1</v>
-      </c>
       <c r="P5" s="68">
         <v>1</v>
       </c>
@@ -5874,18 +6045,18 @@
       <c r="S5" s="68">
         <v>1</v>
       </c>
-      <c r="T5" s="73">
-        <v>1</v>
-      </c>
-      <c r="U5" s="69">
-        <v>1</v>
-      </c>
-      <c r="V5" s="67">
+      <c r="T5" s="68">
+        <v>1</v>
+      </c>
+      <c r="U5" s="73">
+        <v>1</v>
+      </c>
+      <c r="V5" s="69">
+        <v>1</v>
+      </c>
+      <c r="W5" s="67">
         <v>0.0099999997764826</v>
       </c>
-      <c r="W5" s="68">
-        <v>0</v>
-      </c>
       <c r="X5" s="68">
         <v>0</v>
       </c>
@@ -5898,54 +6069,57 @@
       <c r="AA5" s="68">
         <v>0</v>
       </c>
-      <c r="AB5" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AB5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="39" t="s">
         <v>413</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>590</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="167" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="85" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="40">
+      <c r="F6" s="40">
         <v>50000</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="G6" s="85" t="s">
         <v>458</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
+      <c r="I6" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="N6" s="39">
-        <v>1</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="O6" s="39">
         <v>1</v>
       </c>
       <c r="P6" s="11">
@@ -5960,16 +6134,16 @@
       <c r="S6" s="11">
         <v>1</v>
       </c>
-      <c r="T6" s="74">
+      <c r="T6" s="11">
+        <v>1</v>
+      </c>
+      <c r="U6" s="74">
         <v>1.00999999046326</v>
       </c>
-      <c r="U6" s="40">
-        <v>1</v>
-      </c>
-      <c r="V6" s="39">
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
+      <c r="V6" s="40">
+        <v>1</v>
+      </c>
+      <c r="W6" s="39">
         <v>0</v>
       </c>
       <c r="X6" s="11">
@@ -5984,54 +6158,57 @@
       <c r="AA6" s="11">
         <v>0</v>
       </c>
-      <c r="AB6" s="40">
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="40">
         <v>0.0099999997764826</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="17.250000">
+    <row r="7" spans="1:29" ht="17.25">
       <c r="A7" s="49" t="s">
         <v>414</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>69</v>
+        <v>591</v>
       </c>
       <c r="C7" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="168" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="51">
+      <c r="F7" s="51">
         <v>50000</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="G7" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="H7" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="I7" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="I7" s="50">
-        <v>0</v>
-      </c>
       <c r="J7" s="50">
         <v>0</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="50">
+        <v>0</v>
+      </c>
+      <c r="L7" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="L7" s="50">
-        <v>0</v>
-      </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="50">
+        <v>0</v>
+      </c>
+      <c r="N7" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="N7" s="49">
-        <v>1</v>
-      </c>
-      <c r="O7" s="50">
+      <c r="O7" s="49">
         <v>1</v>
       </c>
       <c r="P7" s="50">
@@ -6046,16 +6223,16 @@
       <c r="S7" s="50">
         <v>1</v>
       </c>
-      <c r="T7" s="75">
-        <v>1</v>
-      </c>
-      <c r="U7" s="51">
-        <v>1</v>
-      </c>
-      <c r="V7" s="49">
-        <v>0</v>
-      </c>
-      <c r="W7" s="50">
+      <c r="T7" s="50">
+        <v>1</v>
+      </c>
+      <c r="U7" s="75">
+        <v>1</v>
+      </c>
+      <c r="V7" s="51">
+        <v>1</v>
+      </c>
+      <c r="W7" s="49">
         <v>0</v>
       </c>
       <c r="X7" s="50">
@@ -6070,54 +6247,57 @@
       <c r="AA7" s="50">
         <v>0</v>
       </c>
-      <c r="AB7" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AB7" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="55" t="s">
         <v>415</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>70</v>
+        <v>603</v>
       </c>
       <c r="C8" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="87" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="57">
+      <c r="F8" s="57">
         <v>500</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="G8" s="87" t="s">
         <v>431</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>455</v>
       </c>
       <c r="H8" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="I8" s="56">
-        <v>1</v>
+      <c r="I8" s="56" t="s">
+        <v>455</v>
       </c>
       <c r="J8" s="56">
+        <v>1</v>
+      </c>
+      <c r="K8" s="56">
         <v>0.100000001490116</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="L8" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="L8" s="56">
-        <v>0</v>
-      </c>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="56">
+        <v>0</v>
+      </c>
+      <c r="N8" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="N8" s="55">
-        <v>1</v>
-      </c>
-      <c r="O8" s="56">
+      <c r="O8" s="55">
         <v>1</v>
       </c>
       <c r="P8" s="56">
@@ -6132,16 +6312,16 @@
       <c r="S8" s="56">
         <v>1</v>
       </c>
-      <c r="T8" s="76">
-        <v>1</v>
-      </c>
-      <c r="U8" s="57">
-        <v>1</v>
-      </c>
-      <c r="V8" s="55">
-        <v>0</v>
-      </c>
-      <c r="W8" s="56">
+      <c r="T8" s="56">
+        <v>1</v>
+      </c>
+      <c r="U8" s="76">
+        <v>1</v>
+      </c>
+      <c r="V8" s="57">
+        <v>1</v>
+      </c>
+      <c r="W8" s="55">
         <v>0</v>
       </c>
       <c r="X8" s="56">
@@ -6156,54 +6336,57 @@
       <c r="AA8" s="56">
         <v>0</v>
       </c>
-      <c r="AB8" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AB8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="41" t="s">
         <v>416</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>71</v>
+        <v>594</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E9" s="42">
+      <c r="F9" s="42">
         <v>500</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="G9" s="88" t="s">
         <v>431</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>461</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="I9" s="26">
-        <v>1</v>
+      <c r="I9" s="26" t="s">
+        <v>461</v>
       </c>
       <c r="J9" s="26">
         <v>1</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
+      <c r="L9" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="L9" s="26">
+      <c r="M9" s="26">
         <v>4</v>
       </c>
-      <c r="M9" s="77" t="s">
+      <c r="N9" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="N9" s="41">
-        <v>1</v>
-      </c>
-      <c r="O9" s="26">
+      <c r="O9" s="41">
         <v>1</v>
       </c>
       <c r="P9" s="26">
@@ -6218,16 +6401,16 @@
       <c r="S9" s="26">
         <v>1</v>
       </c>
-      <c r="T9" s="77">
-        <v>1</v>
-      </c>
-      <c r="U9" s="42">
-        <v>1</v>
-      </c>
-      <c r="V9" s="41">
-        <v>0</v>
-      </c>
-      <c r="W9" s="26">
+      <c r="T9" s="26">
+        <v>1</v>
+      </c>
+      <c r="U9" s="77">
+        <v>1</v>
+      </c>
+      <c r="V9" s="42">
+        <v>1</v>
+      </c>
+      <c r="W9" s="41">
         <v>0</v>
       </c>
       <c r="X9" s="26">
@@ -6242,140 +6425,146 @@
       <c r="AA9" s="26">
         <v>0</v>
       </c>
-      <c r="AB9" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AB9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="41" t="s">
         <v>417</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>126</v>
+        <v>595</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E10" s="42">
+      <c r="F10" s="42">
         <v>500</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="G10" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="I10" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
       <c r="J10" s="26">
         <v>0</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="L10" s="26">
-        <v>0</v>
-      </c>
-      <c r="M10" s="77" t="s">
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="N10" s="41">
-        <v>1</v>
-      </c>
-      <c r="O10" s="26">
+      <c r="O10" s="41">
         <v>1</v>
       </c>
       <c r="P10" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="26">
         <v>1.20000004768372</v>
       </c>
-      <c r="Q10" s="26">
-        <v>1</v>
-      </c>
       <c r="R10" s="26">
         <v>1</v>
       </c>
       <c r="S10" s="26">
         <v>1</v>
       </c>
-      <c r="T10" s="77">
-        <v>1</v>
-      </c>
-      <c r="U10" s="42">
-        <v>1</v>
-      </c>
-      <c r="V10" s="41">
-        <v>0</v>
-      </c>
-      <c r="W10" s="26">
+      <c r="T10" s="26">
+        <v>1</v>
+      </c>
+      <c r="U10" s="77">
+        <v>1</v>
+      </c>
+      <c r="V10" s="42">
+        <v>1</v>
+      </c>
+      <c r="W10" s="41">
         <v>0</v>
       </c>
       <c r="X10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="26">
         <v>0.0099999997764826</v>
       </c>
-      <c r="Y10" s="26">
-        <v>0</v>
-      </c>
       <c r="Z10" s="26">
         <v>0</v>
       </c>
       <c r="AA10" s="26">
         <v>0</v>
       </c>
-      <c r="AB10" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AB10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="41" t="s">
         <v>418</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="C11" s="77" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E11" s="42">
+      <c r="F11" s="42">
         <v>500</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="G11" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="I11" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="I11" s="26">
+      <c r="J11" s="26">
         <v>5</v>
       </c>
-      <c r="J11" s="26">
+      <c r="K11" s="26">
         <v>0.150000005960464</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="L11" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="L11" s="26">
-        <v>0</v>
-      </c>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="N11" s="41">
-        <v>1</v>
-      </c>
-      <c r="O11" s="26">
+      <c r="O11" s="41">
         <v>1</v>
       </c>
       <c r="P11" s="26">
@@ -6390,16 +6579,16 @@
       <c r="S11" s="26">
         <v>1</v>
       </c>
-      <c r="T11" s="77">
-        <v>1</v>
-      </c>
-      <c r="U11" s="42">
-        <v>1</v>
-      </c>
-      <c r="V11" s="41">
-        <v>0</v>
-      </c>
-      <c r="W11" s="26">
+      <c r="T11" s="26">
+        <v>1</v>
+      </c>
+      <c r="U11" s="77">
+        <v>1</v>
+      </c>
+      <c r="V11" s="42">
+        <v>1</v>
+      </c>
+      <c r="W11" s="41">
         <v>0</v>
       </c>
       <c r="X11" s="26">
@@ -6414,140 +6603,146 @@
       <c r="AA11" s="26">
         <v>0</v>
       </c>
-      <c r="AB11" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AB11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="41" t="s">
         <v>419</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E12" s="42">
+      <c r="F12" s="42">
         <v>500</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="G12" s="88" t="s">
         <v>431</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>464</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="J12" s="26">
         <v>1.5</v>
       </c>
-      <c r="J12" s="26">
+      <c r="K12" s="26">
         <v>0.0500000007450581</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="L12" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="L12" s="26">
-        <v>0</v>
-      </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
+      <c r="N12" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="N12" s="41">
-        <v>1</v>
-      </c>
-      <c r="O12" s="26">
+      <c r="O12" s="41">
         <v>1</v>
       </c>
       <c r="P12" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="26">
         <v>1.10000002384186</v>
       </c>
-      <c r="Q12" s="26">
-        <v>1</v>
-      </c>
       <c r="R12" s="26">
         <v>1</v>
       </c>
       <c r="S12" s="26">
         <v>1</v>
       </c>
-      <c r="T12" s="77">
-        <v>1</v>
-      </c>
-      <c r="U12" s="42">
-        <v>1</v>
-      </c>
-      <c r="V12" s="41">
-        <v>0</v>
-      </c>
-      <c r="W12" s="26">
+      <c r="T12" s="26">
+        <v>1</v>
+      </c>
+      <c r="U12" s="77">
+        <v>1</v>
+      </c>
+      <c r="V12" s="42">
+        <v>1</v>
+      </c>
+      <c r="W12" s="41">
         <v>0</v>
       </c>
       <c r="X12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="26">
         <v>0.0099999997764826</v>
       </c>
-      <c r="Y12" s="26">
-        <v>0</v>
-      </c>
       <c r="Z12" s="26">
         <v>0</v>
       </c>
       <c r="AA12" s="26">
         <v>0</v>
       </c>
-      <c r="AB12" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AB12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="41" t="s">
         <v>420</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E13" s="42">
+      <c r="F13" s="42">
         <v>500</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="G13" s="88" t="s">
         <v>431</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>457</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="I13" s="26">
-        <v>1</v>
+      <c r="I13" s="26" t="s">
+        <v>457</v>
       </c>
       <c r="J13" s="26">
         <v>1</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="L13" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="L13" s="26">
-        <v>0</v>
-      </c>
-      <c r="M13" s="77" t="s">
+      <c r="M13" s="26">
+        <v>0</v>
+      </c>
+      <c r="N13" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="N13" s="41">
-        <v>1</v>
-      </c>
-      <c r="O13" s="26">
+      <c r="O13" s="41">
         <v>1</v>
       </c>
       <c r="P13" s="26">
@@ -6562,16 +6757,16 @@
       <c r="S13" s="26">
         <v>1</v>
       </c>
-      <c r="T13" s="77">
-        <v>1</v>
-      </c>
-      <c r="U13" s="42">
+      <c r="T13" s="26">
+        <v>1</v>
+      </c>
+      <c r="U13" s="77">
+        <v>1</v>
+      </c>
+      <c r="V13" s="42">
         <v>1.04999995231628</v>
       </c>
-      <c r="V13" s="41">
-        <v>0</v>
-      </c>
-      <c r="W13" s="26">
+      <c r="W13" s="41">
         <v>0</v>
       </c>
       <c r="X13" s="26">
@@ -6586,54 +6781,57 @@
       <c r="AA13" s="26">
         <v>0</v>
       </c>
-      <c r="AB13" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AB13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="41" t="s">
         <v>421</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E14" s="42">
+      <c r="F14" s="42">
         <v>500</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="G14" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="I14" s="26">
+      <c r="J14" s="26">
         <v>30</v>
       </c>
-      <c r="J14" s="26">
-        <v>1</v>
-      </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
+      <c r="L14" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="L14" s="26">
-        <v>0</v>
-      </c>
-      <c r="M14" s="77" t="s">
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="77" t="s">
         <v>468</v>
       </c>
-      <c r="N14" s="41">
-        <v>1</v>
-      </c>
-      <c r="O14" s="26">
+      <c r="O14" s="41">
         <v>1</v>
       </c>
       <c r="P14" s="26">
@@ -6648,16 +6846,16 @@
       <c r="S14" s="26">
         <v>1</v>
       </c>
-      <c r="T14" s="77">
-        <v>1</v>
-      </c>
-      <c r="U14" s="42">
-        <v>1</v>
-      </c>
-      <c r="V14" s="41">
-        <v>0</v>
-      </c>
-      <c r="W14" s="26">
+      <c r="T14" s="26">
+        <v>1</v>
+      </c>
+      <c r="U14" s="77">
+        <v>1</v>
+      </c>
+      <c r="V14" s="42">
+        <v>1</v>
+      </c>
+      <c r="W14" s="41">
         <v>0</v>
       </c>
       <c r="X14" s="26">
@@ -6672,54 +6870,57 @@
       <c r="AA14" s="26">
         <v>0</v>
       </c>
-      <c r="AB14" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AB14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="41" t="s">
         <v>422</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E15" s="42">
+      <c r="F15" s="42">
         <v>500</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="G15" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="H15" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I15" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="I15" s="26">
+      <c r="J15" s="26">
         <v>10</v>
       </c>
-      <c r="J15" s="26">
-        <v>1</v>
-      </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="L15" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="L15" s="26">
+      <c r="M15" s="26">
         <v>3</v>
       </c>
-      <c r="M15" s="77" t="s">
+      <c r="N15" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="N15" s="41">
-        <v>1</v>
-      </c>
-      <c r="O15" s="26">
+      <c r="O15" s="41">
         <v>1</v>
       </c>
       <c r="P15" s="26">
@@ -6734,16 +6935,16 @@
       <c r="S15" s="26">
         <v>1</v>
       </c>
-      <c r="T15" s="77">
-        <v>1</v>
-      </c>
-      <c r="U15" s="42">
-        <v>1</v>
-      </c>
-      <c r="V15" s="41">
-        <v>0</v>
-      </c>
-      <c r="W15" s="26">
+      <c r="T15" s="26">
+        <v>1</v>
+      </c>
+      <c r="U15" s="77">
+        <v>1</v>
+      </c>
+      <c r="V15" s="42">
+        <v>1</v>
+      </c>
+      <c r="W15" s="41">
         <v>0</v>
       </c>
       <c r="X15" s="26">
@@ -6758,59 +6959,62 @@
       <c r="AA15" s="26">
         <v>0</v>
       </c>
-      <c r="AB15" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AB15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="41" t="s">
         <v>423</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="88" t="s">
         <v>401</v>
       </c>
-      <c r="E16" s="42">
+      <c r="F16" s="42">
         <v>500</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="G16" s="88" t="s">
         <v>431</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>456</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="I16" s="26">
-        <v>0.100000001490116</v>
+      <c r="I16" s="26" t="s">
+        <v>456</v>
       </c>
       <c r="J16" s="26">
         <v>0.100000001490116</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="26">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="L16" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="L16" s="26">
-        <v>0</v>
-      </c>
-      <c r="M16" s="77" t="s">
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="N16" s="41">
-        <v>1</v>
-      </c>
-      <c r="O16" s="26">
+      <c r="O16" s="41">
+        <v>1</v>
+      </c>
+      <c r="P16" s="26">
         <v>1.10000002384186</v>
       </c>
-      <c r="P16" s="26">
-        <v>1</v>
-      </c>
       <c r="Q16" s="26">
         <v>1</v>
       </c>
@@ -6820,16 +7024,16 @@
       <c r="S16" s="26">
         <v>1</v>
       </c>
-      <c r="T16" s="77">
-        <v>1</v>
-      </c>
-      <c r="U16" s="42">
-        <v>1</v>
-      </c>
-      <c r="V16" s="41">
-        <v>0</v>
-      </c>
-      <c r="W16" s="26">
+      <c r="T16" s="26">
+        <v>1</v>
+      </c>
+      <c r="U16" s="77">
+        <v>1</v>
+      </c>
+      <c r="V16" s="42">
+        <v>1</v>
+      </c>
+      <c r="W16" s="41">
         <v>0</v>
       </c>
       <c r="X16" s="26">
@@ -6844,61 +7048,64 @@
       <c r="AA16" s="26">
         <v>0</v>
       </c>
-      <c r="AB16" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="17.250000">
+      <c r="AB16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="17.25">
       <c r="A17" s="43" t="s">
         <v>424</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>209</v>
+        <v>602</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="171" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="89" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="45">
+      <c r="F17" s="45">
         <v>500</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="G17" s="89" t="s">
         <v>431</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="H17" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="I17" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="I17" s="44">
-        <v>0</v>
-      </c>
       <c r="J17" s="44">
         <v>0</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="44">
+        <v>0</v>
+      </c>
+      <c r="L17" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="L17" s="44">
-        <v>0</v>
-      </c>
-      <c r="M17" s="78" t="s">
+      <c r="M17" s="44">
+        <v>0</v>
+      </c>
+      <c r="N17" s="78" t="s">
         <v>431</v>
       </c>
-      <c r="N17" s="43">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="O17" s="44">
+      <c r="O17" s="43">
         <v>1.10000002384186</v>
       </c>
       <c r="P17" s="44">
         <v>1.10000002384186</v>
       </c>
       <c r="Q17" s="44">
-        <v>1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="R17" s="44">
         <v>1</v>
@@ -6906,23 +7113,23 @@
       <c r="S17" s="44">
         <v>1</v>
       </c>
-      <c r="T17" s="78">
-        <v>1</v>
-      </c>
-      <c r="U17" s="45">
-        <v>1</v>
-      </c>
-      <c r="V17" s="43">
-        <v>0.0099999997764826</v>
-      </c>
-      <c r="W17" s="44">
+      <c r="T17" s="44">
+        <v>1</v>
+      </c>
+      <c r="U17" s="78">
+        <v>1</v>
+      </c>
+      <c r="V17" s="45">
+        <v>1</v>
+      </c>
+      <c r="W17" s="43">
         <v>0.0099999997764826</v>
       </c>
       <c r="X17" s="44">
         <v>0.0099999997764826</v>
       </c>
       <c r="Y17" s="44">
-        <v>0</v>
+        <v>0.0099999997764826</v>
       </c>
       <c r="Z17" s="44">
         <v>0</v>
@@ -6930,13 +7137,16 @@
       <c r="AA17" s="44">
         <v>0</v>
       </c>
-      <c r="AB17" s="45">
+      <c r="AB17" s="44">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="45">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -6949,12 +7159,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.87999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="27.87999916" customWidth="1"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1"/>
+    <col min="4" max="8" width="9.00500011" customWidth="1"/>
+    <col min="9" max="9" width="13.88000011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7015,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.4</v>
+        <v>0.400000005960464</v>
       </c>
       <c r="J2" s="3">
         <v>-1</v>
@@ -7047,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="22">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="J3" s="22">
         <v>0</v>
@@ -7070,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="22">
-        <v>0.65</v>
+        <v>0.649999976158142</v>
       </c>
       <c r="G4" s="22">
         <v>3</v>
@@ -7111,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="22">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="J5" s="22">
         <v>0</v>
@@ -7134,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="24">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="G6" s="24">
         <v>0</v>
@@ -7143,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="24">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="J6" s="24">
         <v>1</v>
@@ -7166,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="24">
-        <v>0.65</v>
+        <v>0.649999976158142</v>
       </c>
       <c r="G7" s="24">
         <v>6</v>
@@ -7207,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="24">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="J8" s="24">
         <v>1</v>
@@ -7230,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0.7</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
@@ -7239,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="J9" s="11">
         <v>2</v>
@@ -7262,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="11">
-        <v>0.72</v>
+        <v>0.720000028610229</v>
       </c>
       <c r="G10" s="11">
         <v>9</v>
@@ -7294,7 +7504,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="11">
-        <v>0.7</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -7303,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="J11" s="11">
         <v>2</v>
@@ -7326,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="21">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="G12" s="21">
         <v>0</v>
@@ -7335,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21">
-        <v>0.9</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="J12" s="21">
         <v>3</v>
@@ -7358,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="21">
-        <v>0.65</v>
+        <v>0.649999976158142</v>
       </c>
       <c r="G13" s="21">
         <v>12</v>
@@ -7399,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="21">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="J14" s="21">
         <v>3</v>
@@ -7407,7 +7617,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7420,10 +7630,10 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7462,7 +7672,7 @@
         <v>322</v>
       </c>
       <c r="C3" s="11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="11">
         <v>5</v>
@@ -7505,7 +7715,7 @@
         <v>529</v>
       </c>
       <c r="C6" s="21">
-        <v>0.6</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="D6" s="21">
         <f>boss!D2*boss!H2</f>
@@ -7604,7 +7814,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7617,12 +7827,12 @@
       <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="12.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="11.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="9" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1"/>
+    <col min="4" max="4" width="12.63000011" customWidth="1"/>
+    <col min="7" max="7" width="11.50500011" customWidth="1"/>
+    <col min="8" max="9" width="12.63000011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7723,7 +7933,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7736,11 +7946,11 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="26.62999916" customWidth="1"/>
+    <col min="2" max="2" width="15.13000011" customWidth="1"/>
+    <col min="5" max="8" width="9.00500011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7833,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.8</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="H3" s="3">
-        <v>1.2</v>
+        <v>1.20000004768372</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -7865,13 +8075,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>0.85</v>
+        <v>0.850000023841858</v>
       </c>
       <c r="G4" s="3">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="H4" s="3">
-        <v>1.1</v>
+        <v>1.10000002384186</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -7938,7 +8148,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G6" s="3">
-        <v>1.2</v>
+        <v>1.20000004768372</v>
       </c>
       <c r="H6" s="3">
         <v>0.75</v>
@@ -7950,12 +8160,12 @@
         <v>174</v>
       </c>
       <c r="K6" s="3">
-        <v>1.2</v>
+        <v>1.20000004768372</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7964,21 +8174,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="11.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="15.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1"/>
+    <col min="4" max="5" width="11.75500011" customWidth="1"/>
+    <col min="7" max="7" width="15.75500011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>49</v>
@@ -8212,7 +8422,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="290" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="skin" sheetId="7" r:id="rId2"/>
-    <sheet name="monster" sheetId="5" r:id="rId3"/>
-    <sheet name="enproj" sheetId="6" r:id="rId4"/>
-    <sheet name="status" sheetId="2" r:id="rId5"/>
-    <sheet name="boss" sheetId="3" r:id="rId6"/>
-    <sheet name="quest" sheetId="4" r:id="rId7"/>
+    <sheet name="product" sheetId="8" r:id="rId3"/>
+    <sheet name="monster" sheetId="5" r:id="rId4"/>
+    <sheet name="enproj" sheetId="6" r:id="rId5"/>
+    <sheet name="status" sheetId="2" r:id="rId6"/>
+    <sheet name="boss" sheetId="3" r:id="rId7"/>
+    <sheet name="quest" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="669">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -1774,6 +1775,199 @@
   </si>
   <si>
     <t xml:space="preserve">wildman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pricetype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"TRUE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addgem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disposable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week.SkinKeyList.snowman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week.SkinKeyList.wildman</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">AhU2MfudO0CGPbfKA54soA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tH4X0ump3kSX06VVmzjtXQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmkaGTYqRk+2dh4mPkWulQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WwogyFh130C5mFAy8k6MHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaJPrmZ45kuWH9lQrH8p6Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yED9p/FikECrm65TUyi/EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t5tSnH8OgUSB2kns/WaF+g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EfyDxZLgWE+1haiTVUlDdw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nM0KYyjX7kuBMBq+PAXWug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50BoMynjRU+ipwyssM0S9Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba5dgtxUQEaALH9CV4fuyA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gIGbxsQTUU+Vm9130mXL8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1IMHKQ0hUeFsw2XyxQiZw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\sprite\store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\sprite\store\adRemove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/adRemove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/10perCoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/startPack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/skinPack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_l</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1979,7 @@
     <numFmt numFmtId="65" formatCode="0.0_ "/>
     <numFmt numFmtId="66" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1910,8 +2104,28 @@
       <color theme="7" tint="0.79998"/>
       <name val="맑은 고딕"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF8080"/>
+      <name val="맑은 고딕"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2125,8 +2339,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73E5A7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2915,6 +3147,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
@@ -3065,7 +3371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
@@ -3580,6 +3886,123 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3634,6 +4057,1172 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="97">
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF006FBE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFCDFFE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFE080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF73E5A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -5615,8 +7204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7152,6 +8741,730 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.75499916" customWidth="1"/>
+    <col min="2" max="5" width="12.50500011" customWidth="1"/>
+    <col min="8" max="8" width="9.00500011" customWidth="1"/>
+    <col min="15" max="15" width="9.88000011" customWidth="1"/>
+    <col min="16" max="16" width="24.87999916" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="192" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="192" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1" s="192" t="s">
+        <v>621</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="191" t="s">
+        <v>604</v>
+      </c>
+      <c r="G1" s="192" t="s">
+        <v>605</v>
+      </c>
+      <c r="H1" s="193" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" s="191" t="s">
+        <v>401</v>
+      </c>
+      <c r="J1" s="192" t="s">
+        <v>623</v>
+      </c>
+      <c r="K1" s="192" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="192" t="s">
+        <v>625</v>
+      </c>
+      <c r="M1" s="192" t="s">
+        <v>626</v>
+      </c>
+      <c r="N1" s="192" t="s">
+        <v>627</v>
+      </c>
+      <c r="O1" s="193" t="s">
+        <v>365</v>
+      </c>
+      <c r="P1" s="206" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="185" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" s="184" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" s="199">
+        <v>4900</v>
+      </c>
+      <c r="F2" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="186">
+        <v>0</v>
+      </c>
+      <c r="I2" s="185">
+        <v>0</v>
+      </c>
+      <c r="J2" s="184">
+        <v>0</v>
+      </c>
+      <c r="K2" s="184">
+        <v>0</v>
+      </c>
+      <c r="L2" s="184">
+        <v>0</v>
+      </c>
+      <c r="M2" s="184">
+        <v>0</v>
+      </c>
+      <c r="N2" s="184">
+        <v>0</v>
+      </c>
+      <c r="O2" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P2" s="207" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="185" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3" s="184" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E3" s="199">
+        <v>3900</v>
+      </c>
+      <c r="F3" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="112">
+        <v>10</v>
+      </c>
+      <c r="I3" s="185">
+        <v>0</v>
+      </c>
+      <c r="J3" s="184">
+        <v>0</v>
+      </c>
+      <c r="K3" s="184">
+        <v>0</v>
+      </c>
+      <c r="L3" s="184">
+        <v>0</v>
+      </c>
+      <c r="M3" s="184">
+        <v>0</v>
+      </c>
+      <c r="N3" s="184">
+        <v>0</v>
+      </c>
+      <c r="O3" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P3" s="207" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="185" t="s">
+        <v>637</v>
+      </c>
+      <c r="B4" s="184" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E4" s="199">
+        <v>5900</v>
+      </c>
+      <c r="F4" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="186">
+        <v>0</v>
+      </c>
+      <c r="I4" s="185">
+        <v>100</v>
+      </c>
+      <c r="J4" s="184">
+        <v>10</v>
+      </c>
+      <c r="K4" s="184">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="184">
+        <v>90</v>
+      </c>
+      <c r="M4" s="184">
+        <v>9</v>
+      </c>
+      <c r="N4" s="184">
+        <v>9000</v>
+      </c>
+      <c r="O4" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P4" s="207" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="194" t="s">
+        <v>638</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" s="200">
+        <v>9900</v>
+      </c>
+      <c r="F5" s="197" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="190" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="195">
+        <v>0</v>
+      </c>
+      <c r="I5" s="194">
+        <v>300</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>250</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>25000</v>
+      </c>
+      <c r="O5" s="196" t="s">
+        <v>603</v>
+      </c>
+      <c r="P5" s="208" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="C6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="E6" s="114">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>40</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P6" s="209" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="185" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" s="184" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E7" s="199">
+        <v>5900</v>
+      </c>
+      <c r="F7" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="186">
+        <v>0</v>
+      </c>
+      <c r="I7" s="185">
+        <v>250</v>
+      </c>
+      <c r="J7" s="184">
+        <v>0</v>
+      </c>
+      <c r="K7" s="184">
+        <v>0</v>
+      </c>
+      <c r="L7" s="184">
+        <v>0</v>
+      </c>
+      <c r="M7" s="184">
+        <v>0</v>
+      </c>
+      <c r="N7" s="184">
+        <v>0</v>
+      </c>
+      <c r="O7" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P7" s="207" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="185" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="184" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E8" s="199">
+        <v>11900</v>
+      </c>
+      <c r="F8" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="186">
+        <v>0</v>
+      </c>
+      <c r="I8" s="185">
+        <v>600</v>
+      </c>
+      <c r="J8" s="184">
+        <v>0</v>
+      </c>
+      <c r="K8" s="184">
+        <v>0</v>
+      </c>
+      <c r="L8" s="184">
+        <v>0</v>
+      </c>
+      <c r="M8" s="184">
+        <v>0</v>
+      </c>
+      <c r="N8" s="184">
+        <v>0</v>
+      </c>
+      <c r="O8" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P8" s="207" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="185" t="s">
+        <v>642</v>
+      </c>
+      <c r="B9" s="184" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E9" s="199">
+        <v>3900</v>
+      </c>
+      <c r="F9" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="186">
+        <v>0</v>
+      </c>
+      <c r="I9" s="185">
+        <v>0</v>
+      </c>
+      <c r="J9" s="184">
+        <v>15</v>
+      </c>
+      <c r="K9" s="184">
+        <v>0</v>
+      </c>
+      <c r="L9" s="184">
+        <v>0</v>
+      </c>
+      <c r="M9" s="184">
+        <v>0</v>
+      </c>
+      <c r="N9" s="184">
+        <v>0</v>
+      </c>
+      <c r="O9" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P9" s="207" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="185" t="s">
+        <v>643</v>
+      </c>
+      <c r="B10" s="184" t="s">
+        <v>613</v>
+      </c>
+      <c r="C10" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" s="199">
+        <v>11900</v>
+      </c>
+      <c r="F10" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="186">
+        <v>0</v>
+      </c>
+      <c r="I10" s="185">
+        <v>0</v>
+      </c>
+      <c r="J10" s="184">
+        <v>60</v>
+      </c>
+      <c r="K10" s="184">
+        <v>0</v>
+      </c>
+      <c r="L10" s="184">
+        <v>0</v>
+      </c>
+      <c r="M10" s="184">
+        <v>0</v>
+      </c>
+      <c r="N10" s="184">
+        <v>0</v>
+      </c>
+      <c r="O10" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P10" s="207" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="185" t="s">
+        <v>644</v>
+      </c>
+      <c r="B11" s="184" t="s">
+        <v>614</v>
+      </c>
+      <c r="C11" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E11" s="199">
+        <v>19900</v>
+      </c>
+      <c r="F11" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="186">
+        <v>0</v>
+      </c>
+      <c r="I11" s="185">
+        <v>0</v>
+      </c>
+      <c r="J11" s="184">
+        <v>135</v>
+      </c>
+      <c r="K11" s="184">
+        <v>0</v>
+      </c>
+      <c r="L11" s="184">
+        <v>0</v>
+      </c>
+      <c r="M11" s="184">
+        <v>0</v>
+      </c>
+      <c r="N11" s="184">
+        <v>0</v>
+      </c>
+      <c r="O11" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P11" s="207" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="185" t="s">
+        <v>645</v>
+      </c>
+      <c r="B12" s="184" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="184" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="199">
+        <v>50</v>
+      </c>
+      <c r="F12" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="186">
+        <v>0</v>
+      </c>
+      <c r="I12" s="185">
+        <v>0</v>
+      </c>
+      <c r="J12" s="184">
+        <v>0</v>
+      </c>
+      <c r="K12" s="184">
+        <v>5000</v>
+      </c>
+      <c r="L12" s="184">
+        <v>0</v>
+      </c>
+      <c r="M12" s="184">
+        <v>0</v>
+      </c>
+      <c r="N12" s="184">
+        <v>0</v>
+      </c>
+      <c r="O12" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P12" s="207" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="185" t="s">
+        <v>646</v>
+      </c>
+      <c r="B13" s="184" t="s">
+        <v>616</v>
+      </c>
+      <c r="C13" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="184" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" s="199">
+        <v>175</v>
+      </c>
+      <c r="F13" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="186">
+        <v>0</v>
+      </c>
+      <c r="I13" s="185">
+        <v>0</v>
+      </c>
+      <c r="J13" s="184">
+        <v>0</v>
+      </c>
+      <c r="K13" s="184">
+        <v>20000</v>
+      </c>
+      <c r="L13" s="184">
+        <v>0</v>
+      </c>
+      <c r="M13" s="184">
+        <v>0</v>
+      </c>
+      <c r="N13" s="184">
+        <v>0</v>
+      </c>
+      <c r="O13" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P13" s="207" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.25">
+      <c r="A14" s="187" t="s">
+        <v>647</v>
+      </c>
+      <c r="B14" s="188" t="s">
+        <v>617</v>
+      </c>
+      <c r="C14" s="188" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="188" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="201">
+        <v>400</v>
+      </c>
+      <c r="F14" s="101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="189">
+        <v>0</v>
+      </c>
+      <c r="I14" s="187">
+        <v>0</v>
+      </c>
+      <c r="J14" s="188">
+        <v>0</v>
+      </c>
+      <c r="K14" s="188">
+        <v>50000</v>
+      </c>
+      <c r="L14" s="188">
+        <v>0</v>
+      </c>
+      <c r="M14" s="188">
+        <v>0</v>
+      </c>
+      <c r="N14" s="188">
+        <v>0</v>
+      </c>
+      <c r="O14" s="189" t="s">
+        <v>586</v>
+      </c>
+      <c r="P14" s="210" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -7622,12 +9935,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7819,7 +10132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7938,7 +10251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -8170,7 +10483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="220" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="310" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -16,1958 +16,1981 @@
     <sheet name="boss" sheetId="3" r:id="rId7"/>
     <sheet name="quest" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="152511" calcOnSave="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="669">
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우박</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음회오리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스에이지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay_reduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작은불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거대한불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강한불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/halficicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/iceage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/blizzard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icetornado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1YI39qlEIkehcQKXsHTyUg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWTscmjKlESMcPHMRe0hXg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAdmjT6HC0y8LOsa1qMZvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x0MEnXpXpkSAeJdx9u1dxA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nv7SgpakukyznybxDxXzKg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rrTgjWmPmE6tye/yifLCyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8z2pJ9jvp0qxuwrUhRrmyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Txp9XKcq6kSTovn/H/3gjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jZ9q6LkxFkil8RL3lc0PPg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FkSB7SxxhE+q+XE4G8ZT4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPruJLqK1ESOVRcE3QyTlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2WySlC4shUOPDHA9oxYaKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iW548VF8UEGD+vAuXhtSAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillrange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>눈덩이</t>
+  </si>
+  <si>
+    <t>고드름</t>
+  </si>
+  <si>
+    <t>반달고드름</t>
+  </si>
+  <si>
+    <t>빙벽</t>
+  </si>
+  <si>
+    <t>우박</t>
+  </si>
+  <si>
+    <t>얼음회오리</t>
+  </si>
+  <si>
+    <t>아이스에이지</t>
+  </si>
+  <si>
+    <t>블리자드</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>att_increase</t>
+  </si>
+  <si>
+    <t>delay_reduce</t>
+  </si>
+  <si>
+    <t>size_increase</t>
+  </si>
+  <si>
+    <t>count_increase</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>작은불씨</t>
+  </si>
+  <si>
+    <t>불씨</t>
+  </si>
+  <si>
+    <t>거대한불씨</t>
+  </si>
+  <si>
+    <t>불정령</t>
+  </si>
+  <si>
+    <t>강한불정령</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sprite/snowball</t>
+  </si>
+  <si>
+    <t>sprite/icicle</t>
+  </si>
+  <si>
+    <t>sprite/halficicle</t>
+  </si>
+  <si>
+    <t>sprite/icewall</t>
+  </si>
+  <si>
+    <t>sprite/hail</t>
+  </si>
+  <si>
+    <t>sprite/iceage</t>
+  </si>
+  <si>
+    <t>sprite/blizzard</t>
+  </si>
+  <si>
+    <t>sprite/icetornado</t>
+  </si>
+  <si>
+    <t>1YI39qlEIkehcQKXsHTyUg</t>
+  </si>
+  <si>
+    <t>NWTscmjKlESMcPHMRe0hXg</t>
+  </si>
+  <si>
+    <t>BAdmjT6HC0y8LOsa1qMZvg</t>
+  </si>
+  <si>
+    <t>x0MEnXpXpkSAeJdx9u1dxA</t>
+  </si>
+  <si>
+    <t>Nv7SgpakukyznybxDxXzKg</t>
+  </si>
+  <si>
+    <t>rrTgjWmPmE6tye/yifLCyQ</t>
+  </si>
+  <si>
+    <t>8z2pJ9jvp0qxuwrUhRrmyQ</t>
+  </si>
+  <si>
+    <t>Txp9XKcq6kSTovn/H/3gjw</t>
+  </si>
+  <si>
+    <t>jZ9q6LkxFkil8RL3lc0PPg</t>
+  </si>
+  <si>
+    <t>FkSB7SxxhE+q+XE4G8ZT4w</t>
+  </si>
+  <si>
+    <t>EPruJLqK1ESOVRcE3QyTlw</t>
+  </si>
+  <si>
+    <t>2WySlC4shUOPDHA9oxYaKw</t>
+  </si>
+  <si>
+    <t>iW548VF8UEGD+vAuXhtSAQ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hpgen</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>attspeed</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>skillrange</t>
+  </si>
+  <si>
+    <t>killamount</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e7AXSZh+E0eaC78EFNa29g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
+    <t>e7AXSZh+E0eaC78EFNa29g</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">eHf0vPp+wk2aU5E4yd7/Yg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_increase</t>
+    <t>eHf0vPp+wk2aU5E4yd7/Yg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>mop_fire</t>
+  </si>
+  <si>
+    <t>mop_bok</t>
+  </si>
+  <si>
+    <t>mop_stick</t>
+  </si>
+  <si>
+    <t>mop_turtle</t>
+  </si>
+  <si>
+    <t>mop_bluefire</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>stage_appear</t>
+  </si>
+  <si>
+    <t>round_appear</t>
+  </si>
+  <si>
+    <t>hp_increase</t>
+  </si>
+  <si>
+    <t>exp_increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">l84s0jqeJ0+ShvpHGehKgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1xmfc5j9REe0ZHIX8rDf8w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kTDzILh6IE+jkW2qF+KXAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9VCtUFsTA0WcVNS71DsQNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uALCIjfaEky3G92iAmHJ9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bird</t>
+    <t>l84s0jqeJ0+ShvpHGehKgA</t>
+  </si>
+  <si>
+    <t>1xmfc5j9REe0ZHIX8rDf8w</t>
+  </si>
+  <si>
+    <t>kTDzILh6IE+jkW2qF+KXAw</t>
+  </si>
+  <si>
+    <t>9VCtUFsTA0WcVNS71DsQNA</t>
+  </si>
+  <si>
+    <t>uALCIjfaEky3G92iAmHJ9w</t>
+  </si>
+  <si>
+    <t>mop_bird</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">8gAo9LyP60OMAwTdoY8wrw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priceamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_cow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase</t>
+    <t>8gAo9LyP60OMAwTdoY8wrw</t>
+  </si>
+  <si>
+    <t>priceamount</t>
+  </si>
+  <si>
+    <t>boss_bird</t>
+  </si>
+  <si>
+    <t>boss_</t>
+  </si>
+  <si>
+    <t>boss_golem</t>
+  </si>
+  <si>
+    <t>boss_rock</t>
+  </si>
+  <si>
+    <t>boss_cow</t>
+  </si>
+  <si>
+    <t>boss_bear</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">4WVxc3VSx0O0tna/lL5NCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7LLesioQ0kSNXqcpCaDbeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JtRPf/ABQkK6YzgnTjqc1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mL8Q/tFX90CNwPiHYkk0GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tEcjfw23XkCu//y+zqlQJQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/ictone</t>
+    <t>4WVxc3VSx0O0tna/lL5NCA</t>
+  </si>
+  <si>
+    <t>7LLesioQ0kSNXqcpCaDbeg</t>
+  </si>
+  <si>
+    <t>JtRPf/ABQkK6YzgnTjqc1Q</t>
+  </si>
+  <si>
+    <t>mL8Q/tFX90CNwPiHYkk0GA</t>
+  </si>
+  <si>
+    <t>tEcjfw23XkCu//y+zqlQJQ</t>
+  </si>
+  <si>
+    <t>얼음뭉치</t>
+  </si>
+  <si>
+    <t>눈뭉치</t>
+  </si>
+  <si>
+    <t>sprite/ictone</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">zIrXoinId0iFNhZHl1++bA</t>
+    <t>zIrXoinId0iFNhZHl1++bA</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">xL0ZSRTaC0mmTc44mg8IMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVjVGRJbj0GkW3ghHwH8Tg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayHEKjsd8UqG8GU1Xt6tTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5y8+mUBukKyaU5ZN30mZg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR2VPmVTTUGofKgvmFjHVQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O7aBnzSfm0ariTzPxBExFw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlpgBelcX0qncpw9BzBXKQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3UfqJRRF0SPgkVBkbx3hw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCpjVMj5JUqt9ziS5P3awQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speed</t>
+    <t>xL0ZSRTaC0mmTc44mg8IMw</t>
+  </si>
+  <si>
+    <t>KVjVGRJbj0GkW3ghHwH8Tg</t>
+  </si>
+  <si>
+    <t>ayHEKjsd8UqG8GU1Xt6tTw</t>
+  </si>
+  <si>
+    <t>Q5y8+mUBukKyaU5ZN30mZg</t>
+  </si>
+  <si>
+    <t>GR2VPmVTTUGofKgvmFjHVQ</t>
+  </si>
+  <si>
+    <t>O7aBnzSfm0ariTzPxBExFw</t>
+  </si>
+  <si>
+    <t>GlpgBelcX0qncpw9BzBXKQ</t>
+  </si>
+  <si>
+    <t>Q3UfqJRRF0SPgkVBkbx3hw</t>
+  </si>
+  <si>
+    <t>XCpjVMj5JUqt9ziS5P3awQ</t>
+  </si>
+  <si>
+    <t>mop_ant</t>
+  </si>
+  <si>
+    <t>mop_jack</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">jebfgtgwy0aCi3wyFmHn7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E37YclCUk0atKge3NbdvOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈폭탄</t>
+    <t>jebfgtgwy0aCi3wyFmHn7A</t>
+  </si>
+  <si>
+    <t>E37YclCUk0atKge3NbdvOQ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>얼음주먹</t>
+  </si>
+  <si>
+    <t>눈폭탄</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">sAlSjuwkNkmox3HyjOQPlQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음방어막</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음빠따</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소용돌이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음파동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적</t>
-  </si>
-  <si>
-    <t xml:space="preserve">산탄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstaacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuee</t>
+    <t>sAlSjuwkNkmox3HyjOQPlQ</t>
+  </si>
+  <si>
+    <t>patt</t>
+  </si>
+  <si>
+    <t>pspeed</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>얼음방어막</t>
+  </si>
+  <si>
+    <t>얼음빠따</t>
+  </si>
+  <si>
+    <t>소용돌이</t>
+  </si>
+  <si>
+    <t>얼음파동</t>
+  </si>
+  <si>
+    <t>무적</t>
+  </si>
+  <si>
+    <t>산탄</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>keep_increase</t>
+  </si>
+  <si>
+    <t>obstaacle</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>continuee</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">u9VGjry1BESzo46bAmXOQg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HJCxWuQGLEyzxZkpf/s7+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejPA7ZZvkKW83lA1QUQCQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1BTnZfB2kWbObm+5JLgSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iYqYA2TFhU6d36X/SwpGHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wXhpxA4yqEW1NBNV40y6rA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lnrq0Qp3nEu1QeUh1ApxEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEnZnNX24kWluYtm4cqJfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UwutR9kZ3EixiomFUKMhTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnqtLH8SiUq5SfVK11iPqA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA5d+nQZzEWyxoNuhU+Naw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tq+CR0pBE0CX5vqWS90PAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJG8FHa00aP7U66nf0Aqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K+N6+YPVECfus1pPsfuXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be8bZ1lxC0+P00Vb0G3asQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hQT4FoA9pke18i999uPtaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
+    <t>u9VGjry1BESzo46bAmXOQg</t>
+  </si>
+  <si>
+    <t>HJCxWuQGLEyzxZkpf/s7+Q</t>
+  </si>
+  <si>
+    <t>dejPA7ZZvkKW83lA1QUQCQ</t>
+  </si>
+  <si>
+    <t>K1BTnZfB2kWbObm+5JLgSQ</t>
+  </si>
+  <si>
+    <t>iYqYA2TFhU6d36X/SwpGHA</t>
+  </si>
+  <si>
+    <t>wXhpxA4yqEW1NBNV40y6rA</t>
+  </si>
+  <si>
+    <t>Lnrq0Qp3nEu1QeUh1ApxEA</t>
+  </si>
+  <si>
+    <t>FEnZnNX24kWluYtm4cqJfg</t>
+  </si>
+  <si>
+    <t>UwutR9kZ3EixiomFUKMhTg</t>
+  </si>
+  <si>
+    <t>tnqtLH8SiUq5SfVK11iPqA</t>
+  </si>
+  <si>
+    <t>SA5d+nQZzEWyxoNuhU+Naw</t>
+  </si>
+  <si>
+    <t>Tq+CR0pBE0CX5vqWS90PAw</t>
+  </si>
+  <si>
+    <t>TAJG8FHa00aP7U66nf0Aqw</t>
+  </si>
+  <si>
+    <t>4K+N6+YPVECfus1pPsfuXQ</t>
+  </si>
+  <si>
+    <t>be8bZ1lxC0+P00Vb0G3asQ</t>
+  </si>
+  <si>
+    <t>hQT4FoA9pke18i999uPtaw</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>conditionA</t>
+  </si>
+  <si>
+    <t>conditionB</t>
+  </si>
+  <si>
+    <t>conditionT</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>appear_time</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">S4cO+7g73kSC//RCNr49Eg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5Eog+fJivU2oDVll81v+QQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zNS43tSa4kmhOggLqnp2/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0io+FmkfESkyDRr3Lsivg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_mam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_carb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_deer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map</t>
+    <t>S4cO+7g73kSC//RCNr49Eg</t>
+  </si>
+  <si>
+    <t>5Eog+fJivU2oDVll81v+QQ</t>
+  </si>
+  <si>
+    <t>zNS43tSa4kmhOggLqnp2/A</t>
+  </si>
+  <si>
+    <t>M0io+FmkfESkyDRr3Lsivg</t>
+  </si>
+  <si>
+    <t>mob_fire</t>
+  </si>
+  <si>
+    <t>mob_bok</t>
+  </si>
+  <si>
+    <t>mob_stick</t>
+  </si>
+  <si>
+    <t>mob_turtle</t>
+  </si>
+  <si>
+    <t>mob_ant</t>
+  </si>
+  <si>
+    <t>mob_jack</t>
+  </si>
+  <si>
+    <t>mob_bluefire</t>
+  </si>
+  <si>
+    <t>mob_mam</t>
+  </si>
+  <si>
+    <t>mob_carb</t>
+  </si>
+  <si>
+    <t>mob_deer</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">UqOBjr+LakW9OE61quvEOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7oP5n9ovXEK+bbIC8iuZMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QEm467P+ck6FXvY1BWI/QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oN7gigvYvkCP1gYaQUFzpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiaNlJj0D02QBXqMTggxXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t>UqOBjr+LakW9OE61quvEOQ</t>
+  </si>
+  <si>
+    <t>7oP5n9ovXEK+bbIC8iuZMA</t>
+  </si>
+  <si>
+    <t>QEm467P+ck6FXvY1BWI/QA</t>
+  </si>
+  <si>
+    <t>oN7gigvYvkCP1gYaQUFzpg</t>
+  </si>
+  <si>
+    <t>xiaNlJj0D02QBXqMTggxXA</t>
+  </si>
+  <si>
+    <t>sizex</t>
+  </si>
+  <si>
+    <t>sizey</t>
+  </si>
+  <si>
+    <t>snowrock0</t>
+  </si>
+  <si>
+    <t>snowrock1</t>
+  </si>
+  <si>
+    <t>snowrock2</t>
+  </si>
+  <si>
+    <t>snowrock3</t>
+  </si>
+  <si>
+    <t>rock0</t>
+  </si>
+  <si>
+    <t>rock1</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>mob_crab</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">utfj/KusT0q9e9ADgg8p9g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3YdoHHnJEmHPLOHPk8tHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lLIxSPJ5jk6H8IhzXjd5Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+r0e9D3k7kuvrrcjW7rTWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N6Ah1yXV/0mnzDRZhUhoew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7q1A0hzTv0e0ZkrUDizxDQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JiEy726Vn0i6qgPI9aQTRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXygPyEDNESF1Uo4kpU9UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D/jPgeJpjkiT0hqDPsmOZw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill1</t>
+    <t>utfj/KusT0q9e9ADgg8p9g</t>
+  </si>
+  <si>
+    <t>f3YdoHHnJEmHPLOHPk8tHA</t>
+  </si>
+  <si>
+    <t>lLIxSPJ5jk6H8IhzXjd5Ag</t>
+  </si>
+  <si>
+    <t>+r0e9D3k7kuvrrcjW7rTWA</t>
+  </si>
+  <si>
+    <t>N6Ah1yXV/0mnzDRZhUhoew</t>
+  </si>
+  <si>
+    <t>7q1A0hzTv0e0ZkrUDizxDQ</t>
+  </si>
+  <si>
+    <t>JiEy726Vn0i6qgPI9aQTRQ</t>
+  </si>
+  <si>
+    <t>OXygPyEDNESF1Uo4kpU9UA</t>
+  </si>
+  <si>
+    <t>D/jPgeJpjkiT0hqDPsmOZw</t>
+  </si>
+  <si>
+    <t>boss_owl</t>
+  </si>
+  <si>
+    <t>skill0</t>
+  </si>
+  <si>
+    <t>skill1</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">W3z0ATuqbkKttkboCpXzTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9oZ4bAUw3EaaXJyde7jotg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p7Lei6NHm0mU6A3yoCYsjQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w8cURakZekSSKtD9r+3WnA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m4KGirv16U+HZ1CPc/XEAQ</t>
+    <t>W3z0ATuqbkKttkboCpXzTg</t>
+  </si>
+  <si>
+    <t>9oZ4bAUw3EaaXJyde7jotg</t>
+  </si>
+  <si>
+    <t>p7Lei6NHm0mU6A3yoCYsjQ</t>
+  </si>
+  <si>
+    <t>w8cURakZekSSKtD9r+3WnA</t>
+  </si>
+  <si>
+    <t>m4KGirv16U+HZ1CPc/XEAQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">j6havu18FkO2GTlo+CyQyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N5N6gU+ysEqOQbdz1hczog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">552Me0Rk506ghDFAyrQSwA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsxP8eNXM0mKlWitTcpTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osCjoq/EX0WhMYuWNZYtkg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxlvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력재생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿨타임감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시전속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치획득량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회복량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infomation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력을 얻는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 시전속도를 단축시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치 획득량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회복량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘 뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">단단한 얼음으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뾰족한 얼음이 적을 관통한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달얼음을 여러갈래로 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 우박이!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽을 생성해 길을 막는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력이 있는 빙벽을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 몰아쳐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대상에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어막을</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력의 방어막을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">근접한 적을 빠따로 떨쳐낸다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 시간동안 무적이 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음 산탄을 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 50% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val</t>
+    <t>j6havu18FkO2GTlo+CyQyg</t>
+  </si>
+  <si>
+    <t>N5N6gU+ysEqOQbdz1hczog</t>
+  </si>
+  <si>
+    <t>552Me0Rk506ghDFAyrQSwA</t>
+  </si>
+  <si>
+    <t>jsxP8eNXM0mKlWitTcpTGA</t>
+  </si>
+  <si>
+    <t>osCjoq/EX0WhMYuWNZYtkg</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>maxlvl</t>
+  </si>
+  <si>
+    <t>max_level</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>방어력</t>
+  </si>
+  <si>
+    <t>체력재생</t>
+  </si>
+  <si>
+    <t>쿨타임감소</t>
+  </si>
+  <si>
+    <t>스킬크기</t>
+  </si>
+  <si>
+    <t>시전속도</t>
+  </si>
+  <si>
+    <t>경험치</t>
+  </si>
+  <si>
+    <t>경험치획득량</t>
+  </si>
+  <si>
+    <t>회복량</t>
+  </si>
+  <si>
+    <t>이동속도</t>
+  </si>
+  <si>
+    <t>infomation</t>
+  </si>
+  <si>
+    <t>최대체력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>방어력을 얻는다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복시킨다.</t>
+  </si>
+  <si>
+    <t>스킬의 속도</t>
+  </si>
+  <si>
+    <t>스킬의 시전속도를 단축시킨다.</t>
+  </si>
+  <si>
+    <t>경험치 획득량이 증가한다.</t>
+  </si>
+  <si>
+    <t>스킬크기가 증가한다.</t>
+  </si>
+  <si>
+    <t>모든 회복량이 증가한다.</t>
+  </si>
+  <si>
+    <t>이동속도가 증가한다.</t>
+  </si>
+  <si>
+    <t>최대체력을 증가한다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가한다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>잘뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>잘 뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>얼음주먹으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>단단한 얼음으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>뾰족한 얼음이 적을 관통한다.</t>
+  </si>
+  <si>
+    <t>반달얼음을 여러갈래로 발사한다.</t>
+  </si>
+  <si>
+    <t>하늘에서 우박이!</t>
+  </si>
+  <si>
+    <t>빙벽을 생성해 길을 막는다.</t>
+  </si>
+  <si>
+    <t>일정 체력이 있는 빙벽을 생성한다.</t>
+  </si>
+  <si>
+    <t>눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>블리자드를 몰아쳐</t>
+  </si>
+  <si>
+    <t>블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>대상에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>적에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>방어막을</t>
+  </si>
+  <si>
+    <t>일정 체력의 방어막을 생성한다.</t>
+  </si>
+  <si>
+    <t>근접한 적을 빠따로 떨쳐낸다.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>일정 시간동안 무적이 된다.</t>
+  </si>
+  <si>
+    <t>얼음 산탄을 발사한다.</t>
+  </si>
+  <si>
+    <t>체력 50% 증가</t>
+  </si>
+  <si>
+    <t>공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>val</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">7G/uy/d+XUq+hb1idKgcKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhBbNsmDpUOy343k+irhhw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2qdwH+Eqq0qi76gM+HEpSg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dGD2J/13Ak60ubtLOTmU7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hluuyb8xDkq3igjPq3UZrQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lZ58eF6zQEqU7UxPZqxY5g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+fNq81zBhk2AJPDimVASnQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGgTfHjnFUu5Yx8sijXu/Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wfu556tlIkGpgHS1/b8wRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_term</t>
+    <t>7G/uy/d+XUq+hb1idKgcKw</t>
+  </si>
+  <si>
+    <t>nhBbNsmDpUOy343k+irhhw</t>
+  </si>
+  <si>
+    <t>2qdwH+Eqq0qi76gM+HEpSg</t>
+  </si>
+  <si>
+    <t>dGD2J/13Ak60ubtLOTmU7A</t>
+  </si>
+  <si>
+    <t>hluuyb8xDkq3igjPq3UZrQ</t>
+  </si>
+  <si>
+    <t>lZ58eF6zQEqU7UxPZqxY5g</t>
+  </si>
+  <si>
+    <t>+fNq81zBhk2AJPDimVASnQ</t>
+  </si>
+  <si>
+    <t>GGgTfHjnFUu5Yx8sijXu/Q</t>
+  </si>
+  <si>
+    <t>Wfu556tlIkGpgHS1/b8wRQ</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>appear_term</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e3ywpdo+tkG3rGFzadDOZQ</t>
+    <t>e3ywpdo+tkG3rGFzadDOZQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ou4jSwVOP0WiG5CBsppWRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천둥망치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병을 던저 광역 지속 피해를 입힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
+    <t>ou4jSwVOP0WiG5CBsppWRA</t>
+  </si>
+  <si>
+    <t>독병</t>
+  </si>
+  <si>
+    <t>천둥망치</t>
+  </si>
+  <si>
+    <t>독병을 던저 광역 지속 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">BIr97MzFFEqSkH79ajRcIQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80jHuiqyGkmbPMFYa7j/WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmqeNM7xnEiwpUgalIDKuQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7Zq+FZr4EU2JUSJGYb5l3w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyGjwUuGSU28kZnltbYfyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8EUv2r2Q3Umy56rbAoz3YA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VeBdIaS8+kW7pD5h7TjldA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owl_shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bear_shot</t>
+    <t>BIr97MzFFEqSkH79ajRcIQ</t>
+  </si>
+  <si>
+    <t>80jHuiqyGkmbPMFYa7j/WA</t>
+  </si>
+  <si>
+    <t>SmqeNM7xnEiwpUgalIDKuQ</t>
+  </si>
+  <si>
+    <t>7Zq+FZr4EU2JUSJGYb5l3w</t>
+  </si>
+  <si>
+    <t>nyGjwUuGSU28kZnltbYfyg</t>
+  </si>
+  <si>
+    <t>8EUv2r2Q3Umy56rbAoz3YA</t>
+  </si>
+  <si>
+    <t>VeBdIaS8+kW7pD5h7TjldA</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>fireball</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>owl_shot</t>
+  </si>
+  <si>
+    <t>bear_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">z65T2Hcot0+fcRJxc1V4ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6q3skcv+nUCSzHwhTFtnVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrRaKBXFPkmy/QSsvp6HtQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1sZU2dREyQjNX69/i7XQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">번개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중력장</t>
-  </si>
-  <si>
-    <t xml:space="preserve">친구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아돈빠가돈!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌌드라욘마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌋드라요마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 주기적으로 번개가 친다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_snail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_beetle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_flamingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_dragonfly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_candle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_rino</t>
+    <t>z65T2Hcot0+fcRJxc1V4ZA</t>
+  </si>
+  <si>
+    <t>6q3skcv+nUCSzHwhTFtnVw</t>
+  </si>
+  <si>
+    <t>jrRaKBXFPkmy/QSsvp6HtQ</t>
+  </si>
+  <si>
+    <t>hc1sZU2dREyQjNX69/i7XQ</t>
+  </si>
+  <si>
+    <t>번개</t>
+  </si>
+  <si>
+    <t>지뢰</t>
+  </si>
+  <si>
+    <t>중력장</t>
+  </si>
+  <si>
+    <t>친구</t>
+  </si>
+  <si>
+    <t>적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
+  </si>
+  <si>
+    <t>아돈빠가돈!</t>
+  </si>
+  <si>
+    <t>쌌드라욘마인~</t>
+  </si>
+  <si>
+    <t>쌋드라요마인~</t>
+  </si>
+  <si>
+    <t>하늘에서 주기적으로 번개가 친다.</t>
+  </si>
+  <si>
+    <t>mob_snail</t>
+  </si>
+  <si>
+    <t>mob_beetle</t>
+  </si>
+  <si>
+    <t>mob_monkey</t>
+  </si>
+  <si>
+    <t>mob_flamingo</t>
+  </si>
+  <si>
+    <t>mob_dragonfly</t>
+  </si>
+  <si>
+    <t>mob_candle</t>
+  </si>
+  <si>
+    <t>mob_rino</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ovShOG9vz0qBynU3N7A27A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xL7qVxJe9kysLVTIKmzuuA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUdRpRMhK0G1XmYAGm6uEw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cMp9+kAl8UGgcTM+7tuyXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP9AY1x9sUa2WAweqi0Hyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z72/TXkgfEOAI1RcEnbf9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ZQSDtiDc0+ujLraF9ULlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zBnDreY2EUyIgqqT0I1oCg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwv52fG5a0uz2w+Mw1X1EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80qA8yn0HkK7i+4isj1VAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO77fenG+EGDXqDfjx0GwQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bwGMcqR0B0uFKpIP/arGGw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXMW6jdsDkqbQDiagvTvAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_scarecrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scarecrow_shot</t>
+    <t>ovShOG9vz0qBynU3N7A27A</t>
+  </si>
+  <si>
+    <t>xL7qVxJe9kysLVTIKmzuuA</t>
+  </si>
+  <si>
+    <t>TUdRpRMhK0G1XmYAGm6uEw</t>
+  </si>
+  <si>
+    <t>cMp9+kAl8UGgcTM+7tuyXA</t>
+  </si>
+  <si>
+    <t>JP9AY1x9sUa2WAweqi0Hyg</t>
+  </si>
+  <si>
+    <t>z72/TXkgfEOAI1RcEnbf9w</t>
+  </si>
+  <si>
+    <t>6ZQSDtiDc0+ujLraF9ULlw</t>
+  </si>
+  <si>
+    <t>zBnDreY2EUyIgqqT0I1oCg</t>
+  </si>
+  <si>
+    <t>Zwv52fG5a0uz2w+Mw1X1EA</t>
+  </si>
+  <si>
+    <t>80qA8yn0HkK7i+4isj1VAA</t>
+  </si>
+  <si>
+    <t>MO77fenG+EGDXqDfjx0GwQ</t>
+  </si>
+  <si>
+    <t>bwGMcqR0B0uFKpIP/arGGw</t>
+  </si>
+  <si>
+    <t>XXMW6jdsDkqbQDiagvTvAA</t>
+  </si>
+  <si>
+    <t>boss_scarecrow</t>
+  </si>
+  <si>
+    <t>scarecrow_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">Og45GfRUM0CqJQUz3H+9AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vVPBgEN7WUi/lGlzyJ5/Qg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유물 장착 슬롯 증가</t>
+    <t>Og45GfRUM0CqJQUz3H+9AA</t>
+  </si>
+  <si>
+    <t>vVPBgEN7WUi/lGlzyJ5/Qg</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>슬롯</t>
+  </si>
+  <si>
+    <t>슬롯증가</t>
+  </si>
+  <si>
+    <t>유물 장착 슬롯 증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bigbettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">풀사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귤사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전구사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야수사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로봇사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뱀파이어사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스크림사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">황금갑옷사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거미사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
+    <t>DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t>OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t>boss_flower</t>
+  </si>
+  <si>
+    <t>1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t>boss_bigbettle</t>
+  </si>
+  <si>
+    <t>kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t>flower_thorn</t>
+  </si>
+  <si>
+    <t>PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t>flower_mine</t>
+  </si>
+  <si>
+    <t>1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>skinname</t>
+  </si>
+  <si>
+    <t>눈사람</t>
+  </si>
+  <si>
+    <t>불사람</t>
+  </si>
+  <si>
+    <t>풀사람</t>
+  </si>
+  <si>
+    <t>돌사람</t>
+  </si>
+  <si>
+    <t>귤사람</t>
+  </si>
+  <si>
+    <t>전구사람</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>야수사람</t>
+  </si>
+  <si>
+    <t>로봇사람</t>
+  </si>
+  <si>
+    <t>뱀파이어사람</t>
+  </si>
+  <si>
+    <t>아이스크림사람</t>
+  </si>
+  <si>
+    <t>천사사람</t>
+  </si>
+  <si>
+    <t>황금갑옷사람</t>
+  </si>
+  <si>
+    <t>네모사람</t>
+  </si>
+  <si>
+    <t>지뢰사람</t>
+  </si>
+  <si>
+    <t>거미사람</t>
+  </si>
+  <si>
+    <t>용사사람</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>type0</t>
+  </si>
+  <si>
+    <t>val0</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">gLnjGlJPQUGceqv9MtI+jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bDmF5v4opUOLjBB580DUog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j4aRpfkhWUCwpugwL7yhOw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v6FaRzn/yUS4jftoTtNfsw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nMhXnyt3XUWslXDy/Eccmw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5CW4lEGYZEqJ8sFOtlJVVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a+XFhtKj2Em7xW1tms05Zw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oJlQTylhPUGaWX/Zndg2HQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZDD/hjzPHU+kTQf39Dvtnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tY/x47zy/U+9d/dQf4L+Xg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kUpxVrSyPke7VlIQ+ty+ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e+gqMj+a0kePNLaic882PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVpFmf14gE+JTvE5tq+oTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bBCBYzcq5kaQf7V57bsU5Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV8CtlguXEufFOcfSPnFWw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LmBUHti4IU6ufw+5njPwTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSwamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iceHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frozen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invincible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criticDmg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">겨울에 만들어진 눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈대신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머리의 전구로 어둠을 밝힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 4개증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적 발동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
+    <t>gLnjGlJPQUGceqv9MtI+jg</t>
+  </si>
+  <si>
+    <t>bDmF5v4opUOLjBB580DUog</t>
+  </si>
+  <si>
+    <t>j4aRpfkhWUCwpugwL7yhOw</t>
+  </si>
+  <si>
+    <t>v6FaRzn/yUS4jftoTtNfsw</t>
+  </si>
+  <si>
+    <t>nMhXnyt3XUWslXDy/Eccmw</t>
+  </si>
+  <si>
+    <t>5CW4lEGYZEqJ8sFOtlJVVw</t>
+  </si>
+  <si>
+    <t>a+XFhtKj2Em7xW1tms05Zw</t>
+  </si>
+  <si>
+    <t>oJlQTylhPUGaWX/Zndg2HQ</t>
+  </si>
+  <si>
+    <t>ZDD/hjzPHU+kTQf39Dvtnw</t>
+  </si>
+  <si>
+    <t>tY/x47zy/U+9d/dQf4L+Xg</t>
+  </si>
+  <si>
+    <t>kUpxVrSyPke7VlIQ+ty+ng</t>
+  </si>
+  <si>
+    <t>e+gqMj+a0kePNLaic882PA</t>
+  </si>
+  <si>
+    <t>PVpFmf14gE+JTvE5tq+oTw</t>
+  </si>
+  <si>
+    <t>bBCBYzcq5kaQf7V57bsU5Q</t>
+  </si>
+  <si>
+    <t>NV8CtlguXEufFOcfSPnFWw</t>
+  </si>
+  <si>
+    <t>LmBUHti4IU6ufw+5njPwTQ</t>
+  </si>
+  <si>
+    <t>typeB</t>
+  </si>
+  <si>
+    <t>typeF</t>
+  </si>
+  <si>
+    <t>Fval</t>
+  </si>
+  <si>
+    <t>typeI</t>
+  </si>
+  <si>
+    <t>Ival</t>
+  </si>
+  <si>
+    <t>snowball</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Fval1</t>
+  </si>
+  <si>
+    <t>Fval0</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>d_hp</t>
+  </si>
+  <si>
+    <t>d_hpgen</t>
+  </si>
+  <si>
+    <t>d_def</t>
+  </si>
+  <si>
+    <t>d_att</t>
+  </si>
+  <si>
+    <t>d_cool</t>
+  </si>
+  <si>
+    <t>d_exp</t>
+  </si>
+  <si>
+    <t>d_coin</t>
+  </si>
+  <si>
+    <t>a_hp</t>
+  </si>
+  <si>
+    <t>ex_hp</t>
+  </si>
+  <si>
+    <t>ex_hpgen</t>
+  </si>
+  <si>
+    <t>ex_def</t>
+  </si>
+  <si>
+    <t>ex_att</t>
+  </si>
+  <si>
+    <t>ex_cool</t>
+  </si>
+  <si>
+    <t>ex_exp</t>
+  </si>
+  <si>
+    <t>ex_coin</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>invSwamp</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>rebirth</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>iceHeal</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>invincible</t>
+  </si>
+  <si>
+    <t>d_speed</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>criticDmg</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>ch_explain</t>
+  </si>
+  <si>
+    <t>unch_explain</t>
+  </si>
+  <si>
+    <t>겨울에 만들어진 눈사람</t>
+  </si>
+  <si>
+    <t>여름한정</t>
+  </si>
+  <si>
+    <t>눈대신</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.</t>
+  </si>
+  <si>
+    <t>머리의 전구로 어둠을 밝힌다.</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 4개증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n%증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
+  </si>
+  <si>
+    <t>무적 발동</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ERzaZOy2RkmFqdq+1HEN0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scare_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_butterfly</t>
+    <t>ERzaZOy2RkmFqdq+1HEN0w</t>
+  </si>
+  <si>
+    <t>invSlow</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>scare_fire</t>
+  </si>
+  <si>
+    <t>boss_butterfly</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">WfxNB+MGn06c0Mxh9qi6TQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_bgPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_smPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=boss!G6</t>
+    <t>WfxNB+MGn06c0Mxh9qi6TQ</t>
+  </si>
+  <si>
+    <t>bfly_bgPoison</t>
+  </si>
+  <si>
+    <t>bfly_smPoison</t>
+  </si>
+  <si>
+    <t>=boss!G6</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">H2iGbbqnQ0OIrx3EtElI8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2lgjDXLyUStHASDlJTf+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가을까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1년 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하루</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1마리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강화1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">특정스킨으로 1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광고 1회</t>
+    <t>H2iGbbqnQ0OIrx3EtElI8g</t>
+  </si>
+  <si>
+    <t>D2lgjDXLyUStHASDlJTf+Q</t>
+  </si>
+  <si>
+    <t>questName</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>봄까지 버티기</t>
+  </si>
+  <si>
+    <t>여름까지 버티기</t>
+  </si>
+  <si>
+    <t>가을까지 버티기</t>
+  </si>
+  <si>
+    <t>1년 버티기</t>
+  </si>
+  <si>
+    <t>버티기</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>하루</t>
+  </si>
+  <si>
+    <t>1마리</t>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>10번</t>
+  </si>
+  <si>
+    <t>questType</t>
+  </si>
+  <si>
+    <t>강화1회</t>
+  </si>
+  <si>
+    <t>특정스킨으로 1회</t>
+  </si>
+  <si>
+    <t>광고 1회</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">oMhQHIWj/EC8ngg9JcK0OA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn3M8GN9A0S40ubcMn7hgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYLWhSg54UWwAGA4uBn3KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2vw6eVoubE2FX4RhcWa2Gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2hLdUHeKEOMFjkn8uKZ1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YnmthZe2OUS0F2IvwXzx/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0aZgm2DJLU6UAd3Lphp+qw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jc5TTOZymkyTL+nsgg7Cww</t>
+    <t>oMhQHIWj/EC8ngg9JcK0OA</t>
+  </si>
+  <si>
+    <t>tn3M8GN9A0S40ubcMn7hgA</t>
+  </si>
+  <si>
+    <t>FYLWhSg54UWwAGA4uBn3KA</t>
+  </si>
+  <si>
+    <t>2vw6eVoubE2FX4RhcWa2Gw</t>
+  </si>
+  <si>
+    <t>I2hLdUHeKEOMFjkn8uKZ1Q</t>
+  </si>
+  <si>
+    <t>YnmthZe2OUS0F2IvwXzx/w</t>
+  </si>
+  <si>
+    <t>0aZgm2DJLU6UAd3Lphp+qw</t>
+  </si>
+  <si>
+    <t>Jc5TTOZymkyTL+nsgg7Cww</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">hZ5zXDn9pEau0jHAGnXPSw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPQJ3pXzQ0+JXwy8wQ4dIg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gh9WTIDO102/V9jEpX7Hug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47GYdDEOAUSm0AH87BJJjg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ObWi0F4A6U2Tf76nPoOcfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hq6MdF1mHECN16RcyqBTtw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kSYQdp7c7UGfSpse9ezboQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApPa6gHqNEGEi/VRoSCArg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2iQCymteB02RoDlUQLkYjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bh+K4BC8KESXkMcgOi2iSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f0mQNjS7ESDJEecRxc4ig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gQ8tV6Qyo0i87zD5bsPQMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vf2Vz4Dykk2UAywywrIc7g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ByLRWNnYUe3Sy+PYVgV2g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vTygID9He0yuztzCQ6n+rQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL/xgk/tTU+/YwFGlDT1Jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_rein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fireman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grassman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrusman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulbman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sildman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mineman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robotman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icecreamman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goldenarmorman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angelman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">squareman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spiderman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vampireman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heroman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wildman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pricetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"TRUE"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addgem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disposable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week.SkinKeyList.snowman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week.SkinKeyList.wildman</t>
+    <t>hZ5zXDn9pEau0jHAGnXPSw</t>
+  </si>
+  <si>
+    <t>WPQJ3pXzQ0+JXwy8wQ4dIg</t>
+  </si>
+  <si>
+    <t>Gh9WTIDO102/V9jEpX7Hug</t>
+  </si>
+  <si>
+    <t>47GYdDEOAUSm0AH87BJJjg</t>
+  </si>
+  <si>
+    <t>ObWi0F4A6U2Tf76nPoOcfg</t>
+  </si>
+  <si>
+    <t>hq6MdF1mHECN16RcyqBTtw</t>
+  </si>
+  <si>
+    <t>kSYQdp7c7UGfSpse9ezboQ</t>
+  </si>
+  <si>
+    <t>ApPa6gHqNEGEi/VRoSCArg</t>
+  </si>
+  <si>
+    <t>2iQCymteB02RoDlUQLkYjw</t>
+  </si>
+  <si>
+    <t>Bh+K4BC8KESXkMcgOi2iSA</t>
+  </si>
+  <si>
+    <t>0f0mQNjS7ESDJEecRxc4ig</t>
+  </si>
+  <si>
+    <t>gQ8tV6Qyo0i87zD5bsPQMw</t>
+  </si>
+  <si>
+    <t>vf2Vz4Dykk2UAywywrIc7g</t>
+  </si>
+  <si>
+    <t>1ByLRWNnYUe3Sy+PYVgV2g</t>
+  </si>
+  <si>
+    <t>vTygID9He0yuztzCQ6n+rQ</t>
+  </si>
+  <si>
+    <t>DL/xgk/tTU+/YwFGlDT1Jg</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>day_rein</t>
+  </si>
+  <si>
+    <t>day_skin</t>
+  </si>
+  <si>
+    <t>day_ad</t>
+  </si>
+  <si>
+    <t>rein</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>snowman</t>
+  </si>
+  <si>
+    <t>fireman</t>
+  </si>
+  <si>
+    <t>grassman</t>
+  </si>
+  <si>
+    <t>rockman</t>
+  </si>
+  <si>
+    <t>citrusman</t>
+  </si>
+  <si>
+    <t>bulbman</t>
+  </si>
+  <si>
+    <t>sildman</t>
+  </si>
+  <si>
+    <t>minman</t>
+  </si>
+  <si>
+    <t>mineman</t>
+  </si>
+  <si>
+    <t>robotman</t>
+  </si>
+  <si>
+    <t>icecreamman</t>
+  </si>
+  <si>
+    <t>goldenarmorman</t>
+  </si>
+  <si>
+    <t>angelman</t>
+  </si>
+  <si>
+    <t>squareman</t>
+  </si>
+  <si>
+    <t>spiderman</t>
+  </si>
+  <si>
+    <t>vampireman</t>
+  </si>
+  <si>
+    <t>heroman</t>
+  </si>
+  <si>
+    <t>wildman</t>
+  </si>
+  <si>
+    <t>removead</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>startpack</t>
+  </si>
+  <si>
+    <t>skinpack</t>
+  </si>
+  <si>
+    <t>s_gem</t>
+  </si>
+  <si>
+    <t>m_gem</t>
+  </si>
+  <si>
+    <t>l_gem</t>
+  </si>
+  <si>
+    <t>s_ap</t>
+  </si>
+  <si>
+    <t>m_ap</t>
+  </si>
+  <si>
+    <t>l_ap</t>
+  </si>
+  <si>
+    <t>s_coin</t>
+  </si>
+  <si>
+    <t>m_coin</t>
+  </si>
+  <si>
+    <t>l_coin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>pricetype</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>"TRUE"</t>
+  </si>
+  <si>
+    <t>addgem</t>
+  </si>
+  <si>
+    <t>addap</t>
+  </si>
+  <si>
+    <t>addcoin</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>disposable</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>week.SkinKeyList.snowman</t>
+  </si>
+  <si>
+    <t>week.SkinKeyList.wildman</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">AhU2MfudO0CGPbfKA54soA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tH4X0ump3kSX06VVmzjtXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmkaGTYqRk+2dh4mPkWulQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WwogyFh130C5mFAy8k6MHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaJPrmZ45kuWH9lQrH8p6Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yED9p/FikECrm65TUyi/EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t5tSnH8OgUSB2kns/WaF+g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EfyDxZLgWE+1haiTVUlDdw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nM0KYyjX7kuBMBq+PAXWug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50BoMynjRU+ipwyssM0S9Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba5dgtxUQEaALH9CV4fuyA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gIGbxsQTUU+Vm9130mXL8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1IMHKQ0hUeFsw2XyxQiZw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sprite\store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sprite\store\adRemove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/adRemove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/10perCoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/startPack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/skinPack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_l</t>
+    <t>AhU2MfudO0CGPbfKA54soA</t>
+  </si>
+  <si>
+    <t>tH4X0ump3kSX06VVmzjtXQ</t>
+  </si>
+  <si>
+    <t>jmkaGTYqRk+2dh4mPkWulQ</t>
+  </si>
+  <si>
+    <t>WwogyFh130C5mFAy8k6MHQ</t>
+  </si>
+  <si>
+    <t>IaJPrmZ45kuWH9lQrH8p6Q</t>
+  </si>
+  <si>
+    <t>yED9p/FikECrm65TUyi/EA</t>
+  </si>
+  <si>
+    <t>t5tSnH8OgUSB2kns/WaF+g</t>
+  </si>
+  <si>
+    <t>EfyDxZLgWE+1haiTVUlDdw</t>
+  </si>
+  <si>
+    <t>nM0KYyjX7kuBMBq+PAXWug</t>
+  </si>
+  <si>
+    <t>50BoMynjRU+ipwyssM0S9Q</t>
+  </si>
+  <si>
+    <t>ba5dgtxUQEaALH9CV4fuyA</t>
+  </si>
+  <si>
+    <t>gIGbxsQTUU+Vm9130mXL8g</t>
+  </si>
+  <si>
+    <t>B1IMHKQ0hUeFsw2XyxQiZw</t>
+  </si>
+  <si>
+    <t>\sprite\store</t>
+  </si>
+  <si>
+    <t>\sprite\store\adRemove</t>
+  </si>
+  <si>
+    <t>/sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t>sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t>sprite/store/adRemove</t>
+  </si>
+  <si>
+    <t>sprite/store/</t>
+  </si>
+  <si>
+    <t>sprite/store/10perCoin</t>
+  </si>
+  <si>
+    <t>sprite/store/startPack</t>
+  </si>
+  <si>
+    <t>sprite/store/skinPack</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_s</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_s</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_s</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_m</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_m</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_m</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_l</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_l</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_l</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>costTerm</t>
+  </si>
+  <si>
+    <t>additrate</t>
+  </si>
+  <si/>
+  <si>
+    <t>uc2VpP69vUe9OToar7DB6A</t>
+  </si>
+  <si>
+    <t>BJXO0HWdZECTA1Z9YVIlJA</t>
+  </si>
+  <si>
+    <t>J03Iq+Jll0Srpx/p60dHlg</t>
+  </si>
+  <si>
+    <t>origin</t>
   </si>
 </sst>
 </file>
@@ -1981,148 +2004,148 @@
   </numFmts>
   <fonts count="27">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.79998"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
+      <color theme="7" tint="0.799980"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="1"/>
+      <sz val="1.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF8080"/>
-      <name val="맑은 고딕"/>
     </font>
   </fonts>
   <fills count="39">
@@ -2185,19 +2208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
+        <fgColor theme="4" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
+        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
+        <fgColor theme="4" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2209,19 +2232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
+        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999"/>
+        <fgColor theme="5" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
+        <fgColor theme="5" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2233,19 +2256,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
+        <fgColor theme="6" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
+        <fgColor theme="6" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
+        <fgColor theme="6" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2257,19 +2280,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
+        <fgColor theme="7" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
+        <fgColor theme="7" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
+        <fgColor theme="7" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2281,19 +2304,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
+        <fgColor theme="8" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999"/>
+        <fgColor theme="8" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
+        <fgColor theme="8" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2305,19 +2328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
+        <fgColor theme="9" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
+        <fgColor theme="9" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
+        <fgColor theme="9" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2335,13 +2358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09998"/>
+        <fgColor theme="2" tint="-0.099980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.150000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2443,7 +2466,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39998"/>
+        <color theme="4" tint="0.399980"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3223,159 +3246,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="211">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3384,7 +3407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3396,37 +3419,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3435,37 +3458,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3477,55 +3500,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3537,76 +3560,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3615,103 +3638,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3723,31 +3746,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3756,106 +3779,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3888,40 +3911,40 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3942,16 +3965,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3960,13 +3983,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3978,7 +4001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3990,13 +4013,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4060,1164 +4083,1164 @@
   <dxfs count="97">
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF006FBE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
@@ -5495,24 +5518,24 @@
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.62999916" customWidth="1"/>
-    <col min="2" max="2" width="6.25500011" customWidth="1"/>
-    <col min="3" max="3" width="13.00500011" customWidth="1"/>
-    <col min="4" max="4" width="10.63000011" customWidth="1"/>
-    <col min="5" max="5" width="56.50500107" customWidth="1"/>
-    <col min="6" max="6" width="70.50499725" customWidth="1"/>
-    <col min="7" max="7" width="7.88000011" customWidth="1"/>
-    <col min="8" max="8" width="6.38000011" customWidth="1"/>
-    <col min="9" max="9" width="11.50500011" customWidth="1"/>
-    <col min="10" max="10" width="6.00500011" customWidth="1"/>
-    <col min="11" max="11" width="12.75500011" customWidth="1"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1"/>
-    <col min="13" max="13" width="13.75500011" customWidth="1"/>
-    <col min="14" max="14" width="12.50500011" customWidth="1"/>
-    <col min="15" max="15" width="6.38000011" customWidth="1"/>
-    <col min="16" max="18" width="14.38000011" customWidth="1"/>
+    <col min="1" max="1" width="27.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="6.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="13.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="56.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="70.50499725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="7.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="11.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="6.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="18" width="14.38000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7195,7 +7218,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7208,16 +7231,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.37999916" customWidth="1"/>
-    <col min="2" max="2" width="16.75499916" customWidth="1"/>
-    <col min="3" max="3" width="15.13000011" customWidth="1"/>
-    <col min="4" max="4" width="7.38000011" customWidth="1"/>
-    <col min="7" max="7" width="9.00500011" customWidth="1"/>
-    <col min="11" max="11" width="9.00500011" customWidth="1"/>
-    <col min="14" max="14" width="9.00500011" style="5" customWidth="1"/>
-    <col min="21" max="21" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="27.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="16.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="7.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="21" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7487,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.25">
+    <row r="4" spans="1:29" ht="17.250000">
       <c r="A4" s="61" t="s">
         <v>411</v>
       </c>
@@ -7754,7 +7777,7 @@
         <v>0.0099999997764826</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="17.25">
+    <row r="7" spans="1:29" ht="17.250000">
       <c r="A7" s="49" t="s">
         <v>414</v>
       </c>
@@ -8644,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="17.25">
+    <row r="17" spans="1:29" ht="17.250000">
       <c r="A17" s="43" t="s">
         <v>424</v>
       </c>
@@ -8735,7 +8758,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -8744,17 +8767,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1"/>
-    <col min="2" max="5" width="12.50500011" customWidth="1"/>
-    <col min="8" max="8" width="9.00500011" customWidth="1"/>
-    <col min="15" max="15" width="9.88000011" customWidth="1"/>
-    <col min="16" max="16" width="24.87999916" customWidth="1"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="5" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="9.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" width="24.87999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -9407,7 +9430,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.25">
+    <row r="14" spans="1:16" ht="17.250000">
       <c r="A14" s="187" t="s">
         <v>647</v>
       </c>
@@ -9459,7 +9482,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -9472,12 +9495,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.87999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
-    <col min="4" max="8" width="9.00500011" customWidth="1"/>
-    <col min="9" max="9" width="13.88000011" customWidth="1"/>
+    <col min="1" max="1" width="27.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="13.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9930,7 +9953,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -9943,10 +9966,10 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10127,126 +10150,225 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1"/>
-    <col min="4" max="4" width="12.63000011" customWidth="1"/>
-    <col min="7" max="7" width="11.50500011" customWidth="1"/>
-    <col min="8" max="9" width="12.63000011" customWidth="1"/>
+    <col min="1" max="1" style="5" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="3" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="5" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="6" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="5" width="11.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="9" style="5" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="184" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="184" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="184" t="s">
+        <v>676</v>
+      </c>
+      <c r="C2" s="184">
         <v>100</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="184">
+        <v>0</v>
+      </c>
+      <c r="E2" s="184">
+        <v>0</v>
+      </c>
+      <c r="F2" s="184">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="G2" s="184">
+        <v>1</v>
+      </c>
+      <c r="H2" s="184">
+        <v>1</v>
+      </c>
+      <c r="I2" s="184">
+        <v>1</v>
+      </c>
+      <c r="J2" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="184">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.0399999991059303</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.990000009536743</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.04999995231628</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.07000005245209</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
+      <c r="D3" s="184">
+        <v>2</v>
+      </c>
+      <c r="E3" s="184">
+        <v>1</v>
+      </c>
+      <c r="F3" s="184">
+        <v>1</v>
+      </c>
+      <c r="G3" s="184">
+        <v>9985</v>
+      </c>
+      <c r="H3" s="184">
+        <v>101</v>
+      </c>
+      <c r="I3" s="184">
+        <v>101</v>
+      </c>
+      <c r="J3" s="184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="184" t="s">
+        <v>673</v>
+      </c>
+      <c r="B4" s="184" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" s="184">
+        <v>1</v>
+      </c>
+      <c r="D4" s="184">
+        <v>100</v>
+      </c>
+      <c r="E4" s="184">
+        <v>1</v>
+      </c>
+      <c r="F4" s="184">
+        <v>1</v>
+      </c>
+      <c r="G4" s="184">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="184">
+        <v>100</v>
+      </c>
+      <c r="I4" s="184">
+        <v>100</v>
+      </c>
+      <c r="J4" s="184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="184" t="s">
+        <v>674</v>
+      </c>
+      <c r="B5" s="184" t="s">
+        <v>669</v>
+      </c>
+      <c r="C5" s="184">
+        <v>1</v>
+      </c>
+      <c r="D5" s="184">
+        <v>1</v>
+      </c>
+      <c r="E5" s="184">
+        <v>1</v>
+      </c>
+      <c r="F5" s="184">
+        <v>1</v>
+      </c>
+      <c r="G5" s="184">
+        <v>1</v>
+      </c>
+      <c r="H5" s="184">
+        <v>2</v>
+      </c>
+      <c r="I5" s="184">
+        <v>2</v>
+      </c>
+      <c r="J5" s="184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="184" t="s">
+        <v>675</v>
+      </c>
+      <c r="B6" s="184" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" s="184">
+        <v>5</v>
+      </c>
+      <c r="D6" s="184">
+        <v>4</v>
+      </c>
+      <c r="E6" s="184">
+        <v>4</v>
+      </c>
+      <c r="F6" s="184">
+        <v>5</v>
+      </c>
+      <c r="G6" s="184">
+        <v>3</v>
+      </c>
+      <c r="H6" s="184">
+        <v>4</v>
+      </c>
+      <c r="I6" s="184">
+        <v>4</v>
+      </c>
+      <c r="J6" s="184">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10259,11 +10381,11 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.62999916" customWidth="1"/>
-    <col min="2" max="2" width="15.13000011" customWidth="1"/>
-    <col min="5" max="8" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="26.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10478,7 +10600,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10491,12 +10613,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1"/>
-    <col min="3" max="3" width="10.63000011" customWidth="1"/>
-    <col min="4" max="5" width="11.75500011" customWidth="1"/>
-    <col min="7" max="7" width="15.75500011" customWidth="1"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="5" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="15.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10735,7 +10857,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.102.51.41307"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="310" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -4083,8 +4083,6 @@
   <dxfs count="97">
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4095,8 +4093,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4107,8 +4103,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4119,8 +4113,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4131,8 +4123,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4143,8 +4133,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4155,8 +4143,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4167,8 +4153,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4179,8 +4163,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4191,8 +4173,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4203,8 +4183,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4215,8 +4193,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4227,8 +4203,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4239,8 +4213,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4251,8 +4223,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4263,8 +4233,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4275,8 +4243,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4287,8 +4253,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4299,8 +4263,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4311,8 +4273,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4323,8 +4283,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4335,8 +4293,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4347,8 +4303,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4359,8 +4313,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4371,8 +4323,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4383,8 +4333,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4395,8 +4343,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4407,8 +4353,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4419,8 +4363,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4431,8 +4373,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4443,8 +4383,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4455,8 +4393,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4467,8 +4403,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4479,8 +4413,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4491,8 +4423,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4503,8 +4433,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4515,8 +4443,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4527,8 +4453,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4539,8 +4463,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4551,8 +4473,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4563,8 +4483,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4575,8 +4493,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4587,8 +4503,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4599,8 +4513,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4611,8 +4523,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4623,8 +4533,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4635,8 +4543,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4647,8 +4553,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4659,8 +4563,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4671,8 +4573,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4683,8 +4583,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4695,8 +4593,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4707,8 +4603,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4719,8 +4613,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4731,8 +4623,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4743,8 +4633,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4755,8 +4643,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4767,8 +4653,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4779,8 +4663,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4791,8 +4673,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4803,8 +4683,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4815,8 +4693,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4827,8 +4703,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4839,8 +4713,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4851,8 +4723,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4863,8 +4733,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4875,8 +4743,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4887,8 +4753,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4899,8 +4763,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4911,8 +4773,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4923,8 +4783,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4935,8 +4793,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4947,8 +4803,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4959,8 +4813,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4971,8 +4823,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4983,8 +4833,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4995,8 +4843,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5007,8 +4853,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5019,8 +4863,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5031,8 +4873,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5043,8 +4883,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5055,8 +4893,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5067,8 +4903,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5079,8 +4913,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5091,8 +4923,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5103,8 +4933,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5115,8 +4943,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5127,8 +4953,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5139,8 +4963,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5151,8 +4973,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5163,8 +4983,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5175,8 +4993,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5187,8 +5003,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5199,8 +5013,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5211,8 +5023,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5223,8 +5033,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5235,8 +5043,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="1.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -10160,7 +9966,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10252,7 +10058,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="184">
         <v>1</v>
@@ -10284,7 +10090,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="184">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="184">
         <v>1</v>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.102.51.41307"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="300" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -4083,6 +4083,8 @@
   <dxfs count="97">
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4093,6 +4095,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4103,6 +4107,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4113,6 +4119,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4123,6 +4131,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4133,6 +4143,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4143,6 +4155,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4153,6 +4167,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4163,6 +4179,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4173,6 +4191,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4183,6 +4203,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4193,6 +4215,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4203,6 +4227,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4213,6 +4239,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4223,6 +4251,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4233,6 +4263,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4243,6 +4275,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4253,6 +4287,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4263,6 +4299,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4273,6 +4311,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4283,6 +4323,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4293,6 +4335,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4303,6 +4347,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4313,6 +4359,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4323,6 +4371,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4333,6 +4383,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4343,6 +4395,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4353,6 +4407,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4363,6 +4419,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4373,6 +4431,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4383,6 +4443,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4393,6 +4455,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4403,6 +4467,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4413,6 +4479,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4423,6 +4491,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4433,6 +4503,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4443,6 +4515,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4453,6 +4527,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4463,6 +4539,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4473,6 +4551,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4483,6 +4563,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4493,6 +4575,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4503,6 +4587,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4513,6 +4599,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4523,6 +4611,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4533,6 +4623,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4543,6 +4635,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4553,6 +4647,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4563,6 +4659,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4573,6 +4671,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4583,6 +4683,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4593,6 +4695,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4603,6 +4707,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4613,6 +4719,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4623,6 +4731,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4633,6 +4743,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4643,6 +4755,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4653,6 +4767,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4663,6 +4779,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4673,6 +4791,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4683,6 +4803,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4693,6 +4815,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4703,6 +4827,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4713,6 +4839,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4723,6 +4851,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4733,6 +4863,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4743,6 +4875,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4753,6 +4887,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4763,6 +4899,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4773,6 +4911,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4783,6 +4923,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4793,6 +4935,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4803,6 +4947,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4813,6 +4959,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4823,6 +4971,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4833,6 +4983,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4843,6 +4995,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4853,6 +5007,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4863,6 +5019,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4873,6 +5031,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4883,6 +5043,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4893,6 +5055,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4903,6 +5067,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4913,6 +5079,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4923,6 +5091,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4933,6 +5103,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4943,6 +5115,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4953,6 +5127,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4963,6 +5139,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4973,6 +5151,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4983,6 +5163,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4993,6 +5175,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5003,6 +5187,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5013,6 +5199,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5023,6 +5211,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5033,6 +5223,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5043,6 +5235,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -7033,8 +7227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7704,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="56">
-        <v>0.100000001490116</v>
+        <v>0.05</v>
       </c>
       <c r="L8" s="56" t="s">
         <v>431</v>
@@ -9298,7 +9492,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9358,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.600000023841858</v>
+        <v>0.6</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -9390,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="22">
-        <v>0.600000023841858</v>
+        <v>0.6</v>
       </c>
       <c r="G3" s="22">
         <v>0</v>
@@ -9422,7 +9616,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="22">
-        <v>0.649999976158142</v>
+        <v>0.65</v>
       </c>
       <c r="G4" s="22">
         <v>3</v>
@@ -9454,7 +9648,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="22">
-        <v>0.600000023841858</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="22">
         <v>0</v>
@@ -9486,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="24">
-        <v>0.600000023841858</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="24">
         <v>0</v>
@@ -9518,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="24">
-        <v>0.649999976158142</v>
+        <v>0.65</v>
       </c>
       <c r="G7" s="24">
         <v>6</v>
@@ -9550,7 +9744,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="24">
-        <v>0.600000023841858</v>
+        <v>0.6</v>
       </c>
       <c r="G8" s="24">
         <v>0</v>
@@ -9582,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0.699999988079071</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
@@ -9614,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="11">
-        <v>0.720000028610229</v>
+        <v>0.72</v>
       </c>
       <c r="G10" s="11">
         <v>9</v>
@@ -9646,7 +9840,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="11">
-        <v>0.699999988079071</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -9678,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="21">
-        <v>0.600000023841858</v>
+        <v>0.6</v>
       </c>
       <c r="G12" s="21">
         <v>0</v>
@@ -9710,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="21">
-        <v>0.649999976158142</v>
+        <v>0.65</v>
       </c>
       <c r="G13" s="21">
         <v>12</v>
@@ -9742,7 +9936,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="21">
-        <v>0.600000023841858</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="21">
         <v>0</v>
@@ -9965,7 +10159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -10184,7 +10378,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10246,7 +10440,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>0.800000011920929</v>
+        <v>0.8</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -10316,7 +10510,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>0.850000023841858</v>
+        <v>0.85</v>
       </c>
       <c r="G4" s="3">
         <v>1.10000002384186</v>
@@ -10351,7 +10545,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3">
-        <v>0.800000011920929</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="3">
         <v>1.25</v>
@@ -10386,7 +10580,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="3">
-        <v>0.800000011920929</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="3">
         <v>1.20000004768372</v>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
   <si>
     <t>_id</t>
   </si>
@@ -1991,6 +1991,9 @@
   </si>
   <si>
     <t>origin</t>
+  </si>
+  <si>
+    <t>wildskinpack</t>
   </si>
 </sst>
 </file>
@@ -7227,7 +7230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -8767,8 +8770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8985,7 +8988,7 @@
         <v>638</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
-  <workbookPr/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.102.51.41307"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -16,1984 +16,1986 @@
     <sheet name="boss" sheetId="3" r:id="rId7"/>
     <sheet name="quest" sheetId="4" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" calcOnSave="0" iterate="1"/>
+  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>눈덩이</t>
-  </si>
-  <si>
-    <t>고드름</t>
-  </si>
-  <si>
-    <t>반달고드름</t>
-  </si>
-  <si>
-    <t>빙벽</t>
-  </si>
-  <si>
-    <t>우박</t>
-  </si>
-  <si>
-    <t>얼음회오리</t>
-  </si>
-  <si>
-    <t>아이스에이지</t>
-  </si>
-  <si>
-    <t>블리자드</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>att_increase</t>
-  </si>
-  <si>
-    <t>delay_reduce</t>
-  </si>
-  <si>
-    <t>size_increase</t>
-  </si>
-  <si>
-    <t>count_increase</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>att</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>작은불씨</t>
-  </si>
-  <si>
-    <t>불씨</t>
-  </si>
-  <si>
-    <t>거대한불씨</t>
-  </si>
-  <si>
-    <t>불정령</t>
-  </si>
-  <si>
-    <t>강한불정령</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>monster</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>sprite/snowball</t>
-  </si>
-  <si>
-    <t>sprite/icicle</t>
-  </si>
-  <si>
-    <t>sprite/halficicle</t>
-  </si>
-  <si>
-    <t>sprite/icewall</t>
-  </si>
-  <si>
-    <t>sprite/hail</t>
-  </si>
-  <si>
-    <t>sprite/iceage</t>
-  </si>
-  <si>
-    <t>sprite/blizzard</t>
-  </si>
-  <si>
-    <t>sprite/icetornado</t>
-  </si>
-  <si>
-    <t>1YI39qlEIkehcQKXsHTyUg</t>
-  </si>
-  <si>
-    <t>NWTscmjKlESMcPHMRe0hXg</t>
-  </si>
-  <si>
-    <t>BAdmjT6HC0y8LOsa1qMZvg</t>
-  </si>
-  <si>
-    <t>x0MEnXpXpkSAeJdx9u1dxA</t>
-  </si>
-  <si>
-    <t>Nv7SgpakukyznybxDxXzKg</t>
-  </si>
-  <si>
-    <t>rrTgjWmPmE6tye/yifLCyQ</t>
-  </si>
-  <si>
-    <t>8z2pJ9jvp0qxuwrUhRrmyQ</t>
-  </si>
-  <si>
-    <t>Txp9XKcq6kSTovn/H/3gjw</t>
-  </si>
-  <si>
-    <t>jZ9q6LkxFkil8RL3lc0PPg</t>
-  </si>
-  <si>
-    <t>FkSB7SxxhE+q+XE4G8ZT4w</t>
-  </si>
-  <si>
-    <t>EPruJLqK1ESOVRcE3QyTlw</t>
-  </si>
-  <si>
-    <t>2WySlC4shUOPDHA9oxYaKw</t>
-  </si>
-  <si>
-    <t>iW548VF8UEGD+vAuXhtSAQ</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>hpgen</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>attspeed</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>skillrange</t>
-  </si>
-  <si>
-    <t>killamount</t>
-  </si>
-  <si>
-    <t>status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고드름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반달고드름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빙벽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우박</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음회오리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이스에이지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블리자드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delay_reduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작은불씨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불씨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거대한불씨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불정령</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강한불정령</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/snowball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/icicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/halficicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/icewall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/iceage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/blizzard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/icetornado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1YI39qlEIkehcQKXsHTyUg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NWTscmjKlESMcPHMRe0hXg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAdmjT6HC0y8LOsa1qMZvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x0MEnXpXpkSAeJdx9u1dxA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nv7SgpakukyznybxDxXzKg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rrTgjWmPmE6tye/yifLCyQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8z2pJ9jvp0qxuwrUhRrmyQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Txp9XKcq6kSTovn/H/3gjw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jZ9q6LkxFkil8RL3lc0PPg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FkSB7SxxhE+q+XE4G8ZT4w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPruJLqK1ESOVRcE3QyTlw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2WySlC4shUOPDHA9oxYaKw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iW548VF8UEGD+vAuXhtSAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attspeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillrange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">killamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
   </si>
   <si/>
   <si>
-    <t>e7AXSZh+E0eaC78EFNa29g</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>default</t>
+    <t xml:space="preserve">e7AXSZh+E0eaC78EFNa29g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si/>
   <si>
-    <t>eHf0vPp+wk2aU5E4yd7/Yg</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>mop_fire</t>
-  </si>
-  <si>
-    <t>mop_bok</t>
-  </si>
-  <si>
-    <t>mop_stick</t>
-  </si>
-  <si>
-    <t>mop_turtle</t>
-  </si>
-  <si>
-    <t>mop_bluefire</t>
-  </si>
-  <si>
-    <t>appear</t>
-  </si>
-  <si>
-    <t>stage_appear</t>
-  </si>
-  <si>
-    <t>round_appear</t>
-  </si>
-  <si>
-    <t>hp_increase</t>
-  </si>
-  <si>
-    <t>exp_increase</t>
+    <t xml:space="preserve">eHf0vPp+wk2aU5E4yd7/Yg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_bok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_bluefire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage_appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round_appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp_increase</t>
   </si>
   <si/>
   <si>
-    <t>l84s0jqeJ0+ShvpHGehKgA</t>
-  </si>
-  <si>
-    <t>1xmfc5j9REe0ZHIX8rDf8w</t>
-  </si>
-  <si>
-    <t>kTDzILh6IE+jkW2qF+KXAw</t>
-  </si>
-  <si>
-    <t>9VCtUFsTA0WcVNS71DsQNA</t>
-  </si>
-  <si>
-    <t>uALCIjfaEky3G92iAmHJ9w</t>
-  </si>
-  <si>
-    <t>mop_bird</t>
+    <t xml:space="preserve">l84s0jqeJ0+ShvpHGehKgA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1xmfc5j9REe0ZHIX8rDf8w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kTDzILh6IE+jkW2qF+KXAw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9VCtUFsTA0WcVNS71DsQNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uALCIjfaEky3G92iAmHJ9w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_bird</t>
   </si>
   <si/>
   <si>
-    <t>8gAo9LyP60OMAwTdoY8wrw</t>
-  </si>
-  <si>
-    <t>priceamount</t>
-  </si>
-  <si>
-    <t>boss_bird</t>
-  </si>
-  <si>
-    <t>boss_</t>
-  </si>
-  <si>
-    <t>boss_golem</t>
-  </si>
-  <si>
-    <t>boss_rock</t>
-  </si>
-  <si>
-    <t>boss_cow</t>
-  </si>
-  <si>
-    <t>boss_bear</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t xml:space="preserve">8gAo9LyP60OMAwTdoY8wrw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priceamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase</t>
   </si>
   <si/>
   <si>
-    <t>4WVxc3VSx0O0tna/lL5NCA</t>
-  </si>
-  <si>
-    <t>7LLesioQ0kSNXqcpCaDbeg</t>
-  </si>
-  <si>
-    <t>JtRPf/ABQkK6YzgnTjqc1Q</t>
-  </si>
-  <si>
-    <t>mL8Q/tFX90CNwPiHYkk0GA</t>
-  </si>
-  <si>
-    <t>tEcjfw23XkCu//y+zqlQJQ</t>
-  </si>
-  <si>
-    <t>얼음뭉치</t>
-  </si>
-  <si>
-    <t>눈뭉치</t>
-  </si>
-  <si>
-    <t>sprite/ictone</t>
+    <t xml:space="preserve">4WVxc3VSx0O0tna/lL5NCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7LLesioQ0kSNXqcpCaDbeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JtRPf/ABQkK6YzgnTjqc1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mL8Q/tFX90CNwPiHYkk0GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tEcjfw23XkCu//y+zqlQJQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음뭉치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈뭉치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/ictone</t>
   </si>
   <si/>
   <si>
-    <t>zIrXoinId0iFNhZHl1++bA</t>
+    <t xml:space="preserve">zIrXoinId0iFNhZHl1++bA</t>
   </si>
   <si/>
   <si>
-    <t>xL0ZSRTaC0mmTc44mg8IMw</t>
-  </si>
-  <si>
-    <t>KVjVGRJbj0GkW3ghHwH8Tg</t>
-  </si>
-  <si>
-    <t>ayHEKjsd8UqG8GU1Xt6tTw</t>
-  </si>
-  <si>
-    <t>Q5y8+mUBukKyaU5ZN30mZg</t>
-  </si>
-  <si>
-    <t>GR2VPmVTTUGofKgvmFjHVQ</t>
-  </si>
-  <si>
-    <t>O7aBnzSfm0ariTzPxBExFw</t>
-  </si>
-  <si>
-    <t>GlpgBelcX0qncpw9BzBXKQ</t>
-  </si>
-  <si>
-    <t>Q3UfqJRRF0SPgkVBkbx3hw</t>
-  </si>
-  <si>
-    <t>XCpjVMj5JUqt9ziS5P3awQ</t>
-  </si>
-  <si>
-    <t>mop_ant</t>
-  </si>
-  <si>
-    <t>mop_jack</t>
-  </si>
-  <si>
-    <t>speed</t>
+    <t xml:space="preserve">xL0ZSRTaC0mmTc44mg8IMw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVjVGRJbj0GkW3ghHwH8Tg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayHEKjsd8UqG8GU1Xt6tTw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5y8+mUBukKyaU5ZN30mZg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR2VPmVTTUGofKgvmFjHVQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O7aBnzSfm0ariTzPxBExFw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlpgBelcX0qncpw9BzBXKQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3UfqJRRF0SPgkVBkbx3hw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCpjVMj5JUqt9ziS5P3awQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mop_jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speed</t>
   </si>
   <si/>
   <si>
-    <t>jebfgtgwy0aCi3wyFmHn7A</t>
-  </si>
-  <si>
-    <t>E37YclCUk0atKge3NbdvOQ</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>얼음주먹</t>
-  </si>
-  <si>
-    <t>눈폭탄</t>
+    <t xml:space="preserve">jebfgtgwy0aCi3wyFmHn7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E37YclCUk0atKge3NbdvOQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음주먹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈폭탄</t>
   </si>
   <si/>
   <si>
-    <t>sAlSjuwkNkmox3HyjOQPlQ</t>
-  </si>
-  <si>
-    <t>patt</t>
-  </si>
-  <si>
-    <t>pspeed</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>얼음방어막</t>
-  </si>
-  <si>
-    <t>얼음빠따</t>
-  </si>
-  <si>
-    <t>소용돌이</t>
-  </si>
-  <si>
-    <t>얼음파동</t>
-  </si>
-  <si>
-    <t>무적</t>
-  </si>
-  <si>
-    <t>산탄</t>
-  </si>
-  <si>
-    <t>explain</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>keep_increase</t>
-  </si>
-  <si>
-    <t>obstaacle</t>
-  </si>
-  <si>
-    <t>obstacle</t>
-  </si>
-  <si>
-    <t>continue</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>continuee</t>
+    <t xml:space="preserve">sAlSjuwkNkmox3HyjOQPlQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pspeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음방어막</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음빠따</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소용돌이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음파동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">산탄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep_increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obstaacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obstacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuee</t>
   </si>
   <si/>
   <si>
-    <t>u9VGjry1BESzo46bAmXOQg</t>
-  </si>
-  <si>
-    <t>HJCxWuQGLEyzxZkpf/s7+Q</t>
-  </si>
-  <si>
-    <t>dejPA7ZZvkKW83lA1QUQCQ</t>
-  </si>
-  <si>
-    <t>K1BTnZfB2kWbObm+5JLgSQ</t>
-  </si>
-  <si>
-    <t>iYqYA2TFhU6d36X/SwpGHA</t>
-  </si>
-  <si>
-    <t>wXhpxA4yqEW1NBNV40y6rA</t>
-  </si>
-  <si>
-    <t>Lnrq0Qp3nEu1QeUh1ApxEA</t>
-  </si>
-  <si>
-    <t>FEnZnNX24kWluYtm4cqJfg</t>
-  </si>
-  <si>
-    <t>UwutR9kZ3EixiomFUKMhTg</t>
-  </si>
-  <si>
-    <t>tnqtLH8SiUq5SfVK11iPqA</t>
-  </si>
-  <si>
-    <t>SA5d+nQZzEWyxoNuhU+Naw</t>
-  </si>
-  <si>
-    <t>Tq+CR0pBE0CX5vqWS90PAw</t>
-  </si>
-  <si>
-    <t>TAJG8FHa00aP7U66nf0Aqw</t>
-  </si>
-  <si>
-    <t>4K+N6+YPVECfus1pPsfuXQ</t>
-  </si>
-  <si>
-    <t>be8bZ1lxC0+P00Vb0G3asQ</t>
-  </si>
-  <si>
-    <t>hQT4FoA9pke18i999uPtaw</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>conditionA</t>
-  </si>
-  <si>
-    <t>conditionB</t>
-  </si>
-  <si>
-    <t>conditionT</t>
-  </si>
-  <si>
-    <t>reward</t>
-  </si>
-  <si>
-    <t>appear_time</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t xml:space="preserve">u9VGjry1BESzo46bAmXOQg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJCxWuQGLEyzxZkpf/s7+Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dejPA7ZZvkKW83lA1QUQCQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1BTnZfB2kWbObm+5JLgSQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iYqYA2TFhU6d36X/SwpGHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wXhpxA4yqEW1NBNV40y6rA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lnrq0Qp3nEu1QeUh1ApxEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEnZnNX24kWluYtm4cqJfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UwutR9kZ3EixiomFUKMhTg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnqtLH8SiUq5SfVK11iPqA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA5d+nQZzEWyxoNuhU+Naw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tq+CR0pBE0CX5vqWS90PAw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAJG8FHa00aP7U66nf0Aqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K+N6+YPVECfus1pPsfuXQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be8bZ1lxC0+P00Vb0G3asQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hQT4FoA9pke18i999uPtaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si/>
   <si>
-    <t>S4cO+7g73kSC//RCNr49Eg</t>
-  </si>
-  <si>
-    <t>5Eog+fJivU2oDVll81v+QQ</t>
-  </si>
-  <si>
-    <t>zNS43tSa4kmhOggLqnp2/A</t>
-  </si>
-  <si>
-    <t>M0io+FmkfESkyDRr3Lsivg</t>
-  </si>
-  <si>
-    <t>mob_fire</t>
-  </si>
-  <si>
-    <t>mob_bok</t>
-  </si>
-  <si>
-    <t>mob_stick</t>
-  </si>
-  <si>
-    <t>mob_turtle</t>
-  </si>
-  <si>
-    <t>mob_ant</t>
-  </si>
-  <si>
-    <t>mob_jack</t>
-  </si>
-  <si>
-    <t>mob_bluefire</t>
-  </si>
-  <si>
-    <t>mob_mam</t>
-  </si>
-  <si>
-    <t>mob_carb</t>
-  </si>
-  <si>
-    <t>mob_deer</t>
-  </si>
-  <si>
-    <t>map</t>
+    <t xml:space="preserve">S4cO+7g73kSC//RCNr49Eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Eog+fJivU2oDVll81v+QQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zNS43tSa4kmhOggLqnp2/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0io+FmkfESkyDRr3Lsivg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_bok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_bluefire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_mam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_carb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_deer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
   </si>
   <si/>
   <si>
-    <t>UqOBjr+LakW9OE61quvEOQ</t>
-  </si>
-  <si>
-    <t>7oP5n9ovXEK+bbIC8iuZMA</t>
-  </si>
-  <si>
-    <t>QEm467P+ck6FXvY1BWI/QA</t>
-  </si>
-  <si>
-    <t>oN7gigvYvkCP1gYaQUFzpg</t>
-  </si>
-  <si>
-    <t>xiaNlJj0D02QBXqMTggxXA</t>
-  </si>
-  <si>
-    <t>sizex</t>
-  </si>
-  <si>
-    <t>sizey</t>
-  </si>
-  <si>
-    <t>snowrock0</t>
-  </si>
-  <si>
-    <t>snowrock1</t>
-  </si>
-  <si>
-    <t>snowrock2</t>
-  </si>
-  <si>
-    <t>snowrock3</t>
-  </si>
-  <si>
-    <t>rock0</t>
-  </si>
-  <si>
-    <t>rock1</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>skull</t>
-  </si>
-  <si>
-    <t>rib</t>
-  </si>
-  <si>
-    <t>mob_crab</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t xml:space="preserve">UqOBjr+LakW9OE61quvEOQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7oP5n9ovXEK+bbIC8iuZMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QEm467P+ck6FXvY1BWI/QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oN7gigvYvkCP1gYaQUFzpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaNlJj0D02QBXqMTggxXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sizex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sizey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowrock3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si/>
   <si>
-    <t>utfj/KusT0q9e9ADgg8p9g</t>
-  </si>
-  <si>
-    <t>f3YdoHHnJEmHPLOHPk8tHA</t>
-  </si>
-  <si>
-    <t>lLIxSPJ5jk6H8IhzXjd5Ag</t>
-  </si>
-  <si>
-    <t>+r0e9D3k7kuvrrcjW7rTWA</t>
-  </si>
-  <si>
-    <t>N6Ah1yXV/0mnzDRZhUhoew</t>
-  </si>
-  <si>
-    <t>7q1A0hzTv0e0ZkrUDizxDQ</t>
-  </si>
-  <si>
-    <t>JiEy726Vn0i6qgPI9aQTRQ</t>
-  </si>
-  <si>
-    <t>OXygPyEDNESF1Uo4kpU9UA</t>
-  </si>
-  <si>
-    <t>D/jPgeJpjkiT0hqDPsmOZw</t>
-  </si>
-  <si>
-    <t>boss_owl</t>
-  </si>
-  <si>
-    <t>skill0</t>
-  </si>
-  <si>
-    <t>skill1</t>
+    <t xml:space="preserve">utfj/KusT0q9e9ADgg8p9g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3YdoHHnJEmHPLOHPk8tHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lLIxSPJ5jk6H8IhzXjd5Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+r0e9D3k7kuvrrcjW7rTWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N6Ah1yXV/0mnzDRZhUhoew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7q1A0hzTv0e0ZkrUDizxDQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JiEy726Vn0i6qgPI9aQTRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXygPyEDNESF1Uo4kpU9UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D/jPgeJpjkiT0hqDPsmOZw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill1</t>
   </si>
   <si/>
   <si>
-    <t>W3z0ATuqbkKttkboCpXzTg</t>
-  </si>
-  <si>
-    <t>9oZ4bAUw3EaaXJyde7jotg</t>
-  </si>
-  <si>
-    <t>p7Lei6NHm0mU6A3yoCYsjQ</t>
-  </si>
-  <si>
-    <t>w8cURakZekSSKtD9r+3WnA</t>
-  </si>
-  <si>
-    <t>m4KGirv16U+HZ1CPc/XEAQ</t>
+    <t xml:space="preserve">W3z0ATuqbkKttkboCpXzTg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9oZ4bAUw3EaaXJyde7jotg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p7Lei6NHm0mU6A3yoCYsjQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w8cURakZekSSKtD9r+3WnA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4KGirv16U+HZ1CPc/XEAQ</t>
   </si>
   <si/>
   <si>
-    <t>j6havu18FkO2GTlo+CyQyg</t>
-  </si>
-  <si>
-    <t>N5N6gU+ysEqOQbdz1hczog</t>
-  </si>
-  <si>
-    <t>552Me0Rk506ghDFAyrQSwA</t>
-  </si>
-  <si>
-    <t>jsxP8eNXM0mKlWitTcpTGA</t>
-  </si>
-  <si>
-    <t>osCjoq/EX0WhMYuWNZYtkg</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>maxlvl</t>
-  </si>
-  <si>
-    <t>max_level</t>
-  </si>
-  <si>
-    <t>체력</t>
-  </si>
-  <si>
-    <t>공격력</t>
-  </si>
-  <si>
-    <t>방어력</t>
-  </si>
-  <si>
-    <t>체력재생</t>
-  </si>
-  <si>
-    <t>쿨타임감소</t>
-  </si>
-  <si>
-    <t>스킬크기</t>
-  </si>
-  <si>
-    <t>시전속도</t>
-  </si>
-  <si>
-    <t>경험치</t>
-  </si>
-  <si>
-    <t>경험치획득량</t>
-  </si>
-  <si>
-    <t>회복량</t>
-  </si>
-  <si>
-    <t>이동속도</t>
-  </si>
-  <si>
-    <t>infomation</t>
-  </si>
-  <si>
-    <t>최대체력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t>공격력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t>방어력을 얻는다.</t>
-  </si>
-  <si>
-    <t>매초 소량의 체력을 회복시킨다.</t>
-  </si>
-  <si>
-    <t>스킬의 속도</t>
-  </si>
-  <si>
-    <t>스킬의 시전속도를 단축시킨다.</t>
-  </si>
-  <si>
-    <t>경험치 획득량이 증가한다.</t>
-  </si>
-  <si>
-    <t>스킬크기가 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 회복량이 증가한다.</t>
-  </si>
-  <si>
-    <t>이동속도가 증가한다.</t>
-  </si>
-  <si>
-    <t>최대체력을 증가한다.</t>
-  </si>
-  <si>
-    <t>공격력을 증가한다.</t>
-  </si>
-  <si>
-    <t>매초 소량의 체력을 회복한다.</t>
-  </si>
-  <si>
-    <t>잘뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t>잘 뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t>얼음주먹으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>단단한 얼음으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>뾰족한 얼음이 적을 관통한다.</t>
-  </si>
-  <si>
-    <t>반달얼음을 여러갈래로 발사한다.</t>
-  </si>
-  <si>
-    <t>하늘에서 우박이!</t>
-  </si>
-  <si>
-    <t>빙벽을 생성해 길을 막는다.</t>
-  </si>
-  <si>
-    <t>일정 체력이 있는 빙벽을 생성한다.</t>
-  </si>
-  <si>
-    <t>눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
-  </si>
-  <si>
-    <t>순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t>블리자드를 몰아쳐</t>
-  </si>
-  <si>
-    <t>블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t>대상에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t>적에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t>방어막을</t>
-  </si>
-  <si>
-    <t>일정 체력의 방어막을 생성한다.</t>
-  </si>
-  <si>
-    <t>근접한 적을 빠따로 떨쳐낸다.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>일정 시간동안 무적이 된다.</t>
-  </si>
-  <si>
-    <t>얼음 산탄을 발사한다.</t>
-  </si>
-  <si>
-    <t>체력 50% 증가</t>
-  </si>
-  <si>
-    <t>공격력 10% 증가</t>
-  </si>
-  <si>
-    <t>val</t>
+    <t xml:space="preserve">j6havu18FkO2GTlo+CyQyg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N5N6gU+ysEqOQbdz1hczog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552Me0Rk506ghDFAyrQSwA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsxP8eNXM0mKlWitTcpTGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osCjoq/EX0WhMYuWNZYtkg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxlvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력재생</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쿨타임감소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬크기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시전속도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경험치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경험치획득량</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회복량</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이동속도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infomation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최대체력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어력을 얻는다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매초 소량의 체력을 회복시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬의 속도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬의 시전속도를 단축시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경험치 획득량이 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬크기가 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 회복량이 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이동속도가 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최대체력을 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력을 증가한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매초 소량의 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잘뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잘 뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음주먹으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">단단한 얼음으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뾰족한 얼음이 적을 관통한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반달얼음을 여러갈래로 발사한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하늘에서 우박이!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빙벽을 생성해 길을 막는다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일정 체력이 있는 빙벽을 생성한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블리자드를 몰아쳐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대상에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">적에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어막을</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일정 체력의 방어막을 생성한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">근접한 적을 빠따로 떨쳐낸다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일정 시간동안 무적이 된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음 산탄을 발사한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력 50% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val</t>
   </si>
   <si/>
   <si>
-    <t>7G/uy/d+XUq+hb1idKgcKw</t>
-  </si>
-  <si>
-    <t>nhBbNsmDpUOy343k+irhhw</t>
-  </si>
-  <si>
-    <t>2qdwH+Eqq0qi76gM+HEpSg</t>
-  </si>
-  <si>
-    <t>dGD2J/13Ak60ubtLOTmU7A</t>
-  </si>
-  <si>
-    <t>hluuyb8xDkq3igjPq3UZrQ</t>
-  </si>
-  <si>
-    <t>lZ58eF6zQEqU7UxPZqxY5g</t>
-  </si>
-  <si>
-    <t>+fNq81zBhk2AJPDimVASnQ</t>
-  </si>
-  <si>
-    <t>GGgTfHjnFUu5Yx8sijXu/Q</t>
-  </si>
-  <si>
-    <t>Wfu556tlIkGpgHS1/b8wRQ</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>appear_term</t>
+    <t xml:space="preserve">7G/uy/d+XUq+hb1idKgcKw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhBbNsmDpUOy343k+irhhw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2qdwH+Eqq0qi76gM+HEpSg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dGD2J/13Ak60ubtLOTmU7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hluuyb8xDkq3igjPq3UZrQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lZ58eF6zQEqU7UxPZqxY5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+fNq81zBhk2AJPDimVASnQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGgTfHjnFUu5Yx8sijXu/Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wfu556tlIkGpgHS1/b8wRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear_term</t>
   </si>
   <si/>
   <si>
-    <t>e3ywpdo+tkG3rGFzadDOZQ</t>
+    <t xml:space="preserve">e3ywpdo+tkG3rGFzadDOZQ</t>
   </si>
   <si/>
   <si>
-    <t>ou4jSwVOP0WiG5CBsppWRA</t>
-  </si>
-  <si>
-    <t>독병</t>
-  </si>
-  <si>
-    <t>천둥망치</t>
-  </si>
-  <si>
-    <t>독병을 던저 광역 지속 피해를 입힌다.</t>
-  </si>
-  <si>
-    <t>강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
+    <t xml:space="preserve">ou4jSwVOP0WiG5CBsppWRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독병</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천둥망치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독병을 던저 광역 지속 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
   </si>
   <si/>
   <si>
-    <t>BIr97MzFFEqSkH79ajRcIQ</t>
-  </si>
-  <si>
-    <t>80jHuiqyGkmbPMFYa7j/WA</t>
-  </si>
-  <si>
-    <t>SmqeNM7xnEiwpUgalIDKuQ</t>
-  </si>
-  <si>
-    <t>7Zq+FZr4EU2JUSJGYb5l3w</t>
-  </si>
-  <si>
-    <t>nyGjwUuGSU28kZnltbYfyg</t>
-  </si>
-  <si>
-    <t>8EUv2r2Q3Umy56rbAoz3YA</t>
-  </si>
-  <si>
-    <t>VeBdIaS8+kW7pD5h7TjldA</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>fireball</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>owl_shot</t>
-  </si>
-  <si>
-    <t>bear_shot</t>
+    <t xml:space="preserve">BIr97MzFFEqSkH79ajRcIQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80jHuiqyGkmbPMFYa7j/WA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmqeNM7xnEiwpUgalIDKuQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7Zq+FZr4EU2JUSJGYb5l3w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nyGjwUuGSU28kZnltbYfyg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8EUv2r2Q3Umy56rbAoz3YA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VeBdIaS8+kW7pD5h7TjldA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fireball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owl_shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear_shot</t>
   </si>
   <si/>
   <si>
-    <t>z65T2Hcot0+fcRJxc1V4ZA</t>
-  </si>
-  <si>
-    <t>6q3skcv+nUCSzHwhTFtnVw</t>
-  </si>
-  <si>
-    <t>jrRaKBXFPkmy/QSsvp6HtQ</t>
-  </si>
-  <si>
-    <t>hc1sZU2dREyQjNX69/i7XQ</t>
-  </si>
-  <si>
-    <t>번개</t>
-  </si>
-  <si>
-    <t>지뢰</t>
-  </si>
-  <si>
-    <t>중력장</t>
-  </si>
-  <si>
-    <t>친구</t>
-  </si>
-  <si>
-    <t>적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
-  </si>
-  <si>
-    <t>아돈빠가돈!</t>
-  </si>
-  <si>
-    <t>쌌드라욘마인~</t>
-  </si>
-  <si>
-    <t>쌋드라요마인~</t>
-  </si>
-  <si>
-    <t>하늘에서 주기적으로 번개가 친다.</t>
-  </si>
-  <si>
-    <t>mob_snail</t>
-  </si>
-  <si>
-    <t>mob_beetle</t>
-  </si>
-  <si>
-    <t>mob_monkey</t>
-  </si>
-  <si>
-    <t>mob_flamingo</t>
-  </si>
-  <si>
-    <t>mob_dragonfly</t>
-  </si>
-  <si>
-    <t>mob_candle</t>
-  </si>
-  <si>
-    <t>mob_rino</t>
+    <t xml:space="preserve">z65T2Hcot0+fcRJxc1V4ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6q3skcv+nUCSzHwhTFtnVw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jrRaKBXFPkmy/QSsvp6HtQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hc1sZU2dREyQjNX69/i7XQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">번개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중력장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">친구</t>
+  </si>
+  <si>
+    <t xml:space="preserve">적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아돈빠가돈!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌌드라욘마인~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쌋드라요마인~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하늘에서 주기적으로 번개가 친다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_snail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_beetle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_flamingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_dragonfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_candle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_rino</t>
   </si>
   <si/>
   <si>
-    <t>ovShOG9vz0qBynU3N7A27A</t>
-  </si>
-  <si>
-    <t>xL7qVxJe9kysLVTIKmzuuA</t>
-  </si>
-  <si>
-    <t>TUdRpRMhK0G1XmYAGm6uEw</t>
-  </si>
-  <si>
-    <t>cMp9+kAl8UGgcTM+7tuyXA</t>
-  </si>
-  <si>
-    <t>JP9AY1x9sUa2WAweqi0Hyg</t>
-  </si>
-  <si>
-    <t>z72/TXkgfEOAI1RcEnbf9w</t>
-  </si>
-  <si>
-    <t>6ZQSDtiDc0+ujLraF9ULlw</t>
-  </si>
-  <si>
-    <t>zBnDreY2EUyIgqqT0I1oCg</t>
-  </si>
-  <si>
-    <t>Zwv52fG5a0uz2w+Mw1X1EA</t>
-  </si>
-  <si>
-    <t>80qA8yn0HkK7i+4isj1VAA</t>
-  </si>
-  <si>
-    <t>MO77fenG+EGDXqDfjx0GwQ</t>
-  </si>
-  <si>
-    <t>bwGMcqR0B0uFKpIP/arGGw</t>
-  </si>
-  <si>
-    <t>XXMW6jdsDkqbQDiagvTvAA</t>
-  </si>
-  <si>
-    <t>boss_scarecrow</t>
-  </si>
-  <si>
-    <t>scarecrow_shot</t>
+    <t xml:space="preserve">ovShOG9vz0qBynU3N7A27A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xL7qVxJe9kysLVTIKmzuuA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUdRpRMhK0G1XmYAGm6uEw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cMp9+kAl8UGgcTM+7tuyXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP9AY1x9sUa2WAweqi0Hyg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z72/TXkgfEOAI1RcEnbf9w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ZQSDtiDc0+ujLraF9ULlw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zBnDreY2EUyIgqqT0I1oCg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwv52fG5a0uz2w+Mw1X1EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80qA8yn0HkK7i+4isj1VAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO77fenG+EGDXqDfjx0GwQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bwGMcqR0B0uFKpIP/arGGw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXMW6jdsDkqbQDiagvTvAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_scarecrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scarecrow_shot</t>
   </si>
   <si/>
   <si>
-    <t>Og45GfRUM0CqJQUz3H+9AA</t>
-  </si>
-  <si>
-    <t>vVPBgEN7WUi/lGlzyJ5/Qg</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>슬롯</t>
-  </si>
-  <si>
-    <t>슬롯증가</t>
-  </si>
-  <si>
-    <t>유물 장착 슬롯 증가</t>
+    <t xml:space="preserve">Og45GfRUM0CqJQUz3H+9AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vVPBgEN7WUi/lGlzyJ5/Qg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">슬롯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">슬롯증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유물 장착 슬롯 증가</t>
   </si>
   <si/>
   <si>
-    <t>DUqi+8ckB0qblBzm6KlcNg</t>
-  </si>
-  <si>
-    <t>OP592CHEkEqaCW4o+WCZNw</t>
-  </si>
-  <si>
-    <t>boss_flower</t>
-  </si>
-  <si>
-    <t>1Ym7RLkBgUCA9I+gVXisAQ</t>
-  </si>
-  <si>
-    <t>boss_bigbettle</t>
-  </si>
-  <si>
-    <t>kdsl2jzhtU6rPAELOI8Tbw</t>
-  </si>
-  <si>
-    <t>flower_thorn</t>
-  </si>
-  <si>
-    <t>PtYsPmNIh06wyUfSH4KX0w</t>
-  </si>
-  <si>
-    <t>flower_mine</t>
-  </si>
-  <si>
-    <t>1EG4vgTgYUO8MktQYh1lag</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>skinname</t>
-  </si>
-  <si>
-    <t>눈사람</t>
-  </si>
-  <si>
-    <t>불사람</t>
-  </si>
-  <si>
-    <t>풀사람</t>
-  </si>
-  <si>
-    <t>돌사람</t>
-  </si>
-  <si>
-    <t>귤사람</t>
-  </si>
-  <si>
-    <t>전구사람</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>야수사람</t>
-  </si>
-  <si>
-    <t>로봇사람</t>
-  </si>
-  <si>
-    <t>뱀파이어사람</t>
-  </si>
-  <si>
-    <t>아이스크림사람</t>
-  </si>
-  <si>
-    <t>천사사람</t>
-  </si>
-  <si>
-    <t>황금갑옷사람</t>
-  </si>
-  <si>
-    <t>네모사람</t>
-  </si>
-  <si>
-    <t>지뢰사람</t>
-  </si>
-  <si>
-    <t>거미사람</t>
-  </si>
-  <si>
-    <t>용사사람</t>
-  </si>
-  <si>
-    <t>quest</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>gem</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>type0</t>
-  </si>
-  <si>
-    <t>val0</t>
-  </si>
-  <si>
-    <t>type1</t>
-  </si>
-  <si>
-    <t>val1</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_bigbettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">풀사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돌사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">귤사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전구사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">야수사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로봇사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뱀파이어사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이스크림사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천사사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">황금갑옷사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거미사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
   <si/>
   <si>
-    <t>gLnjGlJPQUGceqv9MtI+jg</t>
-  </si>
-  <si>
-    <t>bDmF5v4opUOLjBB580DUog</t>
-  </si>
-  <si>
-    <t>j4aRpfkhWUCwpugwL7yhOw</t>
-  </si>
-  <si>
-    <t>v6FaRzn/yUS4jftoTtNfsw</t>
-  </si>
-  <si>
-    <t>nMhXnyt3XUWslXDy/Eccmw</t>
-  </si>
-  <si>
-    <t>5CW4lEGYZEqJ8sFOtlJVVw</t>
-  </si>
-  <si>
-    <t>a+XFhtKj2Em7xW1tms05Zw</t>
-  </si>
-  <si>
-    <t>oJlQTylhPUGaWX/Zndg2HQ</t>
-  </si>
-  <si>
-    <t>ZDD/hjzPHU+kTQf39Dvtnw</t>
-  </si>
-  <si>
-    <t>tY/x47zy/U+9d/dQf4L+Xg</t>
-  </si>
-  <si>
-    <t>kUpxVrSyPke7VlIQ+ty+ng</t>
-  </si>
-  <si>
-    <t>e+gqMj+a0kePNLaic882PA</t>
-  </si>
-  <si>
-    <t>PVpFmf14gE+JTvE5tq+oTw</t>
-  </si>
-  <si>
-    <t>bBCBYzcq5kaQf7V57bsU5Q</t>
-  </si>
-  <si>
-    <t>NV8CtlguXEufFOcfSPnFWw</t>
-  </si>
-  <si>
-    <t>LmBUHti4IU6ufw+5njPwTQ</t>
-  </si>
-  <si>
-    <t>typeB</t>
-  </si>
-  <si>
-    <t>typeF</t>
-  </si>
-  <si>
-    <t>Fval</t>
-  </si>
-  <si>
-    <t>typeI</t>
-  </si>
-  <si>
-    <t>Ival</t>
-  </si>
-  <si>
-    <t>snowball</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>Fval1</t>
-  </si>
-  <si>
-    <t>Fval0</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>d_hp</t>
-  </si>
-  <si>
-    <t>d_hpgen</t>
-  </si>
-  <si>
-    <t>d_def</t>
-  </si>
-  <si>
-    <t>d_att</t>
-  </si>
-  <si>
-    <t>d_cool</t>
-  </si>
-  <si>
-    <t>d_exp</t>
-  </si>
-  <si>
-    <t>d_coin</t>
-  </si>
-  <si>
-    <t>a_hp</t>
-  </si>
-  <si>
-    <t>ex_hp</t>
-  </si>
-  <si>
-    <t>ex_hpgen</t>
-  </si>
-  <si>
-    <t>ex_def</t>
-  </si>
-  <si>
-    <t>ex_att</t>
-  </si>
-  <si>
-    <t>ex_cool</t>
-  </si>
-  <si>
-    <t>ex_exp</t>
-  </si>
-  <si>
-    <t>ex_coin</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>invSwamp</t>
-  </si>
-  <si>
-    <t>wild</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>rebirth</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>citrus</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>iceHeal</t>
-  </si>
-  <si>
-    <t>frozen</t>
-  </si>
-  <si>
-    <t>invincible</t>
-  </si>
-  <si>
-    <t>d_speed</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>criticDmg</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>ch_explain</t>
-  </si>
-  <si>
-    <t>unch_explain</t>
-  </si>
-  <si>
-    <t>겨울에 만들어진 눈사람</t>
-  </si>
-  <si>
-    <t>여름한정</t>
-  </si>
-  <si>
-    <t>눈대신</t>
-  </si>
-  <si>
-    <t>눈 대신 돌을 던진다.</t>
-  </si>
-  <si>
-    <t>눈 대신 귤을 던진다.</t>
-  </si>
-  <si>
-    <t>네모난 눈을 던진다.</t>
-  </si>
-  <si>
-    <t>머리의 전구로 어둠을 밝힌다.</t>
-  </si>
-  <si>
-    <t>잃은 체력 1%당 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t>지뢰 개수 4개증가</t>
-  </si>
-  <si>
-    <t>지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t>늪지 무효\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
-  </si>
-  <si>
-    <t>여름한정 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t>봄한정 체력재생량 n%증가</t>
-  </si>
-  <si>
-    <t>봄한정 체력재생량 n% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 돌을 던진다.\\n체력 n% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
-  </si>
-  <si>
-    <t>무적 발동</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t>눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
-  </si>
-  <si>
-    <t>네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
-  </si>
-  <si>
-    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
-  </si>
-  <si>
-    <t>봄한정 체력재생량 a% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 돌을 던진다.\\n체력 a% 증가</t>
-  </si>
-  <si>
-    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
-  </si>
-  <si>
-    <t>잃은 체력 1%당 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t>지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t>늪지 무효\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
-  </si>
-  <si>
-    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
-  </si>
-  <si>
-    <t>네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
-  </si>
-  <si>
-    <t>눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t>여름한정 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t>30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
-  </si>
-  <si>
-    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
-  </si>
-  <si>
-    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
+    <t xml:space="preserve">gLnjGlJPQUGceqv9MtI+jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bDmF5v4opUOLjBB580DUog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j4aRpfkhWUCwpugwL7yhOw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v6FaRzn/yUS4jftoTtNfsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMhXnyt3XUWslXDy/Eccmw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5CW4lEGYZEqJ8sFOtlJVVw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a+XFhtKj2Em7xW1tms05Zw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oJlQTylhPUGaWX/Zndg2HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDD/hjzPHU+kTQf39Dvtnw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tY/x47zy/U+9d/dQf4L+Xg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kUpxVrSyPke7VlIQ+ty+ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e+gqMj+a0kePNLaic882PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVpFmf14gE+JTvE5tq+oTw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bBCBYzcq5kaQf7V57bsU5Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV8CtlguXEufFOcfSPnFWw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LmBUHti4IU6ufw+5njPwTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fval0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_hpgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invSwamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iceHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invincible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticDmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch_explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unch_explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">겨울에 만들어진 눈사람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈대신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">머리의 전구로 어둠을 밝힌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잃은 체력 1%당 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 4개증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">늪지 무효\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무적 발동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄한정 체력재생량 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잃은 체력 1%당 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">늪지 무효\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름한정 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
   </si>
   <si/>
   <si>
-    <t>ERzaZOy2RkmFqdq+1HEN0w</t>
-  </si>
-  <si>
-    <t>invSlow</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>scare_fire</t>
-  </si>
-  <si>
-    <t>boss_butterfly</t>
+    <t xml:space="preserve">ERzaZOy2RkmFqdq+1HEN0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invSlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scare_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_butterfly</t>
   </si>
   <si/>
   <si>
-    <t>WfxNB+MGn06c0Mxh9qi6TQ</t>
-  </si>
-  <si>
-    <t>bfly_bgPoison</t>
-  </si>
-  <si>
-    <t>bfly_smPoison</t>
-  </si>
-  <si>
-    <t>=boss!G6</t>
+    <t xml:space="preserve">WfxNB+MGn06c0Mxh9qi6TQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfly_bgPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfly_smPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=boss!G6</t>
   </si>
   <si/>
   <si>
-    <t>H2iGbbqnQ0OIrx3EtElI8g</t>
-  </si>
-  <si>
-    <t>D2lgjDXLyUStHASDlJTf+Q</t>
-  </si>
-  <si>
-    <t>questName</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>봄까지 버티기</t>
-  </si>
-  <si>
-    <t>여름까지 버티기</t>
-  </si>
-  <si>
-    <t>가을까지 버티기</t>
-  </si>
-  <si>
-    <t>1년 버티기</t>
-  </si>
-  <si>
-    <t>버티기</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>artifact</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>reinforce</t>
-  </si>
-  <si>
-    <t>하루</t>
-  </si>
-  <si>
-    <t>1마리</t>
-  </si>
-  <si>
-    <t>1개</t>
-  </si>
-  <si>
-    <t>10번</t>
-  </si>
-  <si>
-    <t>questType</t>
-  </si>
-  <si>
-    <t>강화1회</t>
-  </si>
-  <si>
-    <t>특정스킨으로 1회</t>
-  </si>
-  <si>
-    <t>광고 1회</t>
+    <t xml:space="preserve">H2iGbbqnQ0OIrx3EtElI8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2lgjDXLyUStHASDlJTf+Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봄까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여름까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가을까지 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1년 버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">버티기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하루</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1마리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강화1회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">특정스킨으로 1회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고 1회</t>
   </si>
   <si/>
   <si>
-    <t>oMhQHIWj/EC8ngg9JcK0OA</t>
-  </si>
-  <si>
-    <t>tn3M8GN9A0S40ubcMn7hgA</t>
-  </si>
-  <si>
-    <t>FYLWhSg54UWwAGA4uBn3KA</t>
-  </si>
-  <si>
-    <t>2vw6eVoubE2FX4RhcWa2Gw</t>
-  </si>
-  <si>
-    <t>I2hLdUHeKEOMFjkn8uKZ1Q</t>
-  </si>
-  <si>
-    <t>YnmthZe2OUS0F2IvwXzx/w</t>
-  </si>
-  <si>
-    <t>0aZgm2DJLU6UAd3Lphp+qw</t>
-  </si>
-  <si>
-    <t>Jc5TTOZymkyTL+nsgg7Cww</t>
+    <t xml:space="preserve">oMhQHIWj/EC8ngg9JcK0OA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn3M8GN9A0S40ubcMn7hgA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYLWhSg54UWwAGA4uBn3KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2vw6eVoubE2FX4RhcWa2Gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2hLdUHeKEOMFjkn8uKZ1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YnmthZe2OUS0F2IvwXzx/w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0aZgm2DJLU6UAd3Lphp+qw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jc5TTOZymkyTL+nsgg7Cww</t>
   </si>
   <si/>
   <si>
-    <t>hZ5zXDn9pEau0jHAGnXPSw</t>
-  </si>
-  <si>
-    <t>WPQJ3pXzQ0+JXwy8wQ4dIg</t>
-  </si>
-  <si>
-    <t>Gh9WTIDO102/V9jEpX7Hug</t>
-  </si>
-  <si>
-    <t>47GYdDEOAUSm0AH87BJJjg</t>
-  </si>
-  <si>
-    <t>ObWi0F4A6U2Tf76nPoOcfg</t>
-  </si>
-  <si>
-    <t>hq6MdF1mHECN16RcyqBTtw</t>
-  </si>
-  <si>
-    <t>kSYQdp7c7UGfSpse9ezboQ</t>
-  </si>
-  <si>
-    <t>ApPa6gHqNEGEi/VRoSCArg</t>
-  </si>
-  <si>
-    <t>2iQCymteB02RoDlUQLkYjw</t>
-  </si>
-  <si>
-    <t>Bh+K4BC8KESXkMcgOi2iSA</t>
-  </si>
-  <si>
-    <t>0f0mQNjS7ESDJEecRxc4ig</t>
-  </si>
-  <si>
-    <t>gQ8tV6Qyo0i87zD5bsPQMw</t>
-  </si>
-  <si>
-    <t>vf2Vz4Dykk2UAywywrIc7g</t>
-  </si>
-  <si>
-    <t>1ByLRWNnYUe3Sy+PYVgV2g</t>
-  </si>
-  <si>
-    <t>vTygID9He0yuztzCQ6n+rQ</t>
-  </si>
-  <si>
-    <t>DL/xgk/tTU+/YwFGlDT1Jg</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>day_rein</t>
-  </si>
-  <si>
-    <t>day_skin</t>
-  </si>
-  <si>
-    <t>day_ad</t>
-  </si>
-  <si>
-    <t>rein</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>snowman</t>
-  </si>
-  <si>
-    <t>fireman</t>
-  </si>
-  <si>
-    <t>grassman</t>
-  </si>
-  <si>
-    <t>rockman</t>
-  </si>
-  <si>
-    <t>citrusman</t>
-  </si>
-  <si>
-    <t>bulbman</t>
-  </si>
-  <si>
-    <t>sildman</t>
-  </si>
-  <si>
-    <t>minman</t>
-  </si>
-  <si>
-    <t>mineman</t>
-  </si>
-  <si>
-    <t>robotman</t>
-  </si>
-  <si>
-    <t>icecreamman</t>
-  </si>
-  <si>
-    <t>goldenarmorman</t>
-  </si>
-  <si>
-    <t>angelman</t>
-  </si>
-  <si>
-    <t>squareman</t>
-  </si>
-  <si>
-    <t>spiderman</t>
-  </si>
-  <si>
-    <t>vampireman</t>
-  </si>
-  <si>
-    <t>heroman</t>
-  </si>
-  <si>
-    <t>wildman</t>
-  </si>
-  <si>
-    <t>removead</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>startpack</t>
-  </si>
-  <si>
-    <t>skinpack</t>
-  </si>
-  <si>
-    <t>s_gem</t>
-  </si>
-  <si>
-    <t>m_gem</t>
-  </si>
-  <si>
-    <t>l_gem</t>
-  </si>
-  <si>
-    <t>s_ap</t>
-  </si>
-  <si>
-    <t>m_ap</t>
-  </si>
-  <si>
-    <t>l_ap</t>
-  </si>
-  <si>
-    <t>s_coin</t>
-  </si>
-  <si>
-    <t>m_coin</t>
-  </si>
-  <si>
-    <t>l_coin</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>pricetype</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>"TRUE"</t>
-  </si>
-  <si>
-    <t>addgem</t>
-  </si>
-  <si>
-    <t>addap</t>
-  </si>
-  <si>
-    <t>addcoin</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>disposable</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>week.SkinKeyList.snowman</t>
-  </si>
-  <si>
-    <t>week.SkinKeyList.wildman</t>
+    <t xml:space="preserve">hZ5zXDn9pEau0jHAGnXPSw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPQJ3pXzQ0+JXwy8wQ4dIg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gh9WTIDO102/V9jEpX7Hug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47GYdDEOAUSm0AH87BJJjg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObWi0F4A6U2Tf76nPoOcfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hq6MdF1mHECN16RcyqBTtw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kSYQdp7c7UGfSpse9ezboQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApPa6gHqNEGEi/VRoSCArg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2iQCymteB02RoDlUQLkYjw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bh+K4BC8KESXkMcgOi2iSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f0mQNjS7ESDJEecRxc4ig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gQ8tV6Qyo0i87zD5bsPQMw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vf2Vz4Dykk2UAywywrIc7g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ByLRWNnYUe3Sy+PYVgV2g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vTygID9He0yuztzCQ6n+rQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL/xgk/tTU+/YwFGlDT1Jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_rein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fireman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grassman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrusman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulbman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sildman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mineman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robotman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icecreamman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldenarmorman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angelman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squareman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiderman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vampireman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heroman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pricetype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"TRUE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addgem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disposable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week.SkinKeyList.snowman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week.SkinKeyList.wildman</t>
   </si>
   <si/>
   <si>
-    <t>AhU2MfudO0CGPbfKA54soA</t>
-  </si>
-  <si>
-    <t>tH4X0ump3kSX06VVmzjtXQ</t>
-  </si>
-  <si>
-    <t>jmkaGTYqRk+2dh4mPkWulQ</t>
-  </si>
-  <si>
-    <t>WwogyFh130C5mFAy8k6MHQ</t>
-  </si>
-  <si>
-    <t>IaJPrmZ45kuWH9lQrH8p6Q</t>
-  </si>
-  <si>
-    <t>yED9p/FikECrm65TUyi/EA</t>
-  </si>
-  <si>
-    <t>t5tSnH8OgUSB2kns/WaF+g</t>
-  </si>
-  <si>
-    <t>EfyDxZLgWE+1haiTVUlDdw</t>
-  </si>
-  <si>
-    <t>nM0KYyjX7kuBMBq+PAXWug</t>
-  </si>
-  <si>
-    <t>50BoMynjRU+ipwyssM0S9Q</t>
-  </si>
-  <si>
-    <t>ba5dgtxUQEaALH9CV4fuyA</t>
-  </si>
-  <si>
-    <t>gIGbxsQTUU+Vm9130mXL8g</t>
-  </si>
-  <si>
-    <t>B1IMHKQ0hUeFsw2XyxQiZw</t>
-  </si>
-  <si>
-    <t>\sprite\store</t>
-  </si>
-  <si>
-    <t>\sprite\store\adRemove</t>
-  </si>
-  <si>
-    <t>/sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t>sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t>sprite/store/adRemove</t>
-  </si>
-  <si>
-    <t>sprite/store/</t>
-  </si>
-  <si>
-    <t>sprite/store/10perCoin</t>
-  </si>
-  <si>
-    <t>sprite/store/startPack</t>
-  </si>
-  <si>
-    <t>sprite/store/skinPack</t>
-  </si>
-  <si>
-    <t>sprite/store/gem_</t>
-  </si>
-  <si>
-    <t>sprite/store/ap_</t>
-  </si>
-  <si>
-    <t>sprite/store/coin_</t>
-  </si>
-  <si>
-    <t>sprite/store/gem_s</t>
-  </si>
-  <si>
-    <t>sprite/store/ap_s</t>
-  </si>
-  <si>
-    <t>sprite/store/coin_s</t>
-  </si>
-  <si>
-    <t>sprite/store/coin_m</t>
-  </si>
-  <si>
-    <t>sprite/store/ap_m</t>
-  </si>
-  <si>
-    <t>sprite/store/gem_m</t>
-  </si>
-  <si>
-    <t>sprite/store/gem_l</t>
-  </si>
-  <si>
-    <t>sprite/store/ap_l</t>
-  </si>
-  <si>
-    <t>sprite/store/coin_l</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>costTerm</t>
-  </si>
-  <si>
-    <t>additrate</t>
+    <t xml:space="preserve">AhU2MfudO0CGPbfKA54soA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tH4X0ump3kSX06VVmzjtXQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmkaGTYqRk+2dh4mPkWulQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WwogyFh130C5mFAy8k6MHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaJPrmZ45kuWH9lQrH8p6Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yED9p/FikECrm65TUyi/EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t5tSnH8OgUSB2kns/WaF+g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EfyDxZLgWE+1haiTVUlDdw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nM0KYyjX7kuBMBq+PAXWug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50BoMynjRU+ipwyssM0S9Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba5dgtxUQEaALH9CV4fuyA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gIGbxsQTUU+Vm9130mXL8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1IMHKQ0hUeFsw2XyxQiZw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\sprite\store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\sprite\store\adRemove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/adRemove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/10perCoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/startPack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/skinPack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/gem_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/ap_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/coin_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additrate</t>
   </si>
   <si/>
   <si>
-    <t>uc2VpP69vUe9OToar7DB6A</t>
-  </si>
-  <si>
-    <t>BJXO0HWdZECTA1Z9YVIlJA</t>
-  </si>
-  <si>
-    <t>J03Iq+Jll0Srpx/p60dHlg</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>wildskinpack</t>
+    <t xml:space="preserve">uc2VpP69vUe9OToar7DB6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJXO0HWdZECTA1Z9YVIlJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J03Iq+Jll0Srpx/p60dHlg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildskinpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonus_10_0</t>
   </si>
 </sst>
 </file>
@@ -2007,148 +2009,148 @@
   </numFmts>
   <fonts count="27">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <color theme="10"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
-      <color theme="11"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF3F3F76"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF3F3F3F"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF9C6500"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
-      <color theme="0"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF7F7F7F"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="7" tint="0.79998"/>
       <name val="맑은 고딕"/>
-      <color theme="7" tint="0.799980"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="1.0"/>
+      <sz val="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFF8080"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF8080"/>
     </font>
   </fonts>
   <fills count="39">
@@ -2211,19 +2213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor theme="4" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
+        <fgColor theme="4" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
+        <fgColor theme="4" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2235,19 +2237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
+        <fgColor theme="5" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
+        <fgColor theme="5" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2259,19 +2261,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
+        <fgColor theme="6" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
+        <fgColor theme="6" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
+        <fgColor theme="6" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2283,19 +2285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
+        <fgColor theme="7" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
+        <fgColor theme="7" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
+        <fgColor theme="7" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2307,19 +2309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
+        <fgColor theme="8" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <fgColor theme="8" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
+        <fgColor theme="8" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2331,19 +2333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor theme="9" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
+        <fgColor theme="9" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="9" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2361,13 +2363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.099980"/>
+        <fgColor theme="2" tint="-0.09998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.150000"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2469,7 +2471,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
+        <color theme="4" tint="0.39998"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3249,159 +3251,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyAlignment="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="211">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3410,7 +3412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3422,37 +3424,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3461,37 +3463,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3503,55 +3505,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3563,76 +3565,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3641,103 +3643,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3749,31 +3751,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3782,106 +3784,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3914,40 +3916,40 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3968,16 +3970,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3986,13 +3988,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4004,7 +4006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4016,13 +4018,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4086,1164 +4088,970 @@
   <dxfs count="97">
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF006FBE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
-        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
@@ -5518,27 +5326,27 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="6.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="13.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="56.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="70.50499725" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="7.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="6.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="11.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="6.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="12.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="13.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="12.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" width="6.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="18" width="14.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="27.62999916" customWidth="1"/>
+    <col min="2" max="2" width="6.25500011" customWidth="1"/>
+    <col min="3" max="3" width="13.00500011" customWidth="1"/>
+    <col min="4" max="4" width="10.63000011" customWidth="1"/>
+    <col min="5" max="5" width="56.50500107" customWidth="1"/>
+    <col min="6" max="6" width="70.50499725" customWidth="1"/>
+    <col min="7" max="7" width="7.88000011" customWidth="1"/>
+    <col min="8" max="8" width="6.38000011" customWidth="1"/>
+    <col min="9" max="9" width="11.50500011" customWidth="1"/>
+    <col min="10" max="10" width="6.00500011" customWidth="1"/>
+    <col min="11" max="11" width="12.75500011" customWidth="1"/>
+    <col min="12" max="12" width="5.63000011" customWidth="1"/>
+    <col min="13" max="13" width="13.75500011" customWidth="1"/>
+    <col min="14" max="14" width="12.50500011" customWidth="1"/>
+    <col min="15" max="15" width="6.38000011" customWidth="1"/>
+    <col min="16" max="18" width="14.38000011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -6845,7 +6653,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="21">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="K23" s="21">
         <v>5</v>
@@ -7221,7 +7029,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7234,16 +7042,16 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="16.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="7.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="21" max="21" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="27.37999916" customWidth="1"/>
+    <col min="2" max="2" width="16.75499916" customWidth="1"/>
+    <col min="3" max="3" width="15.13000011" customWidth="1"/>
+    <col min="4" max="4" width="7.38000011" customWidth="1"/>
+    <col min="7" max="7" width="9.00500011" customWidth="1"/>
+    <col min="11" max="11" width="9.00500011" customWidth="1"/>
+    <col min="14" max="14" width="9.00500011" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.00500011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7513,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.250000">
+    <row r="4" spans="1:29" ht="17.25">
       <c r="A4" s="61" t="s">
         <v>411</v>
       </c>
@@ -7780,7 +7588,7 @@
         <v>0.0099999997764826</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="17.250000">
+    <row r="7" spans="1:29" ht="17.25">
       <c r="A7" s="49" t="s">
         <v>414</v>
       </c>
@@ -8670,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="17.250000">
+    <row r="17" spans="1:29" ht="17.25">
       <c r="A17" s="43" t="s">
         <v>424</v>
       </c>
@@ -8761,7 +8569,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -8771,16 +8579,16 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="5" width="12.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" width="9.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16" width="24.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1"/>
+    <col min="2" max="5" width="12.50500011" customWidth="1"/>
+    <col min="8" max="8" width="9.00500011" customWidth="1"/>
+    <col min="15" max="15" width="9.88000011" customWidth="1"/>
+    <col min="16" max="16" width="24.87999916" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8888,7 +8696,7 @@
         <v>636</v>
       </c>
       <c r="B3" s="184" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="C3" s="184" t="b">
         <v>1</v>
@@ -8968,13 +8776,13 @@
         <v>10000</v>
       </c>
       <c r="L4" s="184">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M4" s="184">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N4" s="184">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O4" s="186" t="s">
         <v>586</v>
@@ -9433,7 +9241,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.250000">
+    <row r="14" spans="1:16" ht="17.25">
       <c r="A14" s="187" t="s">
         <v>647</v>
       </c>
@@ -9485,7 +9293,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -9498,12 +9306,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.87999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="27.87999916" customWidth="1"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1"/>
+    <col min="4" max="8" width="9.00500011" customWidth="1"/>
+    <col min="9" max="9" width="13.88000011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9956,7 +9764,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -9969,10 +9777,10 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10153,7 +9961,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10166,15 +9974,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="26.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="5" width="12.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="6" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="5" width="11.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="9" style="5" width="12.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="26.37999916" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.00500011" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.63000011" style="5" customWidth="1"/>
+    <col min="5" max="6" width="9.00500011" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.50500011" style="5" customWidth="1"/>
+    <col min="8" max="9" width="12.63000011" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.00500011" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10371,7 +10179,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10384,11 +10192,11 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="26.62999916" customWidth="1"/>
+    <col min="2" max="2" width="15.13000011" customWidth="1"/>
+    <col min="5" max="8" width="9.00500011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10603,7 +10411,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10616,12 +10424,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="11.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="15.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1"/>
+    <col min="4" max="5" width="11.75500011" customWidth="1"/>
+    <col min="7" max="7" width="15.75500011" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10860,7 +10668,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.102.51.41307"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="240" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -1996,6 +1996,13 @@
   </si>
   <si>
     <t xml:space="preserve">bonus_10_0</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">j+6ETQsMAEuxWX0bQIZExw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2160,7 @@
       <name val="맑은 고딕"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2385,6 +2392,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="68">
     <border>
@@ -3399,7 +3412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
@@ -4031,6 +4044,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4085,10 +4155,12 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="106">
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4098,7 +4170,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4108,7 +4182,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4118,7 +4194,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4128,7 +4206,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4138,7 +4218,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4148,7 +4230,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4158,7 +4242,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4168,7 +4254,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4178,7 +4266,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4188,7 +4278,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4198,7 +4290,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4208,7 +4302,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4218,7 +4314,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4228,7 +4326,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4238,7 +4338,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4248,7 +4350,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4258,7 +4362,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4268,7 +4374,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4278,7 +4386,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4288,7 +4398,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4298,7 +4410,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4308,7 +4422,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4318,7 +4434,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4328,7 +4446,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4338,7 +4458,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4348,7 +4470,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4358,7 +4482,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4368,7 +4494,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4378,7 +4506,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4388,7 +4518,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4398,7 +4530,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4408,7 +4542,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4418,7 +4554,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4428,7 +4566,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4438,7 +4578,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4448,7 +4590,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4458,7 +4602,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4468,7 +4614,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4478,7 +4626,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4488,7 +4638,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4498,7 +4650,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4508,7 +4662,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4518,7 +4674,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4528,7 +4686,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4538,7 +4698,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4548,7 +4710,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4558,7 +4722,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4568,7 +4734,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4578,7 +4746,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4588,7 +4758,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4598,7 +4770,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4608,7 +4782,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4618,7 +4794,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4628,7 +4806,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4638,7 +4818,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4648,7 +4830,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4658,7 +4842,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4668,7 +4854,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4678,7 +4866,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4688,7 +4878,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4698,7 +4890,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4708,7 +4902,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4718,7 +4914,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4728,7 +4926,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4738,7 +4938,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4748,7 +4950,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4758,7 +4962,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4768,7 +4974,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4778,7 +4986,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4788,7 +4998,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4798,7 +5010,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4808,7 +5022,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4818,7 +5034,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4828,7 +5046,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4838,7 +5058,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4848,7 +5070,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4858,7 +5082,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4868,7 +5094,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4878,7 +5106,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4888,7 +5118,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4898,7 +5130,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4908,7 +5142,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4918,7 +5154,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4928,7 +5166,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4938,7 +5178,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4948,7 +5190,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4958,7 +5202,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4968,7 +5214,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4978,7 +5226,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4988,7 +5238,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -4998,7 +5250,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -5008,7 +5262,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -5018,7 +5274,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -5028,7 +5286,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -5038,7 +5298,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -5048,13 +5310,88 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
       </font>
       <fill>
         <patternFill patternType="none">
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FF8C8C8C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF9C0006"/>
+        <name val="맑은 고딕"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+      </font>
     </dxf>
   </dxfs>
 </styleSheet>
@@ -5326,7 +5663,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5422,11 +5759,11 @@
         <v>261</v>
       </c>
       <c r="F2" s="22" t="str">
-        <f>"체력 "&amp;INT((G2-1)*100)&amp;"% 증가"</f>
+        <f>"체력 "&amp;INT(G2-100)&amp;"% 증가"</f>
         <v>체력 50% 증가</v>
       </c>
       <c r="G2" s="22">
-        <v>1.5</v>
+        <v>150</v>
       </c>
       <c r="H2" s="22">
         <v>0</v>
@@ -5480,11 +5817,11 @@
         <v>262</v>
       </c>
       <c r="F3" s="22" t="str">
-        <f>"공격력 "&amp;INT((G3-1)*100)&amp;"% 증가"</f>
+        <f>"공격력 "&amp;INT(G3-100)&amp;"% 증가"</f>
         <v>공격력 10% 증가</v>
       </c>
       <c r="G3" s="22">
-        <v>1.10000002384186</v>
+        <v>110</v>
       </c>
       <c r="H3" s="22">
         <v>0</v>
@@ -5654,11 +5991,11 @@
         <v>256</v>
       </c>
       <c r="F6" s="22" t="str">
-        <f>"스킬시전시간 "&amp;INT((1-G6)*100)&amp;"% 감소"</f>
-        <v>스킬시전시간 5% 감소</v>
+        <f>"스킬시전시간 "&amp;INT(-G6)&amp;"% 감소"</f>
+        <v>스킬시전시간 4% 감소</v>
       </c>
       <c r="G6" s="22">
-        <v>0.949999988079071</v>
+        <v>-4</v>
       </c>
       <c r="H6" s="22">
         <v>0</v>
@@ -5712,11 +6049,11 @@
         <v>257</v>
       </c>
       <c r="F7" s="22" t="str">
-        <f>"경험치 습득량 "&amp;INT((G7-1)*100)&amp;"% 증가"</f>
+        <f>"경험치 습득량 "&amp;INT(G7-100)&amp;"% 증가"</f>
         <v>경험치 습득량 30% 증가</v>
       </c>
       <c r="G7" s="22">
-        <v>1.29999995231628</v>
+        <v>130</v>
       </c>
       <c r="H7" s="22">
         <v>0</v>
@@ -5770,11 +6107,11 @@
         <v>258</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>"스킬크기 "&amp;INT((G8-1)*100)&amp;"% 증가"</f>
-        <v>스킬크기 19% 증가</v>
+        <f>"스킬크기 "&amp;INT(G8-100)&amp;"% 증가"</f>
+        <v>스킬크기 20% 증가</v>
       </c>
       <c r="G8" s="22">
-        <v>1.20000004768372</v>
+        <v>120</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
@@ -5828,11 +6165,11 @@
         <v>259</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>"모든 회복량 "&amp;INT((G9-1)*100)&amp;"% 증가"</f>
+        <f>"모든 회복량 "&amp;INT(G9-100)&amp;"% 증가"</f>
         <v>모든 회복량 30% 증가</v>
       </c>
       <c r="G9" s="22">
-        <v>1.29999995231628</v>
+        <v>130</v>
       </c>
       <c r="H9" s="22">
         <v>0</v>
@@ -5886,11 +6223,11 @@
         <v>260</v>
       </c>
       <c r="F10" s="22" t="str">
-        <f>"이동속도 "&amp;INT((G10-1)*100)&amp;"% 증가"</f>
-        <v>이동속도 4% 증가</v>
+        <f>"이동속도 "&amp;INT(100-G10)&amp;"% 증가"</f>
+        <v>이동속도 5% 증가</v>
       </c>
       <c r="G10" s="22">
-        <v>1.04999995231628</v>
+        <v>95</v>
       </c>
       <c r="H10" s="22">
         <v>0</v>
@@ -7038,8 +7375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7054,7 +7391,7 @@
     <col min="21" max="21" width="9.00500011" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="23.25" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -7186,29 +7523,29 @@
       <c r="N2" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="O2" s="64">
-        <v>1</v>
-      </c>
-      <c r="P2" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="65">
-        <v>1</v>
-      </c>
-      <c r="R2" s="65">
-        <v>1</v>
-      </c>
-      <c r="S2" s="65">
-        <v>1</v>
-      </c>
-      <c r="T2" s="65">
-        <v>1</v>
-      </c>
-      <c r="U2" s="70">
-        <v>1</v>
-      </c>
-      <c r="V2" s="66">
-        <v>1</v>
+      <c r="O2" s="214">
+        <v>100</v>
+      </c>
+      <c r="P2" s="222">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="222">
+        <v>0</v>
+      </c>
+      <c r="R2" s="222">
+        <v>0</v>
+      </c>
+      <c r="S2" s="222">
+        <v>0</v>
+      </c>
+      <c r="T2" s="222">
+        <v>100</v>
+      </c>
+      <c r="U2" s="222">
+        <v>100</v>
+      </c>
+      <c r="V2" s="227">
+        <v>100</v>
       </c>
       <c r="W2" s="64">
         <v>0</v>
@@ -7275,35 +7612,35 @@
       <c r="N3" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="215">
+        <v>100</v>
+      </c>
+      <c r="P3" s="59">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="223">
+        <v>0</v>
+      </c>
+      <c r="R3" s="223">
+        <v>0</v>
+      </c>
+      <c r="S3" s="223">
+        <v>0</v>
+      </c>
+      <c r="T3" s="223">
+        <v>100</v>
+      </c>
+      <c r="U3" s="223">
+        <v>100</v>
+      </c>
+      <c r="V3" s="228">
+        <v>100</v>
+      </c>
+      <c r="W3" s="58">
+        <v>0</v>
+      </c>
+      <c r="X3" s="59">
         <v>1</v>
-      </c>
-      <c r="P3" s="59">
-        <v>1.20000004768372</v>
-      </c>
-      <c r="Q3" s="59">
-        <v>1</v>
-      </c>
-      <c r="R3" s="59">
-        <v>1</v>
-      </c>
-      <c r="S3" s="59">
-        <v>1</v>
-      </c>
-      <c r="T3" s="59">
-        <v>1</v>
-      </c>
-      <c r="U3" s="71">
-        <v>1</v>
-      </c>
-      <c r="V3" s="60">
-        <v>1</v>
-      </c>
-      <c r="W3" s="58">
-        <v>0</v>
-      </c>
-      <c r="X3" s="59">
-        <v>0.0099999997764826</v>
       </c>
       <c r="Y3" s="59">
         <v>0</v>
@@ -7364,29 +7701,29 @@
       <c r="N4" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="216">
+        <v>100</v>
+      </c>
+      <c r="P4" s="221">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="221">
+        <v>0</v>
+      </c>
+      <c r="R4" s="62">
         <v>1</v>
       </c>
-      <c r="P4" s="62">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="62">
-        <v>1</v>
-      </c>
-      <c r="R4" s="62">
-        <v>1.00999999046326</v>
-      </c>
-      <c r="S4" s="62">
-        <v>1</v>
-      </c>
-      <c r="T4" s="62">
-        <v>1</v>
-      </c>
-      <c r="U4" s="72">
-        <v>1</v>
-      </c>
-      <c r="V4" s="63">
-        <v>1</v>
+      <c r="S4" s="221">
+        <v>0</v>
+      </c>
+      <c r="T4" s="221">
+        <v>100</v>
+      </c>
+      <c r="U4" s="221">
+        <v>100</v>
+      </c>
+      <c r="V4" s="226">
+        <v>100</v>
       </c>
       <c r="W4" s="61">
         <v>0</v>
@@ -7454,31 +7791,31 @@
         <v>460</v>
       </c>
       <c r="O5" s="67">
-        <v>1.29999995231628</v>
-      </c>
-      <c r="P5" s="68">
+        <v>130</v>
+      </c>
+      <c r="P5" s="219">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="219">
+        <v>0</v>
+      </c>
+      <c r="R5" s="219">
+        <v>0</v>
+      </c>
+      <c r="S5" s="219">
+        <v>0</v>
+      </c>
+      <c r="T5" s="219">
+        <v>100</v>
+      </c>
+      <c r="U5" s="219">
+        <v>100</v>
+      </c>
+      <c r="V5" s="229">
+        <v>100</v>
+      </c>
+      <c r="W5" s="67">
         <v>1</v>
-      </c>
-      <c r="Q5" s="68">
-        <v>1</v>
-      </c>
-      <c r="R5" s="68">
-        <v>1</v>
-      </c>
-      <c r="S5" s="68">
-        <v>1</v>
-      </c>
-      <c r="T5" s="68">
-        <v>1</v>
-      </c>
-      <c r="U5" s="73">
-        <v>1</v>
-      </c>
-      <c r="V5" s="69">
-        <v>1</v>
-      </c>
-      <c r="W5" s="67">
-        <v>0.0099999997764826</v>
       </c>
       <c r="X5" s="68">
         <v>0</v>
@@ -7542,50 +7879,50 @@
       <c r="N6" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="217">
+        <v>100</v>
+      </c>
+      <c r="P6" s="220">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="224">
+        <v>0</v>
+      </c>
+      <c r="R6" s="220">
+        <v>0</v>
+      </c>
+      <c r="S6" s="224">
+        <v>0</v>
+      </c>
+      <c r="T6" s="224">
+        <v>100</v>
+      </c>
+      <c r="U6" s="74">
+        <v>101</v>
+      </c>
+      <c r="V6" s="225">
+        <v>100</v>
+      </c>
+      <c r="W6" s="39">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="40">
         <v>1</v>
-      </c>
-      <c r="P6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>1</v>
-      </c>
-      <c r="R6" s="11">
-        <v>1</v>
-      </c>
-      <c r="S6" s="11">
-        <v>1</v>
-      </c>
-      <c r="T6" s="11">
-        <v>1</v>
-      </c>
-      <c r="U6" s="74">
-        <v>1.00999999046326</v>
-      </c>
-      <c r="V6" s="40">
-        <v>1</v>
-      </c>
-      <c r="W6" s="39">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>0.0099999997764826</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="17.25">
@@ -7631,29 +7968,29 @@
       <c r="N7" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="O7" s="49">
-        <v>1</v>
-      </c>
-      <c r="P7" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="50">
-        <v>1</v>
-      </c>
-      <c r="R7" s="50">
-        <v>1</v>
-      </c>
-      <c r="S7" s="50">
-        <v>1</v>
-      </c>
-      <c r="T7" s="50">
-        <v>1</v>
-      </c>
-      <c r="U7" s="75">
-        <v>1</v>
-      </c>
-      <c r="V7" s="51">
-        <v>1</v>
+      <c r="O7" s="216">
+        <v>100</v>
+      </c>
+      <c r="P7" s="221">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="221">
+        <v>0</v>
+      </c>
+      <c r="R7" s="221">
+        <v>0</v>
+      </c>
+      <c r="S7" s="221">
+        <v>0</v>
+      </c>
+      <c r="T7" s="221">
+        <v>100</v>
+      </c>
+      <c r="U7" s="221">
+        <v>100</v>
+      </c>
+      <c r="V7" s="226">
+        <v>100</v>
       </c>
       <c r="W7" s="49">
         <v>0</v>
@@ -7720,29 +8057,29 @@
       <c r="N8" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="O8" s="55">
-        <v>1</v>
-      </c>
-      <c r="P8" s="56">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="56">
-        <v>1</v>
-      </c>
-      <c r="R8" s="56">
-        <v>1</v>
-      </c>
-      <c r="S8" s="56">
-        <v>1</v>
-      </c>
-      <c r="T8" s="56">
-        <v>1</v>
-      </c>
-      <c r="U8" s="76">
-        <v>1</v>
-      </c>
-      <c r="V8" s="57">
-        <v>1</v>
+      <c r="O8" s="218">
+        <v>100</v>
+      </c>
+      <c r="P8" s="219">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="219">
+        <v>0</v>
+      </c>
+      <c r="R8" s="219">
+        <v>0</v>
+      </c>
+      <c r="S8" s="219">
+        <v>0</v>
+      </c>
+      <c r="T8" s="219">
+        <v>100</v>
+      </c>
+      <c r="U8" s="219">
+        <v>100</v>
+      </c>
+      <c r="V8" s="229">
+        <v>100</v>
       </c>
       <c r="W8" s="55">
         <v>0</v>
@@ -7809,29 +8146,29 @@
       <c r="N9" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="O9" s="41">
-        <v>1</v>
-      </c>
-      <c r="P9" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>1</v>
-      </c>
-      <c r="R9" s="26">
-        <v>1</v>
-      </c>
-      <c r="S9" s="26">
-        <v>1</v>
-      </c>
-      <c r="T9" s="26">
-        <v>1</v>
-      </c>
-      <c r="U9" s="77">
-        <v>1</v>
-      </c>
-      <c r="V9" s="42">
-        <v>1</v>
+      <c r="O9" s="217">
+        <v>100</v>
+      </c>
+      <c r="P9" s="220">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="224">
+        <v>0</v>
+      </c>
+      <c r="R9" s="220">
+        <v>0</v>
+      </c>
+      <c r="S9" s="224">
+        <v>0</v>
+      </c>
+      <c r="T9" s="224">
+        <v>100</v>
+      </c>
+      <c r="U9" s="224">
+        <v>100</v>
+      </c>
+      <c r="V9" s="225">
+        <v>100</v>
       </c>
       <c r="W9" s="41">
         <v>0</v>
@@ -7898,29 +8235,29 @@
       <c r="N10" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="O10" s="41">
-        <v>1</v>
-      </c>
-      <c r="P10" s="26">
-        <v>1</v>
+      <c r="O10" s="217">
+        <v>100</v>
+      </c>
+      <c r="P10" s="220">
+        <v>100</v>
       </c>
       <c r="Q10" s="26">
-        <v>1.20000004768372</v>
-      </c>
-      <c r="R10" s="26">
-        <v>1</v>
-      </c>
-      <c r="S10" s="26">
-        <v>1</v>
-      </c>
-      <c r="T10" s="26">
-        <v>1</v>
-      </c>
-      <c r="U10" s="77">
-        <v>1</v>
-      </c>
-      <c r="V10" s="42">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="R10" s="220">
+        <v>0</v>
+      </c>
+      <c r="S10" s="224">
+        <v>0</v>
+      </c>
+      <c r="T10" s="224">
+        <v>100</v>
+      </c>
+      <c r="U10" s="224">
+        <v>100</v>
+      </c>
+      <c r="V10" s="225">
+        <v>100</v>
       </c>
       <c r="W10" s="41">
         <v>0</v>
@@ -7929,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="26">
-        <v>0.0099999997764826</v>
+        <v>0.05</v>
       </c>
       <c r="Z10" s="26">
         <v>0</v>
@@ -7987,29 +8324,29 @@
       <c r="N11" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="O11" s="41">
-        <v>1</v>
-      </c>
-      <c r="P11" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>1</v>
-      </c>
-      <c r="R11" s="26">
-        <v>1</v>
-      </c>
-      <c r="S11" s="26">
-        <v>1</v>
-      </c>
-      <c r="T11" s="26">
-        <v>1</v>
-      </c>
-      <c r="U11" s="77">
-        <v>1</v>
-      </c>
-      <c r="V11" s="42">
-        <v>1</v>
+      <c r="O11" s="217">
+        <v>100</v>
+      </c>
+      <c r="P11" s="220">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="224">
+        <v>0</v>
+      </c>
+      <c r="R11" s="220">
+        <v>0</v>
+      </c>
+      <c r="S11" s="224">
+        <v>0</v>
+      </c>
+      <c r="T11" s="224">
+        <v>100</v>
+      </c>
+      <c r="U11" s="224">
+        <v>100</v>
+      </c>
+      <c r="V11" s="225">
+        <v>100</v>
       </c>
       <c r="W11" s="41">
         <v>0</v>
@@ -8076,29 +8413,29 @@
       <c r="N12" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="O12" s="41">
-        <v>1</v>
-      </c>
-      <c r="P12" s="26">
-        <v>1</v>
+      <c r="O12" s="217">
+        <v>100</v>
+      </c>
+      <c r="P12" s="220">
+        <v>100</v>
       </c>
       <c r="Q12" s="26">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="R12" s="26">
-        <v>1</v>
-      </c>
-      <c r="S12" s="26">
-        <v>1</v>
-      </c>
-      <c r="T12" s="26">
-        <v>1</v>
-      </c>
-      <c r="U12" s="77">
-        <v>1</v>
-      </c>
-      <c r="V12" s="42">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="R12" s="220">
+        <v>0</v>
+      </c>
+      <c r="S12" s="224">
+        <v>0</v>
+      </c>
+      <c r="T12" s="224">
+        <v>100</v>
+      </c>
+      <c r="U12" s="224">
+        <v>100</v>
+      </c>
+      <c r="V12" s="225">
+        <v>100</v>
       </c>
       <c r="W12" s="41">
         <v>0</v>
@@ -8107,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="26">
-        <v>0.0099999997764826</v>
+        <v>0.1</v>
       </c>
       <c r="Z12" s="26">
         <v>0</v>
@@ -8165,29 +8502,29 @@
       <c r="N13" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="O13" s="41">
-        <v>1</v>
-      </c>
-      <c r="P13" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>1</v>
-      </c>
-      <c r="R13" s="26">
-        <v>1</v>
-      </c>
-      <c r="S13" s="26">
-        <v>1</v>
-      </c>
-      <c r="T13" s="26">
-        <v>1</v>
-      </c>
-      <c r="U13" s="77">
-        <v>1</v>
+      <c r="O13" s="217">
+        <v>100</v>
+      </c>
+      <c r="P13" s="220">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="224">
+        <v>0</v>
+      </c>
+      <c r="R13" s="220">
+        <v>0</v>
+      </c>
+      <c r="S13" s="224">
+        <v>0</v>
+      </c>
+      <c r="T13" s="224">
+        <v>100</v>
+      </c>
+      <c r="U13" s="224">
+        <v>100</v>
       </c>
       <c r="V13" s="42">
-        <v>1.04999995231628</v>
+        <v>105</v>
       </c>
       <c r="W13" s="41">
         <v>0</v>
@@ -8254,29 +8591,29 @@
       <c r="N14" s="77" t="s">
         <v>468</v>
       </c>
-      <c r="O14" s="41">
-        <v>1</v>
-      </c>
-      <c r="P14" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>1</v>
-      </c>
-      <c r="R14" s="26">
-        <v>1</v>
-      </c>
-      <c r="S14" s="26">
-        <v>1</v>
-      </c>
-      <c r="T14" s="26">
-        <v>1</v>
-      </c>
-      <c r="U14" s="77">
-        <v>1</v>
-      </c>
-      <c r="V14" s="42">
-        <v>1</v>
+      <c r="O14" s="217">
+        <v>100</v>
+      </c>
+      <c r="P14" s="220">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="224">
+        <v>0</v>
+      </c>
+      <c r="R14" s="220">
+        <v>0</v>
+      </c>
+      <c r="S14" s="224">
+        <v>0</v>
+      </c>
+      <c r="T14" s="224">
+        <v>100</v>
+      </c>
+      <c r="U14" s="224">
+        <v>100</v>
+      </c>
+      <c r="V14" s="225">
+        <v>100</v>
       </c>
       <c r="W14" s="41">
         <v>0</v>
@@ -8343,29 +8680,29 @@
       <c r="N15" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="O15" s="41">
-        <v>1</v>
-      </c>
-      <c r="P15" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>1</v>
-      </c>
-      <c r="R15" s="26">
-        <v>1</v>
-      </c>
-      <c r="S15" s="26">
-        <v>1</v>
-      </c>
-      <c r="T15" s="26">
-        <v>1</v>
-      </c>
-      <c r="U15" s="77">
-        <v>1</v>
-      </c>
-      <c r="V15" s="42">
-        <v>1</v>
+      <c r="O15" s="217">
+        <v>100</v>
+      </c>
+      <c r="P15" s="220">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="224">
+        <v>0</v>
+      </c>
+      <c r="R15" s="220">
+        <v>0</v>
+      </c>
+      <c r="S15" s="224">
+        <v>0</v>
+      </c>
+      <c r="T15" s="224">
+        <v>100</v>
+      </c>
+      <c r="U15" s="224">
+        <v>100</v>
+      </c>
+      <c r="V15" s="225">
+        <v>100</v>
       </c>
       <c r="W15" s="41">
         <v>0</v>
@@ -8432,29 +8769,29 @@
       <c r="N16" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="O16" s="41">
-        <v>1</v>
+      <c r="O16" s="217">
+        <v>100</v>
       </c>
       <c r="P16" s="26">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="Q16" s="26">
-        <v>1</v>
-      </c>
-      <c r="R16" s="26">
-        <v>1</v>
-      </c>
-      <c r="S16" s="26">
-        <v>1</v>
-      </c>
-      <c r="T16" s="26">
-        <v>1</v>
-      </c>
-      <c r="U16" s="77">
-        <v>1</v>
-      </c>
-      <c r="V16" s="42">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="Q16" s="224">
+        <v>0</v>
+      </c>
+      <c r="R16" s="220">
+        <v>0</v>
+      </c>
+      <c r="S16" s="224">
+        <v>0</v>
+      </c>
+      <c r="T16" s="224">
+        <v>100</v>
+      </c>
+      <c r="U16" s="224">
+        <v>100</v>
+      </c>
+      <c r="V16" s="225">
+        <v>100</v>
       </c>
       <c r="W16" s="41">
         <v>0</v>
@@ -8522,37 +8859,37 @@
         <v>431</v>
       </c>
       <c r="O17" s="43">
-        <v>1.10000002384186</v>
+        <v>110</v>
       </c>
       <c r="P17" s="44">
-        <v>1.10000002384186</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="44">
-        <v>1.10000002384186</v>
-      </c>
-      <c r="R17" s="44">
+        <v>10</v>
+      </c>
+      <c r="R17" s="221">
+        <v>0</v>
+      </c>
+      <c r="S17" s="221">
+        <v>0</v>
+      </c>
+      <c r="T17" s="221">
+        <v>100</v>
+      </c>
+      <c r="U17" s="221">
+        <v>100</v>
+      </c>
+      <c r="V17" s="226">
+        <v>100</v>
+      </c>
+      <c r="W17" s="43">
         <v>1</v>
       </c>
-      <c r="S17" s="44">
+      <c r="X17" s="44">
         <v>1</v>
       </c>
-      <c r="T17" s="44">
-        <v>1</v>
-      </c>
-      <c r="U17" s="78">
-        <v>1</v>
-      </c>
-      <c r="V17" s="45">
-        <v>1</v>
-      </c>
-      <c r="W17" s="43">
-        <v>0.0099999997764826</v>
-      </c>
-      <c r="X17" s="44">
-        <v>0.0099999997764826</v>
-      </c>
       <c r="Y17" s="44">
-        <v>0.0099999997764826</v>
+        <v>0.1</v>
       </c>
       <c r="Z17" s="44">
         <v>0</v>
@@ -8578,7 +8915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9968,21 +10305,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.37999916" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.00500011" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.63000011" style="5" customWidth="1"/>
-    <col min="5" max="6" width="9.00500011" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.50500011" style="5" customWidth="1"/>
-    <col min="8" max="9" width="12.63000011" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.00500011" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.00500011" style="5" customWidth="1"/>
+    <col min="3" max="10" width="10.00500011" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9996,13 +10329,13 @@
         <v>26</v>
       </c>
       <c r="D1" s="184" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E1" s="184" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="184" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G1" s="184" t="s">
         <v>302</v>
@@ -10028,16 +10361,16 @@
         <v>100</v>
       </c>
       <c r="D2" s="184">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="184">
         <v>0</v>
       </c>
       <c r="F2" s="184">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" s="184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="184">
         <v>1</v>
@@ -10060,22 +10393,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="184">
         <v>1</v>
       </c>
       <c r="G3" s="184">
-        <v>9985</v>
+        <v>4</v>
       </c>
       <c r="H3" s="184">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="I3" s="184">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="J3" s="184">
         <v>1</v>
@@ -10092,22 +10425,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="184">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E4" s="184">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="184">
         <v>10</v>
-      </c>
-      <c r="F4" s="184">
-        <v>1</v>
       </c>
       <c r="G4" s="184">
         <v>10000</v>
       </c>
       <c r="H4" s="184">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="I4" s="184">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="J4" s="184">
         <v>100</v>
@@ -10156,13 +10489,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="184">
         <v>4</v>
       </c>
       <c r="F6" s="184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="184">
         <v>3</v>
@@ -10175,6 +10508,40 @@
       </c>
       <c r="J6" s="184">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="184" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="184">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="184">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="184">
+        <f>(75/100)/(E3/E4)</f>
+        <v>750</v>
+      </c>
+      <c r="F7" s="184">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="184">
+        <f>(20/100)/(G3/G4)</f>
+        <v>500</v>
+      </c>
+      <c r="H7" s="184">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="184">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="184">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -16,1993 +16,2025 @@
     <sheet name="boss" sheetId="3" r:id="rId7"/>
     <sheet name="quest" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="152511" calcOnSave="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우박</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음회오리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스에이지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay_reduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작은불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거대한불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강한불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/halficicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/iceage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/blizzard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icetornado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1YI39qlEIkehcQKXsHTyUg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWTscmjKlESMcPHMRe0hXg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAdmjT6HC0y8LOsa1qMZvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x0MEnXpXpkSAeJdx9u1dxA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nv7SgpakukyznybxDxXzKg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rrTgjWmPmE6tye/yifLCyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8z2pJ9jvp0qxuwrUhRrmyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Txp9XKcq6kSTovn/H/3gjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jZ9q6LkxFkil8RL3lc0PPg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FkSB7SxxhE+q+XE4G8ZT4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPruJLqK1ESOVRcE3QyTlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2WySlC4shUOPDHA9oxYaKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iW548VF8UEGD+vAuXhtSAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillrange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="693">
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>눈덩이</t>
+  </si>
+  <si>
+    <t>고드름</t>
+  </si>
+  <si>
+    <t>반달고드름</t>
+  </si>
+  <si>
+    <t>빙벽</t>
+  </si>
+  <si>
+    <t>우박</t>
+  </si>
+  <si>
+    <t>얼음회오리</t>
+  </si>
+  <si>
+    <t>아이스에이지</t>
+  </si>
+  <si>
+    <t>블리자드</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>att_increase</t>
+  </si>
+  <si>
+    <t>delay_reduce</t>
+  </si>
+  <si>
+    <t>size_increase</t>
+  </si>
+  <si>
+    <t>count_increase</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>작은불씨</t>
+  </si>
+  <si>
+    <t>불씨</t>
+  </si>
+  <si>
+    <t>거대한불씨</t>
+  </si>
+  <si>
+    <t>불정령</t>
+  </si>
+  <si>
+    <t>강한불정령</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sprite/snowball</t>
+  </si>
+  <si>
+    <t>sprite/icicle</t>
+  </si>
+  <si>
+    <t>sprite/halficicle</t>
+  </si>
+  <si>
+    <t>sprite/icewall</t>
+  </si>
+  <si>
+    <t>sprite/hail</t>
+  </si>
+  <si>
+    <t>sprite/iceage</t>
+  </si>
+  <si>
+    <t>sprite/blizzard</t>
+  </si>
+  <si>
+    <t>sprite/icetornado</t>
+  </si>
+  <si>
+    <t>1YI39qlEIkehcQKXsHTyUg</t>
+  </si>
+  <si>
+    <t>NWTscmjKlESMcPHMRe0hXg</t>
+  </si>
+  <si>
+    <t>BAdmjT6HC0y8LOsa1qMZvg</t>
+  </si>
+  <si>
+    <t>x0MEnXpXpkSAeJdx9u1dxA</t>
+  </si>
+  <si>
+    <t>Nv7SgpakukyznybxDxXzKg</t>
+  </si>
+  <si>
+    <t>rrTgjWmPmE6tye/yifLCyQ</t>
+  </si>
+  <si>
+    <t>8z2pJ9jvp0qxuwrUhRrmyQ</t>
+  </si>
+  <si>
+    <t>Txp9XKcq6kSTovn/H/3gjw</t>
+  </si>
+  <si>
+    <t>jZ9q6LkxFkil8RL3lc0PPg</t>
+  </si>
+  <si>
+    <t>FkSB7SxxhE+q+XE4G8ZT4w</t>
+  </si>
+  <si>
+    <t>EPruJLqK1ESOVRcE3QyTlw</t>
+  </si>
+  <si>
+    <t>2WySlC4shUOPDHA9oxYaKw</t>
+  </si>
+  <si>
+    <t>iW548VF8UEGD+vAuXhtSAQ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hpgen</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>attspeed</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>skillrange</t>
+  </si>
+  <si>
+    <t>killamount</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e7AXSZh+E0eaC78EFNa29g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
+    <t>e7AXSZh+E0eaC78EFNa29g</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">eHf0vPp+wk2aU5E4yd7/Yg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_increase</t>
+    <t>eHf0vPp+wk2aU5E4yd7/Yg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>mop_fire</t>
+  </si>
+  <si>
+    <t>mop_bok</t>
+  </si>
+  <si>
+    <t>mop_stick</t>
+  </si>
+  <si>
+    <t>mop_turtle</t>
+  </si>
+  <si>
+    <t>mop_bluefire</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>stage_appear</t>
+  </si>
+  <si>
+    <t>round_appear</t>
+  </si>
+  <si>
+    <t>hp_increase</t>
+  </si>
+  <si>
+    <t>exp_increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">l84s0jqeJ0+ShvpHGehKgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1xmfc5j9REe0ZHIX8rDf8w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kTDzILh6IE+jkW2qF+KXAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9VCtUFsTA0WcVNS71DsQNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uALCIjfaEky3G92iAmHJ9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bird</t>
+    <t>l84s0jqeJ0+ShvpHGehKgA</t>
+  </si>
+  <si>
+    <t>1xmfc5j9REe0ZHIX8rDf8w</t>
+  </si>
+  <si>
+    <t>kTDzILh6IE+jkW2qF+KXAw</t>
+  </si>
+  <si>
+    <t>9VCtUFsTA0WcVNS71DsQNA</t>
+  </si>
+  <si>
+    <t>uALCIjfaEky3G92iAmHJ9w</t>
+  </si>
+  <si>
+    <t>mop_bird</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">8gAo9LyP60OMAwTdoY8wrw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priceamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_cow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase</t>
+    <t>8gAo9LyP60OMAwTdoY8wrw</t>
+  </si>
+  <si>
+    <t>priceamount</t>
+  </si>
+  <si>
+    <t>boss_bird</t>
+  </si>
+  <si>
+    <t>boss_</t>
+  </si>
+  <si>
+    <t>boss_golem</t>
+  </si>
+  <si>
+    <t>boss_rock</t>
+  </si>
+  <si>
+    <t>boss_cow</t>
+  </si>
+  <si>
+    <t>boss_bear</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">4WVxc3VSx0O0tna/lL5NCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7LLesioQ0kSNXqcpCaDbeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JtRPf/ABQkK6YzgnTjqc1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mL8Q/tFX90CNwPiHYkk0GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tEcjfw23XkCu//y+zqlQJQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/ictone</t>
+    <t>4WVxc3VSx0O0tna/lL5NCA</t>
+  </si>
+  <si>
+    <t>7LLesioQ0kSNXqcpCaDbeg</t>
+  </si>
+  <si>
+    <t>JtRPf/ABQkK6YzgnTjqc1Q</t>
+  </si>
+  <si>
+    <t>mL8Q/tFX90CNwPiHYkk0GA</t>
+  </si>
+  <si>
+    <t>tEcjfw23XkCu//y+zqlQJQ</t>
+  </si>
+  <si>
+    <t>얼음뭉치</t>
+  </si>
+  <si>
+    <t>눈뭉치</t>
+  </si>
+  <si>
+    <t>sprite/ictone</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">zIrXoinId0iFNhZHl1++bA</t>
+    <t>zIrXoinId0iFNhZHl1++bA</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">xL0ZSRTaC0mmTc44mg8IMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVjVGRJbj0GkW3ghHwH8Tg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayHEKjsd8UqG8GU1Xt6tTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5y8+mUBukKyaU5ZN30mZg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR2VPmVTTUGofKgvmFjHVQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O7aBnzSfm0ariTzPxBExFw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlpgBelcX0qncpw9BzBXKQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3UfqJRRF0SPgkVBkbx3hw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCpjVMj5JUqt9ziS5P3awQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speed</t>
+    <t>xL0ZSRTaC0mmTc44mg8IMw</t>
+  </si>
+  <si>
+    <t>KVjVGRJbj0GkW3ghHwH8Tg</t>
+  </si>
+  <si>
+    <t>ayHEKjsd8UqG8GU1Xt6tTw</t>
+  </si>
+  <si>
+    <t>Q5y8+mUBukKyaU5ZN30mZg</t>
+  </si>
+  <si>
+    <t>GR2VPmVTTUGofKgvmFjHVQ</t>
+  </si>
+  <si>
+    <t>O7aBnzSfm0ariTzPxBExFw</t>
+  </si>
+  <si>
+    <t>GlpgBelcX0qncpw9BzBXKQ</t>
+  </si>
+  <si>
+    <t>Q3UfqJRRF0SPgkVBkbx3hw</t>
+  </si>
+  <si>
+    <t>XCpjVMj5JUqt9ziS5P3awQ</t>
+  </si>
+  <si>
+    <t>mop_ant</t>
+  </si>
+  <si>
+    <t>mop_jack</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">jebfgtgwy0aCi3wyFmHn7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E37YclCUk0atKge3NbdvOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈폭탄</t>
+    <t>jebfgtgwy0aCi3wyFmHn7A</t>
+  </si>
+  <si>
+    <t>E37YclCUk0atKge3NbdvOQ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>얼음주먹</t>
+  </si>
+  <si>
+    <t>눈폭탄</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">sAlSjuwkNkmox3HyjOQPlQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음방어막</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음빠따</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소용돌이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음파동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적</t>
-  </si>
-  <si>
-    <t xml:space="preserve">산탄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstaacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuee</t>
+    <t>sAlSjuwkNkmox3HyjOQPlQ</t>
+  </si>
+  <si>
+    <t>patt</t>
+  </si>
+  <si>
+    <t>pspeed</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>얼음방어막</t>
+  </si>
+  <si>
+    <t>얼음빠따</t>
+  </si>
+  <si>
+    <t>소용돌이</t>
+  </si>
+  <si>
+    <t>얼음파동</t>
+  </si>
+  <si>
+    <t>무적</t>
+  </si>
+  <si>
+    <t>산탄</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>keep_increase</t>
+  </si>
+  <si>
+    <t>obstaacle</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>continuee</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">u9VGjry1BESzo46bAmXOQg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HJCxWuQGLEyzxZkpf/s7+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejPA7ZZvkKW83lA1QUQCQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1BTnZfB2kWbObm+5JLgSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iYqYA2TFhU6d36X/SwpGHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wXhpxA4yqEW1NBNV40y6rA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lnrq0Qp3nEu1QeUh1ApxEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEnZnNX24kWluYtm4cqJfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UwutR9kZ3EixiomFUKMhTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnqtLH8SiUq5SfVK11iPqA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA5d+nQZzEWyxoNuhU+Naw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tq+CR0pBE0CX5vqWS90PAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJG8FHa00aP7U66nf0Aqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K+N6+YPVECfus1pPsfuXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be8bZ1lxC0+P00Vb0G3asQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hQT4FoA9pke18i999uPtaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
+    <t>u9VGjry1BESzo46bAmXOQg</t>
+  </si>
+  <si>
+    <t>HJCxWuQGLEyzxZkpf/s7+Q</t>
+  </si>
+  <si>
+    <t>dejPA7ZZvkKW83lA1QUQCQ</t>
+  </si>
+  <si>
+    <t>K1BTnZfB2kWbObm+5JLgSQ</t>
+  </si>
+  <si>
+    <t>iYqYA2TFhU6d36X/SwpGHA</t>
+  </si>
+  <si>
+    <t>wXhpxA4yqEW1NBNV40y6rA</t>
+  </si>
+  <si>
+    <t>Lnrq0Qp3nEu1QeUh1ApxEA</t>
+  </si>
+  <si>
+    <t>FEnZnNX24kWluYtm4cqJfg</t>
+  </si>
+  <si>
+    <t>UwutR9kZ3EixiomFUKMhTg</t>
+  </si>
+  <si>
+    <t>tnqtLH8SiUq5SfVK11iPqA</t>
+  </si>
+  <si>
+    <t>SA5d+nQZzEWyxoNuhU+Naw</t>
+  </si>
+  <si>
+    <t>Tq+CR0pBE0CX5vqWS90PAw</t>
+  </si>
+  <si>
+    <t>TAJG8FHa00aP7U66nf0Aqw</t>
+  </si>
+  <si>
+    <t>4K+N6+YPVECfus1pPsfuXQ</t>
+  </si>
+  <si>
+    <t>be8bZ1lxC0+P00Vb0G3asQ</t>
+  </si>
+  <si>
+    <t>hQT4FoA9pke18i999uPtaw</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>conditionA</t>
+  </si>
+  <si>
+    <t>conditionB</t>
+  </si>
+  <si>
+    <t>conditionT</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>appear_time</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">S4cO+7g73kSC//RCNr49Eg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5Eog+fJivU2oDVll81v+QQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zNS43tSa4kmhOggLqnp2/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0io+FmkfESkyDRr3Lsivg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_mam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_carb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_deer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map</t>
+    <t>S4cO+7g73kSC//RCNr49Eg</t>
+  </si>
+  <si>
+    <t>5Eog+fJivU2oDVll81v+QQ</t>
+  </si>
+  <si>
+    <t>zNS43tSa4kmhOggLqnp2/A</t>
+  </si>
+  <si>
+    <t>M0io+FmkfESkyDRr3Lsivg</t>
+  </si>
+  <si>
+    <t>mob_fire</t>
+  </si>
+  <si>
+    <t>mob_bok</t>
+  </si>
+  <si>
+    <t>mob_stick</t>
+  </si>
+  <si>
+    <t>mob_turtle</t>
+  </si>
+  <si>
+    <t>mob_ant</t>
+  </si>
+  <si>
+    <t>mob_jack</t>
+  </si>
+  <si>
+    <t>mob_bluefire</t>
+  </si>
+  <si>
+    <t>mob_mam</t>
+  </si>
+  <si>
+    <t>mob_carb</t>
+  </si>
+  <si>
+    <t>mob_deer</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">UqOBjr+LakW9OE61quvEOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7oP5n9ovXEK+bbIC8iuZMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QEm467P+ck6FXvY1BWI/QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oN7gigvYvkCP1gYaQUFzpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiaNlJj0D02QBXqMTggxXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t>UqOBjr+LakW9OE61quvEOQ</t>
+  </si>
+  <si>
+    <t>7oP5n9ovXEK+bbIC8iuZMA</t>
+  </si>
+  <si>
+    <t>QEm467P+ck6FXvY1BWI/QA</t>
+  </si>
+  <si>
+    <t>oN7gigvYvkCP1gYaQUFzpg</t>
+  </si>
+  <si>
+    <t>xiaNlJj0D02QBXqMTggxXA</t>
+  </si>
+  <si>
+    <t>sizex</t>
+  </si>
+  <si>
+    <t>sizey</t>
+  </si>
+  <si>
+    <t>snowrock0</t>
+  </si>
+  <si>
+    <t>snowrock1</t>
+  </si>
+  <si>
+    <t>snowrock2</t>
+  </si>
+  <si>
+    <t>snowrock3</t>
+  </si>
+  <si>
+    <t>rock0</t>
+  </si>
+  <si>
+    <t>rock1</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>mob_crab</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">utfj/KusT0q9e9ADgg8p9g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3YdoHHnJEmHPLOHPk8tHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lLIxSPJ5jk6H8IhzXjd5Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+r0e9D3k7kuvrrcjW7rTWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N6Ah1yXV/0mnzDRZhUhoew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7q1A0hzTv0e0ZkrUDizxDQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JiEy726Vn0i6qgPI9aQTRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXygPyEDNESF1Uo4kpU9UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D/jPgeJpjkiT0hqDPsmOZw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill1</t>
+    <t>utfj/KusT0q9e9ADgg8p9g</t>
+  </si>
+  <si>
+    <t>f3YdoHHnJEmHPLOHPk8tHA</t>
+  </si>
+  <si>
+    <t>lLIxSPJ5jk6H8IhzXjd5Ag</t>
+  </si>
+  <si>
+    <t>+r0e9D3k7kuvrrcjW7rTWA</t>
+  </si>
+  <si>
+    <t>N6Ah1yXV/0mnzDRZhUhoew</t>
+  </si>
+  <si>
+    <t>7q1A0hzTv0e0ZkrUDizxDQ</t>
+  </si>
+  <si>
+    <t>JiEy726Vn0i6qgPI9aQTRQ</t>
+  </si>
+  <si>
+    <t>OXygPyEDNESF1Uo4kpU9UA</t>
+  </si>
+  <si>
+    <t>D/jPgeJpjkiT0hqDPsmOZw</t>
+  </si>
+  <si>
+    <t>boss_owl</t>
+  </si>
+  <si>
+    <t>skill0</t>
+  </si>
+  <si>
+    <t>skill1</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">W3z0ATuqbkKttkboCpXzTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9oZ4bAUw3EaaXJyde7jotg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p7Lei6NHm0mU6A3yoCYsjQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w8cURakZekSSKtD9r+3WnA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m4KGirv16U+HZ1CPc/XEAQ</t>
+    <t>W3z0ATuqbkKttkboCpXzTg</t>
+  </si>
+  <si>
+    <t>9oZ4bAUw3EaaXJyde7jotg</t>
+  </si>
+  <si>
+    <t>p7Lei6NHm0mU6A3yoCYsjQ</t>
+  </si>
+  <si>
+    <t>w8cURakZekSSKtD9r+3WnA</t>
+  </si>
+  <si>
+    <t>m4KGirv16U+HZ1CPc/XEAQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">j6havu18FkO2GTlo+CyQyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N5N6gU+ysEqOQbdz1hczog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">552Me0Rk506ghDFAyrQSwA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsxP8eNXM0mKlWitTcpTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osCjoq/EX0WhMYuWNZYtkg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxlvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력재생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿨타임감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시전속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치획득량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회복량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infomation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력을 얻는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 시전속도를 단축시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치 획득량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회복량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘 뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">단단한 얼음으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뾰족한 얼음이 적을 관통한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달얼음을 여러갈래로 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 우박이!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽을 생성해 길을 막는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력이 있는 빙벽을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 몰아쳐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대상에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어막을</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력의 방어막을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">근접한 적을 빠따로 떨쳐낸다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 시간동안 무적이 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음 산탄을 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 50% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val</t>
+    <t>j6havu18FkO2GTlo+CyQyg</t>
+  </si>
+  <si>
+    <t>N5N6gU+ysEqOQbdz1hczog</t>
+  </si>
+  <si>
+    <t>552Me0Rk506ghDFAyrQSwA</t>
+  </si>
+  <si>
+    <t>jsxP8eNXM0mKlWitTcpTGA</t>
+  </si>
+  <si>
+    <t>osCjoq/EX0WhMYuWNZYtkg</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>maxlvl</t>
+  </si>
+  <si>
+    <t>max_level</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>방어력</t>
+  </si>
+  <si>
+    <t>체력재생</t>
+  </si>
+  <si>
+    <t>쿨타임감소</t>
+  </si>
+  <si>
+    <t>스킬크기</t>
+  </si>
+  <si>
+    <t>시전속도</t>
+  </si>
+  <si>
+    <t>경험치</t>
+  </si>
+  <si>
+    <t>경험치획득량</t>
+  </si>
+  <si>
+    <t>회복량</t>
+  </si>
+  <si>
+    <t>이동속도</t>
+  </si>
+  <si>
+    <t>infomation</t>
+  </si>
+  <si>
+    <t>최대체력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>방어력을 얻는다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복시킨다.</t>
+  </si>
+  <si>
+    <t>스킬의 속도</t>
+  </si>
+  <si>
+    <t>스킬의 시전속도를 단축시킨다.</t>
+  </si>
+  <si>
+    <t>경험치 획득량이 증가한다.</t>
+  </si>
+  <si>
+    <t>스킬크기가 증가한다.</t>
+  </si>
+  <si>
+    <t>모든 회복량이 증가한다.</t>
+  </si>
+  <si>
+    <t>이동속도가 증가한다.</t>
+  </si>
+  <si>
+    <t>최대체력을 증가한다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가한다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>잘뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>잘 뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>얼음주먹으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>단단한 얼음으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>뾰족한 얼음이 적을 관통한다.</t>
+  </si>
+  <si>
+    <t>반달얼음을 여러갈래로 발사한다.</t>
+  </si>
+  <si>
+    <t>하늘에서 우박이!</t>
+  </si>
+  <si>
+    <t>빙벽을 생성해 길을 막는다.</t>
+  </si>
+  <si>
+    <t>일정 체력이 있는 빙벽을 생성한다.</t>
+  </si>
+  <si>
+    <t>눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>블리자드를 몰아쳐</t>
+  </si>
+  <si>
+    <t>블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>대상에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>적에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>방어막을</t>
+  </si>
+  <si>
+    <t>일정 체력의 방어막을 생성한다.</t>
+  </si>
+  <si>
+    <t>근접한 적을 빠따로 떨쳐낸다.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>일정 시간동안 무적이 된다.</t>
+  </si>
+  <si>
+    <t>얼음 산탄을 발사한다.</t>
+  </si>
+  <si>
+    <t>체력 50% 증가</t>
+  </si>
+  <si>
+    <t>공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>val</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">7G/uy/d+XUq+hb1idKgcKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhBbNsmDpUOy343k+irhhw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2qdwH+Eqq0qi76gM+HEpSg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dGD2J/13Ak60ubtLOTmU7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hluuyb8xDkq3igjPq3UZrQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lZ58eF6zQEqU7UxPZqxY5g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+fNq81zBhk2AJPDimVASnQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGgTfHjnFUu5Yx8sijXu/Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wfu556tlIkGpgHS1/b8wRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_term</t>
+    <t>7G/uy/d+XUq+hb1idKgcKw</t>
+  </si>
+  <si>
+    <t>nhBbNsmDpUOy343k+irhhw</t>
+  </si>
+  <si>
+    <t>2qdwH+Eqq0qi76gM+HEpSg</t>
+  </si>
+  <si>
+    <t>dGD2J/13Ak60ubtLOTmU7A</t>
+  </si>
+  <si>
+    <t>hluuyb8xDkq3igjPq3UZrQ</t>
+  </si>
+  <si>
+    <t>lZ58eF6zQEqU7UxPZqxY5g</t>
+  </si>
+  <si>
+    <t>+fNq81zBhk2AJPDimVASnQ</t>
+  </si>
+  <si>
+    <t>GGgTfHjnFUu5Yx8sijXu/Q</t>
+  </si>
+  <si>
+    <t>Wfu556tlIkGpgHS1/b8wRQ</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>appear_term</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e3ywpdo+tkG3rGFzadDOZQ</t>
+    <t>e3ywpdo+tkG3rGFzadDOZQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ou4jSwVOP0WiG5CBsppWRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천둥망치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병을 던저 광역 지속 피해를 입힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
+    <t>ou4jSwVOP0WiG5CBsppWRA</t>
+  </si>
+  <si>
+    <t>독병</t>
+  </si>
+  <si>
+    <t>천둥망치</t>
+  </si>
+  <si>
+    <t>독병을 던저 광역 지속 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">BIr97MzFFEqSkH79ajRcIQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80jHuiqyGkmbPMFYa7j/WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmqeNM7xnEiwpUgalIDKuQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7Zq+FZr4EU2JUSJGYb5l3w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyGjwUuGSU28kZnltbYfyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8EUv2r2Q3Umy56rbAoz3YA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VeBdIaS8+kW7pD5h7TjldA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owl_shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bear_shot</t>
+    <t>BIr97MzFFEqSkH79ajRcIQ</t>
+  </si>
+  <si>
+    <t>80jHuiqyGkmbPMFYa7j/WA</t>
+  </si>
+  <si>
+    <t>SmqeNM7xnEiwpUgalIDKuQ</t>
+  </si>
+  <si>
+    <t>7Zq+FZr4EU2JUSJGYb5l3w</t>
+  </si>
+  <si>
+    <t>nyGjwUuGSU28kZnltbYfyg</t>
+  </si>
+  <si>
+    <t>8EUv2r2Q3Umy56rbAoz3YA</t>
+  </si>
+  <si>
+    <t>VeBdIaS8+kW7pD5h7TjldA</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>fireball</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>owl_shot</t>
+  </si>
+  <si>
+    <t>bear_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">z65T2Hcot0+fcRJxc1V4ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6q3skcv+nUCSzHwhTFtnVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrRaKBXFPkmy/QSsvp6HtQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1sZU2dREyQjNX69/i7XQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">번개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중력장</t>
-  </si>
-  <si>
-    <t xml:space="preserve">친구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아돈빠가돈!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌌드라욘마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌋드라요마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 주기적으로 번개가 친다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_snail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_beetle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_flamingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_dragonfly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_candle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_rino</t>
+    <t>z65T2Hcot0+fcRJxc1V4ZA</t>
+  </si>
+  <si>
+    <t>6q3skcv+nUCSzHwhTFtnVw</t>
+  </si>
+  <si>
+    <t>jrRaKBXFPkmy/QSsvp6HtQ</t>
+  </si>
+  <si>
+    <t>hc1sZU2dREyQjNX69/i7XQ</t>
+  </si>
+  <si>
+    <t>번개</t>
+  </si>
+  <si>
+    <t>지뢰</t>
+  </si>
+  <si>
+    <t>중력장</t>
+  </si>
+  <si>
+    <t>친구</t>
+  </si>
+  <si>
+    <t>적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
+  </si>
+  <si>
+    <t>아돈빠가돈!</t>
+  </si>
+  <si>
+    <t>쌌드라욘마인~</t>
+  </si>
+  <si>
+    <t>쌋드라요마인~</t>
+  </si>
+  <si>
+    <t>하늘에서 주기적으로 번개가 친다.</t>
+  </si>
+  <si>
+    <t>mob_snail</t>
+  </si>
+  <si>
+    <t>mob_beetle</t>
+  </si>
+  <si>
+    <t>mob_monkey</t>
+  </si>
+  <si>
+    <t>mob_flamingo</t>
+  </si>
+  <si>
+    <t>mob_dragonfly</t>
+  </si>
+  <si>
+    <t>mob_candle</t>
+  </si>
+  <si>
+    <t>mob_rino</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ovShOG9vz0qBynU3N7A27A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xL7qVxJe9kysLVTIKmzuuA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUdRpRMhK0G1XmYAGm6uEw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cMp9+kAl8UGgcTM+7tuyXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP9AY1x9sUa2WAweqi0Hyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z72/TXkgfEOAI1RcEnbf9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ZQSDtiDc0+ujLraF9ULlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zBnDreY2EUyIgqqT0I1oCg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwv52fG5a0uz2w+Mw1X1EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80qA8yn0HkK7i+4isj1VAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO77fenG+EGDXqDfjx0GwQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bwGMcqR0B0uFKpIP/arGGw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXMW6jdsDkqbQDiagvTvAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_scarecrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scarecrow_shot</t>
+    <t>ovShOG9vz0qBynU3N7A27A</t>
+  </si>
+  <si>
+    <t>xL7qVxJe9kysLVTIKmzuuA</t>
+  </si>
+  <si>
+    <t>TUdRpRMhK0G1XmYAGm6uEw</t>
+  </si>
+  <si>
+    <t>cMp9+kAl8UGgcTM+7tuyXA</t>
+  </si>
+  <si>
+    <t>JP9AY1x9sUa2WAweqi0Hyg</t>
+  </si>
+  <si>
+    <t>z72/TXkgfEOAI1RcEnbf9w</t>
+  </si>
+  <si>
+    <t>6ZQSDtiDc0+ujLraF9ULlw</t>
+  </si>
+  <si>
+    <t>zBnDreY2EUyIgqqT0I1oCg</t>
+  </si>
+  <si>
+    <t>Zwv52fG5a0uz2w+Mw1X1EA</t>
+  </si>
+  <si>
+    <t>80qA8yn0HkK7i+4isj1VAA</t>
+  </si>
+  <si>
+    <t>MO77fenG+EGDXqDfjx0GwQ</t>
+  </si>
+  <si>
+    <t>bwGMcqR0B0uFKpIP/arGGw</t>
+  </si>
+  <si>
+    <t>XXMW6jdsDkqbQDiagvTvAA</t>
+  </si>
+  <si>
+    <t>boss_scarecrow</t>
+  </si>
+  <si>
+    <t>scarecrow_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">Og45GfRUM0CqJQUz3H+9AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vVPBgEN7WUi/lGlzyJ5/Qg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유물 장착 슬롯 증가</t>
+    <t>Og45GfRUM0CqJQUz3H+9AA</t>
+  </si>
+  <si>
+    <t>vVPBgEN7WUi/lGlzyJ5/Qg</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>슬롯</t>
+  </si>
+  <si>
+    <t>슬롯증가</t>
+  </si>
+  <si>
+    <t>유물 장착 슬롯 증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bigbettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">풀사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귤사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전구사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야수사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로봇사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뱀파이어사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스크림사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">황금갑옷사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거미사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
+    <t>DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t>OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t>boss_flower</t>
+  </si>
+  <si>
+    <t>1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t>boss_bigbettle</t>
+  </si>
+  <si>
+    <t>kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t>flower_thorn</t>
+  </si>
+  <si>
+    <t>PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t>flower_mine</t>
+  </si>
+  <si>
+    <t>1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>skinname</t>
+  </si>
+  <si>
+    <t>눈사람</t>
+  </si>
+  <si>
+    <t>불사람</t>
+  </si>
+  <si>
+    <t>풀사람</t>
+  </si>
+  <si>
+    <t>돌사람</t>
+  </si>
+  <si>
+    <t>귤사람</t>
+  </si>
+  <si>
+    <t>전구사람</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>야수사람</t>
+  </si>
+  <si>
+    <t>로봇사람</t>
+  </si>
+  <si>
+    <t>뱀파이어사람</t>
+  </si>
+  <si>
+    <t>아이스크림사람</t>
+  </si>
+  <si>
+    <t>천사사람</t>
+  </si>
+  <si>
+    <t>황금갑옷사람</t>
+  </si>
+  <si>
+    <t>네모사람</t>
+  </si>
+  <si>
+    <t>지뢰사람</t>
+  </si>
+  <si>
+    <t>거미사람</t>
+  </si>
+  <si>
+    <t>용사사람</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>type0</t>
+  </si>
+  <si>
+    <t>val0</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">gLnjGlJPQUGceqv9MtI+jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bDmF5v4opUOLjBB580DUog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j4aRpfkhWUCwpugwL7yhOw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v6FaRzn/yUS4jftoTtNfsw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nMhXnyt3XUWslXDy/Eccmw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5CW4lEGYZEqJ8sFOtlJVVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a+XFhtKj2Em7xW1tms05Zw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oJlQTylhPUGaWX/Zndg2HQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZDD/hjzPHU+kTQf39Dvtnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tY/x47zy/U+9d/dQf4L+Xg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kUpxVrSyPke7VlIQ+ty+ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e+gqMj+a0kePNLaic882PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVpFmf14gE+JTvE5tq+oTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bBCBYzcq5kaQf7V57bsU5Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV8CtlguXEufFOcfSPnFWw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LmBUHti4IU6ufw+5njPwTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSwamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iceHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frozen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invincible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criticDmg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">겨울에 만들어진 눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈대신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머리의 전구로 어둠을 밝힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 4개증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적 발동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
+    <t>gLnjGlJPQUGceqv9MtI+jg</t>
+  </si>
+  <si>
+    <t>bDmF5v4opUOLjBB580DUog</t>
+  </si>
+  <si>
+    <t>j4aRpfkhWUCwpugwL7yhOw</t>
+  </si>
+  <si>
+    <t>v6FaRzn/yUS4jftoTtNfsw</t>
+  </si>
+  <si>
+    <t>nMhXnyt3XUWslXDy/Eccmw</t>
+  </si>
+  <si>
+    <t>5CW4lEGYZEqJ8sFOtlJVVw</t>
+  </si>
+  <si>
+    <t>a+XFhtKj2Em7xW1tms05Zw</t>
+  </si>
+  <si>
+    <t>oJlQTylhPUGaWX/Zndg2HQ</t>
+  </si>
+  <si>
+    <t>ZDD/hjzPHU+kTQf39Dvtnw</t>
+  </si>
+  <si>
+    <t>tY/x47zy/U+9d/dQf4L+Xg</t>
+  </si>
+  <si>
+    <t>kUpxVrSyPke7VlIQ+ty+ng</t>
+  </si>
+  <si>
+    <t>e+gqMj+a0kePNLaic882PA</t>
+  </si>
+  <si>
+    <t>PVpFmf14gE+JTvE5tq+oTw</t>
+  </si>
+  <si>
+    <t>bBCBYzcq5kaQf7V57bsU5Q</t>
+  </si>
+  <si>
+    <t>NV8CtlguXEufFOcfSPnFWw</t>
+  </si>
+  <si>
+    <t>LmBUHti4IU6ufw+5njPwTQ</t>
+  </si>
+  <si>
+    <t>typeB</t>
+  </si>
+  <si>
+    <t>typeF</t>
+  </si>
+  <si>
+    <t>Fval</t>
+  </si>
+  <si>
+    <t>typeI</t>
+  </si>
+  <si>
+    <t>Ival</t>
+  </si>
+  <si>
+    <t>snowball</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Fval1</t>
+  </si>
+  <si>
+    <t>Fval0</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>d_hp</t>
+  </si>
+  <si>
+    <t>d_hpgen</t>
+  </si>
+  <si>
+    <t>d_def</t>
+  </si>
+  <si>
+    <t>d_att</t>
+  </si>
+  <si>
+    <t>d_cool</t>
+  </si>
+  <si>
+    <t>d_exp</t>
+  </si>
+  <si>
+    <t>d_coin</t>
+  </si>
+  <si>
+    <t>a_hp</t>
+  </si>
+  <si>
+    <t>ex_hp</t>
+  </si>
+  <si>
+    <t>ex_hpgen</t>
+  </si>
+  <si>
+    <t>ex_def</t>
+  </si>
+  <si>
+    <t>ex_att</t>
+  </si>
+  <si>
+    <t>ex_cool</t>
+  </si>
+  <si>
+    <t>ex_exp</t>
+  </si>
+  <si>
+    <t>ex_coin</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>invSwamp</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>rebirth</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>iceHeal</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>invincible</t>
+  </si>
+  <si>
+    <t>d_speed</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>criticDmg</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>ch_explain</t>
+  </si>
+  <si>
+    <t>unch_explain</t>
+  </si>
+  <si>
+    <t>겨울에 만들어진 눈사람</t>
+  </si>
+  <si>
+    <t>여름한정</t>
+  </si>
+  <si>
+    <t>눈대신</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.</t>
+  </si>
+  <si>
+    <t>머리의 전구로 어둠을 밝힌다.</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 4개증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n%증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
+  </si>
+  <si>
+    <t>무적 발동</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ERzaZOy2RkmFqdq+1HEN0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scare_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_butterfly</t>
+    <t>ERzaZOy2RkmFqdq+1HEN0w</t>
+  </si>
+  <si>
+    <t>invSlow</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>scare_fire</t>
+  </si>
+  <si>
+    <t>boss_butterfly</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">WfxNB+MGn06c0Mxh9qi6TQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_bgPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_smPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=boss!G6</t>
+    <t>WfxNB+MGn06c0Mxh9qi6TQ</t>
+  </si>
+  <si>
+    <t>bfly_bgPoison</t>
+  </si>
+  <si>
+    <t>bfly_smPoison</t>
+  </si>
+  <si>
+    <t>=boss!G6</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">H2iGbbqnQ0OIrx3EtElI8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2lgjDXLyUStHASDlJTf+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가을까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1년 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하루</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1마리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강화1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">특정스킨으로 1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광고 1회</t>
+    <t>H2iGbbqnQ0OIrx3EtElI8g</t>
+  </si>
+  <si>
+    <t>D2lgjDXLyUStHASDlJTf+Q</t>
+  </si>
+  <si>
+    <t>questName</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>봄까지 버티기</t>
+  </si>
+  <si>
+    <t>여름까지 버티기</t>
+  </si>
+  <si>
+    <t>가을까지 버티기</t>
+  </si>
+  <si>
+    <t>1년 버티기</t>
+  </si>
+  <si>
+    <t>버티기</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>하루</t>
+  </si>
+  <si>
+    <t>1마리</t>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>10번</t>
+  </si>
+  <si>
+    <t>questType</t>
+  </si>
+  <si>
+    <t>강화1회</t>
+  </si>
+  <si>
+    <t>특정스킨으로 1회</t>
+  </si>
+  <si>
+    <t>광고 1회</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">oMhQHIWj/EC8ngg9JcK0OA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn3M8GN9A0S40ubcMn7hgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYLWhSg54UWwAGA4uBn3KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2vw6eVoubE2FX4RhcWa2Gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2hLdUHeKEOMFjkn8uKZ1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YnmthZe2OUS0F2IvwXzx/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0aZgm2DJLU6UAd3Lphp+qw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jc5TTOZymkyTL+nsgg7Cww</t>
+    <t>oMhQHIWj/EC8ngg9JcK0OA</t>
+  </si>
+  <si>
+    <t>tn3M8GN9A0S40ubcMn7hgA</t>
+  </si>
+  <si>
+    <t>FYLWhSg54UWwAGA4uBn3KA</t>
+  </si>
+  <si>
+    <t>2vw6eVoubE2FX4RhcWa2Gw</t>
+  </si>
+  <si>
+    <t>I2hLdUHeKEOMFjkn8uKZ1Q</t>
+  </si>
+  <si>
+    <t>YnmthZe2OUS0F2IvwXzx/w</t>
+  </si>
+  <si>
+    <t>0aZgm2DJLU6UAd3Lphp+qw</t>
+  </si>
+  <si>
+    <t>Jc5TTOZymkyTL+nsgg7Cww</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">hZ5zXDn9pEau0jHAGnXPSw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPQJ3pXzQ0+JXwy8wQ4dIg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gh9WTIDO102/V9jEpX7Hug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47GYdDEOAUSm0AH87BJJjg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ObWi0F4A6U2Tf76nPoOcfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hq6MdF1mHECN16RcyqBTtw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kSYQdp7c7UGfSpse9ezboQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApPa6gHqNEGEi/VRoSCArg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2iQCymteB02RoDlUQLkYjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bh+K4BC8KESXkMcgOi2iSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f0mQNjS7ESDJEecRxc4ig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gQ8tV6Qyo0i87zD5bsPQMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vf2Vz4Dykk2UAywywrIc7g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ByLRWNnYUe3Sy+PYVgV2g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vTygID9He0yuztzCQ6n+rQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL/xgk/tTU+/YwFGlDT1Jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_rein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fireman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grassman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrusman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulbman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sildman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mineman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robotman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icecreamman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goldenarmorman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angelman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">squareman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spiderman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vampireman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heroman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wildman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pricetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"TRUE"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addgem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disposable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week.SkinKeyList.snowman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week.SkinKeyList.wildman</t>
+    <t>hZ5zXDn9pEau0jHAGnXPSw</t>
+  </si>
+  <si>
+    <t>WPQJ3pXzQ0+JXwy8wQ4dIg</t>
+  </si>
+  <si>
+    <t>Gh9WTIDO102/V9jEpX7Hug</t>
+  </si>
+  <si>
+    <t>47GYdDEOAUSm0AH87BJJjg</t>
+  </si>
+  <si>
+    <t>ObWi0F4A6U2Tf76nPoOcfg</t>
+  </si>
+  <si>
+    <t>hq6MdF1mHECN16RcyqBTtw</t>
+  </si>
+  <si>
+    <t>kSYQdp7c7UGfSpse9ezboQ</t>
+  </si>
+  <si>
+    <t>ApPa6gHqNEGEi/VRoSCArg</t>
+  </si>
+  <si>
+    <t>2iQCymteB02RoDlUQLkYjw</t>
+  </si>
+  <si>
+    <t>Bh+K4BC8KESXkMcgOi2iSA</t>
+  </si>
+  <si>
+    <t>0f0mQNjS7ESDJEecRxc4ig</t>
+  </si>
+  <si>
+    <t>gQ8tV6Qyo0i87zD5bsPQMw</t>
+  </si>
+  <si>
+    <t>vf2Vz4Dykk2UAywywrIc7g</t>
+  </si>
+  <si>
+    <t>1ByLRWNnYUe3Sy+PYVgV2g</t>
+  </si>
+  <si>
+    <t>vTygID9He0yuztzCQ6n+rQ</t>
+  </si>
+  <si>
+    <t>DL/xgk/tTU+/YwFGlDT1Jg</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>day_rein</t>
+  </si>
+  <si>
+    <t>day_skin</t>
+  </si>
+  <si>
+    <t>day_ad</t>
+  </si>
+  <si>
+    <t>rein</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>snowman</t>
+  </si>
+  <si>
+    <t>fireman</t>
+  </si>
+  <si>
+    <t>grassman</t>
+  </si>
+  <si>
+    <t>rockman</t>
+  </si>
+  <si>
+    <t>citrusman</t>
+  </si>
+  <si>
+    <t>bulbman</t>
+  </si>
+  <si>
+    <t>sildman</t>
+  </si>
+  <si>
+    <t>minman</t>
+  </si>
+  <si>
+    <t>mineman</t>
+  </si>
+  <si>
+    <t>robotman</t>
+  </si>
+  <si>
+    <t>icecreamman</t>
+  </si>
+  <si>
+    <t>goldenarmorman</t>
+  </si>
+  <si>
+    <t>angelman</t>
+  </si>
+  <si>
+    <t>squareman</t>
+  </si>
+  <si>
+    <t>spiderman</t>
+  </si>
+  <si>
+    <t>vampireman</t>
+  </si>
+  <si>
+    <t>heroman</t>
+  </si>
+  <si>
+    <t>wildman</t>
+  </si>
+  <si>
+    <t>removead</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>startpack</t>
+  </si>
+  <si>
+    <t>skinpack</t>
+  </si>
+  <si>
+    <t>s_gem</t>
+  </si>
+  <si>
+    <t>m_gem</t>
+  </si>
+  <si>
+    <t>l_gem</t>
+  </si>
+  <si>
+    <t>s_ap</t>
+  </si>
+  <si>
+    <t>m_ap</t>
+  </si>
+  <si>
+    <t>l_ap</t>
+  </si>
+  <si>
+    <t>s_coin</t>
+  </si>
+  <si>
+    <t>m_coin</t>
+  </si>
+  <si>
+    <t>l_coin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>pricetype</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>"TRUE"</t>
+  </si>
+  <si>
+    <t>addgem</t>
+  </si>
+  <si>
+    <t>addap</t>
+  </si>
+  <si>
+    <t>addcoin</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>disposable</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>week.SkinKeyList.snowman</t>
+  </si>
+  <si>
+    <t>week.SkinKeyList.wildman</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">AhU2MfudO0CGPbfKA54soA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tH4X0ump3kSX06VVmzjtXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmkaGTYqRk+2dh4mPkWulQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WwogyFh130C5mFAy8k6MHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaJPrmZ45kuWH9lQrH8p6Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yED9p/FikECrm65TUyi/EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t5tSnH8OgUSB2kns/WaF+g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EfyDxZLgWE+1haiTVUlDdw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nM0KYyjX7kuBMBq+PAXWug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50BoMynjRU+ipwyssM0S9Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba5dgtxUQEaALH9CV4fuyA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gIGbxsQTUU+Vm9130mXL8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1IMHKQ0hUeFsw2XyxQiZw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sprite\store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sprite\store\adRemove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/adRemove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/10perCoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/startPack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/skinPack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additrate</t>
+    <t>AhU2MfudO0CGPbfKA54soA</t>
+  </si>
+  <si>
+    <t>tH4X0ump3kSX06VVmzjtXQ</t>
+  </si>
+  <si>
+    <t>jmkaGTYqRk+2dh4mPkWulQ</t>
+  </si>
+  <si>
+    <t>WwogyFh130C5mFAy8k6MHQ</t>
+  </si>
+  <si>
+    <t>IaJPrmZ45kuWH9lQrH8p6Q</t>
+  </si>
+  <si>
+    <t>yED9p/FikECrm65TUyi/EA</t>
+  </si>
+  <si>
+    <t>t5tSnH8OgUSB2kns/WaF+g</t>
+  </si>
+  <si>
+    <t>EfyDxZLgWE+1haiTVUlDdw</t>
+  </si>
+  <si>
+    <t>nM0KYyjX7kuBMBq+PAXWug</t>
+  </si>
+  <si>
+    <t>50BoMynjRU+ipwyssM0S9Q</t>
+  </si>
+  <si>
+    <t>ba5dgtxUQEaALH9CV4fuyA</t>
+  </si>
+  <si>
+    <t>gIGbxsQTUU+Vm9130mXL8g</t>
+  </si>
+  <si>
+    <t>B1IMHKQ0hUeFsw2XyxQiZw</t>
+  </si>
+  <si>
+    <t>\sprite\store</t>
+  </si>
+  <si>
+    <t>\sprite\store\adRemove</t>
+  </si>
+  <si>
+    <t>/sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t>sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t>sprite/store/adRemove</t>
+  </si>
+  <si>
+    <t>sprite/store/</t>
+  </si>
+  <si>
+    <t>sprite/store/10perCoin</t>
+  </si>
+  <si>
+    <t>sprite/store/startPack</t>
+  </si>
+  <si>
+    <t>sprite/store/skinPack</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_s</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_s</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_s</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_m</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_m</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_m</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_l</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_l</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_l</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>costTerm</t>
+  </si>
+  <si>
+    <t>additrate</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">uc2VpP69vUe9OToar7DB6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJXO0HWdZECTA1Z9YVIlJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J03Iq+Jll0Srpx/p60dHlg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wildskinpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonus_10_0</t>
+    <t>uc2VpP69vUe9OToar7DB6A</t>
+  </si>
+  <si>
+    <t>BJXO0HWdZECTA1Z9YVIlJA</t>
+  </si>
+  <si>
+    <t>J03Iq+Jll0Srpx/p60dHlg</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>wildskinpack</t>
+  </si>
+  <si>
+    <t>bonus_10_0</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">j+6ETQsMAEuxWX0bQIZExw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z</t>
+    <t>j+6ETQsMAEuxWX0bQIZExw</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>최대체력이  증가한다.</t>
+  </si>
+  <si>
+    <t>miniset</t>
+  </si>
+  <si>
+    <t>icecreamset</t>
+  </si>
+  <si>
+    <t>sprite/store/miniSet</t>
+  </si>
+  <si>
+    <t>sprite/store/icecreamSet</t>
+  </si>
+  <si/>
+  <si>
+    <t>Czi9AqbNvk+ucInkWG6KKw</t>
+  </si>
+  <si>
+    <t>pe/y+udAX0mbRgwwsN331Q</t>
+  </si>
+  <si>
+    <t>IaJPrmZ45kuWH9lQrH8p5Q</t>
+  </si>
+  <si>
+    <t>ad_gem</t>
+  </si>
+  <si>
+    <t>sprite/store/gem</t>
   </si>
 </sst>
 </file>
@@ -2016,148 +2048,148 @@
   </numFmts>
   <fonts count="27">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.79998"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
+      <color theme="7" tint="0.799980"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="1"/>
+      <sz val="1.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF8080"/>
-      <name val="맑은 고딕"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2220,19 +2252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
+        <fgColor theme="4" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
+        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
+        <fgColor theme="4" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2244,19 +2276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
+        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999"/>
+        <fgColor theme="5" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
+        <fgColor theme="5" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2268,19 +2300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
+        <fgColor theme="6" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
+        <fgColor theme="6" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
+        <fgColor theme="6" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2292,19 +2324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
+        <fgColor theme="7" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
+        <fgColor theme="7" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
+        <fgColor theme="7" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2316,19 +2348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
+        <fgColor theme="8" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999"/>
+        <fgColor theme="8" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
+        <fgColor theme="8" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2340,19 +2372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
+        <fgColor theme="9" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
+        <fgColor theme="9" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
+        <fgColor theme="9" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2370,13 +2402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09998"/>
+        <fgColor theme="2" tint="-0.099980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.150000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2394,12 +2426,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34999"/>
+        <fgColor theme="0" tint="-0.349990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2484,7 +2516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39998"/>
+        <color theme="4" tint="0.399980"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3262,161 +3294,279 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="230">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+  <cellXfs count="256">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3425,7 +3575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3437,37 +3587,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3476,37 +3626,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3518,55 +3668,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3578,76 +3728,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3656,103 +3806,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3764,31 +3914,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3797,106 +3947,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3929,40 +4079,40 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3983,16 +4133,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4001,13 +4151,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4019,7 +4169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4031,13 +4181,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4046,61 +4196,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4158,1239 +4386,1239 @@
   <dxfs count="106">
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF006FBE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF8C8C8C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
+        <sz val="1.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF9C0006"/>
-        <name val="맑은 고딕"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
   </dxfs>
@@ -5663,27 +5891,27 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.62999916" customWidth="1"/>
-    <col min="2" max="2" width="6.25500011" customWidth="1"/>
-    <col min="3" max="3" width="13.00500011" customWidth="1"/>
-    <col min="4" max="4" width="10.63000011" customWidth="1"/>
-    <col min="5" max="5" width="56.50500107" customWidth="1"/>
-    <col min="6" max="6" width="70.50499725" customWidth="1"/>
-    <col min="7" max="7" width="7.88000011" customWidth="1"/>
-    <col min="8" max="8" width="6.38000011" customWidth="1"/>
-    <col min="9" max="9" width="11.50500011" customWidth="1"/>
-    <col min="10" max="10" width="6.00500011" customWidth="1"/>
-    <col min="11" max="11" width="12.75500011" customWidth="1"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1"/>
-    <col min="13" max="13" width="13.75500011" customWidth="1"/>
-    <col min="14" max="14" width="12.50500011" customWidth="1"/>
-    <col min="15" max="15" width="6.38000011" customWidth="1"/>
-    <col min="16" max="18" width="14.38000011" customWidth="1"/>
+    <col min="1" max="1" width="27.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="6.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="13.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="56.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="70.50499725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="7.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="11.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="6.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="18" width="14.38000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5755,8 +5983,9 @@
       <c r="D2" s="22">
         <v>5</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>261</v>
+      <c r="E2" s="22" t="str">
+        <f>"최대체력이 "&amp;INT(G2-100)&amp;"% 증가합니다."</f>
+        <v>최대체력이 50% 증가합니다.</v>
       </c>
       <c r="F2" s="22" t="str">
         <f>"체력 "&amp;INT(G2-100)&amp;"% 증가"</f>
@@ -5813,8 +6042,9 @@
       <c r="D3" s="22">
         <v>5</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>262</v>
+      <c r="E3" s="22" t="str">
+        <f>"공격력이 "&amp;INT(G3-100)&amp;"% 증가합니다."</f>
+        <v>공격력이 10% 증가합니다.</v>
       </c>
       <c r="F3" s="22" t="str">
         <f>"공격력 "&amp;INT(G3-100)&amp;"% 증가"</f>
@@ -5871,15 +6101,16 @@
       <c r="D4" s="22">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>253</v>
+      <c r="E4" s="22" t="str">
+        <f>"추가 방어력을 "&amp;G4&amp;" 얻습니다."</f>
+        <v>추가 방어력을 10 얻습니다.</v>
       </c>
       <c r="F4" s="22" t="str">
         <f>"방어력 "&amp;G4&amp;"증가"</f>
-        <v>방어력 5증가</v>
+        <v>방어력 10증가</v>
       </c>
       <c r="G4" s="22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H4" s="22">
         <v>0</v>
@@ -5929,15 +6160,16 @@
       <c r="D5" s="22">
         <v>3</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>263</v>
+      <c r="E5" s="22" t="str">
+        <f>"매초 최대체력의 "&amp;G5&amp;"% 추가회복합니다."</f>
+        <v>매초 최대체력의 0.2% 추가회복합니다.</v>
       </c>
       <c r="F5" s="22" t="str">
         <f>"1초당 체력 "&amp;G5&amp;"% 추가회복"</f>
-        <v>1초당 체력 0.1% 추가회복</v>
+        <v>1초당 체력 0.2% 추가회복</v>
       </c>
       <c r="G5" s="22">
-        <v>0.100000001490116</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="22">
         <v>0</v>
@@ -5987,8 +6219,9 @@
       <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>256</v>
+      <c r="E6" s="22" t="str">
+        <f>"스킬 쿨타임 "&amp;INT(-G6)&amp;"% 감소합니다."</f>
+        <v>스킬 쿨타임 4% 감소합니다.</v>
       </c>
       <c r="F6" s="22" t="str">
         <f>"스킬시전시간 "&amp;INT(-G6)&amp;"% 감소"</f>
@@ -6045,8 +6278,9 @@
       <c r="D7" s="22">
         <v>5</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>257</v>
+      <c r="E7" s="22" t="str">
+        <f>"경험치 획득량이 "&amp;INT(G7-100)&amp;"% 증가합니다."</f>
+        <v>경험치 획득량이 30% 증가합니다.</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>"경험치 습득량 "&amp;INT(G7-100)&amp;"% 증가"</f>
@@ -6103,8 +6337,9 @@
       <c r="D8" s="22">
         <v>3</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>258</v>
+      <c r="E8" s="22" t="str">
+        <f>"스킬크기가 "&amp;INT(G8-100)&amp;"% 증가합니다."</f>
+        <v>스킬크기가 20% 증가합니다.</v>
       </c>
       <c r="F8" s="22" t="str">
         <f>"스킬크기 "&amp;INT(G8-100)&amp;"% 증가"</f>
@@ -6161,8 +6396,9 @@
       <c r="D9" s="22">
         <v>3</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>259</v>
+      <c r="E9" s="22" t="str">
+        <f>"모든 회복량이 "&amp;INT(G9-100)&amp;"% 증가합니다."</f>
+        <v>모든 회복량이 30% 증가합니다.</v>
       </c>
       <c r="F9" s="22" t="str">
         <f>"모든 회복량 "&amp;INT(G9-100)&amp;"% 증가"</f>
@@ -6219,8 +6455,9 @@
       <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>260</v>
+      <c r="E10" s="22" t="str">
+        <f>"이동속도가 "&amp;INT(100-G10)&amp;"% 더 빨라집니다."</f>
+        <v>이동속도가 5% 더 빨라집니다.</v>
       </c>
       <c r="F10" s="22" t="str">
         <f>"이동속도 "&amp;INT(100-G10)&amp;"% 증가"</f>
@@ -6282,7 +6519,7 @@
       </c>
       <c r="F11" s="11" t="str">
         <f>"공격력 "&amp;I11&amp;"% 증가\\n공격속도 "&amp;K11&amp;"% 증가\\n크기 "&amp;N11&amp;"% 증가"</f>
-        <v>공격력 10% 증가\\n공격속도 10% 증가\\n크기 10% 증가</v>
+        <v>공격력 10% 증가\\n공격속도 5% 증가\\n크기 10% 증가</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -6297,7 +6534,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
@@ -6340,7 +6577,7 @@
       </c>
       <c r="F12" s="11" t="str">
         <f>"공격력 "&amp;I12&amp;"% 증가\\n공격속도 "&amp;K12&amp;"% 증가"</f>
-        <v>공격력 50% 증가\\n공격속도 10% 증가</v>
+        <v>공격력 50% 증가\\n공격속도 8% 증가</v>
       </c>
       <c r="G12" s="11">
         <v>0</v>
@@ -6355,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L12" s="11">
         <v>1</v>
@@ -6398,13 +6635,13 @@
       </c>
       <c r="F13" s="11" t="str">
         <f>"공격력 "&amp;I13&amp;"% 증가\\n공격속도 "&amp;K13&amp;"% 증가"</f>
-        <v>공격력 15% 증가\\n공격속도 13% 증가</v>
+        <v>공격력 15% 증가\\n공격속도 10% 증가</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0.699999988079071</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="11">
         <v>15</v>
@@ -6413,7 +6650,7 @@
         <v>1.5</v>
       </c>
       <c r="K13" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L13" s="11">
         <v>1</v>
@@ -6456,7 +6693,7 @@
       </c>
       <c r="F14" s="11" t="str">
         <f>"공격력 "&amp;I14&amp;"% 증가\\n공격속도 "&amp;K14&amp;"% 증가\\n 발사개수 +"&amp;P14</f>
-        <v>공격력 10% 증가\\n공격속도 13% 증가\\n 발사개수 +1</v>
+        <v>공격력 10% 증가\\n공격속도 10% 증가\\n 발사개수 +1</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -6471,7 +6708,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="K14" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L14" s="11">
         <v>1</v>
@@ -6514,7 +6751,7 @@
       </c>
       <c r="F15" s="11" t="str">
         <f>"공격력 "&amp;I15&amp;"% 증가\\n시전속도 "&amp;K15&amp;"% 감소\\n우박개수 +"&amp;P15</f>
-        <v>공격력 50% 증가\\n시전속도 10% 감소\\n우박개수 +2</v>
+        <v>공격력 50% 증가\\n시전속도 7% 감소\\n우박개수 +2</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -6529,7 +6766,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L15" s="11">
         <v>0.100000001490116</v>
@@ -6590,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="11">
         <v>20</v>
@@ -6688,7 +6925,7 @@
       </c>
       <c r="F18" s="11" t="str">
         <f>"공격력 "&amp;I18&amp;"% 증가\\n쿨타임 "&amp;K18&amp;"% 감소"</f>
-        <v>공격력 30% 증가\\n쿨타임 5% 감소</v>
+        <v>공격력 30% 증가\\n쿨타임 7% 감소</v>
       </c>
       <c r="G18" s="11">
         <v>0</v>
@@ -6703,7 +6940,7 @@
         <v>60</v>
       </c>
       <c r="K18" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L18" s="11">
         <v>0</v>
@@ -6746,22 +6983,22 @@
       </c>
       <c r="F19" s="11" t="str">
         <f>"공격력 "&amp;I19&amp;"% 증가\\n쿨타임 "&amp;K19&amp;"% 감소\\n지속시간 "&amp;M19&amp;"% 증가"</f>
-        <v>공격력 20% 증가\\n쿨타임 10% 감소\\n지속시간 10% 증가</v>
+        <v>공격력 25% 증가\\n쿨타임 8% 감소\\n지속시간 10% 증가</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I19" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11">
         <v>15</v>
       </c>
       <c r="K19" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L19" s="11">
         <v>3</v>
@@ -6804,7 +7041,7 @@
       </c>
       <c r="F20" s="11" t="str">
         <f>"공격력 "&amp;I20&amp;"% 증가\\n쿨타임 "&amp;K20&amp;"% 감소\\n크기 "&amp;N20&amp;"% 증가"</f>
-        <v>공격력 15% 증가\\n쿨타임 10% 감소\\n크기 15% 증가</v>
+        <v>공격력 15% 증가\\n쿨타임 5% 감소\\n크기 15% 증가</v>
       </c>
       <c r="G20" s="11">
         <v>0</v>
@@ -6819,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L20" s="11">
         <v>1</v>
@@ -6862,7 +7099,7 @@
       </c>
       <c r="F21" s="11" t="str">
         <f>"방어막 "&amp;I21&amp;"% 증가\\n재사용 대기시간 "&amp;K21&amp;"% 감소"</f>
-        <v>방어막 100% 증가\\n재사용 대기시간 10% 감소</v>
+        <v>방어막 100% 증가\\n재사용 대기시간 5% 감소</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
@@ -6877,7 +7114,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L21" s="11">
         <v>-1</v>
@@ -7366,7 +7603,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7375,23 +7612,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.37999916" customWidth="1"/>
-    <col min="2" max="2" width="16.75499916" customWidth="1"/>
-    <col min="3" max="3" width="15.13000011" customWidth="1"/>
-    <col min="4" max="4" width="7.38000011" customWidth="1"/>
-    <col min="7" max="7" width="9.00500011" customWidth="1"/>
-    <col min="11" max="11" width="9.00500011" customWidth="1"/>
-    <col min="14" max="14" width="9.00500011" style="5" customWidth="1"/>
-    <col min="21" max="21" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="27.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="16.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="7.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="21" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" customHeight="1">
+    <row r="1" spans="1:29" ht="23.250000" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -7658,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.25">
+    <row r="4" spans="1:29" ht="17.250000">
       <c r="A4" s="61" t="s">
         <v>411</v>
       </c>
@@ -7925,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="17.25">
+    <row r="7" spans="1:29" ht="17.250000">
       <c r="A7" s="49" t="s">
         <v>414</v>
       </c>
@@ -8292,7 +8529,7 @@
         <v>392</v>
       </c>
       <c r="D11" s="170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="88" t="s">
         <v>401</v>
@@ -8815,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="17.25">
+    <row r="17" spans="1:29" ht="17.250000">
       <c r="A17" s="43" t="s">
         <v>424</v>
       </c>
@@ -8906,26 +9143,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1"/>
-    <col min="2" max="5" width="12.50500011" customWidth="1"/>
-    <col min="8" max="8" width="9.00500011" customWidth="1"/>
-    <col min="15" max="15" width="9.88000011" customWidth="1"/>
-    <col min="16" max="16" width="24.87999916" customWidth="1"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="5" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="13.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" width="24.87999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8974,7 +9211,7 @@
       <c r="O1" s="193" t="s">
         <v>365</v>
       </c>
-      <c r="P1" s="206" t="s">
+      <c r="P1" s="241" t="s">
         <v>631</v>
       </c>
     </row>
@@ -9024,7 +9261,7 @@
       <c r="O2" s="186" t="s">
         <v>586</v>
       </c>
-      <c r="P2" s="207" t="s">
+      <c r="P2" s="242" t="s">
         <v>652</v>
       </c>
     </row>
@@ -9074,7 +9311,7 @@
       <c r="O3" s="186" t="s">
         <v>586</v>
       </c>
-      <c r="P3" s="207" t="s">
+      <c r="P3" s="242" t="s">
         <v>654</v>
       </c>
     </row>
@@ -9124,7 +9361,7 @@
       <c r="O4" s="186" t="s">
         <v>586</v>
       </c>
-      <c r="P4" s="207" t="s">
+      <c r="P4" s="242" t="s">
         <v>655</v>
       </c>
     </row>
@@ -9174,166 +9411,164 @@
       <c r="O5" s="196" t="s">
         <v>603</v>
       </c>
-      <c r="P5" s="208" t="s">
+      <c r="P5" s="243" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="C6" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="A6" s="184" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" s="184" t="s">
+        <v>683</v>
+      </c>
+      <c r="C6" s="184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="184" t="s">
         <v>622</v>
       </c>
-      <c r="E6" s="114">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="96" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
-        <v>40</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-      <c r="L6" s="33">
-        <v>0</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0</v>
-      </c>
-      <c r="N6" s="33">
+      <c r="E6" s="199">
+        <v>5900</v>
+      </c>
+      <c r="F6" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="186">
+        <v>5</v>
+      </c>
+      <c r="I6" s="185">
+        <v>0</v>
+      </c>
+      <c r="J6" s="184">
+        <v>20</v>
+      </c>
+      <c r="K6" s="184">
+        <v>0</v>
+      </c>
+      <c r="L6" s="184">
+        <v>0</v>
+      </c>
+      <c r="M6" s="184">
+        <v>0</v>
+      </c>
+      <c r="N6" s="184">
         <v>0</v>
       </c>
       <c r="O6" s="186" t="s">
         <v>586</v>
       </c>
-      <c r="P6" s="209" t="s">
-        <v>660</v>
+      <c r="P6" s="242" t="s">
+        <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="185" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="184" t="s">
-        <v>610</v>
-      </c>
-      <c r="C7" s="184" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="184" t="s">
+    <row r="7" spans="1:16" ht="17.250000">
+      <c r="A7" s="230" t="s">
+        <v>689</v>
+      </c>
+      <c r="B7" s="231" t="s">
+        <v>684</v>
+      </c>
+      <c r="C7" s="231" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="231" t="s">
         <v>622</v>
       </c>
-      <c r="E7" s="199">
-        <v>5900</v>
-      </c>
-      <c r="F7" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="181" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="186">
-        <v>0</v>
-      </c>
-      <c r="I7" s="185">
-        <v>250</v>
-      </c>
-      <c r="J7" s="184">
-        <v>0</v>
-      </c>
-      <c r="K7" s="184">
-        <v>0</v>
-      </c>
-      <c r="L7" s="184">
-        <v>0</v>
-      </c>
-      <c r="M7" s="184">
-        <v>0</v>
-      </c>
-      <c r="N7" s="184">
-        <v>0</v>
-      </c>
-      <c r="O7" s="186" t="s">
+      <c r="E7" s="232">
+        <v>19900</v>
+      </c>
+      <c r="F7" s="233" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="234" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="235">
+        <v>0</v>
+      </c>
+      <c r="I7" s="230">
+        <v>200</v>
+      </c>
+      <c r="J7" s="231">
+        <v>30</v>
+      </c>
+      <c r="K7" s="231">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="231">
+        <v>400</v>
+      </c>
+      <c r="M7" s="231">
+        <v>60</v>
+      </c>
+      <c r="N7" s="231">
+        <v>20000</v>
+      </c>
+      <c r="O7" s="250" t="s">
+        <v>596</v>
+      </c>
+      <c r="P7" s="251" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.250000">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="C8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" s="114">
+        <v>0</v>
+      </c>
+      <c r="F8" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="115">
+        <v>5</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="P7" s="207" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="185" t="s">
-        <v>641</v>
-      </c>
-      <c r="B8" s="184" t="s">
-        <v>611</v>
-      </c>
-      <c r="C8" s="184" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="184" t="s">
-        <v>622</v>
-      </c>
-      <c r="E8" s="199">
-        <v>11900</v>
-      </c>
-      <c r="F8" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="181" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="186">
-        <v>0</v>
-      </c>
-      <c r="I8" s="185">
-        <v>600</v>
-      </c>
-      <c r="J8" s="184">
-        <v>0</v>
-      </c>
-      <c r="K8" s="184">
-        <v>0</v>
-      </c>
-      <c r="L8" s="184">
-        <v>0</v>
-      </c>
-      <c r="M8" s="184">
-        <v>0</v>
-      </c>
-      <c r="N8" s="184">
-        <v>0</v>
-      </c>
-      <c r="O8" s="186" t="s">
-        <v>586</v>
-      </c>
-      <c r="P8" s="207" t="s">
-        <v>666</v>
+      <c r="P8" s="254" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="185" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B9" s="184" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C9" s="184" t="b">
         <v>0</v>
@@ -9342,7 +9577,7 @@
         <v>622</v>
       </c>
       <c r="E9" s="199">
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="111" t="b">
         <v>0</v>
@@ -9353,11 +9588,11 @@
       <c r="H9" s="186">
         <v>0</v>
       </c>
-      <c r="I9" s="185">
-        <v>0</v>
+      <c r="I9" s="203">
+        <v>40</v>
       </c>
       <c r="J9" s="184">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K9" s="184">
         <v>0</v>
@@ -9371,19 +9606,19 @@
       <c r="N9" s="184">
         <v>0</v>
       </c>
-      <c r="O9" s="186" t="s">
+      <c r="O9" s="249" t="s">
         <v>586</v>
       </c>
-      <c r="P9" s="207" t="s">
-        <v>661</v>
+      <c r="P9" s="255" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="185" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B10" s="184" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C10" s="184" t="b">
         <v>0</v>
@@ -9392,7 +9627,7 @@
         <v>622</v>
       </c>
       <c r="E10" s="199">
-        <v>11900</v>
+        <v>5900</v>
       </c>
       <c r="F10" s="111" t="b">
         <v>0</v>
@@ -9404,10 +9639,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="185">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J10" s="184">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K10" s="184">
         <v>0</v>
@@ -9425,15 +9660,15 @@
         <v>586</v>
       </c>
       <c r="P10" s="207" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="185" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B11" s="184" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C11" s="184" t="b">
         <v>0</v>
@@ -9442,7 +9677,7 @@
         <v>622</v>
       </c>
       <c r="E11" s="199">
-        <v>19900</v>
+        <v>11900</v>
       </c>
       <c r="F11" s="111" t="b">
         <v>0</v>
@@ -9454,10 +9689,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="185">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J11" s="184">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K11" s="184">
         <v>0</v>
@@ -9475,24 +9710,24 @@
         <v>586</v>
       </c>
       <c r="P11" s="207" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="185" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B12" s="184" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C12" s="184" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="184" t="s">
-        <v>401</v>
+        <v>622</v>
       </c>
       <c r="E12" s="199">
-        <v>50</v>
+        <v>3900</v>
       </c>
       <c r="F12" s="111" t="b">
         <v>0</v>
@@ -9507,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="184">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K12" s="184">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L12" s="184">
         <v>0</v>
@@ -9525,24 +9760,24 @@
         <v>586</v>
       </c>
       <c r="P12" s="207" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="185" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B13" s="184" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C13" s="184" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="184" t="s">
-        <v>401</v>
+        <v>622</v>
       </c>
       <c r="E13" s="199">
-        <v>175</v>
+        <v>11900</v>
       </c>
       <c r="F13" s="111" t="b">
         <v>0</v>
@@ -9557,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="184">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K13" s="184">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="L13" s="184">
         <v>0</v>
@@ -9575,62 +9810,212 @@
         <v>586</v>
       </c>
       <c r="P13" s="207" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="185" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" s="184" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="184" t="s">
+        <v>622</v>
+      </c>
+      <c r="E14" s="199">
+        <v>19900</v>
+      </c>
+      <c r="F14" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="186">
+        <v>0</v>
+      </c>
+      <c r="I14" s="185">
+        <v>0</v>
+      </c>
+      <c r="J14" s="184">
+        <v>135</v>
+      </c>
+      <c r="K14" s="184">
+        <v>0</v>
+      </c>
+      <c r="L14" s="184">
+        <v>0</v>
+      </c>
+      <c r="M14" s="184">
+        <v>0</v>
+      </c>
+      <c r="N14" s="184">
+        <v>0</v>
+      </c>
+      <c r="O14" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P14" s="207" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="185" t="s">
+        <v>645</v>
+      </c>
+      <c r="B15" s="184" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="184" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" s="199">
+        <v>50</v>
+      </c>
+      <c r="F15" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="186">
+        <v>0</v>
+      </c>
+      <c r="I15" s="185">
+        <v>0</v>
+      </c>
+      <c r="J15" s="184">
+        <v>0</v>
+      </c>
+      <c r="K15" s="184">
+        <v>5000</v>
+      </c>
+      <c r="L15" s="184">
+        <v>0</v>
+      </c>
+      <c r="M15" s="184">
+        <v>0</v>
+      </c>
+      <c r="N15" s="184">
+        <v>0</v>
+      </c>
+      <c r="O15" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P15" s="207" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="185" t="s">
+        <v>646</v>
+      </c>
+      <c r="B16" s="184" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="184" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="199">
+        <v>175</v>
+      </c>
+      <c r="F16" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="186">
+        <v>0</v>
+      </c>
+      <c r="I16" s="185">
+        <v>0</v>
+      </c>
+      <c r="J16" s="184">
+        <v>0</v>
+      </c>
+      <c r="K16" s="184">
+        <v>20000</v>
+      </c>
+      <c r="L16" s="184">
+        <v>0</v>
+      </c>
+      <c r="M16" s="184">
+        <v>0</v>
+      </c>
+      <c r="N16" s="184">
+        <v>0</v>
+      </c>
+      <c r="O16" s="186" t="s">
+        <v>586</v>
+      </c>
+      <c r="P16" s="207" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.25">
-      <c r="A14" s="187" t="s">
+    <row r="17" spans="1:16" ht="17.250000">
+      <c r="A17" s="187" t="s">
         <v>647</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B17" s="188" t="s">
         <v>617</v>
       </c>
-      <c r="C14" s="188" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="188" t="s">
+      <c r="C17" s="188" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="188" t="s">
         <v>401</v>
       </c>
-      <c r="E14" s="201">
+      <c r="E17" s="201">
         <v>400</v>
       </c>
-      <c r="F14" s="101" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="189">
-        <v>0</v>
-      </c>
-      <c r="I14" s="187">
-        <v>0</v>
-      </c>
-      <c r="J14" s="188">
-        <v>0</v>
-      </c>
-      <c r="K14" s="188">
+      <c r="F17" s="101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="189">
+        <v>0</v>
+      </c>
+      <c r="I17" s="187">
+        <v>0</v>
+      </c>
+      <c r="J17" s="188">
+        <v>0</v>
+      </c>
+      <c r="K17" s="188">
         <v>50000</v>
       </c>
-      <c r="L14" s="188">
-        <v>0</v>
-      </c>
-      <c r="M14" s="188">
-        <v>0</v>
-      </c>
-      <c r="N14" s="188">
-        <v>0</v>
-      </c>
-      <c r="O14" s="189" t="s">
+      <c r="L17" s="188">
+        <v>0</v>
+      </c>
+      <c r="M17" s="188">
+        <v>0</v>
+      </c>
+      <c r="N17" s="188">
+        <v>0</v>
+      </c>
+      <c r="O17" s="189" t="s">
         <v>586</v>
       </c>
-      <c r="P14" s="210" t="s">
+      <c r="P17" s="210" t="s">
         <v>668</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -9643,12 +10028,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.87999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
-    <col min="4" max="8" width="9.00500011" customWidth="1"/>
-    <col min="9" max="9" width="13.88000011" customWidth="1"/>
+    <col min="1" max="1" width="27.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="13.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10101,7 +10486,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10114,10 +10499,10 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10298,7 +10683,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10311,11 +10696,11 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.00500011" style="5" customWidth="1"/>
-    <col min="3" max="10" width="10.00500011" style="5" customWidth="1"/>
+    <col min="1" max="1" style="5" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="10" style="5" width="10.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10546,7 +10931,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10559,11 +10944,11 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.62999916" customWidth="1"/>
-    <col min="2" max="2" width="15.13000011" customWidth="1"/>
-    <col min="5" max="8" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="26.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10778,7 +11163,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10791,12 +11176,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1"/>
-    <col min="3" max="3" width="10.63000011" customWidth="1"/>
-    <col min="4" max="5" width="11.75500011" customWidth="1"/>
-    <col min="7" max="7" width="15.75500011" customWidth="1"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="5" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="15.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11035,7 +11420,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="210"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="715">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -2090,6 +2090,12 @@
   <si/>
   <si>
     <t xml:space="preserve">0CB7kpm3vk+j3HITZ/JUeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonus_3_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite/store/3perCoin</t>
   </si>
 </sst>
 </file>
@@ -6248,7 +6254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -9718,8 +9724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9836,7 +9842,7 @@
         <v>636</v>
       </c>
       <c r="B3" s="184" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="C3" s="184" t="b">
         <v>1</v>
@@ -9854,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="112">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I3" s="185">
         <v>0</v>
@@ -9878,7 +9884,7 @@
         <v>586</v>
       </c>
       <c r="P3" s="242" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:16">

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -16,2086 +16,2087 @@
     <sheet name="boss" sheetId="3" r:id="rId7"/>
     <sheet name="quest" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="152511" calcOnSave="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="715">
   <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달고드름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우박</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음회오리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스에이지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay_reduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작은불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거대한불씨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강한불정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/halficicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/iceage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/blizzard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/icetornado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1YI39qlEIkehcQKXsHTyUg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWTscmjKlESMcPHMRe0hXg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAdmjT6HC0y8LOsa1qMZvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x0MEnXpXpkSAeJdx9u1dxA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nv7SgpakukyznybxDxXzKg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rrTgjWmPmE6tye/yifLCyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8z2pJ9jvp0qxuwrUhRrmyQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Txp9XKcq6kSTovn/H/3gjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jZ9q6LkxFkil8RL3lc0PPg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FkSB7SxxhE+q+XE4G8ZT4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPruJLqK1ESOVRcE3QyTlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2WySlC4shUOPDHA9oxYaKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iW548VF8UEGD+vAuXhtSAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillrange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>눈덩이</t>
+  </si>
+  <si>
+    <t>고드름</t>
+  </si>
+  <si>
+    <t>반달고드름</t>
+  </si>
+  <si>
+    <t>빙벽</t>
+  </si>
+  <si>
+    <t>우박</t>
+  </si>
+  <si>
+    <t>얼음회오리</t>
+  </si>
+  <si>
+    <t>아이스에이지</t>
+  </si>
+  <si>
+    <t>블리자드</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>att_increase</t>
+  </si>
+  <si>
+    <t>delay_reduce</t>
+  </si>
+  <si>
+    <t>size_increase</t>
+  </si>
+  <si>
+    <t>count_increase</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>작은불씨</t>
+  </si>
+  <si>
+    <t>불씨</t>
+  </si>
+  <si>
+    <t>거대한불씨</t>
+  </si>
+  <si>
+    <t>불정령</t>
+  </si>
+  <si>
+    <t>강한불정령</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sprite/snowball</t>
+  </si>
+  <si>
+    <t>sprite/icicle</t>
+  </si>
+  <si>
+    <t>sprite/halficicle</t>
+  </si>
+  <si>
+    <t>sprite/icewall</t>
+  </si>
+  <si>
+    <t>sprite/hail</t>
+  </si>
+  <si>
+    <t>sprite/iceage</t>
+  </si>
+  <si>
+    <t>sprite/blizzard</t>
+  </si>
+  <si>
+    <t>sprite/icetornado</t>
+  </si>
+  <si>
+    <t>1YI39qlEIkehcQKXsHTyUg</t>
+  </si>
+  <si>
+    <t>NWTscmjKlESMcPHMRe0hXg</t>
+  </si>
+  <si>
+    <t>BAdmjT6HC0y8LOsa1qMZvg</t>
+  </si>
+  <si>
+    <t>x0MEnXpXpkSAeJdx9u1dxA</t>
+  </si>
+  <si>
+    <t>Nv7SgpakukyznybxDxXzKg</t>
+  </si>
+  <si>
+    <t>rrTgjWmPmE6tye/yifLCyQ</t>
+  </si>
+  <si>
+    <t>8z2pJ9jvp0qxuwrUhRrmyQ</t>
+  </si>
+  <si>
+    <t>Txp9XKcq6kSTovn/H/3gjw</t>
+  </si>
+  <si>
+    <t>jZ9q6LkxFkil8RL3lc0PPg</t>
+  </si>
+  <si>
+    <t>FkSB7SxxhE+q+XE4G8ZT4w</t>
+  </si>
+  <si>
+    <t>EPruJLqK1ESOVRcE3QyTlw</t>
+  </si>
+  <si>
+    <t>2WySlC4shUOPDHA9oxYaKw</t>
+  </si>
+  <si>
+    <t>iW548VF8UEGD+vAuXhtSAQ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hpgen</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>attspeed</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>skillrange</t>
+  </si>
+  <si>
+    <t>killamount</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e7AXSZh+E0eaC78EFNa29g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
+    <t>e7AXSZh+E0eaC78EFNa29g</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">eHf0vPp+wk2aU5E4yd7/Yg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round_appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_increase</t>
+    <t>eHf0vPp+wk2aU5E4yd7/Yg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>mop_fire</t>
+  </si>
+  <si>
+    <t>mop_bok</t>
+  </si>
+  <si>
+    <t>mop_stick</t>
+  </si>
+  <si>
+    <t>mop_turtle</t>
+  </si>
+  <si>
+    <t>mop_bluefire</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>stage_appear</t>
+  </si>
+  <si>
+    <t>round_appear</t>
+  </si>
+  <si>
+    <t>hp_increase</t>
+  </si>
+  <si>
+    <t>exp_increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">l84s0jqeJ0+ShvpHGehKgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1xmfc5j9REe0ZHIX8rDf8w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kTDzILh6IE+jkW2qF+KXAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9VCtUFsTA0WcVNS71DsQNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uALCIjfaEky3G92iAmHJ9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_bird</t>
+    <t>l84s0jqeJ0+ShvpHGehKgA</t>
+  </si>
+  <si>
+    <t>1xmfc5j9REe0ZHIX8rDf8w</t>
+  </si>
+  <si>
+    <t>kTDzILh6IE+jkW2qF+KXAw</t>
+  </si>
+  <si>
+    <t>9VCtUFsTA0WcVNS71DsQNA</t>
+  </si>
+  <si>
+    <t>uALCIjfaEky3G92iAmHJ9w</t>
+  </si>
+  <si>
+    <t>mop_bird</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">8gAo9LyP60OMAwTdoY8wrw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priceamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_cow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase</t>
+    <t>8gAo9LyP60OMAwTdoY8wrw</t>
+  </si>
+  <si>
+    <t>priceamount</t>
+  </si>
+  <si>
+    <t>boss_bird</t>
+  </si>
+  <si>
+    <t>boss_</t>
+  </si>
+  <si>
+    <t>boss_golem</t>
+  </si>
+  <si>
+    <t>boss_rock</t>
+  </si>
+  <si>
+    <t>boss_cow</t>
+  </si>
+  <si>
+    <t>boss_bear</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">4WVxc3VSx0O0tna/lL5NCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7LLesioQ0kSNXqcpCaDbeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JtRPf/ABQkK6YzgnTjqc1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mL8Q/tFX90CNwPiHYkk0GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tEcjfw23XkCu//y+zqlQJQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈뭉치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/ictone</t>
+    <t>4WVxc3VSx0O0tna/lL5NCA</t>
+  </si>
+  <si>
+    <t>7LLesioQ0kSNXqcpCaDbeg</t>
+  </si>
+  <si>
+    <t>JtRPf/ABQkK6YzgnTjqc1Q</t>
+  </si>
+  <si>
+    <t>mL8Q/tFX90CNwPiHYkk0GA</t>
+  </si>
+  <si>
+    <t>tEcjfw23XkCu//y+zqlQJQ</t>
+  </si>
+  <si>
+    <t>얼음뭉치</t>
+  </si>
+  <si>
+    <t>눈뭉치</t>
+  </si>
+  <si>
+    <t>sprite/ictone</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">zIrXoinId0iFNhZHl1++bA</t>
+    <t>zIrXoinId0iFNhZHl1++bA</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">xL0ZSRTaC0mmTc44mg8IMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVjVGRJbj0GkW3ghHwH8Tg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayHEKjsd8UqG8GU1Xt6tTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5y8+mUBukKyaU5ZN30mZg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR2VPmVTTUGofKgvmFjHVQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O7aBnzSfm0ariTzPxBExFw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlpgBelcX0qncpw9BzBXKQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3UfqJRRF0SPgkVBkbx3hw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCpjVMj5JUqt9ziS5P3awQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mop_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speed</t>
+    <t>xL0ZSRTaC0mmTc44mg8IMw</t>
+  </si>
+  <si>
+    <t>KVjVGRJbj0GkW3ghHwH8Tg</t>
+  </si>
+  <si>
+    <t>ayHEKjsd8UqG8GU1Xt6tTw</t>
+  </si>
+  <si>
+    <t>Q5y8+mUBukKyaU5ZN30mZg</t>
+  </si>
+  <si>
+    <t>GR2VPmVTTUGofKgvmFjHVQ</t>
+  </si>
+  <si>
+    <t>O7aBnzSfm0ariTzPxBExFw</t>
+  </si>
+  <si>
+    <t>GlpgBelcX0qncpw9BzBXKQ</t>
+  </si>
+  <si>
+    <t>Q3UfqJRRF0SPgkVBkbx3hw</t>
+  </si>
+  <si>
+    <t>XCpjVMj5JUqt9ziS5P3awQ</t>
+  </si>
+  <si>
+    <t>mop_ant</t>
+  </si>
+  <si>
+    <t>mop_jack</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">jebfgtgwy0aCi3wyFmHn7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E37YclCUk0atKge3NbdvOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈폭탄</t>
+    <t>jebfgtgwy0aCi3wyFmHn7A</t>
+  </si>
+  <si>
+    <t>E37YclCUk0atKge3NbdvOQ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>얼음주먹</t>
+  </si>
+  <si>
+    <t>눈폭탄</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">sAlSjuwkNkmox3HyjOQPlQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음방어막</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음빠따</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소용돌이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음파동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적</t>
-  </si>
-  <si>
-    <t xml:space="preserve">산탄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep_increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstaacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obstacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuee</t>
+    <t>sAlSjuwkNkmox3HyjOQPlQ</t>
+  </si>
+  <si>
+    <t>patt</t>
+  </si>
+  <si>
+    <t>pspeed</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>얼음방어막</t>
+  </si>
+  <si>
+    <t>얼음빠따</t>
+  </si>
+  <si>
+    <t>소용돌이</t>
+  </si>
+  <si>
+    <t>얼음파동</t>
+  </si>
+  <si>
+    <t>무적</t>
+  </si>
+  <si>
+    <t>산탄</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>keep_increase</t>
+  </si>
+  <si>
+    <t>obstaacle</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>continuee</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">u9VGjry1BESzo46bAmXOQg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HJCxWuQGLEyzxZkpf/s7+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejPA7ZZvkKW83lA1QUQCQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1BTnZfB2kWbObm+5JLgSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iYqYA2TFhU6d36X/SwpGHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wXhpxA4yqEW1NBNV40y6rA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lnrq0Qp3nEu1QeUh1ApxEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEnZnNX24kWluYtm4cqJfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UwutR9kZ3EixiomFUKMhTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnqtLH8SiUq5SfVK11iPqA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA5d+nQZzEWyxoNuhU+Naw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tq+CR0pBE0CX5vqWS90PAw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJG8FHa00aP7U66nf0Aqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K+N6+YPVECfus1pPsfuXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be8bZ1lxC0+P00Vb0G3asQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hQT4FoA9pke18i999uPtaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
+    <t>u9VGjry1BESzo46bAmXOQg</t>
+  </si>
+  <si>
+    <t>HJCxWuQGLEyzxZkpf/s7+Q</t>
+  </si>
+  <si>
+    <t>dejPA7ZZvkKW83lA1QUQCQ</t>
+  </si>
+  <si>
+    <t>K1BTnZfB2kWbObm+5JLgSQ</t>
+  </si>
+  <si>
+    <t>iYqYA2TFhU6d36X/SwpGHA</t>
+  </si>
+  <si>
+    <t>wXhpxA4yqEW1NBNV40y6rA</t>
+  </si>
+  <si>
+    <t>Lnrq0Qp3nEu1QeUh1ApxEA</t>
+  </si>
+  <si>
+    <t>FEnZnNX24kWluYtm4cqJfg</t>
+  </si>
+  <si>
+    <t>UwutR9kZ3EixiomFUKMhTg</t>
+  </si>
+  <si>
+    <t>tnqtLH8SiUq5SfVK11iPqA</t>
+  </si>
+  <si>
+    <t>SA5d+nQZzEWyxoNuhU+Naw</t>
+  </si>
+  <si>
+    <t>Tq+CR0pBE0CX5vqWS90PAw</t>
+  </si>
+  <si>
+    <t>TAJG8FHa00aP7U66nf0Aqw</t>
+  </si>
+  <si>
+    <t>4K+N6+YPVECfus1pPsfuXQ</t>
+  </si>
+  <si>
+    <t>be8bZ1lxC0+P00Vb0G3asQ</t>
+  </si>
+  <si>
+    <t>hQT4FoA9pke18i999uPtaw</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>conditionA</t>
+  </si>
+  <si>
+    <t>conditionB</t>
+  </si>
+  <si>
+    <t>conditionT</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>appear_time</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">S4cO+7g73kSC//RCNr49Eg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5Eog+fJivU2oDVll81v+QQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zNS43tSa4kmhOggLqnp2/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0io+FmkfESkyDRr3Lsivg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_bluefire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_mam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_carb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_deer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map</t>
+    <t>S4cO+7g73kSC//RCNr49Eg</t>
+  </si>
+  <si>
+    <t>5Eog+fJivU2oDVll81v+QQ</t>
+  </si>
+  <si>
+    <t>zNS43tSa4kmhOggLqnp2/A</t>
+  </si>
+  <si>
+    <t>M0io+FmkfESkyDRr3Lsivg</t>
+  </si>
+  <si>
+    <t>mob_fire</t>
+  </si>
+  <si>
+    <t>mob_bok</t>
+  </si>
+  <si>
+    <t>mob_stick</t>
+  </si>
+  <si>
+    <t>mob_turtle</t>
+  </si>
+  <si>
+    <t>mob_ant</t>
+  </si>
+  <si>
+    <t>mob_jack</t>
+  </si>
+  <si>
+    <t>mob_bluefire</t>
+  </si>
+  <si>
+    <t>mob_mam</t>
+  </si>
+  <si>
+    <t>mob_carb</t>
+  </si>
+  <si>
+    <t>mob_deer</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">UqOBjr+LakW9OE61quvEOQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7oP5n9ovXEK+bbIC8iuZMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QEm467P+ck6FXvY1BWI/QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oN7gigvYvkCP1gYaQUFzpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiaNlJj0D02QBXqMTggxXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sizey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowrock3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t>UqOBjr+LakW9OE61quvEOQ</t>
+  </si>
+  <si>
+    <t>7oP5n9ovXEK+bbIC8iuZMA</t>
+  </si>
+  <si>
+    <t>QEm467P+ck6FXvY1BWI/QA</t>
+  </si>
+  <si>
+    <t>oN7gigvYvkCP1gYaQUFzpg</t>
+  </si>
+  <si>
+    <t>xiaNlJj0D02QBXqMTggxXA</t>
+  </si>
+  <si>
+    <t>sizex</t>
+  </si>
+  <si>
+    <t>sizey</t>
+  </si>
+  <si>
+    <t>snowrock0</t>
+  </si>
+  <si>
+    <t>snowrock1</t>
+  </si>
+  <si>
+    <t>snowrock2</t>
+  </si>
+  <si>
+    <t>snowrock3</t>
+  </si>
+  <si>
+    <t>rock0</t>
+  </si>
+  <si>
+    <t>rock1</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>mob_crab</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">utfj/KusT0q9e9ADgg8p9g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3YdoHHnJEmHPLOHPk8tHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lLIxSPJ5jk6H8IhzXjd5Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+r0e9D3k7kuvrrcjW7rTWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N6Ah1yXV/0mnzDRZhUhoew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7q1A0hzTv0e0ZkrUDizxDQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JiEy726Vn0i6qgPI9aQTRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXygPyEDNESF1Uo4kpU9UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D/jPgeJpjkiT0hqDPsmOZw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill1</t>
+    <t>utfj/KusT0q9e9ADgg8p9g</t>
+  </si>
+  <si>
+    <t>f3YdoHHnJEmHPLOHPk8tHA</t>
+  </si>
+  <si>
+    <t>lLIxSPJ5jk6H8IhzXjd5Ag</t>
+  </si>
+  <si>
+    <t>+r0e9D3k7kuvrrcjW7rTWA</t>
+  </si>
+  <si>
+    <t>N6Ah1yXV/0mnzDRZhUhoew</t>
+  </si>
+  <si>
+    <t>7q1A0hzTv0e0ZkrUDizxDQ</t>
+  </si>
+  <si>
+    <t>JiEy726Vn0i6qgPI9aQTRQ</t>
+  </si>
+  <si>
+    <t>OXygPyEDNESF1Uo4kpU9UA</t>
+  </si>
+  <si>
+    <t>D/jPgeJpjkiT0hqDPsmOZw</t>
+  </si>
+  <si>
+    <t>boss_owl</t>
+  </si>
+  <si>
+    <t>skill0</t>
+  </si>
+  <si>
+    <t>skill1</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">W3z0ATuqbkKttkboCpXzTg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9oZ4bAUw3EaaXJyde7jotg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p7Lei6NHm0mU6A3yoCYsjQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w8cURakZekSSKtD9r+3WnA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m4KGirv16U+HZ1CPc/XEAQ</t>
+    <t>W3z0ATuqbkKttkboCpXzTg</t>
+  </si>
+  <si>
+    <t>9oZ4bAUw3EaaXJyde7jotg</t>
+  </si>
+  <si>
+    <t>p7Lei6NHm0mU6A3yoCYsjQ</t>
+  </si>
+  <si>
+    <t>w8cURakZekSSKtD9r+3WnA</t>
+  </si>
+  <si>
+    <t>m4KGirv16U+HZ1CPc/XEAQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">j6havu18FkO2GTlo+CyQyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N5N6gU+ysEqOQbdz1hczog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">552Me0Rk506ghDFAyrQSwA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsxP8eNXM0mKlWitTcpTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osCjoq/EX0WhMYuWNZYtkg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxlvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력재생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿨타임감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시전속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치획득량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회복량</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infomation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력을 얻는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 속도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬의 시전속도를 단축시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경험치 획득량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬크기가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회복량이 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이동속도가 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력을 증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매초 소량의 체력을 회복한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘 뭉친 눈덩이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음주먹으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">단단한 얼음으로 강력한 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뾰족한 얼음이 적을 관통한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반달얼음을 여러갈래로 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 우박이!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빙벽을 생성해 길을 막는다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력이 있는 빙벽을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 몰아쳐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대상에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적에게 닿는 순간 범위피해를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어막을</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 체력의 방어막을 생성한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">근접한 적을 빠따로 떨쳐낸다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일정 시간동안 무적이 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼음 산탄을 발사한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 50% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val</t>
+    <t>j6havu18FkO2GTlo+CyQyg</t>
+  </si>
+  <si>
+    <t>N5N6gU+ysEqOQbdz1hczog</t>
+  </si>
+  <si>
+    <t>552Me0Rk506ghDFAyrQSwA</t>
+  </si>
+  <si>
+    <t>jsxP8eNXM0mKlWitTcpTGA</t>
+  </si>
+  <si>
+    <t>osCjoq/EX0WhMYuWNZYtkg</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>maxlvl</t>
+  </si>
+  <si>
+    <t>max_level</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>방어력</t>
+  </si>
+  <si>
+    <t>체력재생</t>
+  </si>
+  <si>
+    <t>쿨타임감소</t>
+  </si>
+  <si>
+    <t>스킬크기</t>
+  </si>
+  <si>
+    <t>시전속도</t>
+  </si>
+  <si>
+    <t>경험치</t>
+  </si>
+  <si>
+    <t>경험치획득량</t>
+  </si>
+  <si>
+    <t>회복량</t>
+  </si>
+  <si>
+    <t>이동속도</t>
+  </si>
+  <si>
+    <t>infomation</t>
+  </si>
+  <si>
+    <t>최대체력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가시킨다.</t>
+  </si>
+  <si>
+    <t>방어력을 얻는다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복시킨다.</t>
+  </si>
+  <si>
+    <t>스킬의 속도</t>
+  </si>
+  <si>
+    <t>스킬의 시전속도를 단축시킨다.</t>
+  </si>
+  <si>
+    <t>경험치 획득량이 증가한다.</t>
+  </si>
+  <si>
+    <t>스킬크기가 증가한다.</t>
+  </si>
+  <si>
+    <t>모든 회복량이 증가한다.</t>
+  </si>
+  <si>
+    <t>이동속도가 증가한다.</t>
+  </si>
+  <si>
+    <t>최대체력을 증가한다.</t>
+  </si>
+  <si>
+    <t>공격력을 증가한다.</t>
+  </si>
+  <si>
+    <t>매초 소량의 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>잘뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>잘 뭉친 눈덩이</t>
+  </si>
+  <si>
+    <t>얼음주먹으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>단단한 얼음으로 강력한 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>뾰족한 얼음이 적을 관통한다.</t>
+  </si>
+  <si>
+    <t>반달얼음을 여러갈래로 발사한다.</t>
+  </si>
+  <si>
+    <t>하늘에서 우박이!</t>
+  </si>
+  <si>
+    <t>빙벽을 생성해 길을 막는다.</t>
+  </si>
+  <si>
+    <t>일정 체력이 있는 빙벽을 생성한다.</t>
+  </si>
+  <si>
+    <t>눈사람주변에 회오리를 만들어 근접한 적에게 지속피해를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 몬스터에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>블리자드를 몰아쳐</t>
+  </si>
+  <si>
+    <t>블리자드를 불러와 적의 속도를 늦추고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>순간적으로 맵을 얼리며 주변의 적에게 강력한 피해를 준다.</t>
+  </si>
+  <si>
+    <t>대상에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>적에게 닿는 순간 범위피해를 준다.</t>
+  </si>
+  <si>
+    <t>방어막을</t>
+  </si>
+  <si>
+    <t>일정 체력의 방어막을 생성한다.</t>
+  </si>
+  <si>
+    <t>근접한 적을 빠따로 떨쳐낸다.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>주기적으로 파동을 발산해 적을 밀쳐내고 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>일정 시간동안 무적이 된다.</t>
+  </si>
+  <si>
+    <t>얼음 산탄을 발사한다.</t>
+  </si>
+  <si>
+    <t>체력 50% 증가</t>
+  </si>
+  <si>
+    <t>공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>val</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">7G/uy/d+XUq+hb1idKgcKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhBbNsmDpUOy343k+irhhw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2qdwH+Eqq0qi76gM+HEpSg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dGD2J/13Ak60ubtLOTmU7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hluuyb8xDkq3igjPq3UZrQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lZ58eF6zQEqU7UxPZqxY5g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+fNq81zBhk2AJPDimVASnQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGgTfHjnFUu5Yx8sijXu/Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wfu556tlIkGpgHS1/b8wRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear_term</t>
+    <t>7G/uy/d+XUq+hb1idKgcKw</t>
+  </si>
+  <si>
+    <t>nhBbNsmDpUOy343k+irhhw</t>
+  </si>
+  <si>
+    <t>2qdwH+Eqq0qi76gM+HEpSg</t>
+  </si>
+  <si>
+    <t>dGD2J/13Ak60ubtLOTmU7A</t>
+  </si>
+  <si>
+    <t>hluuyb8xDkq3igjPq3UZrQ</t>
+  </si>
+  <si>
+    <t>lZ58eF6zQEqU7UxPZqxY5g</t>
+  </si>
+  <si>
+    <t>+fNq81zBhk2AJPDimVASnQ</t>
+  </si>
+  <si>
+    <t>GGgTfHjnFUu5Yx8sijXu/Q</t>
+  </si>
+  <si>
+    <t>Wfu556tlIkGpgHS1/b8wRQ</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>appear_term</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">e3ywpdo+tkG3rGFzadDOZQ</t>
+    <t>e3ywpdo+tkG3rGFzadDOZQ</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ou4jSwVOP0WiG5CBsppWRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천둥망치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독병을 던저 광역 지속 피해를 입힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
+    <t>ou4jSwVOP0WiG5CBsppWRA</t>
+  </si>
+  <si>
+    <t>독병</t>
+  </si>
+  <si>
+    <t>천둥망치</t>
+  </si>
+  <si>
+    <t>독병을 던저 광역 지속 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>강력한 데미지를 주는 망치를 적들에게 다단히트!</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">BIr97MzFFEqSkH79ajRcIQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80jHuiqyGkmbPMFYa7j/WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmqeNM7xnEiwpUgalIDKuQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7Zq+FZr4EU2JUSJGYb5l3w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyGjwUuGSU28kZnltbYfyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8EUv2r2Q3Umy56rbAoz3YA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VeBdIaS8+kW7pD5h7TjldA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owl_shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bear_shot</t>
+    <t>BIr97MzFFEqSkH79ajRcIQ</t>
+  </si>
+  <si>
+    <t>80jHuiqyGkmbPMFYa7j/WA</t>
+  </si>
+  <si>
+    <t>SmqeNM7xnEiwpUgalIDKuQ</t>
+  </si>
+  <si>
+    <t>7Zq+FZr4EU2JUSJGYb5l3w</t>
+  </si>
+  <si>
+    <t>nyGjwUuGSU28kZnltbYfyg</t>
+  </si>
+  <si>
+    <t>8EUv2r2Q3Umy56rbAoz3YA</t>
+  </si>
+  <si>
+    <t>VeBdIaS8+kW7pD5h7TjldA</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>fireball</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>owl_shot</t>
+  </si>
+  <si>
+    <t>bear_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">z65T2Hcot0+fcRJxc1V4ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6q3skcv+nUCSzHwhTFtnVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrRaKBXFPkmy/QSsvp6HtQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1sZU2dREyQjNX69/i7XQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">번개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중력장</t>
-  </si>
-  <si>
-    <t xml:space="preserve">친구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아돈빠가돈!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌌드라욘마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쌋드라요마인~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 주기적으로 번개가 친다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_snail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_beetle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_flamingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_dragonfly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_candle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_rino</t>
+    <t>z65T2Hcot0+fcRJxc1V4ZA</t>
+  </si>
+  <si>
+    <t>6q3skcv+nUCSzHwhTFtnVw</t>
+  </si>
+  <si>
+    <t>jrRaKBXFPkmy/QSsvp6HtQ</t>
+  </si>
+  <si>
+    <t>hc1sZU2dREyQjNX69/i7XQ</t>
+  </si>
+  <si>
+    <t>번개</t>
+  </si>
+  <si>
+    <t>지뢰</t>
+  </si>
+  <si>
+    <t>중력장</t>
+  </si>
+  <si>
+    <t>친구</t>
+  </si>
+  <si>
+    <t>적을 얼려버리는 쫄따구 펫과 함께 싸운다.</t>
+  </si>
+  <si>
+    <t>아돈빠가돈!</t>
+  </si>
+  <si>
+    <t>쌌드라욘마인~</t>
+  </si>
+  <si>
+    <t>쌋드라요마인~</t>
+  </si>
+  <si>
+    <t>하늘에서 주기적으로 번개가 친다.</t>
+  </si>
+  <si>
+    <t>mob_snail</t>
+  </si>
+  <si>
+    <t>mob_beetle</t>
+  </si>
+  <si>
+    <t>mob_monkey</t>
+  </si>
+  <si>
+    <t>mob_flamingo</t>
+  </si>
+  <si>
+    <t>mob_dragonfly</t>
+  </si>
+  <si>
+    <t>mob_candle</t>
+  </si>
+  <si>
+    <t>mob_rino</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ovShOG9vz0qBynU3N7A27A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xL7qVxJe9kysLVTIKmzuuA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUdRpRMhK0G1XmYAGm6uEw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cMp9+kAl8UGgcTM+7tuyXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP9AY1x9sUa2WAweqi0Hyg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z72/TXkgfEOAI1RcEnbf9w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ZQSDtiDc0+ujLraF9ULlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zBnDreY2EUyIgqqT0I1oCg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwv52fG5a0uz2w+Mw1X1EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80qA8yn0HkK7i+4isj1VAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO77fenG+EGDXqDfjx0GwQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bwGMcqR0B0uFKpIP/arGGw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXMW6jdsDkqbQDiagvTvAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_scarecrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scarecrow_shot</t>
+    <t>ovShOG9vz0qBynU3N7A27A</t>
+  </si>
+  <si>
+    <t>xL7qVxJe9kysLVTIKmzuuA</t>
+  </si>
+  <si>
+    <t>TUdRpRMhK0G1XmYAGm6uEw</t>
+  </si>
+  <si>
+    <t>cMp9+kAl8UGgcTM+7tuyXA</t>
+  </si>
+  <si>
+    <t>JP9AY1x9sUa2WAweqi0Hyg</t>
+  </si>
+  <si>
+    <t>z72/TXkgfEOAI1RcEnbf9w</t>
+  </si>
+  <si>
+    <t>6ZQSDtiDc0+ujLraF9ULlw</t>
+  </si>
+  <si>
+    <t>zBnDreY2EUyIgqqT0I1oCg</t>
+  </si>
+  <si>
+    <t>Zwv52fG5a0uz2w+Mw1X1EA</t>
+  </si>
+  <si>
+    <t>80qA8yn0HkK7i+4isj1VAA</t>
+  </si>
+  <si>
+    <t>MO77fenG+EGDXqDfjx0GwQ</t>
+  </si>
+  <si>
+    <t>bwGMcqR0B0uFKpIP/arGGw</t>
+  </si>
+  <si>
+    <t>XXMW6jdsDkqbQDiagvTvAA</t>
+  </si>
+  <si>
+    <t>boss_scarecrow</t>
+  </si>
+  <si>
+    <t>scarecrow_shot</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">Og45GfRUM0CqJQUz3H+9AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vVPBgEN7WUi/lGlzyJ5/Qg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬롯증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유물 장착 슬롯 증가</t>
+    <t>Og45GfRUM0CqJQUz3H+9AA</t>
+  </si>
+  <si>
+    <t>vVPBgEN7WUi/lGlzyJ5/Qg</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>슬롯</t>
+  </si>
+  <si>
+    <t>슬롯증가</t>
+  </si>
+  <si>
+    <t>유물 장착 슬롯 증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">DUqi+8ckB0qblBzm6KlcNg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP592CHEkEqaCW4o+WCZNw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Ym7RLkBgUCA9I+gVXisAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_bigbettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdsl2jzhtU6rPAELOI8Tbw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PtYsPmNIh06wyUfSH4KX0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EG4vgTgYUO8MktQYh1lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">풀사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귤사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전구사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야수사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로봇사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뱀파이어사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스크림사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">황금갑옷사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거미사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
+    <t>DUqi+8ckB0qblBzm6KlcNg</t>
+  </si>
+  <si>
+    <t>OP592CHEkEqaCW4o+WCZNw</t>
+  </si>
+  <si>
+    <t>boss_flower</t>
+  </si>
+  <si>
+    <t>1Ym7RLkBgUCA9I+gVXisAQ</t>
+  </si>
+  <si>
+    <t>boss_bigbettle</t>
+  </si>
+  <si>
+    <t>kdsl2jzhtU6rPAELOI8Tbw</t>
+  </si>
+  <si>
+    <t>flower_thorn</t>
+  </si>
+  <si>
+    <t>PtYsPmNIh06wyUfSH4KX0w</t>
+  </si>
+  <si>
+    <t>flower_mine</t>
+  </si>
+  <si>
+    <t>1EG4vgTgYUO8MktQYh1lag</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>skinname</t>
+  </si>
+  <si>
+    <t>눈사람</t>
+  </si>
+  <si>
+    <t>불사람</t>
+  </si>
+  <si>
+    <t>풀사람</t>
+  </si>
+  <si>
+    <t>돌사람</t>
+  </si>
+  <si>
+    <t>귤사람</t>
+  </si>
+  <si>
+    <t>전구사람</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>야수사람</t>
+  </si>
+  <si>
+    <t>로봇사람</t>
+  </si>
+  <si>
+    <t>뱀파이어사람</t>
+  </si>
+  <si>
+    <t>아이스크림사람</t>
+  </si>
+  <si>
+    <t>천사사람</t>
+  </si>
+  <si>
+    <t>황금갑옷사람</t>
+  </si>
+  <si>
+    <t>네모사람</t>
+  </si>
+  <si>
+    <t>지뢰사람</t>
+  </si>
+  <si>
+    <t>거미사람</t>
+  </si>
+  <si>
+    <t>용사사람</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>type0</t>
+  </si>
+  <si>
+    <t>val0</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">gLnjGlJPQUGceqv9MtI+jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bDmF5v4opUOLjBB580DUog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j4aRpfkhWUCwpugwL7yhOw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v6FaRzn/yUS4jftoTtNfsw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nMhXnyt3XUWslXDy/Eccmw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5CW4lEGYZEqJ8sFOtlJVVw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a+XFhtKj2Em7xW1tms05Zw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oJlQTylhPUGaWX/Zndg2HQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZDD/hjzPHU+kTQf39Dvtnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tY/x47zy/U+9d/dQf4L+Xg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kUpxVrSyPke7VlIQ+ty+ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e+gqMj+a0kePNLaic882PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVpFmf14gE+JTvE5tq+oTw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bBCBYzcq5kaQf7V57bsU5Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV8CtlguXEufFOcfSPnFWw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LmBUHti4IU6ufw+5njPwTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fval0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_hpgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSwamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iceHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frozen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invincible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criticDmg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unch_explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">겨울에 만들어진 눈사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈대신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머리의 전구로 어둠을 밝힌다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 4개증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적 발동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄한정 체력재생량 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 돌을 던진다.\\n체력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잃은 체력 1%당 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늪지 무효\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름한정 공격력 a% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
+    <t>gLnjGlJPQUGceqv9MtI+jg</t>
+  </si>
+  <si>
+    <t>bDmF5v4opUOLjBB580DUog</t>
+  </si>
+  <si>
+    <t>j4aRpfkhWUCwpugwL7yhOw</t>
+  </si>
+  <si>
+    <t>v6FaRzn/yUS4jftoTtNfsw</t>
+  </si>
+  <si>
+    <t>nMhXnyt3XUWslXDy/Eccmw</t>
+  </si>
+  <si>
+    <t>5CW4lEGYZEqJ8sFOtlJVVw</t>
+  </si>
+  <si>
+    <t>a+XFhtKj2Em7xW1tms05Zw</t>
+  </si>
+  <si>
+    <t>oJlQTylhPUGaWX/Zndg2HQ</t>
+  </si>
+  <si>
+    <t>ZDD/hjzPHU+kTQf39Dvtnw</t>
+  </si>
+  <si>
+    <t>tY/x47zy/U+9d/dQf4L+Xg</t>
+  </si>
+  <si>
+    <t>kUpxVrSyPke7VlIQ+ty+ng</t>
+  </si>
+  <si>
+    <t>e+gqMj+a0kePNLaic882PA</t>
+  </si>
+  <si>
+    <t>PVpFmf14gE+JTvE5tq+oTw</t>
+  </si>
+  <si>
+    <t>bBCBYzcq5kaQf7V57bsU5Q</t>
+  </si>
+  <si>
+    <t>NV8CtlguXEufFOcfSPnFWw</t>
+  </si>
+  <si>
+    <t>LmBUHti4IU6ufw+5njPwTQ</t>
+  </si>
+  <si>
+    <t>typeB</t>
+  </si>
+  <si>
+    <t>typeF</t>
+  </si>
+  <si>
+    <t>Fval</t>
+  </si>
+  <si>
+    <t>typeI</t>
+  </si>
+  <si>
+    <t>Ival</t>
+  </si>
+  <si>
+    <t>snowball</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Fval1</t>
+  </si>
+  <si>
+    <t>Fval0</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>d_hp</t>
+  </si>
+  <si>
+    <t>d_hpgen</t>
+  </si>
+  <si>
+    <t>d_def</t>
+  </si>
+  <si>
+    <t>d_att</t>
+  </si>
+  <si>
+    <t>d_cool</t>
+  </si>
+  <si>
+    <t>d_exp</t>
+  </si>
+  <si>
+    <t>d_coin</t>
+  </si>
+  <si>
+    <t>a_hp</t>
+  </si>
+  <si>
+    <t>ex_hp</t>
+  </si>
+  <si>
+    <t>ex_hpgen</t>
+  </si>
+  <si>
+    <t>ex_def</t>
+  </si>
+  <si>
+    <t>ex_att</t>
+  </si>
+  <si>
+    <t>ex_cool</t>
+  </si>
+  <si>
+    <t>ex_exp</t>
+  </si>
+  <si>
+    <t>ex_coin</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>invSwamp</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>rebirth</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>iceHeal</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>invincible</t>
+  </si>
+  <si>
+    <t>d_speed</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>criticDmg</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>ch_explain</t>
+  </si>
+  <si>
+    <t>unch_explain</t>
+  </si>
+  <si>
+    <t>겨울에 만들어진 눈사람</t>
+  </si>
+  <si>
+    <t>여름한정</t>
+  </si>
+  <si>
+    <t>눈대신</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.</t>
+  </si>
+  <si>
+    <t>머리의 전구로 어둠을 밝힌다.</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 4개증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 n% 회복</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n%증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 n% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 n% 증</t>
+  </si>
+  <si>
+    <t>무적 발동</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 공격력과 방어력이 2배가 된다.</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 n%증가\\n공격력 n%증가\\n방어력 n%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 n%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 n%증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 n%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n()</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 n%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 n% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 n% 증가</t>
+  </si>
+  <si>
+    <t>봄한정 체력재생량 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 돌을 던진다.\\n체력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈 대신 귤을 던진다.\\n겨울한정 코인획득량 a% 증</t>
+  </si>
+  <si>
+    <t>잃은 체력 1%당 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>지뢰 개수 +4\\n지뢰 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>늪지 무효\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이가 빙결 적용\\n블리자드,아이스에이지 발동시 체력 a% 회복</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 n초간 무적상태가 된다.\\n방어력 a% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 a% 증가</t>
+  </si>
+  <si>
+    <t>네모난 눈을 던진다.\\n30%의 확률로 a%의 추가데미지를 준다.</t>
+  </si>
+  <si>
+    <t>추가로 달린 다리로 눈덩이를 더 많이 던진다.\\n눈덩이 공격력 a%증가</t>
+  </si>
+  <si>
+    <t>눈덩이로 준 피해의 a%만큼 체력을 회복한다. 공격력 10% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 a%증가\\n방어력 a%증가</t>
+  </si>
+  <si>
+    <t>여름한정 공격력 a% 증가</t>
+  </si>
+  <si>
+    <t>30초에 한번씩 a초간 무적상태가 된다.\\n방어력 b% 증가</t>
+  </si>
+  <si>
+    <t>눈사람이 죽을때 최대체력의 a%로 부활한다.\\n(유적과 버프는 사라진다.)\\n이동속도 b% 증가</t>
+  </si>
+  <si>
+    <t>용사의 검을 찾으면 일시적으로 공격력과 방어력이 2배가 된다.\\n체력 a%증가\\n공격력 b%증가\\n방어력 c%증가</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">ERzaZOy2RkmFqdq+1HEN0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invSlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scare_fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss_butterfly</t>
+    <t>ERzaZOy2RkmFqdq+1HEN0w</t>
+  </si>
+  <si>
+    <t>invSlow</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>scare_fire</t>
+  </si>
+  <si>
+    <t>boss_butterfly</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">WfxNB+MGn06c0Mxh9qi6TQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_bgPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfly_smPoison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=boss!G6</t>
+    <t>WfxNB+MGn06c0Mxh9qi6TQ</t>
+  </si>
+  <si>
+    <t>bfly_bgPoison</t>
+  </si>
+  <si>
+    <t>bfly_smPoison</t>
+  </si>
+  <si>
+    <t>=boss!G6</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">H2iGbbqnQ0OIrx3EtElI8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2lgjDXLyUStHASDlJTf+Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봄까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여름까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가을까지 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1년 버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">버티기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하루</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1마리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강화1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">특정스킨으로 1회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광고 1회</t>
+    <t>H2iGbbqnQ0OIrx3EtElI8g</t>
+  </si>
+  <si>
+    <t>D2lgjDXLyUStHASDlJTf+Q</t>
+  </si>
+  <si>
+    <t>questName</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>봄까지 버티기</t>
+  </si>
+  <si>
+    <t>여름까지 버티기</t>
+  </si>
+  <si>
+    <t>가을까지 버티기</t>
+  </si>
+  <si>
+    <t>1년 버티기</t>
+  </si>
+  <si>
+    <t>버티기</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>하루</t>
+  </si>
+  <si>
+    <t>1마리</t>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>10번</t>
+  </si>
+  <si>
+    <t>questType</t>
+  </si>
+  <si>
+    <t>강화1회</t>
+  </si>
+  <si>
+    <t>특정스킨으로 1회</t>
+  </si>
+  <si>
+    <t>광고 1회</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">oMhQHIWj/EC8ngg9JcK0OA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn3M8GN9A0S40ubcMn7hgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYLWhSg54UWwAGA4uBn3KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2vw6eVoubE2FX4RhcWa2Gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2hLdUHeKEOMFjkn8uKZ1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YnmthZe2OUS0F2IvwXzx/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0aZgm2DJLU6UAd3Lphp+qw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jc5TTOZymkyTL+nsgg7Cww</t>
+    <t>oMhQHIWj/EC8ngg9JcK0OA</t>
+  </si>
+  <si>
+    <t>tn3M8GN9A0S40ubcMn7hgA</t>
+  </si>
+  <si>
+    <t>FYLWhSg54UWwAGA4uBn3KA</t>
+  </si>
+  <si>
+    <t>2vw6eVoubE2FX4RhcWa2Gw</t>
+  </si>
+  <si>
+    <t>I2hLdUHeKEOMFjkn8uKZ1Q</t>
+  </si>
+  <si>
+    <t>YnmthZe2OUS0F2IvwXzx/w</t>
+  </si>
+  <si>
+    <t>0aZgm2DJLU6UAd3Lphp+qw</t>
+  </si>
+  <si>
+    <t>Jc5TTOZymkyTL+nsgg7Cww</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">hZ5zXDn9pEau0jHAGnXPSw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPQJ3pXzQ0+JXwy8wQ4dIg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gh9WTIDO102/V9jEpX7Hug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47GYdDEOAUSm0AH87BJJjg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ObWi0F4A6U2Tf76nPoOcfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hq6MdF1mHECN16RcyqBTtw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kSYQdp7c7UGfSpse9ezboQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApPa6gHqNEGEi/VRoSCArg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2iQCymteB02RoDlUQLkYjw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bh+K4BC8KESXkMcgOi2iSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f0mQNjS7ESDJEecRxc4ig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gQ8tV6Qyo0i87zD5bsPQMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vf2Vz4Dykk2UAywywrIc7g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ByLRWNnYUe3Sy+PYVgV2g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vTygID9He0yuztzCQ6n+rQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL/xgk/tTU+/YwFGlDT1Jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_rein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fireman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grassman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrusman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulbman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sildman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mineman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robotman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icecreamman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goldenarmorman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angelman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">squareman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spiderman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vampireman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heroman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wildman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pricetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"TRUE"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addgem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disposable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week.SkinKeyList.snowman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week.SkinKeyList.wildman</t>
+    <t>hZ5zXDn9pEau0jHAGnXPSw</t>
+  </si>
+  <si>
+    <t>WPQJ3pXzQ0+JXwy8wQ4dIg</t>
+  </si>
+  <si>
+    <t>Gh9WTIDO102/V9jEpX7Hug</t>
+  </si>
+  <si>
+    <t>47GYdDEOAUSm0AH87BJJjg</t>
+  </si>
+  <si>
+    <t>ObWi0F4A6U2Tf76nPoOcfg</t>
+  </si>
+  <si>
+    <t>hq6MdF1mHECN16RcyqBTtw</t>
+  </si>
+  <si>
+    <t>kSYQdp7c7UGfSpse9ezboQ</t>
+  </si>
+  <si>
+    <t>ApPa6gHqNEGEi/VRoSCArg</t>
+  </si>
+  <si>
+    <t>2iQCymteB02RoDlUQLkYjw</t>
+  </si>
+  <si>
+    <t>Bh+K4BC8KESXkMcgOi2iSA</t>
+  </si>
+  <si>
+    <t>0f0mQNjS7ESDJEecRxc4ig</t>
+  </si>
+  <si>
+    <t>gQ8tV6Qyo0i87zD5bsPQMw</t>
+  </si>
+  <si>
+    <t>vf2Vz4Dykk2UAywywrIc7g</t>
+  </si>
+  <si>
+    <t>1ByLRWNnYUe3Sy+PYVgV2g</t>
+  </si>
+  <si>
+    <t>vTygID9He0yuztzCQ6n+rQ</t>
+  </si>
+  <si>
+    <t>DL/xgk/tTU+/YwFGlDT1Jg</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>day_rein</t>
+  </si>
+  <si>
+    <t>day_skin</t>
+  </si>
+  <si>
+    <t>day_ad</t>
+  </si>
+  <si>
+    <t>rein</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>snowman</t>
+  </si>
+  <si>
+    <t>fireman</t>
+  </si>
+  <si>
+    <t>grassman</t>
+  </si>
+  <si>
+    <t>rockman</t>
+  </si>
+  <si>
+    <t>citrusman</t>
+  </si>
+  <si>
+    <t>bulbman</t>
+  </si>
+  <si>
+    <t>sildman</t>
+  </si>
+  <si>
+    <t>minman</t>
+  </si>
+  <si>
+    <t>mineman</t>
+  </si>
+  <si>
+    <t>robotman</t>
+  </si>
+  <si>
+    <t>icecreamman</t>
+  </si>
+  <si>
+    <t>goldenarmorman</t>
+  </si>
+  <si>
+    <t>angelman</t>
+  </si>
+  <si>
+    <t>squareman</t>
+  </si>
+  <si>
+    <t>spiderman</t>
+  </si>
+  <si>
+    <t>vampireman</t>
+  </si>
+  <si>
+    <t>heroman</t>
+  </si>
+  <si>
+    <t>wildman</t>
+  </si>
+  <si>
+    <t>removead</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>startpack</t>
+  </si>
+  <si>
+    <t>skinpack</t>
+  </si>
+  <si>
+    <t>s_gem</t>
+  </si>
+  <si>
+    <t>m_gem</t>
+  </si>
+  <si>
+    <t>l_gem</t>
+  </si>
+  <si>
+    <t>s_ap</t>
+  </si>
+  <si>
+    <t>m_ap</t>
+  </si>
+  <si>
+    <t>l_ap</t>
+  </si>
+  <si>
+    <t>s_coin</t>
+  </si>
+  <si>
+    <t>m_coin</t>
+  </si>
+  <si>
+    <t>l_coin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>pricetype</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>"TRUE"</t>
+  </si>
+  <si>
+    <t>addgem</t>
+  </si>
+  <si>
+    <t>addap</t>
+  </si>
+  <si>
+    <t>addcoin</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>disposable</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>week.SkinKeyList.snowman</t>
+  </si>
+  <si>
+    <t>week.SkinKeyList.wildman</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">AhU2MfudO0CGPbfKA54soA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tH4X0ump3kSX06VVmzjtXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmkaGTYqRk+2dh4mPkWulQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WwogyFh130C5mFAy8k6MHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaJPrmZ45kuWH9lQrH8p6Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yED9p/FikECrm65TUyi/EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t5tSnH8OgUSB2kns/WaF+g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EfyDxZLgWE+1haiTVUlDdw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nM0KYyjX7kuBMBq+PAXWug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50BoMynjRU+ipwyssM0S9Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba5dgtxUQEaALH9CV4fuyA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gIGbxsQTUU+Vm9130mXL8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1IMHKQ0hUeFsw2XyxQiZw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sprite\store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sprite\store\adRemove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/adRemove.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/adRemove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/10perCoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/startPack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/skinPack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/ap_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/coin_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additrate</t>
+    <t>AhU2MfudO0CGPbfKA54soA</t>
+  </si>
+  <si>
+    <t>tH4X0ump3kSX06VVmzjtXQ</t>
+  </si>
+  <si>
+    <t>jmkaGTYqRk+2dh4mPkWulQ</t>
+  </si>
+  <si>
+    <t>WwogyFh130C5mFAy8k6MHQ</t>
+  </si>
+  <si>
+    <t>IaJPrmZ45kuWH9lQrH8p6Q</t>
+  </si>
+  <si>
+    <t>yED9p/FikECrm65TUyi/EA</t>
+  </si>
+  <si>
+    <t>t5tSnH8OgUSB2kns/WaF+g</t>
+  </si>
+  <si>
+    <t>EfyDxZLgWE+1haiTVUlDdw</t>
+  </si>
+  <si>
+    <t>nM0KYyjX7kuBMBq+PAXWug</t>
+  </si>
+  <si>
+    <t>50BoMynjRU+ipwyssM0S9Q</t>
+  </si>
+  <si>
+    <t>ba5dgtxUQEaALH9CV4fuyA</t>
+  </si>
+  <si>
+    <t>gIGbxsQTUU+Vm9130mXL8g</t>
+  </si>
+  <si>
+    <t>B1IMHKQ0hUeFsw2XyxQiZw</t>
+  </si>
+  <si>
+    <t>\sprite\store</t>
+  </si>
+  <si>
+    <t>\sprite\store\adRemove</t>
+  </si>
+  <si>
+    <t>/sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t>sprite/store/adRemove.png</t>
+  </si>
+  <si>
+    <t>sprite/store/adRemove</t>
+  </si>
+  <si>
+    <t>sprite/store/</t>
+  </si>
+  <si>
+    <t>sprite/store/10perCoin</t>
+  </si>
+  <si>
+    <t>sprite/store/startPack</t>
+  </si>
+  <si>
+    <t>sprite/store/skinPack</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_s</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_s</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_s</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_m</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_m</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_m</t>
+  </si>
+  <si>
+    <t>sprite/store/gem_l</t>
+  </si>
+  <si>
+    <t>sprite/store/ap_l</t>
+  </si>
+  <si>
+    <t>sprite/store/coin_l</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>costTerm</t>
+  </si>
+  <si>
+    <t>additrate</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">uc2VpP69vUe9OToar7DB6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJXO0HWdZECTA1Z9YVIlJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J03Iq+Jll0Srpx/p60dHlg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wildskinpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonus_10_0</t>
+    <t>uc2VpP69vUe9OToar7DB6A</t>
+  </si>
+  <si>
+    <t>BJXO0HWdZECTA1Z9YVIlJA</t>
+  </si>
+  <si>
+    <t>J03Iq+Jll0Srpx/p60dHlg</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>wildskinpack</t>
+  </si>
+  <si>
+    <t>bonus_10_0</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">j+6ETQsMAEuxWX0bQIZExw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최대체력이  증가한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miniset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icecreamset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/miniSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/icecreamSet</t>
+    <t>j+6ETQsMAEuxWX0bQIZExw</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>최대체력이  증가한다.</t>
+  </si>
+  <si>
+    <t>miniset</t>
+  </si>
+  <si>
+    <t>icecreamset</t>
+  </si>
+  <si>
+    <t>sprite/store/miniSet</t>
+  </si>
+  <si>
+    <t>sprite/store/icecreamSet</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">Czi9AqbNvk+ucInkWG6KKw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe/y+udAX0mbRgwwsN331Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaJPrmZ45kuWH9lQrH8p5Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad_gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/gem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presentman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">산타사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">선물사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용사람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goldman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/santaSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">선물</t>
-  </si>
-  <si>
-    <t xml:space="preserve">선물뿌리기</t>
+    <t>Czi9AqbNvk+ucInkWG6KKw</t>
+  </si>
+  <si>
+    <t>pe/y+udAX0mbRgwwsN331Q</t>
+  </si>
+  <si>
+    <t>IaJPrmZ45kuWH9lQrH8p5Q</t>
+  </si>
+  <si>
+    <t>ad_gem</t>
+  </si>
+  <si>
+    <t>sprite/store/gem</t>
+  </si>
+  <si>
+    <t>santaman</t>
+  </si>
+  <si>
+    <t>presentman</t>
+  </si>
+  <si>
+    <t>산타사람</t>
+  </si>
+  <si>
+    <t>선물사람</t>
+  </si>
+  <si>
+    <t>dragonman</t>
+  </si>
+  <si>
+    <t>용사람</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>goldman</t>
+  </si>
+  <si>
+    <t>sprite/store/santaSet</t>
+  </si>
+  <si>
+    <t>선물</t>
+  </si>
+  <si>
+    <t>선물뿌리기</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">jkwFWNN2yEWAocUAoVEssA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAgMfg+D+U2zjSmpSHucaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ZjY4Ho2gEeYqX0RiR01IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBlIyuS5ZEui0USjX94EhA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santaset</t>
+    <t>jkwFWNN2yEWAocUAoVEssA</t>
+  </si>
+  <si>
+    <t>HAgMfg+D+U2zjSmpSHucaw</t>
+  </si>
+  <si>
+    <t>4ZjY4Ho2gEeYqX0RiR01IQ</t>
+  </si>
+  <si>
+    <t>RBlIyuS5ZEui0USjX94EhA</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>santaset</t>
   </si>
   <si/>
   <si>
-    <t xml:space="preserve">0CB7kpm3vk+j3HITZ/JUeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonus_3_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprite/store/3perCoin</t>
+    <t>0CB7kpm3vk+j3HITZ/JUeg</t>
+  </si>
+  <si>
+    <t>bonus_3_0</t>
+  </si>
+  <si>
+    <t>sprite/store/3perCoin</t>
   </si>
 </sst>
 </file>
@@ -2109,148 +2110,148 @@
   </numFmts>
   <fonts count="27">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.79998"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
+      <color theme="7" tint="0.799980"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="1"/>
+      <sz val="1.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF8080"/>
-      <name val="맑은 고딕"/>
     </font>
   </fonts>
   <fills count="47">
@@ -2313,19 +2314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
+        <fgColor theme="4" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
+        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
+        <fgColor theme="4" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2337,19 +2338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
+        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999"/>
+        <fgColor theme="5" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
+        <fgColor theme="5" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2361,19 +2362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
+        <fgColor theme="6" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
+        <fgColor theme="6" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
+        <fgColor theme="6" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2385,19 +2386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
+        <fgColor theme="7" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
+        <fgColor theme="7" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
+        <fgColor theme="7" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2409,19 +2410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
+        <fgColor theme="8" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999"/>
+        <fgColor theme="8" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
+        <fgColor theme="8" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2433,19 +2434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
+        <fgColor theme="9" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
+        <fgColor theme="9" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
+        <fgColor theme="9" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2463,13 +2464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09998"/>
+        <fgColor theme="2" tint="-0.099980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.150000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2487,7 +2488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34999"/>
+        <fgColor theme="0" tint="-0.349990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2619,7 +2620,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39998"/>
+        <color theme="4" tint="0.399980"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3550,159 +3551,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="332">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3711,7 +3712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3723,37 +3724,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3762,37 +3763,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3804,55 +3805,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3864,76 +3865,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3942,103 +3943,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4050,31 +4051,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4083,106 +4084,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4215,40 +4216,40 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4269,16 +4270,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4287,13 +4288,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4305,7 +4306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4317,13 +4318,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4332,61 +4333,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4398,46 +4399,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="68" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="71" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="72" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="73" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="75" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="76" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4449,16 +4450,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="70" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4467,232 +4468,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="68" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="69" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="79" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="70" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="68" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="70" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="60" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="61" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="59" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="65" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="66" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="37" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="35" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="65" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="65" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="34" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4750,1239 +4751,1239 @@
   <dxfs count="106">
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF006FBE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFCDFFE4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFE080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF73E5A7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFF8080"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FF8C8C8C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
+        <sz val="1.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF9C0006"/>
-        <name val="맑은 고딕"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="1"/>
-        <color rgb="FF000000"/>
+        <sz val="1.0"/>
         <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
   </dxfs>
@@ -6258,24 +6259,24 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.62999916" customWidth="1"/>
-    <col min="2" max="2" width="6.25500011" customWidth="1"/>
-    <col min="3" max="3" width="13.00500011" customWidth="1"/>
-    <col min="4" max="4" width="10.63000011" customWidth="1"/>
-    <col min="5" max="5" width="56.50500107" customWidth="1"/>
-    <col min="6" max="6" width="70.50499725" customWidth="1"/>
-    <col min="7" max="7" width="7.88000011" customWidth="1"/>
-    <col min="8" max="8" width="6.38000011" customWidth="1"/>
-    <col min="9" max="9" width="11.50500011" customWidth="1"/>
-    <col min="10" max="10" width="6.00500011" customWidth="1"/>
-    <col min="11" max="11" width="12.75500011" customWidth="1"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1"/>
-    <col min="13" max="13" width="13.75500011" customWidth="1"/>
-    <col min="14" max="14" width="12.50500011" customWidth="1"/>
-    <col min="15" max="15" width="6.38000011" customWidth="1"/>
-    <col min="16" max="18" width="14.38000011" customWidth="1"/>
+    <col min="1" max="1" width="27.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="6.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="13.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="56.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="70.50499725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="7.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="11.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="6.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="6.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="18" width="14.38000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7908,7 +7909,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -7917,23 +7918,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.37999916" customWidth="1"/>
-    <col min="2" max="2" width="16.75499916" customWidth="1"/>
-    <col min="3" max="3" width="15.13000011" customWidth="1"/>
-    <col min="4" max="4" width="7.38000011" customWidth="1"/>
-    <col min="7" max="7" width="9.00500011" customWidth="1"/>
-    <col min="11" max="11" width="9.00500011" customWidth="1"/>
-    <col min="14" max="14" width="9.00500011" style="5" customWidth="1"/>
-    <col min="21" max="21" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="27.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="16.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="7.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="21" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" customHeight="1">
+    <row r="1" spans="1:29" ht="23.250000" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.25">
+    <row r="4" spans="1:29" ht="17.250000">
       <c r="A4" s="283" t="s">
         <v>411</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="17.25">
+    <row r="7" spans="1:29" ht="17.250000">
       <c r="A7" s="271" t="s">
         <v>414</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="17.25">
+    <row r="8" spans="1:29" ht="17.250000">
       <c r="A8" s="305" t="s">
         <v>705</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>15000</v>
       </c>
       <c r="G8" s="305" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="H8" s="306" t="s">
         <v>431</v>
@@ -9446,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="17.25">
+    <row r="18" spans="1:29" ht="17.250000">
       <c r="A18" s="41" t="s">
         <v>424</v>
       </c>
@@ -9624,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="17.25">
+    <row r="20" spans="1:29" ht="17.250000">
       <c r="A20" s="43" t="s">
         <v>707</v>
       </c>
@@ -9715,7 +9716,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -9724,17 +9725,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1"/>
-    <col min="2" max="5" width="12.50500011" customWidth="1"/>
-    <col min="8" max="8" width="9.00500011" customWidth="1"/>
-    <col min="15" max="15" width="13.13000011" customWidth="1"/>
-    <col min="16" max="16" width="24.87999916" customWidth="1"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="5" width="12.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="13.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" width="24.87999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10037,7 +10038,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.25">
+    <row r="7" spans="1:16" ht="17.250000">
       <c r="A7" s="230" t="s">
         <v>689</v>
       </c>
@@ -10087,7 +10088,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17.25">
+    <row r="8" spans="1:16" ht="17.250000">
       <c r="A8" s="32" t="s">
         <v>708</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.25">
+    <row r="17" spans="1:16" ht="17.250000">
       <c r="A17" s="187" t="s">
         <v>647</v>
       </c>
@@ -10589,7 +10590,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -10602,12 +10603,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="27.87999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
-    <col min="4" max="8" width="9.00500011" customWidth="1"/>
-    <col min="9" max="9" width="13.88000011" customWidth="1"/>
+    <col min="1" max="1" width="27.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="13.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11060,7 +11061,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -11073,10 +11074,10 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" customWidth="1"/>
-    <col min="2" max="2" width="14.88000011" customWidth="1"/>
+    <col min="1" max="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="14.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11257,7 +11258,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -11270,11 +11271,11 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.37999916" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.00500011" style="5" customWidth="1"/>
-    <col min="3" max="10" width="10.00500011" style="5" customWidth="1"/>
+    <col min="1" max="1" style="5" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="5" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="10" style="5" width="10.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11505,7 +11506,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -11518,11 +11519,11 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="26.62999916" customWidth="1"/>
-    <col min="2" max="2" width="15.13000011" customWidth="1"/>
-    <col min="5" max="8" width="9.00500011" customWidth="1"/>
+    <col min="1" max="1" width="26.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="8" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11737,7 +11738,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
@@ -11750,12 +11751,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="28.75499916" customWidth="1"/>
-    <col min="3" max="3" width="10.63000011" customWidth="1"/>
-    <col min="4" max="5" width="11.75500011" customWidth="1"/>
-    <col min="7" max="7" width="15.75500011" customWidth="1"/>
+    <col min="1" max="1" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="5" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="15.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11994,7 +11995,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="130"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="150"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1046">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -2945,11 +2945,142 @@
   <si>
     <t xml:space="preserve">눈사람 주변에 선물을 뿌린다.</t>
   </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
+  <si/>
   <si>
     <t xml:space="preserve">lkP/fAYfyUSBlmLuKFDrtQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icespear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icefist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halficicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icedrill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iceknuckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowdart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gigadrill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowbullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icebalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shard</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">6rraR0UTUU+3ugLE15lU6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icespear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icefist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halficicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icedrill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceknuckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowdart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigadrill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recoche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowbullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icebalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrusball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squareball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iceball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowbomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigsnowbomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poisonbomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowbomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigsnowbomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisonbomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈미사일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SnowMissile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독폭탄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoisonBomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowmissile</t>
   </si>
 </sst>
 </file>
@@ -3107,7 +3238,7 @@
       <name val="맑은 고딕"/>
     </font>
   </fonts>
-  <fills count="53">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3417,14 +3548,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="90">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -4553,6 +4678,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
@@ -4703,7 +4852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="522">
+  <cellXfs count="532">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
@@ -6216,27 +6365,24 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="83" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="84" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="84" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="85" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="86" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="87" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="85" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="86" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="87" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6246,28 +6392,61 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="85" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="85" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="86" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="86" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="85" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="85" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="86" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="86" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="87" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="87" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="88" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="89" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="88" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="89" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="83" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="84" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="91" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7827,10 +8006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7842,23 +8021,23 @@
     <col min="5" max="5" width="10.00500011" customWidth="1"/>
     <col min="6" max="6" width="15.25500011" customWidth="1"/>
     <col min="7" max="7" width="13.88000011" customWidth="1"/>
-    <col min="8" max="8" width="17.50499916" customWidth="1"/>
-    <col min="9" max="9" width="84.37999725" customWidth="1"/>
-    <col min="10" max="10" width="33.50500107" customWidth="1"/>
-    <col min="11" max="11" width="7.88000011" customWidth="1"/>
-    <col min="12" max="12" width="5.00500011" customWidth="1"/>
-    <col min="13" max="13" width="12.00500011" customWidth="1"/>
-    <col min="14" max="14" width="6.00500011" customWidth="1"/>
-    <col min="15" max="15" width="13.13000011" customWidth="1"/>
-    <col min="16" max="16" width="5.63000011" customWidth="1"/>
-    <col min="17" max="17" width="13.75500011" customWidth="1"/>
-    <col min="18" max="18" width="12.75500011" customWidth="1"/>
-    <col min="19" max="19" width="6.38000011" customWidth="1"/>
-    <col min="20" max="20" width="14.50500011" customWidth="1"/>
-    <col min="21" max="21" width="6.38000011" customWidth="1"/>
+    <col min="8" max="9" width="17.50499916" customWidth="1"/>
+    <col min="10" max="10" width="63.13000107" customWidth="1"/>
+    <col min="11" max="11" width="33.50500107" customWidth="1"/>
+    <col min="12" max="12" width="7.88000011" customWidth="1"/>
+    <col min="13" max="13" width="5.00500011" customWidth="1"/>
+    <col min="14" max="14" width="12.00500011" customWidth="1"/>
+    <col min="15" max="15" width="6.00500011" customWidth="1"/>
+    <col min="16" max="16" width="13.13000011" customWidth="1"/>
+    <col min="17" max="17" width="5.63000011" customWidth="1"/>
+    <col min="18" max="18" width="13.75500011" customWidth="1"/>
+    <col min="19" max="19" width="12.75500011" customWidth="1"/>
+    <col min="20" max="20" width="6.38000011" customWidth="1"/>
+    <col min="21" max="21" width="14.50500011" customWidth="1"/>
+    <col min="22" max="22" width="6.38000011" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="126" t="s">
         <v>18</v>
       </c>
@@ -7883,47 +8062,50 @@
       <c r="H1" s="54" t="s">
         <v>838</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="154" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J1" s="80" t="s">
         <v>844</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="K1" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>908</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="P1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="R1" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="S1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="T1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="U1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="V1" s="54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="332" t="s">
         <v>910</v>
       </c>
@@ -7948,19 +8130,19 @@
       <c r="H2" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="146" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J2" s="115" t="s">
         <v>845</v>
       </c>
-      <c r="J2" s="494" t="str">
-        <f>"최대체력 "&amp;INT(K2-100)&amp;"% 증가"</f>
+      <c r="K2" s="494" t="str">
+        <f>"최대체력 "&amp;INT(L2-100)&amp;"% 증가"</f>
         <v>최대체력 30% 증가</v>
       </c>
-      <c r="K2" s="476">
+      <c r="L2" s="476">
         <v>130</v>
       </c>
-      <c r="L2" s="446">
-        <v>0</v>
-      </c>
       <c r="M2" s="446">
         <v>0</v>
       </c>
@@ -7985,11 +8167,14 @@
       <c r="T2" s="446">
         <v>0</v>
       </c>
-      <c r="U2" s="447">
+      <c r="U2" s="446">
+        <v>0</v>
+      </c>
+      <c r="V2" s="447">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="333" t="s">
         <v>911</v>
       </c>
@@ -8014,19 +8199,19 @@
       <c r="H3" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I3" s="203" t="s">
+      <c r="I3" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J3" s="203" t="s">
         <v>846</v>
       </c>
-      <c r="J3" s="495" t="str">
-        <f>"공격력 "&amp;INT(K3-100)&amp;"% 증가"</f>
+      <c r="K3" s="495" t="str">
+        <f>"공격력 "&amp;INT(L3-100)&amp;"% 증가"</f>
         <v>공격력 10% 증가</v>
       </c>
-      <c r="K3" s="477">
+      <c r="L3" s="477">
         <v>110</v>
       </c>
-      <c r="L3" s="423">
-        <v>0</v>
-      </c>
       <c r="M3" s="423">
         <v>0</v>
       </c>
@@ -8051,11 +8236,14 @@
       <c r="T3" s="423">
         <v>0</v>
       </c>
-      <c r="U3" s="391">
+      <c r="U3" s="423">
+        <v>0</v>
+      </c>
+      <c r="V3" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="333" t="s">
         <v>912</v>
       </c>
@@ -8080,19 +8268,19 @@
       <c r="H4" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I4" s="203" t="s">
+      <c r="I4" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J4" s="203" t="s">
         <v>847</v>
       </c>
-      <c r="J4" s="495" t="str">
-        <f>"추가 방어력 "&amp;INT(K4-100)&amp;"% 증가"</f>
+      <c r="K4" s="495" t="str">
+        <f>"추가 방어력 "&amp;INT(L4-100)&amp;"% 증가"</f>
         <v>추가 방어력 8% 증가</v>
       </c>
-      <c r="K4" s="477">
+      <c r="L4" s="477">
         <v>108</v>
       </c>
-      <c r="L4" s="423">
-        <v>0</v>
-      </c>
       <c r="M4" s="423">
         <v>0</v>
       </c>
@@ -8117,11 +8305,14 @@
       <c r="T4" s="423">
         <v>0</v>
       </c>
-      <c r="U4" s="391">
+      <c r="U4" s="423">
+        <v>0</v>
+      </c>
+      <c r="V4" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="333" t="s">
         <v>913</v>
       </c>
@@ -8146,19 +8337,19 @@
       <c r="H5" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I5" s="203" t="s">
+      <c r="I5" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J5" s="203" t="s">
         <v>848</v>
       </c>
-      <c r="J5" s="495" t="str">
-        <f>"매초 최대체력의 "&amp;K5&amp;"%를 추가회복"</f>
+      <c r="K5" s="495" t="str">
+        <f>"매초 최대체력의 "&amp;L5&amp;"%를 추가회복"</f>
         <v>매초 최대체력의 0.2%를 추가회복</v>
       </c>
-      <c r="K5" s="477">
+      <c r="L5" s="477">
         <v>0.2</v>
       </c>
-      <c r="L5" s="423">
-        <v>0</v>
-      </c>
       <c r="M5" s="423">
         <v>0</v>
       </c>
@@ -8183,11 +8374,14 @@
       <c r="T5" s="423">
         <v>0</v>
       </c>
-      <c r="U5" s="391">
+      <c r="U5" s="423">
+        <v>0</v>
+      </c>
+      <c r="V5" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="333" t="s">
         <v>914</v>
       </c>
@@ -8212,19 +8406,19 @@
       <c r="H6" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I6" s="203" t="s">
+      <c r="I6" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J6" s="203" t="s">
         <v>849</v>
       </c>
-      <c r="J6" s="495" t="str">
-        <f>"스킬 쿨타임 "&amp;INT(-K6)&amp;"% 감소"</f>
+      <c r="K6" s="495" t="str">
+        <f>"스킬 쿨타임 "&amp;INT(-L6)&amp;"% 감소"</f>
         <v>스킬 쿨타임 3% 감소</v>
       </c>
-      <c r="K6" s="477">
+      <c r="L6" s="477">
         <v>-3</v>
       </c>
-      <c r="L6" s="423">
-        <v>0</v>
-      </c>
       <c r="M6" s="423">
         <v>0</v>
       </c>
@@ -8249,11 +8443,14 @@
       <c r="T6" s="423">
         <v>0</v>
       </c>
-      <c r="U6" s="391">
+      <c r="U6" s="423">
+        <v>0</v>
+      </c>
+      <c r="V6" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="333" t="s">
         <v>915</v>
       </c>
@@ -8278,19 +8475,19 @@
       <c r="H7" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J7" s="203" t="s">
         <v>850</v>
       </c>
-      <c r="J7" s="495" t="str">
-        <f>"경험치 획득량 "&amp;INT(K7-100)&amp;"% 증가"</f>
+      <c r="K7" s="495" t="str">
+        <f>"경험치 획득량 "&amp;INT(L7-100)&amp;"% 증가"</f>
         <v>경험치 획득량 20% 증가</v>
       </c>
-      <c r="K7" s="477">
+      <c r="L7" s="477">
         <v>120</v>
       </c>
-      <c r="L7" s="423">
-        <v>0</v>
-      </c>
       <c r="M7" s="423">
         <v>0</v>
       </c>
@@ -8315,11 +8512,14 @@
       <c r="T7" s="423">
         <v>0</v>
       </c>
-      <c r="U7" s="391">
+      <c r="U7" s="423">
+        <v>0</v>
+      </c>
+      <c r="V7" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="333" t="s">
         <v>916</v>
       </c>
@@ -8344,19 +8544,19 @@
       <c r="H8" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I8" s="203" t="s">
+      <c r="I8" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J8" s="203" t="s">
         <v>851</v>
       </c>
-      <c r="J8" s="495" t="str">
-        <f>"코인 획득량 "&amp;INT(K8-100)&amp;"% 증가"</f>
+      <c r="K8" s="495" t="str">
+        <f>"코인 획득량 "&amp;INT(L8-100)&amp;"% 증가"</f>
         <v>코인 획득량 5% 증가</v>
       </c>
-      <c r="K8" s="477">
+      <c r="L8" s="477">
         <v>105</v>
       </c>
-      <c r="L8" s="423">
-        <v>0</v>
-      </c>
       <c r="M8" s="423">
         <v>0</v>
       </c>
@@ -8381,11 +8581,14 @@
       <c r="T8" s="423">
         <v>0</v>
       </c>
-      <c r="U8" s="391">
+      <c r="U8" s="423">
+        <v>0</v>
+      </c>
+      <c r="V8" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="333" t="s">
         <v>917</v>
       </c>
@@ -8410,19 +8613,19 @@
       <c r="H9" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I9" s="203" t="s">
+      <c r="I9" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J9" s="203" t="s">
         <v>852</v>
       </c>
-      <c r="J9" s="495" t="str">
-        <f>"스킬크기 "&amp;INT(K9-100)&amp;"% 증가"</f>
+      <c r="K9" s="495" t="str">
+        <f>"스킬크기 "&amp;INT(L9-100)&amp;"% 증가"</f>
         <v>스킬크기 20% 증가</v>
       </c>
-      <c r="K9" s="477">
+      <c r="L9" s="477">
         <v>120</v>
       </c>
-      <c r="L9" s="423">
-        <v>0</v>
-      </c>
       <c r="M9" s="423">
         <v>0</v>
       </c>
@@ -8447,11 +8650,14 @@
       <c r="T9" s="423">
         <v>0</v>
       </c>
-      <c r="U9" s="391">
+      <c r="U9" s="423">
+        <v>0</v>
+      </c>
+      <c r="V9" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" s="333" t="s">
         <v>918</v>
       </c>
@@ -8476,19 +8682,19 @@
       <c r="H10" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I10" s="203" t="s">
+      <c r="I10" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J10" s="203" t="s">
         <v>853</v>
       </c>
-      <c r="J10" s="495" t="str">
-        <f>"모든 회복량 "&amp;INT(K10-100)&amp;"% 증가"</f>
+      <c r="K10" s="495" t="str">
+        <f>"모든 회복량 "&amp;INT(L10-100)&amp;"% 증가"</f>
         <v>모든 회복량 20% 증가</v>
       </c>
-      <c r="K10" s="477">
+      <c r="L10" s="477">
         <v>120</v>
       </c>
-      <c r="L10" s="423">
-        <v>0</v>
-      </c>
       <c r="M10" s="423">
         <v>0</v>
       </c>
@@ -8513,11 +8719,14 @@
       <c r="T10" s="423">
         <v>0</v>
       </c>
-      <c r="U10" s="391">
+      <c r="U10" s="423">
+        <v>0</v>
+      </c>
+      <c r="V10" s="391">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.25">
+    <row r="11" spans="1:22" ht="17.25">
       <c r="A11" s="335" t="s">
         <v>919</v>
       </c>
@@ -8542,19 +8751,19 @@
       <c r="H11" s="189" t="s">
         <v>431</v>
       </c>
-      <c r="I11" s="205" t="s">
+      <c r="I11" s="527" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J11" s="205" t="s">
         <v>854</v>
       </c>
-      <c r="J11" s="496" t="str">
-        <f>"이동속도 "&amp;INT(K11-100)&amp;"% 증가"</f>
+      <c r="K11" s="496" t="str">
+        <f>"이동속도 "&amp;INT(L11-100)&amp;"% 증가"</f>
         <v>이동속도 5% 증가</v>
       </c>
-      <c r="K11" s="478">
+      <c r="L11" s="478">
         <v>105</v>
       </c>
-      <c r="L11" s="449">
-        <v>0</v>
-      </c>
       <c r="M11" s="449">
         <v>0</v>
       </c>
@@ -8579,11 +8788,14 @@
       <c r="T11" s="449">
         <v>0</v>
       </c>
-      <c r="U11" s="450">
+      <c r="U11" s="449">
+        <v>0</v>
+      </c>
+      <c r="V11" s="450">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="336" t="s">
         <v>920</v>
       </c>
@@ -8608,28 +8820,28 @@
       <c r="H12" s="249" t="s">
         <v>431</v>
       </c>
-      <c r="I12" s="368" t="s">
+      <c r="I12" s="528" t="s">
+        <v>725</v>
+      </c>
+      <c r="J12" s="368" t="s">
         <v>855</v>
       </c>
-      <c r="J12" s="497" t="str">
-        <f>"눈덩이 공격력 "&amp;INT(M12-100)&amp;"% 증가"</f>
+      <c r="K12" s="497" t="str">
+        <f>"눈덩이 공격력 "&amp;INT(N12-100)&amp;"% 증가"</f>
         <v>눈덩이 공격력 5% 증가</v>
       </c>
-      <c r="K12" s="479">
-        <v>0</v>
-      </c>
-      <c r="L12" s="453">
+      <c r="L12" s="479">
+        <v>0</v>
+      </c>
+      <c r="M12" s="453">
         <v>1</v>
       </c>
-      <c r="M12" s="453">
+      <c r="N12" s="453">
         <v>105</v>
       </c>
-      <c r="N12" s="453">
+      <c r="O12" s="453">
         <v>0.5</v>
       </c>
-      <c r="O12" s="453">
-        <v>0</v>
-      </c>
       <c r="P12" s="453">
         <v>0</v>
       </c>
@@ -8640,30 +8852,33 @@
         <v>0</v>
       </c>
       <c r="S12" s="453">
+        <v>0</v>
+      </c>
+      <c r="T12" s="453">
         <v>1</v>
       </c>
-      <c r="T12" s="453">
-        <v>0</v>
-      </c>
-      <c r="U12" s="470">
+      <c r="U12" s="453">
+        <v>0</v>
+      </c>
+      <c r="V12" s="470">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" s="333" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B13" s="185" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C13" s="184" t="s">
         <v>784</v>
       </c>
-      <c r="D13" s="424" t="s">
-        <v>791</v>
+      <c r="D13" s="426" t="s">
+        <v>792</v>
       </c>
       <c r="E13" s="184">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F13" s="184" t="s">
         <v>725</v>
@@ -8674,59 +8889,62 @@
       <c r="H13" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I13" s="203" t="s">
-        <v>856</v>
-      </c>
-      <c r="J13" s="495" t="str">
-        <f>"눈덩이 공격력 "&amp;INT(M13-100)&amp;"% 증가"</f>
-        <v>눈덩이 공격력 5% 증가</v>
-      </c>
-      <c r="K13" s="480">
-        <v>0</v>
-      </c>
-      <c r="L13" s="425">
+      <c r="I13" s="242" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J13" s="203" t="s">
+        <v>857</v>
+      </c>
+      <c r="K13" s="495" t="str">
+        <f>"고드름 공격력 "&amp;INT(N13-100)&amp;"% 증가"</f>
+        <v>고드름 공격력 5% 증가</v>
+      </c>
+      <c r="L13" s="480">
+        <v>0</v>
+      </c>
+      <c r="M13" s="425">
+        <v>0.35</v>
+      </c>
+      <c r="N13" s="425">
+        <v>105</v>
+      </c>
+      <c r="O13" s="425">
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="425">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="425">
+        <v>0</v>
+      </c>
+      <c r="R13" s="425">
+        <v>0</v>
+      </c>
+      <c r="S13" s="425">
+        <v>0</v>
+      </c>
+      <c r="T13" s="425">
         <v>1</v>
       </c>
-      <c r="M13" s="425">
-        <v>105</v>
-      </c>
-      <c r="N13" s="425">
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="425">
-        <v>0</v>
-      </c>
-      <c r="P13" s="425">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="425">
-        <v>0</v>
-      </c>
-      <c r="R13" s="425">
-        <v>0</v>
-      </c>
-      <c r="S13" s="425">
-        <v>1</v>
-      </c>
-      <c r="T13" s="425">
-        <v>0</v>
-      </c>
-      <c r="U13" s="394">
+      <c r="U13" s="425">
+        <v>0</v>
+      </c>
+      <c r="V13" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="333" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B14" s="185" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C14" s="184" t="s">
         <v>784</v>
       </c>
       <c r="D14" s="426" t="s">
-        <v>792</v>
+        <v>127</v>
       </c>
       <c r="E14" s="184">
         <v>3</v>
@@ -8740,27 +8958,27 @@
       <c r="H14" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I14" s="203" t="s">
-        <v>857</v>
-      </c>
-      <c r="J14" s="495" t="str">
-        <f>"고드름 공격력 "&amp;INT(M14-100)&amp;"% 증가"</f>
-        <v>고드름 공격력 5% 증가</v>
-      </c>
-      <c r="K14" s="480">
-        <v>0</v>
-      </c>
-      <c r="L14" s="425">
-        <v>0.35</v>
+      <c r="I14" s="242" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J14" s="203" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="495" t="str">
+        <f>"얼음주먹 공격력 "&amp;INT(N14-100)&amp;"% 증가"</f>
+        <v>얼음주먹 공격력 10% 증가</v>
+      </c>
+      <c r="L14" s="480">
+        <v>0</v>
       </c>
       <c r="M14" s="425">
-        <v>105</v>
+        <v>2.5</v>
       </c>
       <c r="N14" s="425">
-        <v>1.5</v>
+        <v>110</v>
       </c>
       <c r="O14" s="425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="425">
         <v>0</v>
@@ -8772,27 +8990,30 @@
         <v>0</v>
       </c>
       <c r="S14" s="425">
+        <v>0</v>
+      </c>
+      <c r="T14" s="425">
         <v>1</v>
       </c>
-      <c r="T14" s="425">
-        <v>0</v>
-      </c>
-      <c r="U14" s="394">
+      <c r="U14" s="425">
+        <v>0</v>
+      </c>
+      <c r="V14" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="333" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B15" s="185" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C15" s="184" t="s">
         <v>784</v>
       </c>
       <c r="D15" s="426" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="E15" s="184">
         <v>3</v>
@@ -8806,27 +9027,27 @@
       <c r="H15" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I15" s="203" t="s">
-        <v>267</v>
-      </c>
-      <c r="J15" s="495" t="str">
-        <f>"얼음주먹 공격력 "&amp;INT(M15-100)&amp;"% 증가"</f>
-        <v>얼음주먹 공격력 10% 증가</v>
-      </c>
-      <c r="K15" s="480">
-        <v>0</v>
-      </c>
-      <c r="L15" s="425">
-        <v>2.5</v>
+      <c r="I15" s="242" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J15" s="203" t="s">
+        <v>269</v>
+      </c>
+      <c r="K15" s="495" t="str">
+        <f>"반달고드름 공격력 "&amp;INT(N15-100)&amp;"% 증가"</f>
+        <v>반달고드름 공격력 5% 증가</v>
+      </c>
+      <c r="L15" s="480">
+        <v>0</v>
       </c>
       <c r="M15" s="425">
-        <v>110</v>
+        <v>0.45</v>
       </c>
       <c r="N15" s="425">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="O15" s="425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="425">
         <v>0</v>
@@ -8838,33 +9059,36 @@
         <v>0</v>
       </c>
       <c r="S15" s="425">
+        <v>0</v>
+      </c>
+      <c r="T15" s="425">
         <v>1</v>
       </c>
-      <c r="T15" s="425">
-        <v>0</v>
-      </c>
-      <c r="U15" s="394">
+      <c r="U15" s="425">
+        <v>1</v>
+      </c>
+      <c r="V15" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="333" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B16" s="185" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C16" s="184" t="s">
         <v>784</v>
       </c>
-      <c r="D16" s="426" t="s">
-        <v>4</v>
+      <c r="D16" s="427" t="s">
+        <v>793</v>
       </c>
       <c r="E16" s="184">
         <v>3</v>
       </c>
       <c r="F16" s="184" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G16" s="184" t="s">
         <v>431</v>
@@ -8872,27 +9096,27 @@
       <c r="H16" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I16" s="203" t="s">
-        <v>269</v>
-      </c>
-      <c r="J16" s="495" t="str">
-        <f>"반달고드름 공격력 "&amp;INT(M16-100)&amp;"% 증가"</f>
-        <v>반달고드름 공격력 5% 증가</v>
-      </c>
-      <c r="K16" s="480">
-        <v>0</v>
-      </c>
-      <c r="L16" s="425">
-        <v>0.45</v>
+      <c r="I16" s="242" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J16" s="203" t="s">
+        <v>858</v>
+      </c>
+      <c r="K16" s="495" t="str">
+        <f>"드릴 공격력 "&amp;INT(N16-100)&amp;"% 증가"</f>
+        <v>드릴 공격력 5% 증가</v>
+      </c>
+      <c r="L16" s="480">
+        <v>0</v>
       </c>
       <c r="M16" s="425">
+        <v>1</v>
+      </c>
+      <c r="N16" s="425">
         <v>105</v>
       </c>
-      <c r="N16" s="425">
-        <v>1</v>
-      </c>
       <c r="O16" s="425">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P16" s="425">
         <v>0</v>
@@ -8904,33 +9128,36 @@
         <v>0</v>
       </c>
       <c r="S16" s="425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="425">
         <v>1</v>
       </c>
-      <c r="U16" s="394">
+      <c r="U16" s="425">
+        <v>0</v>
+      </c>
+      <c r="V16" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" s="333" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B17" s="185" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C17" s="184" t="s">
         <v>784</v>
       </c>
       <c r="D17" s="427" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E17" s="184">
         <v>3</v>
       </c>
       <c r="F17" s="184" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G17" s="184" t="s">
         <v>431</v>
@@ -8938,27 +9165,27 @@
       <c r="H17" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I17" s="203" t="s">
-        <v>858</v>
-      </c>
-      <c r="J17" s="495" t="str">
-        <f>"드릴 공격력 "&amp;INT(M17-100)&amp;"% 증가"</f>
-        <v>드릴 공격력 5% 증가</v>
-      </c>
-      <c r="K17" s="480">
-        <v>0</v>
-      </c>
-      <c r="L17" s="425">
+      <c r="I17" s="242" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J17" s="203" t="s">
+        <v>859</v>
+      </c>
+      <c r="K17" s="495" t="str">
+        <f>"너클 퍼뎀 "&amp;INT(N17)&amp;"% 증가"</f>
+        <v>너클 퍼뎀 1% 증가</v>
+      </c>
+      <c r="L17" s="480">
+        <v>0</v>
+      </c>
+      <c r="M17" s="425">
         <v>1</v>
       </c>
-      <c r="M17" s="425">
-        <v>105</v>
-      </c>
       <c r="N17" s="425">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O17" s="425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="425">
         <v>0</v>
@@ -8970,33 +9197,36 @@
         <v>0</v>
       </c>
       <c r="S17" s="425">
+        <v>0</v>
+      </c>
+      <c r="T17" s="425">
         <v>1</v>
       </c>
-      <c r="T17" s="425">
-        <v>0</v>
-      </c>
-      <c r="U17" s="394">
+      <c r="U17" s="425">
+        <v>0</v>
+      </c>
+      <c r="V17" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" s="333" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B18" s="185" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C18" s="184" t="s">
         <v>784</v>
       </c>
       <c r="D18" s="427" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E18" s="184">
         <v>3</v>
       </c>
       <c r="F18" s="184" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G18" s="184" t="s">
         <v>431</v>
@@ -9004,93 +9234,96 @@
       <c r="H18" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I18" s="203" t="s">
-        <v>859</v>
-      </c>
-      <c r="J18" s="495" t="str">
-        <f>"너클 퍼뎀 "&amp;INT(M18)&amp;"% 증가"</f>
-        <v>너클 퍼뎀 1% 증가</v>
-      </c>
-      <c r="K18" s="480">
-        <v>0</v>
-      </c>
-      <c r="L18" s="425">
+      <c r="I18" s="242" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J18" s="203" t="s">
+        <v>860</v>
+      </c>
+      <c r="K18" s="495" t="str">
+        <f>"설비 공격력 "&amp;INT(N18-100)&amp;"% 증가"</f>
+        <v>설비 공격력 5% 증가</v>
+      </c>
+      <c r="L18" s="480">
+        <v>0</v>
+      </c>
+      <c r="M18" s="425">
+        <v>0.6</v>
+      </c>
+      <c r="N18" s="425">
+        <v>105</v>
+      </c>
+      <c r="O18" s="425">
         <v>1</v>
       </c>
-      <c r="M18" s="425">
+      <c r="P18" s="425">
+        <v>0.3</v>
+      </c>
+      <c r="Q18" s="425">
+        <v>0</v>
+      </c>
+      <c r="R18" s="425">
+        <v>0</v>
+      </c>
+      <c r="S18" s="425">
+        <v>0</v>
+      </c>
+      <c r="T18" s="425">
+        <v>4</v>
+      </c>
+      <c r="U18" s="425">
         <v>1</v>
       </c>
-      <c r="N18" s="425">
-        <v>2</v>
-      </c>
-      <c r="O18" s="425">
-        <v>0</v>
-      </c>
-      <c r="P18" s="425">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="425">
-        <v>0</v>
-      </c>
-      <c r="R18" s="425">
-        <v>0</v>
-      </c>
-      <c r="S18" s="425">
-        <v>1</v>
-      </c>
-      <c r="T18" s="425">
-        <v>0</v>
-      </c>
-      <c r="U18" s="394">
+      <c r="V18" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22" ht="17.25">
       <c r="A19" s="333" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B19" s="185" t="s">
-        <v>732</v>
+        <v>978</v>
       </c>
       <c r="C19" s="184" t="s">
         <v>784</v>
       </c>
-      <c r="D19" s="427" t="s">
-        <v>795</v>
+      <c r="D19" s="426" t="s">
+        <v>796</v>
       </c>
       <c r="E19" s="184">
         <v>3</v>
       </c>
       <c r="F19" s="184" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G19" s="184" t="s">
         <v>431</v>
       </c>
       <c r="H19" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I19" s="203" t="s">
-        <v>860</v>
-      </c>
-      <c r="J19" s="495" t="str">
-        <f>"설비 공격력 "&amp;INT(M19-100)&amp;"% 증가"</f>
-        <v>설비 공격력 5% 증가</v>
-      </c>
-      <c r="K19" s="480">
-        <v>0</v>
-      </c>
-      <c r="L19" s="425">
-        <v>0.6</v>
+        <v>839</v>
+      </c>
+      <c r="I19" s="242" t="s">
+        <v>978</v>
+      </c>
+      <c r="J19" s="203" t="s">
+        <v>861</v>
+      </c>
+      <c r="K19" s="495" t="str">
+        <f>"묠니눈 공격력 "&amp;INT(N19-100)&amp;"% 증가"</f>
+        <v>묠니눈 공격력 25% 증가</v>
+      </c>
+      <c r="L19" s="480">
+        <v>0</v>
       </c>
       <c r="M19" s="425">
-        <v>105</v>
+        <v>1.2</v>
       </c>
       <c r="N19" s="425">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="O19" s="425">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="P19" s="425">
         <v>0</v>
@@ -9102,62 +9335,65 @@
         <v>0</v>
       </c>
       <c r="S19" s="425">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T19" s="425">
         <v>1</v>
       </c>
-      <c r="U19" s="394">
+      <c r="U19" s="425">
+        <v>0</v>
+      </c>
+      <c r="V19" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17.25">
+    <row r="20" spans="1:22" ht="17.25">
       <c r="A20" s="333" t="s">
-        <v>928</v>
+        <v>990</v>
       </c>
       <c r="B20" s="185" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C20" s="184" t="s">
         <v>784</v>
       </c>
       <c r="D20" s="426" t="s">
-        <v>796</v>
+        <v>981</v>
       </c>
       <c r="E20" s="184">
         <v>3</v>
       </c>
       <c r="F20" s="184" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="G20" s="184" t="s">
-        <v>431</v>
+        <v>731</v>
       </c>
       <c r="H20" s="186" t="s">
-        <v>839</v>
-      </c>
-      <c r="I20" s="203" t="s">
+        <v>431</v>
+      </c>
+      <c r="I20" s="242" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J20" s="203" t="s">
         <v>861</v>
       </c>
-      <c r="J20" s="495" t="str">
-        <f>"묠니눈 공격력 "&amp;INT(M20-100)&amp;"% 증가"</f>
+      <c r="K20" s="495" t="str">
+        <f>"묠니눈 공격력 "&amp;INT(N20-100)&amp;"% 증가"</f>
         <v>묠니눈 공격력 25% 증가</v>
       </c>
-      <c r="K20" s="480">
-        <v>0</v>
-      </c>
-      <c r="L20" s="425">
+      <c r="L20" s="480">
+        <v>0</v>
+      </c>
+      <c r="M20" s="425">
         <v>1.2</v>
       </c>
-      <c r="M20" s="425">
+      <c r="N20" s="425">
         <v>125</v>
       </c>
-      <c r="N20" s="425">
+      <c r="O20" s="425">
         <v>1.25</v>
       </c>
-      <c r="O20" s="425">
-        <v>0</v>
-      </c>
       <c r="P20" s="425">
         <v>0</v>
       </c>
@@ -9168,228 +9404,240 @@
         <v>0</v>
       </c>
       <c r="S20" s="425">
+        <v>0</v>
+      </c>
+      <c r="T20" s="425">
         <v>1</v>
       </c>
-      <c r="T20" s="425">
-        <v>0</v>
-      </c>
-      <c r="U20" s="394">
+      <c r="U20" s="425">
+        <v>0</v>
+      </c>
+      <c r="V20" s="394">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="17.25">
-      <c r="A21" s="333" t="s">
-        <v>990</v>
-      </c>
-      <c r="B21" s="185" t="s">
-        <v>979</v>
-      </c>
-      <c r="C21" s="184" t="s">
+    <row r="21" spans="1:22" ht="17.25">
+      <c r="A21" s="334" t="s">
+        <v>991</v>
+      </c>
+      <c r="B21" s="194" t="s">
+        <v>980</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D21" s="426" t="s">
-        <v>981</v>
-      </c>
-      <c r="E21" s="184">
+      <c r="D21" s="454" t="s">
+        <v>982</v>
+      </c>
+      <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="184" t="s">
-        <v>730</v>
-      </c>
-      <c r="G21" s="184" t="s">
-        <v>731</v>
-      </c>
-      <c r="H21" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I21" s="203" t="s">
+      <c r="F21" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H21" s="195" t="s">
+        <v>431</v>
+      </c>
+      <c r="I21" s="529" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J21" s="204" t="s">
         <v>861</v>
       </c>
-      <c r="J21" s="495" t="str">
-        <f>"묠니눈 공격력 "&amp;INT(M21-100)&amp;"% 증가"</f>
+      <c r="K21" s="498" t="str">
+        <f>"묠니눈 공격력 "&amp;INT(N21-100)&amp;"% 증가"</f>
         <v>묠니눈 공격력 25% 증가</v>
       </c>
-      <c r="K21" s="480">
-        <v>0</v>
-      </c>
-      <c r="L21" s="425">
+      <c r="L21" s="481">
+        <v>0</v>
+      </c>
+      <c r="M21" s="455">
         <v>1.2</v>
       </c>
-      <c r="M21" s="425">
+      <c r="N21" s="455">
         <v>125</v>
       </c>
-      <c r="N21" s="425">
+      <c r="O21" s="455">
         <v>1.25</v>
       </c>
-      <c r="O21" s="425">
-        <v>0</v>
-      </c>
-      <c r="P21" s="425">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="425">
-        <v>0</v>
-      </c>
-      <c r="R21" s="425">
-        <v>0</v>
-      </c>
-      <c r="S21" s="425">
+      <c r="P21" s="455">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="455">
+        <v>0</v>
+      </c>
+      <c r="R21" s="455">
+        <v>0</v>
+      </c>
+      <c r="S21" s="455">
+        <v>0</v>
+      </c>
+      <c r="T21" s="455">
         <v>1</v>
       </c>
-      <c r="T21" s="425">
-        <v>0</v>
-      </c>
-      <c r="U21" s="394">
+      <c r="U21" s="455">
+        <v>0</v>
+      </c>
+      <c r="V21" s="471">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.25">
-      <c r="A22" s="334" t="s">
-        <v>991</v>
-      </c>
-      <c r="B22" s="194" t="s">
-        <v>980</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D22" s="454" t="s">
-        <v>982</v>
-      </c>
-      <c r="E22" s="2">
+    <row r="22" spans="1:22">
+      <c r="A22" s="332" t="s">
+        <v>929</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="310" t="s">
+        <v>797</v>
+      </c>
+      <c r="E22" s="33">
         <v>3</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="H22" s="195" t="s">
-        <v>431</v>
-      </c>
-      <c r="I22" s="204" t="s">
-        <v>861</v>
-      </c>
-      <c r="J22" s="498" t="str">
-        <f>"묠니눈 공격력 "&amp;INT(M22-100)&amp;"% 증가"</f>
-        <v>묠니눈 공격력 25% 증가</v>
-      </c>
-      <c r="K22" s="481">
-        <v>0</v>
-      </c>
-      <c r="L22" s="455">
-        <v>1.2</v>
-      </c>
-      <c r="M22" s="455">
-        <v>125</v>
-      </c>
-      <c r="N22" s="455">
-        <v>1.25</v>
-      </c>
-      <c r="O22" s="455">
-        <v>0</v>
-      </c>
-      <c r="P22" s="455">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="455">
-        <v>0</v>
-      </c>
-      <c r="R22" s="455">
-        <v>0</v>
-      </c>
-      <c r="S22" s="455">
+      <c r="F22" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="I22" s="209" t="s">
+        <v>734</v>
+      </c>
+      <c r="J22" s="115" t="s">
+        <v>862</v>
+      </c>
+      <c r="K22" s="494" t="str">
+        <f>"얼덩이 공격력 "&amp;INT(N22-100)&amp;"% 증가"</f>
+        <v>얼덩이 공격력 5% 증가</v>
+      </c>
+      <c r="L22" s="482">
+        <v>0</v>
+      </c>
+      <c r="M22" s="378">
+        <v>0.75</v>
+      </c>
+      <c r="N22" s="378">
+        <v>105</v>
+      </c>
+      <c r="O22" s="378">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="378">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="378">
+        <v>0.1</v>
+      </c>
+      <c r="R22" s="378">
+        <v>0</v>
+      </c>
+      <c r="S22" s="378">
+        <v>0</v>
+      </c>
+      <c r="T22" s="378">
         <v>1</v>
       </c>
-      <c r="T22" s="455">
-        <v>0</v>
-      </c>
-      <c r="U22" s="471">
-        <v>5</v>
+      <c r="U22" s="378">
+        <v>0</v>
+      </c>
+      <c r="V22" s="396">
+        <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="332" t="s">
-        <v>929</v>
-      </c>
-      <c r="B23" s="32" t="s">
+    <row r="23" spans="1:22">
+      <c r="A23" s="333" t="s">
+        <v>931</v>
+      </c>
+      <c r="B23" s="185" t="s">
+        <v>736</v>
+      </c>
+      <c r="C23" s="184" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="429" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="184">
+        <v>3</v>
+      </c>
+      <c r="F23" s="184" t="s">
         <v>734</v>
       </c>
-      <c r="C23" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="310" t="s">
-        <v>797</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="G23" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I23" s="207" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J23" s="203" t="s">
+        <v>864</v>
+      </c>
+      <c r="K23" s="495" t="str">
+        <f>"눈폭탄 공격력 "&amp;INT(N23-100)&amp;"% 증가"</f>
+        <v>눈폭탄 공격력 5% 증가</v>
+      </c>
+      <c r="L23" s="483">
+        <v>0</v>
+      </c>
+      <c r="M23" s="428">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="428">
+        <v>105</v>
+      </c>
+      <c r="O23" s="428">
+        <v>1</v>
+      </c>
+      <c r="P23" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="428">
+        <v>1</v>
+      </c>
+      <c r="R23" s="428">
+        <v>0</v>
+      </c>
+      <c r="S23" s="428">
+        <v>0</v>
+      </c>
+      <c r="T23" s="428">
+        <v>1</v>
+      </c>
+      <c r="U23" s="428">
+        <v>0</v>
+      </c>
+      <c r="V23" s="397">
         <v>3</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="I23" s="115" t="s">
-        <v>862</v>
-      </c>
-      <c r="J23" s="494" t="str">
-        <f>"얼덩이 공격력 "&amp;INT(M23-100)&amp;"% 증가"</f>
-        <v>얼덩이 공격력 5% 증가</v>
-      </c>
-      <c r="K23" s="482">
-        <v>0</v>
-      </c>
-      <c r="L23" s="378">
-        <v>0.75</v>
-      </c>
-      <c r="M23" s="378">
-        <v>105</v>
-      </c>
-      <c r="N23" s="378">
-        <v>0.75</v>
-      </c>
-      <c r="O23" s="378">
-        <v>0</v>
-      </c>
-      <c r="P23" s="378">
-        <v>0.1</v>
-      </c>
-      <c r="Q23" s="378">
-        <v>0</v>
-      </c>
-      <c r="R23" s="378">
-        <v>0</v>
-      </c>
-      <c r="S23" s="378">
-        <v>1</v>
-      </c>
-      <c r="T23" s="378">
-        <v>0</v>
-      </c>
-      <c r="U23" s="396">
-        <v>3</v>
-      </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" s="333" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B24" s="185" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C24" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="D24" s="304" t="s">
-        <v>798</v>
+      <c r="D24" s="429" t="s">
+        <v>6</v>
       </c>
       <c r="E24" s="184">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F24" s="184" t="s">
         <v>734</v>
@@ -9400,59 +9648,62 @@
       <c r="H24" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I24" s="203" t="s">
-        <v>863</v>
-      </c>
-      <c r="J24" s="495" t="str">
-        <f>"얼덩이 공격력 "&amp;INT(M24-100)&amp;"% 증가"</f>
-        <v>얼덩이 공격력 5% 증가</v>
-      </c>
-      <c r="K24" s="483">
-        <v>0</v>
-      </c>
-      <c r="L24" s="428">
-        <v>0.75</v>
+      <c r="I24" s="207" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J24" s="203" t="s">
+        <v>865</v>
+      </c>
+      <c r="K24" s="495" t="str">
+        <f>"우박 공격력 "&amp;INT(N24-100)&amp;"% 증가"</f>
+        <v>우박 공격력 5% 증가</v>
+      </c>
+      <c r="L24" s="483">
+        <v>0</v>
       </c>
       <c r="M24" s="428">
+        <v>2</v>
+      </c>
+      <c r="N24" s="428">
         <v>105</v>
       </c>
-      <c r="N24" s="428">
-        <v>0.75</v>
-      </c>
       <c r="O24" s="428">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P24" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="428">
         <v>0.1</v>
       </c>
-      <c r="Q24" s="428">
-        <v>0</v>
-      </c>
       <c r="R24" s="428">
         <v>0</v>
       </c>
       <c r="S24" s="428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="428">
-        <v>0</v>
-      </c>
-      <c r="U24" s="397">
+        <v>10</v>
+      </c>
+      <c r="U24" s="428">
+        <v>2</v>
+      </c>
+      <c r="V24" s="397">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" s="333" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B25" s="185" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C25" s="184" t="s">
         <v>320</v>
       </c>
       <c r="D25" s="429" t="s">
-        <v>128</v>
+        <v>799</v>
       </c>
       <c r="E25" s="184">
         <v>3</v>
@@ -9466,65 +9717,68 @@
       <c r="H25" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I25" s="203" t="s">
-        <v>864</v>
-      </c>
-      <c r="J25" s="495" t="str">
-        <f>"눈폭탄 공격력 "&amp;INT(M25-100)&amp;"% 증가"</f>
-        <v>눈폭탄 공격력 5% 증가</v>
-      </c>
-      <c r="K25" s="483">
-        <v>0</v>
-      </c>
-      <c r="L25" s="428">
-        <v>0.5</v>
+      <c r="I25" s="207" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J25" s="203" t="s">
+        <v>866</v>
+      </c>
+      <c r="K25" s="495" t="str">
+        <f>"서클 공격력 "&amp;INT(N25-100)&amp;"% 증가"</f>
+        <v>서클 공격력 5% 증가</v>
+      </c>
+      <c r="L25" s="483">
+        <v>0</v>
       </c>
       <c r="M25" s="428">
+        <v>3</v>
+      </c>
+      <c r="N25" s="428">
         <v>105</v>
       </c>
-      <c r="N25" s="428">
+      <c r="O25" s="428">
+        <v>15</v>
+      </c>
+      <c r="P25" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="428">
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="428">
+        <v>0</v>
+      </c>
+      <c r="S25" s="428">
+        <v>0</v>
+      </c>
+      <c r="T25" s="428">
         <v>1</v>
       </c>
-      <c r="O25" s="428">
-        <v>0</v>
-      </c>
-      <c r="P25" s="428">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="428">
-        <v>0</v>
-      </c>
-      <c r="R25" s="428">
-        <v>0</v>
-      </c>
-      <c r="S25" s="428">
-        <v>1</v>
-      </c>
-      <c r="T25" s="428">
-        <v>0</v>
-      </c>
-      <c r="U25" s="397">
+      <c r="U25" s="428">
+        <v>0</v>
+      </c>
+      <c r="V25" s="397">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" s="333" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B26" s="185" t="s">
-        <v>737</v>
+        <v>1042</v>
       </c>
       <c r="C26" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="429" t="s">
-        <v>6</v>
+      <c r="D26" s="430" t="s">
+        <v>1041</v>
       </c>
       <c r="E26" s="184">
         <v>3</v>
       </c>
       <c r="F26" s="184" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G26" s="184" t="s">
         <v>431</v>
@@ -9532,65 +9786,68 @@
       <c r="H26" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I26" s="203" t="s">
-        <v>865</v>
-      </c>
-      <c r="J26" s="495" t="str">
-        <f>"우박 공격력 "&amp;INT(M26-100)&amp;"% 증가"</f>
-        <v>우박 공격력 5% 증가</v>
-      </c>
-      <c r="K26" s="483">
-        <v>0</v>
-      </c>
-      <c r="L26" s="428">
+      <c r="I26" s="207" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J26" s="203" t="s">
+        <v>867</v>
+      </c>
+      <c r="K26" s="495" t="str">
+        <f>"크레바스 공격력 "&amp;INT(N26-100)&amp;"% 증가"</f>
+        <v>크레바스 공격력 5% 증가</v>
+      </c>
+      <c r="L26" s="483">
+        <v>0</v>
+      </c>
+      <c r="M26" s="428">
         <v>2</v>
       </c>
-      <c r="M26" s="428">
+      <c r="N26" s="428">
         <v>105</v>
       </c>
-      <c r="N26" s="428">
+      <c r="O26" s="428">
         <v>12</v>
       </c>
-      <c r="O26" s="428">
-        <v>0</v>
-      </c>
       <c r="P26" s="428">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="428">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" s="428">
         <v>0</v>
       </c>
       <c r="S26" s="428">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T26" s="428">
-        <v>2</v>
-      </c>
-      <c r="U26" s="397">
+        <v>1</v>
+      </c>
+      <c r="U26" s="428">
+        <v>0</v>
+      </c>
+      <c r="V26" s="397">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" s="333" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B27" s="185" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C27" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="D27" s="429" t="s">
-        <v>799</v>
+      <c r="D27" s="430" t="s">
+        <v>801</v>
       </c>
       <c r="E27" s="184">
         <v>3</v>
       </c>
       <c r="F27" s="184" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G27" s="184" t="s">
         <v>431</v>
@@ -9598,527 +9855,553 @@
       <c r="H27" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I27" s="203" t="s">
-        <v>866</v>
-      </c>
-      <c r="J27" s="495" t="str">
-        <f>"서클 공격력 "&amp;INT(M27-100)&amp;"% 증가"</f>
-        <v>서클 공격력 5% 증가</v>
-      </c>
-      <c r="K27" s="483">
-        <v>0</v>
-      </c>
-      <c r="L27" s="428">
+      <c r="I27" s="207" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J27" s="203" t="s">
+        <v>868</v>
+      </c>
+      <c r="K27" s="495" t="str">
+        <f>"유성우 공격력 "&amp;INT(N27-100)&amp;"% 증가"</f>
+        <v>유성우 공격력 5% 증가</v>
+      </c>
+      <c r="L27" s="483">
+        <v>0</v>
+      </c>
+      <c r="M27" s="428">
         <v>3</v>
       </c>
-      <c r="M27" s="428">
+      <c r="N27" s="428">
         <v>105</v>
       </c>
-      <c r="N27" s="428">
+      <c r="O27" s="428">
         <v>15</v>
       </c>
-      <c r="O27" s="428">
-        <v>0</v>
-      </c>
       <c r="P27" s="428">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="428">
         <v>0</v>
       </c>
       <c r="S27" s="428">
+        <v>0</v>
+      </c>
+      <c r="T27" s="428">
+        <v>5</v>
+      </c>
+      <c r="U27" s="428">
         <v>1</v>
       </c>
-      <c r="T27" s="428">
-        <v>0</v>
-      </c>
-      <c r="U27" s="397">
+      <c r="V27" s="397">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" s="333" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B28" s="185" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C28" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="D28" s="430" t="s">
-        <v>800</v>
+      <c r="D28" s="429" t="s">
+        <v>308</v>
       </c>
       <c r="E28" s="184">
         <v>3</v>
       </c>
       <c r="F28" s="184" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G28" s="184" t="s">
         <v>431</v>
       </c>
       <c r="H28" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I28" s="203" t="s">
-        <v>867</v>
-      </c>
-      <c r="J28" s="495" t="str">
-        <f>"크레바스 공격력 "&amp;INT(M28-100)&amp;"% 증가"</f>
-        <v>크레바스 공격력 5% 증가</v>
-      </c>
-      <c r="K28" s="483">
-        <v>0</v>
-      </c>
-      <c r="L28" s="428">
+        <v>840</v>
+      </c>
+      <c r="I28" s="207" t="s">
+        <v>741</v>
+      </c>
+      <c r="J28" s="203" t="s">
+        <v>869</v>
+      </c>
+      <c r="K28" s="495" t="str">
+        <f>"독병 공격력 "&amp;INT(N28-100)&amp;"% 증가"</f>
+        <v>독병 공격력 5% 증가</v>
+      </c>
+      <c r="L28" s="483">
+        <v>0</v>
+      </c>
+      <c r="M28" s="428">
+        <v>0.4</v>
+      </c>
+      <c r="N28" s="428">
+        <v>105</v>
+      </c>
+      <c r="O28" s="428">
+        <v>4</v>
+      </c>
+      <c r="P28" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="428">
         <v>2</v>
       </c>
-      <c r="M28" s="428">
-        <v>105</v>
-      </c>
-      <c r="N28" s="428">
-        <v>12</v>
-      </c>
-      <c r="O28" s="428">
-        <v>0</v>
-      </c>
-      <c r="P28" s="428">
+      <c r="R28" s="428">
+        <v>0</v>
+      </c>
+      <c r="S28" s="428">
+        <v>0</v>
+      </c>
+      <c r="T28" s="428">
+        <v>1</v>
+      </c>
+      <c r="U28" s="428">
+        <v>0</v>
+      </c>
+      <c r="V28" s="397">
         <v>3</v>
       </c>
-      <c r="Q28" s="428">
-        <v>0</v>
-      </c>
-      <c r="R28" s="428">
-        <v>0</v>
-      </c>
-      <c r="S28" s="428">
-        <v>1</v>
-      </c>
-      <c r="T28" s="428">
-        <v>0</v>
-      </c>
-      <c r="U28" s="397">
-        <v>3</v>
-      </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22" ht="17.25">
       <c r="A29" s="333" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B29" s="185" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C29" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="430" t="s">
-        <v>801</v>
+      <c r="D29" s="429" t="s">
+        <v>330</v>
       </c>
       <c r="E29" s="184">
         <v>3</v>
       </c>
       <c r="F29" s="184" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G29" s="184" t="s">
         <v>431</v>
       </c>
       <c r="H29" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I29" s="203" t="s">
-        <v>868</v>
-      </c>
-      <c r="J29" s="495" t="str">
-        <f>"유성우 공격력 "&amp;INT(M29-100)&amp;"% 증가"</f>
-        <v>유성우 공격력 5% 증가</v>
-      </c>
-      <c r="K29" s="483">
-        <v>0</v>
-      </c>
-      <c r="L29" s="428">
-        <v>3</v>
+        <v>841</v>
+      </c>
+      <c r="I29" s="207" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J29" s="203" t="s">
+        <v>338</v>
+      </c>
+      <c r="K29" s="495" t="str">
+        <f>"번개 공격력 "&amp;INT(N29-100)&amp;"% 증가"</f>
+        <v>번개 공격력 5% 증가</v>
+      </c>
+      <c r="L29" s="483">
+        <v>0</v>
       </c>
       <c r="M29" s="428">
+        <v>1.5</v>
+      </c>
+      <c r="N29" s="428">
         <v>105</v>
       </c>
-      <c r="N29" s="428">
-        <v>15</v>
-      </c>
       <c r="O29" s="428">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P29" s="428">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q29" s="428">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R29" s="428">
         <v>0</v>
       </c>
       <c r="S29" s="428">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T29" s="428">
         <v>1</v>
       </c>
-      <c r="U29" s="397">
+      <c r="U29" s="428">
+        <v>0</v>
+      </c>
+      <c r="V29" s="397">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22" ht="17.25">
       <c r="A30" s="333" t="s">
-        <v>936</v>
+        <v>992</v>
       </c>
       <c r="B30" s="185" t="s">
-        <v>741</v>
+        <v>1044</v>
       </c>
       <c r="C30" s="184" t="s">
         <v>320</v>
       </c>
       <c r="D30" s="429" t="s">
-        <v>308</v>
+        <v>1043</v>
       </c>
       <c r="E30" s="184">
         <v>3</v>
       </c>
       <c r="F30" s="184" t="s">
-        <v>734</v>
+        <v>1042</v>
       </c>
       <c r="G30" s="184" t="s">
-        <v>431</v>
+        <v>741</v>
       </c>
       <c r="H30" s="186" t="s">
-        <v>840</v>
-      </c>
-      <c r="I30" s="203" t="s">
-        <v>869</v>
-      </c>
-      <c r="J30" s="495" t="str">
-        <f>"독병 공격력 "&amp;INT(M30-100)&amp;"% 증가"</f>
-        <v>독병 공격력 5% 증가</v>
-      </c>
-      <c r="K30" s="483">
-        <v>0</v>
-      </c>
-      <c r="L30" s="428">
+        <v>431</v>
+      </c>
+      <c r="I30" s="207" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J30" s="203" t="s">
+        <v>338</v>
+      </c>
+      <c r="K30" s="495" t="str">
+        <f>"번개 공격력 "&amp;INT(N30-100)&amp;"% 증가"</f>
+        <v>번개 공격력 5% 증가</v>
+      </c>
+      <c r="L30" s="483">
+        <v>0</v>
+      </c>
+      <c r="M30" s="428">
+        <v>1.5</v>
+      </c>
+      <c r="N30" s="428">
+        <v>105</v>
+      </c>
+      <c r="O30" s="428">
+        <v>5</v>
+      </c>
+      <c r="P30" s="428">
+        <v>0.9</v>
+      </c>
+      <c r="Q30" s="428">
+        <v>0.1</v>
+      </c>
+      <c r="R30" s="428">
+        <v>0</v>
+      </c>
+      <c r="S30" s="428">
+        <v>0</v>
+      </c>
+      <c r="T30" s="428">
+        <v>1</v>
+      </c>
+      <c r="U30" s="428">
+        <v>0</v>
+      </c>
+      <c r="V30" s="397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="17.25">
+      <c r="A31" s="335" t="s">
+        <v>993</v>
+      </c>
+      <c r="B31" s="187" t="s">
+        <v>984</v>
+      </c>
+      <c r="C31" s="188" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="367" t="s">
+        <v>986</v>
+      </c>
+      <c r="E31" s="188">
+        <v>3</v>
+      </c>
+      <c r="F31" s="188" t="s">
+        <v>738</v>
+      </c>
+      <c r="G31" s="188" t="s">
+        <v>742</v>
+      </c>
+      <c r="H31" s="189" t="s">
+        <v>431</v>
+      </c>
+      <c r="I31" s="210" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J31" s="205" t="s">
+        <v>338</v>
+      </c>
+      <c r="K31" s="496" t="str">
+        <f>"번개 공격력 "&amp;INT(N31-100)&amp;"% 증가"</f>
+        <v>번개 공격력 5% 증가</v>
+      </c>
+      <c r="L31" s="484">
+        <v>0</v>
+      </c>
+      <c r="M31" s="380">
+        <v>1.5</v>
+      </c>
+      <c r="N31" s="380">
+        <v>105</v>
+      </c>
+      <c r="O31" s="380">
+        <v>5</v>
+      </c>
+      <c r="P31" s="380">
+        <v>0.9</v>
+      </c>
+      <c r="Q31" s="380">
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="380">
+        <v>0</v>
+      </c>
+      <c r="S31" s="380">
+        <v>0</v>
+      </c>
+      <c r="T31" s="380">
+        <v>1</v>
+      </c>
+      <c r="U31" s="380">
+        <v>0</v>
+      </c>
+      <c r="V31" s="398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="336" t="s">
+        <v>938</v>
+      </c>
+      <c r="B32" s="337" t="s">
+        <v>743</v>
+      </c>
+      <c r="C32" s="338" t="s">
+        <v>785</v>
+      </c>
+      <c r="D32" s="456" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="338">
+        <v>3</v>
+      </c>
+      <c r="F32" s="338" t="s">
+        <v>431</v>
+      </c>
+      <c r="G32" s="338" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" s="249" t="s">
+        <v>431</v>
+      </c>
+      <c r="I32" s="528" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J32" s="368" t="s">
+        <v>870</v>
+      </c>
+      <c r="K32" s="497" t="str">
+        <f>"얼음빠따 공격력 "&amp;INT(N32-100)&amp;"% 증가"</f>
+        <v>얼음빠따 공격력 5% 증가</v>
+      </c>
+      <c r="L32" s="485">
+        <v>0</v>
+      </c>
+      <c r="M32" s="457">
+        <v>1.2</v>
+      </c>
+      <c r="N32" s="457">
+        <v>105</v>
+      </c>
+      <c r="O32" s="457">
+        <v>1.5</v>
+      </c>
+      <c r="P32" s="457">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="457">
+        <v>0</v>
+      </c>
+      <c r="R32" s="457">
+        <v>0</v>
+      </c>
+      <c r="S32" s="457">
+        <v>0</v>
+      </c>
+      <c r="T32" s="457">
+        <v>0</v>
+      </c>
+      <c r="U32" s="457">
+        <v>0</v>
+      </c>
+      <c r="V32" s="472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="333" t="s">
+        <v>940</v>
+      </c>
+      <c r="B33" s="185" t="s">
+        <v>745</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>785</v>
+      </c>
+      <c r="D33" s="433" t="s">
+        <v>803</v>
+      </c>
+      <c r="E33" s="184">
+        <v>3</v>
+      </c>
+      <c r="F33" s="184" t="str">
+        <f>B32</f>
+        <v>IceBat</v>
+      </c>
+      <c r="G33" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I33" s="242" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J33" s="203" t="s">
+        <v>872</v>
+      </c>
+      <c r="K33" s="495" t="str">
+        <f>"셰르파 공격력 "&amp;INT(N33-100)&amp;"% 증가"</f>
+        <v>셰르파 공격력 5% 증가</v>
+      </c>
+      <c r="L33" s="486">
+        <v>0</v>
+      </c>
+      <c r="M33" s="432">
         <v>0.4</v>
       </c>
-      <c r="M30" s="428">
+      <c r="N33" s="432">
         <v>105</v>
       </c>
-      <c r="N30" s="428">
-        <v>4</v>
-      </c>
-      <c r="O30" s="428">
-        <v>0</v>
-      </c>
-      <c r="P30" s="428">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="428">
-        <v>0</v>
-      </c>
-      <c r="R30" s="428">
-        <v>0</v>
-      </c>
-      <c r="S30" s="428">
+      <c r="O33" s="432">
+        <v>0.4</v>
+      </c>
+      <c r="P33" s="432">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="432">
+        <v>0</v>
+      </c>
+      <c r="R33" s="432">
+        <v>0</v>
+      </c>
+      <c r="S33" s="432">
+        <v>0</v>
+      </c>
+      <c r="T33" s="432">
+        <v>0</v>
+      </c>
+      <c r="U33" s="432">
+        <v>0</v>
+      </c>
+      <c r="V33" s="400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="333" t="s">
+        <v>941</v>
+      </c>
+      <c r="B34" s="185" t="s">
+        <v>746</v>
+      </c>
+      <c r="C34" s="184" t="s">
+        <v>785</v>
+      </c>
+      <c r="D34" s="433" t="s">
+        <v>804</v>
+      </c>
+      <c r="E34" s="184">
+        <v>3</v>
+      </c>
+      <c r="F34" s="184" t="str">
+        <f>B32</f>
+        <v>IceBat</v>
+      </c>
+      <c r="G34" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I34" s="242" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J34" s="203" t="s">
+        <v>873</v>
+      </c>
+      <c r="K34" s="495" t="str">
+        <f>"아이스볼트 공격력 "&amp;INT(N34-100)&amp;"% 증가"</f>
+        <v>아이스볼트 공격력 5% 증가</v>
+      </c>
+      <c r="L34" s="486">
+        <v>0</v>
+      </c>
+      <c r="M34" s="432">
+        <v>0.4</v>
+      </c>
+      <c r="N34" s="432">
+        <v>105</v>
+      </c>
+      <c r="O34" s="432">
         <v>1</v>
       </c>
-      <c r="T30" s="428">
-        <v>0</v>
-      </c>
-      <c r="U30" s="397">
-        <v>3</v>
+      <c r="P34" s="432">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="432">
+        <v>0</v>
+      </c>
+      <c r="R34" s="432">
+        <v>0</v>
+      </c>
+      <c r="S34" s="432">
+        <v>0</v>
+      </c>
+      <c r="T34" s="432">
+        <v>0</v>
+      </c>
+      <c r="U34" s="432">
+        <v>0</v>
+      </c>
+      <c r="V34" s="400">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="17.25">
-      <c r="A31" s="333" t="s">
-        <v>937</v>
-      </c>
-      <c r="B31" s="185" t="s">
-        <v>742</v>
-      </c>
-      <c r="C31" s="184" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="429" t="s">
-        <v>330</v>
-      </c>
-      <c r="E31" s="184">
-        <v>3</v>
-      </c>
-      <c r="F31" s="184" t="s">
-        <v>734</v>
-      </c>
-      <c r="G31" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H31" s="186" t="s">
-        <v>841</v>
-      </c>
-      <c r="I31" s="203" t="s">
-        <v>338</v>
-      </c>
-      <c r="J31" s="495" t="str">
-        <f>"번개 공격력 "&amp;INT(M31-100)&amp;"% 증가"</f>
-        <v>번개 공격력 5% 증가</v>
-      </c>
-      <c r="K31" s="483">
-        <v>0</v>
-      </c>
-      <c r="L31" s="428">
-        <v>1.5</v>
-      </c>
-      <c r="M31" s="428">
-        <v>105</v>
-      </c>
-      <c r="N31" s="428">
-        <v>5</v>
-      </c>
-      <c r="O31" s="428">
-        <v>0.9</v>
-      </c>
-      <c r="P31" s="428">
-        <v>0.1</v>
-      </c>
-      <c r="Q31" s="428">
-        <v>0</v>
-      </c>
-      <c r="R31" s="428">
-        <v>0</v>
-      </c>
-      <c r="S31" s="428">
-        <v>1</v>
-      </c>
-      <c r="T31" s="428">
-        <v>0</v>
-      </c>
-      <c r="U31" s="397">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="17.25">
-      <c r="A32" s="333" t="s">
-        <v>992</v>
-      </c>
-      <c r="B32" s="185" t="s">
-        <v>995</v>
-      </c>
-      <c r="C32" s="184" t="s">
-        <v>320</v>
-      </c>
-      <c r="D32" s="429" t="s">
-        <v>985</v>
-      </c>
-      <c r="E32" s="184">
-        <v>3</v>
-      </c>
-      <c r="F32" s="184" t="s">
-        <v>739</v>
-      </c>
-      <c r="G32" s="184" t="s">
-        <v>741</v>
-      </c>
-      <c r="H32" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I32" s="203" t="s">
-        <v>338</v>
-      </c>
-      <c r="J32" s="495" t="str">
-        <f>"번개 공격력 "&amp;INT(M32-100)&amp;"% 증가"</f>
-        <v>번개 공격력 5% 증가</v>
-      </c>
-      <c r="K32" s="483">
-        <v>0</v>
-      </c>
-      <c r="L32" s="428">
-        <v>1.5</v>
-      </c>
-      <c r="M32" s="428">
-        <v>105</v>
-      </c>
-      <c r="N32" s="428">
-        <v>5</v>
-      </c>
-      <c r="O32" s="428">
-        <v>0.9</v>
-      </c>
-      <c r="P32" s="428">
-        <v>0.1</v>
-      </c>
-      <c r="Q32" s="428">
-        <v>0</v>
-      </c>
-      <c r="R32" s="428">
-        <v>0</v>
-      </c>
-      <c r="S32" s="428">
-        <v>1</v>
-      </c>
-      <c r="T32" s="428">
-        <v>0</v>
-      </c>
-      <c r="U32" s="397">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="17.25">
-      <c r="A33" s="335" t="s">
-        <v>993</v>
-      </c>
-      <c r="B33" s="187" t="s">
-        <v>984</v>
-      </c>
-      <c r="C33" s="188" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="367" t="s">
-        <v>986</v>
-      </c>
-      <c r="E33" s="188">
-        <v>3</v>
-      </c>
-      <c r="F33" s="188" t="s">
-        <v>738</v>
-      </c>
-      <c r="G33" s="188" t="s">
-        <v>742</v>
-      </c>
-      <c r="H33" s="189" t="s">
-        <v>431</v>
-      </c>
-      <c r="I33" s="205" t="s">
-        <v>338</v>
-      </c>
-      <c r="J33" s="496" t="str">
-        <f>"번개 공격력 "&amp;INT(M33-100)&amp;"% 증가"</f>
-        <v>번개 공격력 5% 증가</v>
-      </c>
-      <c r="K33" s="484">
-        <v>0</v>
-      </c>
-      <c r="L33" s="380">
-        <v>1.5</v>
-      </c>
-      <c r="M33" s="380">
-        <v>105</v>
-      </c>
-      <c r="N33" s="380">
-        <v>5</v>
-      </c>
-      <c r="O33" s="380">
-        <v>0.9</v>
-      </c>
-      <c r="P33" s="380">
-        <v>0.1</v>
-      </c>
-      <c r="Q33" s="380">
-        <v>0</v>
-      </c>
-      <c r="R33" s="380">
-        <v>0</v>
-      </c>
-      <c r="S33" s="380">
-        <v>1</v>
-      </c>
-      <c r="T33" s="380">
-        <v>0</v>
-      </c>
-      <c r="U33" s="398">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="336" t="s">
-        <v>938</v>
-      </c>
-      <c r="B34" s="337" t="s">
-        <v>743</v>
-      </c>
-      <c r="C34" s="338" t="s">
-        <v>785</v>
-      </c>
-      <c r="D34" s="456" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="338">
-        <v>3</v>
-      </c>
-      <c r="F34" s="338" t="s">
-        <v>431</v>
-      </c>
-      <c r="G34" s="338" t="s">
-        <v>431</v>
-      </c>
-      <c r="H34" s="249" t="s">
-        <v>431</v>
-      </c>
-      <c r="I34" s="368" t="s">
-        <v>870</v>
-      </c>
-      <c r="J34" s="497" t="str">
-        <f>"얼음빠따 공격력 "&amp;INT(M34-100)&amp;"% 증가"</f>
-        <v>얼음빠따 공격력 5% 증가</v>
-      </c>
-      <c r="K34" s="485">
-        <v>0</v>
-      </c>
-      <c r="L34" s="457">
-        <v>1.2</v>
-      </c>
-      <c r="M34" s="457">
-        <v>105</v>
-      </c>
-      <c r="N34" s="457">
-        <v>1.5</v>
-      </c>
-      <c r="O34" s="457">
-        <v>0</v>
-      </c>
-      <c r="P34" s="457">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="457">
-        <v>0</v>
-      </c>
-      <c r="R34" s="457">
-        <v>0</v>
-      </c>
-      <c r="S34" s="457">
-        <v>0</v>
-      </c>
-      <c r="T34" s="457">
-        <v>0</v>
-      </c>
-      <c r="U34" s="472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:22">
       <c r="A35" s="333" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B35" s="185" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C35" s="184" t="s">
         <v>785</v>
       </c>
-      <c r="D35" s="431" t="s">
-        <v>802</v>
+      <c r="D35" s="433" t="s">
+        <v>805</v>
       </c>
       <c r="E35" s="184">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F35" s="184" t="str">
-        <f>B34</f>
+        <f>B32</f>
         <v>IceBat</v>
       </c>
       <c r="G35" s="184" t="s">
@@ -10127,27 +10410,27 @@
       <c r="H35" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I35" s="203" t="s">
-        <v>871</v>
-      </c>
-      <c r="J35" s="495" t="str">
-        <f>"얼음빠따 공격력 "&amp;INT(M35-100)&amp;"% 증가"</f>
-        <v>얼음빠따 공격력 5% 증가</v>
-      </c>
-      <c r="K35" s="486">
-        <v>0</v>
-      </c>
-      <c r="L35" s="432">
-        <v>1.2</v>
+      <c r="I35" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J35" s="203" t="s">
+        <v>874</v>
+      </c>
+      <c r="K35" s="495" t="str">
+        <f>"돌풍 공격력 "&amp;INT(N35-100)&amp;"% 증가"</f>
+        <v>돌풍 공격력 5% 증가</v>
+      </c>
+      <c r="L35" s="486">
+        <v>0</v>
       </c>
       <c r="M35" s="432">
+        <v>1.5</v>
+      </c>
+      <c r="N35" s="432">
         <v>105</v>
       </c>
-      <c r="N35" s="432">
-        <v>1.5</v>
-      </c>
       <c r="O35" s="432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="432">
         <v>0</v>
@@ -10164,28 +10447,31 @@
       <c r="T35" s="432">
         <v>0</v>
       </c>
-      <c r="U35" s="400">
+      <c r="U35" s="432">
+        <v>0</v>
+      </c>
+      <c r="V35" s="400">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:22">
       <c r="A36" s="333" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B36" s="185" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C36" s="184" t="s">
         <v>785</v>
       </c>
       <c r="D36" s="433" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E36" s="184">
         <v>3</v>
       </c>
       <c r="F36" s="184" t="str">
-        <f>B34</f>
+        <f>B32</f>
         <v>IceBat</v>
       </c>
       <c r="G36" s="184" t="s">
@@ -10194,33 +10480,33 @@
       <c r="H36" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I36" s="203" t="s">
-        <v>872</v>
-      </c>
-      <c r="J36" s="495" t="str">
-        <f>"셰르파 공격력 "&amp;INT(M36-100)&amp;"% 증가"</f>
-        <v>셰르파 공격력 5% 증가</v>
-      </c>
-      <c r="K36" s="486">
-        <v>0</v>
-      </c>
-      <c r="L36" s="432">
-        <v>0.4</v>
+      <c r="I36" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J36" s="203" t="s">
+        <v>875</v>
+      </c>
+      <c r="K36" s="495" t="str">
+        <f>"냉기폭풍 공격력 "&amp;INT(N36-100)&amp;"% 증가"</f>
+        <v>냉기폭풍 공격력 5% 증가</v>
+      </c>
+      <c r="L36" s="486">
+        <v>0</v>
       </c>
       <c r="M36" s="432">
+        <v>2</v>
+      </c>
+      <c r="N36" s="432">
         <v>105</v>
       </c>
-      <c r="N36" s="432">
-        <v>0.4</v>
-      </c>
       <c r="O36" s="432">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P36" s="432">
         <v>0</v>
       </c>
       <c r="Q36" s="432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="432">
         <v>0</v>
@@ -10231,29 +10517,32 @@
       <c r="T36" s="432">
         <v>0</v>
       </c>
-      <c r="U36" s="400">
-        <v>3</v>
+      <c r="U36" s="432">
+        <v>0</v>
+      </c>
+      <c r="V36" s="400">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:22">
       <c r="A37" s="333" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B37" s="185" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C37" s="184" t="s">
         <v>785</v>
       </c>
-      <c r="D37" s="433" t="s">
-        <v>804</v>
+      <c r="D37" s="434" t="s">
+        <v>807</v>
       </c>
       <c r="E37" s="184">
         <v>3</v>
       </c>
       <c r="F37" s="184" t="str">
-        <f>B34</f>
-        <v>IceBat</v>
+        <f>B33</f>
+        <v>OpenRoader</v>
       </c>
       <c r="G37" s="184" t="s">
         <v>431</v>
@@ -10261,25 +10550,25 @@
       <c r="H37" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I37" s="203" t="s">
-        <v>873</v>
-      </c>
-      <c r="J37" s="495" t="str">
-        <f>"아이스볼트 공격력 "&amp;INT(M37-100)&amp;"% 증가"</f>
-        <v>아이스볼트 공격력 5% 증가</v>
-      </c>
-      <c r="K37" s="486">
-        <v>0</v>
-      </c>
-      <c r="L37" s="432">
-        <v>0.4</v>
+      <c r="I37" s="242" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J37" s="203" t="s">
+        <v>876</v>
+      </c>
+      <c r="K37" s="495" t="str">
+        <f>"셰르파 공격력 "&amp;INT(N37-100)&amp;"% 증가"</f>
+        <v>셰르파 공격력 5% 증가</v>
+      </c>
+      <c r="L37" s="486">
+        <v>0</v>
       </c>
       <c r="M37" s="432">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="432">
         <v>105</v>
       </c>
-      <c r="N37" s="432">
-        <v>1</v>
-      </c>
       <c r="O37" s="432">
         <v>0</v>
       </c>
@@ -10298,29 +10587,32 @@
       <c r="T37" s="432">
         <v>0</v>
       </c>
-      <c r="U37" s="400">
-        <v>2.5</v>
+      <c r="U37" s="432">
+        <v>0</v>
+      </c>
+      <c r="V37" s="400">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:22">
       <c r="A38" s="333" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B38" s="185" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C38" s="184" t="s">
         <v>785</v>
       </c>
-      <c r="D38" s="433" t="s">
-        <v>805</v>
+      <c r="D38" s="434" t="s">
+        <v>808</v>
       </c>
       <c r="E38" s="184">
         <v>3</v>
       </c>
       <c r="F38" s="184" t="str">
         <f>B34</f>
-        <v>IceBat</v>
+        <v>IceBalt</v>
       </c>
       <c r="G38" s="184" t="s">
         <v>431</v>
@@ -10328,25 +10620,25 @@
       <c r="H38" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I38" s="203" t="s">
-        <v>874</v>
-      </c>
-      <c r="J38" s="495" t="str">
-        <f>"돌풍 공격력 "&amp;INT(M38-100)&amp;"% 증가"</f>
-        <v>돌풍 공격력 5% 증가</v>
-      </c>
-      <c r="K38" s="486">
-        <v>0</v>
-      </c>
-      <c r="L38" s="432">
-        <v>1.5</v>
+      <c r="I38" s="242" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J38" s="203" t="s">
+        <v>877</v>
+      </c>
+      <c r="K38" s="495" t="str">
+        <f>"아이스볼트 공격력 "&amp;INT(N38-100)&amp;"% 증가"</f>
+        <v>아이스볼트 공격력 5% 증가</v>
+      </c>
+      <c r="L38" s="486">
+        <v>0</v>
       </c>
       <c r="M38" s="432">
+        <v>0.6</v>
+      </c>
+      <c r="N38" s="432">
         <v>105</v>
       </c>
-      <c r="N38" s="432">
-        <v>1</v>
-      </c>
       <c r="O38" s="432">
         <v>0</v>
       </c>
@@ -10365,29 +10657,32 @@
       <c r="T38" s="432">
         <v>0</v>
       </c>
-      <c r="U38" s="400">
+      <c r="U38" s="432">
+        <v>0</v>
+      </c>
+      <c r="V38" s="400">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:22">
       <c r="A39" s="333" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B39" s="185" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C39" s="184" t="s">
         <v>785</v>
       </c>
-      <c r="D39" s="433" t="s">
-        <v>806</v>
+      <c r="D39" s="434" t="s">
+        <v>809</v>
       </c>
       <c r="E39" s="184">
         <v>3</v>
       </c>
       <c r="F39" s="184" t="str">
-        <f>B34</f>
-        <v>IceBat</v>
+        <f>B35</f>
+        <v>Flurry</v>
       </c>
       <c r="G39" s="184" t="s">
         <v>431</v>
@@ -10395,30 +10690,30 @@
       <c r="H39" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I39" s="203" t="s">
-        <v>875</v>
-      </c>
-      <c r="J39" s="495" t="str">
-        <f>"냉기폭풍 공격력 "&amp;INT(M39-100)&amp;"% 증가"</f>
-        <v>냉기폭풍 공격력 5% 증가</v>
-      </c>
-      <c r="K39" s="486">
-        <v>0</v>
-      </c>
-      <c r="L39" s="432">
-        <v>2</v>
+      <c r="I39" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J39" s="203" t="s">
+        <v>878</v>
+      </c>
+      <c r="K39" s="495" t="str">
+        <f>"돌풍 공격력 "&amp;INT(N39-100)&amp;"% 증가"</f>
+        <v>돌풍 공격력 5% 증가</v>
+      </c>
+      <c r="L39" s="486">
+        <v>0</v>
       </c>
       <c r="M39" s="432">
+        <v>1.5</v>
+      </c>
+      <c r="N39" s="432">
         <v>105</v>
       </c>
-      <c r="N39" s="432">
-        <v>3</v>
-      </c>
       <c r="O39" s="432">
         <v>0</v>
       </c>
       <c r="P39" s="432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="432">
         <v>0</v>
@@ -10432,29 +10727,32 @@
       <c r="T39" s="432">
         <v>0</v>
       </c>
-      <c r="U39" s="400">
+      <c r="U39" s="432">
+        <v>0</v>
+      </c>
+      <c r="V39" s="400">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:22" ht="17.25">
       <c r="A40" s="333" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B40" s="185" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C40" s="184" t="s">
         <v>785</v>
       </c>
       <c r="D40" s="434" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="E40" s="184">
         <v>3</v>
       </c>
       <c r="F40" s="184" t="str">
         <f>B36</f>
-        <v>OpenRoader</v>
+        <v>ColdStorm</v>
       </c>
       <c r="G40" s="184" t="s">
         <v>431</v>
@@ -10462,25 +10760,25 @@
       <c r="H40" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I40" s="203" t="s">
-        <v>876</v>
-      </c>
-      <c r="J40" s="495" t="str">
-        <f>"셰르파 공격력 "&amp;INT(M40-100)&amp;"% 증가"</f>
-        <v>셰르파 공격력 5% 증가</v>
-      </c>
-      <c r="K40" s="486">
-        <v>0</v>
-      </c>
-      <c r="L40" s="432">
-        <v>0.5</v>
+      <c r="I40" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J40" s="203" t="s">
+        <v>879</v>
+      </c>
+      <c r="K40" s="495" t="str">
+        <f>"냉기폭풍 공격력 "&amp;INT(N40-100)&amp;"% 증가"</f>
+        <v>냉기폭풍 공격력 5% 증가</v>
+      </c>
+      <c r="L40" s="486">
+        <v>0</v>
       </c>
       <c r="M40" s="432">
+        <v>2</v>
+      </c>
+      <c r="N40" s="432">
         <v>105</v>
       </c>
-      <c r="N40" s="432">
-        <v>0</v>
-      </c>
       <c r="O40" s="432">
         <v>0</v>
       </c>
@@ -10499,163 +10797,170 @@
       <c r="T40" s="432">
         <v>0</v>
       </c>
-      <c r="U40" s="400">
+      <c r="U40" s="432">
+        <v>0</v>
+      </c>
+      <c r="V40" s="400">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="333" t="s">
-        <v>945</v>
-      </c>
-      <c r="B41" s="185" t="s">
+    <row r="41" spans="1:22" ht="17.25">
+      <c r="A41" s="334" t="s">
+        <v>994</v>
+      </c>
+      <c r="B41" s="194" t="s">
+        <v>987</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D41" s="464" t="s">
+        <v>988</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C41" s="184" t="s">
-        <v>785</v>
-      </c>
-      <c r="D41" s="434" t="s">
-        <v>808</v>
-      </c>
-      <c r="E41" s="184">
+      <c r="G41" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="H41" s="195" t="s">
+        <v>431</v>
+      </c>
+      <c r="I41" s="529" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J41" s="204" t="s">
+        <v>879</v>
+      </c>
+      <c r="K41" s="498" t="str">
+        <f>"냉기폭풍 공격력 "&amp;INT(N41-100)&amp;"% 증가"</f>
+        <v>냉기폭풍 공격력 5% 증가</v>
+      </c>
+      <c r="L41" s="487">
+        <v>0</v>
+      </c>
+      <c r="M41" s="465">
+        <v>2</v>
+      </c>
+      <c r="N41" s="465">
+        <v>105</v>
+      </c>
+      <c r="O41" s="465">
+        <v>0</v>
+      </c>
+      <c r="P41" s="465">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="465">
+        <v>0</v>
+      </c>
+      <c r="R41" s="465">
+        <v>0</v>
+      </c>
+      <c r="S41" s="465">
+        <v>0</v>
+      </c>
+      <c r="T41" s="465">
+        <v>0</v>
+      </c>
+      <c r="U41" s="465">
+        <v>0</v>
+      </c>
+      <c r="V41" s="473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="332" t="s">
+        <v>948</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>753</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="D42" s="458" t="s">
+        <v>811</v>
+      </c>
+      <c r="E42" s="33">
         <v>3</v>
       </c>
-      <c r="F41" s="184" t="str">
-        <f>B37</f>
-        <v>IceBalt</v>
-      </c>
-      <c r="G41" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H41" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I41" s="203" t="s">
-        <v>877</v>
-      </c>
-      <c r="J41" s="495" t="str">
-        <f>"아이스볼트 공격력 "&amp;INT(M41-100)&amp;"% 증가"</f>
-        <v>아이스볼트 공격력 5% 증가</v>
-      </c>
-      <c r="K41" s="486">
-        <v>0</v>
-      </c>
-      <c r="L41" s="432">
-        <v>0.6</v>
-      </c>
-      <c r="M41" s="432">
+      <c r="F42" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="I42" s="146" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J42" s="115" t="s">
+        <v>880</v>
+      </c>
+      <c r="K42" s="494" t="str">
+        <f>"실드량 "&amp;INT(N42-100)&amp;"% 증가"</f>
+        <v>실드량 5% 증가</v>
+      </c>
+      <c r="L42" s="488">
+        <v>0</v>
+      </c>
+      <c r="M42" s="459">
+        <v>200</v>
+      </c>
+      <c r="N42" s="459">
         <v>105</v>
       </c>
-      <c r="N41" s="432">
-        <v>0</v>
-      </c>
-      <c r="O41" s="432">
-        <v>0</v>
-      </c>
-      <c r="P41" s="432">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="432">
-        <v>0</v>
-      </c>
-      <c r="R41" s="432">
-        <v>0</v>
-      </c>
-      <c r="S41" s="432">
-        <v>0</v>
-      </c>
-      <c r="T41" s="432">
-        <v>0</v>
-      </c>
-      <c r="U41" s="400">
+      <c r="O42" s="459">
+        <v>15</v>
+      </c>
+      <c r="P42" s="459">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="459">
+        <v>0</v>
+      </c>
+      <c r="R42" s="459">
+        <v>0</v>
+      </c>
+      <c r="S42" s="459">
+        <v>0</v>
+      </c>
+      <c r="T42" s="459">
+        <v>0</v>
+      </c>
+      <c r="U42" s="459">
+        <v>0</v>
+      </c>
+      <c r="V42" s="460">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="333" t="s">
-        <v>946</v>
-      </c>
-      <c r="B42" s="185" t="s">
-        <v>751</v>
-      </c>
-      <c r="C42" s="184" t="s">
-        <v>785</v>
-      </c>
-      <c r="D42" s="434" t="s">
-        <v>809</v>
-      </c>
-      <c r="E42" s="184">
-        <v>3</v>
-      </c>
-      <c r="F42" s="184" t="str">
-        <f>B38</f>
-        <v>Flurry</v>
-      </c>
-      <c r="G42" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H42" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I42" s="203" t="s">
-        <v>878</v>
-      </c>
-      <c r="J42" s="495" t="str">
-        <f>"돌풍 공격력 "&amp;INT(M42-100)&amp;"% 증가"</f>
-        <v>돌풍 공격력 5% 증가</v>
-      </c>
-      <c r="K42" s="486">
-        <v>0</v>
-      </c>
-      <c r="L42" s="432">
-        <v>1.5</v>
-      </c>
-      <c r="M42" s="432">
-        <v>105</v>
-      </c>
-      <c r="N42" s="432">
-        <v>0</v>
-      </c>
-      <c r="O42" s="432">
-        <v>0</v>
-      </c>
-      <c r="P42" s="432">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="432">
-        <v>0</v>
-      </c>
-      <c r="R42" s="432">
-        <v>0</v>
-      </c>
-      <c r="S42" s="432">
-        <v>0</v>
-      </c>
-      <c r="T42" s="432">
-        <v>0</v>
-      </c>
-      <c r="U42" s="400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="17.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="333" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B43" s="185" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C43" s="184" t="s">
-        <v>785</v>
-      </c>
-      <c r="D43" s="434" t="s">
-        <v>810</v>
+        <v>786</v>
+      </c>
+      <c r="D43" s="437" t="s">
+        <v>813</v>
       </c>
       <c r="E43" s="184">
         <v>3</v>
       </c>
       <c r="F43" s="184" t="str">
-        <f>B39</f>
-        <v>ColdStorm</v>
+        <f>B42</f>
+        <v>Shield</v>
       </c>
       <c r="G43" s="184" t="s">
         <v>431</v>
@@ -10663,198 +10968,209 @@
       <c r="H43" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I43" s="203" t="s">
-        <v>879</v>
-      </c>
-      <c r="J43" s="495" t="str">
-        <f>"냉기폭풍 공격력 "&amp;INT(M43-100)&amp;"% 증가"</f>
-        <v>냉기폭풍 공격력 5% 증가</v>
-      </c>
-      <c r="K43" s="486">
-        <v>0</v>
-      </c>
-      <c r="L43" s="432">
-        <v>2</v>
-      </c>
-      <c r="M43" s="432">
+      <c r="I43" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J43" s="203" t="s">
+        <v>882</v>
+      </c>
+      <c r="K43" s="495" t="str">
+        <f>"거대방패 실드량 "&amp;INT(N43-100)&amp;"% 증가"</f>
+        <v>거대방패 실드량 10% 증가</v>
+      </c>
+      <c r="L43" s="489">
+        <v>0</v>
+      </c>
+      <c r="M43" s="436">
+        <v>600</v>
+      </c>
+      <c r="N43" s="436">
+        <v>110</v>
+      </c>
+      <c r="O43" s="436">
+        <v>15</v>
+      </c>
+      <c r="P43" s="436">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="436">
+        <v>0</v>
+      </c>
+      <c r="R43" s="436">
+        <v>0</v>
+      </c>
+      <c r="S43" s="436">
+        <v>0</v>
+      </c>
+      <c r="T43" s="436">
+        <v>0</v>
+      </c>
+      <c r="U43" s="436">
+        <v>0</v>
+      </c>
+      <c r="V43" s="403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="333" t="s">
+        <v>951</v>
+      </c>
+      <c r="B44" s="185" t="s">
+        <v>756</v>
+      </c>
+      <c r="C44" s="184" t="s">
+        <v>786</v>
+      </c>
+      <c r="D44" s="437" t="s">
+        <v>814</v>
+      </c>
+      <c r="E44" s="184">
+        <v>3</v>
+      </c>
+      <c r="F44" s="184" t="str">
+        <f>B42</f>
+        <v>Shield</v>
+      </c>
+      <c r="G44" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H44" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I44" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J44" s="203" t="s">
+        <v>883</v>
+      </c>
+      <c r="K44" s="495" t="str">
+        <f>"가시방패 실드량 "&amp;INT(N44-100)&amp;"% 증가"</f>
+        <v>가시방패 실드량 5% 증가</v>
+      </c>
+      <c r="L44" s="489">
+        <v>0</v>
+      </c>
+      <c r="M44" s="436">
+        <v>200</v>
+      </c>
+      <c r="N44" s="436">
         <v>105</v>
       </c>
-      <c r="N43" s="432">
-        <v>0</v>
-      </c>
-      <c r="O43" s="432">
-        <v>0</v>
-      </c>
-      <c r="P43" s="432">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="432">
-        <v>0</v>
-      </c>
-      <c r="R43" s="432">
-        <v>0</v>
-      </c>
-      <c r="S43" s="432">
-        <v>0</v>
-      </c>
-      <c r="T43" s="432">
-        <v>0</v>
-      </c>
-      <c r="U43" s="400">
+      <c r="O44" s="436">
+        <v>15</v>
+      </c>
+      <c r="P44" s="436">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="436">
+        <v>0</v>
+      </c>
+      <c r="R44" s="436">
+        <v>0</v>
+      </c>
+      <c r="S44" s="436">
+        <v>0</v>
+      </c>
+      <c r="T44" s="436">
+        <v>0</v>
+      </c>
+      <c r="U44" s="436">
+        <v>0</v>
+      </c>
+      <c r="V44" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="17.25">
-      <c r="A44" s="334" t="s">
-        <v>994</v>
-      </c>
-      <c r="B44" s="194" t="s">
-        <v>987</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D44" s="464" t="s">
-        <v>988</v>
-      </c>
-      <c r="E44" s="2">
+    <row r="45" spans="1:22">
+      <c r="A45" s="333" t="s">
+        <v>952</v>
+      </c>
+      <c r="B45" s="185" t="s">
+        <v>757</v>
+      </c>
+      <c r="C45" s="184" t="s">
+        <v>786</v>
+      </c>
+      <c r="D45" s="437" t="s">
+        <v>815</v>
+      </c>
+      <c r="E45" s="184">
         <v>3</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="H44" s="195" t="s">
-        <v>431</v>
-      </c>
-      <c r="I44" s="204" t="s">
-        <v>879</v>
-      </c>
-      <c r="J44" s="498" t="str">
-        <f>"냉기폭풍 공격력 "&amp;INT(M44-100)&amp;"% 증가"</f>
-        <v>냉기폭풍 공격력 5% 증가</v>
-      </c>
-      <c r="K44" s="487">
-        <v>0</v>
-      </c>
-      <c r="L44" s="465">
-        <v>2</v>
-      </c>
-      <c r="M44" s="465">
+      <c r="F45" s="184" t="str">
+        <f>B42</f>
+        <v>Shield</v>
+      </c>
+      <c r="G45" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H45" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I45" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J45" s="203" t="s">
+        <v>884</v>
+      </c>
+      <c r="K45" s="495" t="str">
+        <f>"번개방패 공격력 "&amp;INT(N45-100)&amp;"% 증가"</f>
+        <v>번개방패 공격력 5% 증가</v>
+      </c>
+      <c r="L45" s="489">
+        <v>30</v>
+      </c>
+      <c r="M45" s="436">
+        <v>0.75</v>
+      </c>
+      <c r="N45" s="436">
         <v>105</v>
       </c>
-      <c r="N44" s="465">
-        <v>0</v>
-      </c>
-      <c r="O44" s="465">
-        <v>0</v>
-      </c>
-      <c r="P44" s="465">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="465">
-        <v>0</v>
-      </c>
-      <c r="R44" s="465">
-        <v>0</v>
-      </c>
-      <c r="S44" s="465">
-        <v>0</v>
-      </c>
-      <c r="T44" s="465">
-        <v>0</v>
-      </c>
-      <c r="U44" s="473">
+      <c r="O45" s="436">
+        <v>0</v>
+      </c>
+      <c r="P45" s="436">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="436">
+        <v>0</v>
+      </c>
+      <c r="R45" s="436">
+        <v>0</v>
+      </c>
+      <c r="S45" s="436">
+        <v>0</v>
+      </c>
+      <c r="T45" s="436">
+        <v>0</v>
+      </c>
+      <c r="U45" s="436">
+        <v>0</v>
+      </c>
+      <c r="V45" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="332" t="s">
-        <v>948</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>753</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>786</v>
-      </c>
-      <c r="D45" s="458" t="s">
-        <v>811</v>
-      </c>
-      <c r="E45" s="33">
-        <v>3</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="I45" s="115" t="s">
-        <v>880</v>
-      </c>
-      <c r="J45" s="494" t="str">
-        <f>"실드량 "&amp;INT(M45-100)&amp;"% 증가"</f>
-        <v>실드량 5% 증가</v>
-      </c>
-      <c r="K45" s="488">
-        <v>0</v>
-      </c>
-      <c r="L45" s="459">
-        <v>200</v>
-      </c>
-      <c r="M45" s="459">
-        <v>105</v>
-      </c>
-      <c r="N45" s="459">
-        <v>15</v>
-      </c>
-      <c r="O45" s="459">
-        <v>0</v>
-      </c>
-      <c r="P45" s="459">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="459">
-        <v>0</v>
-      </c>
-      <c r="R45" s="459">
-        <v>0</v>
-      </c>
-      <c r="S45" s="459">
-        <v>0</v>
-      </c>
-      <c r="T45" s="459">
-        <v>0</v>
-      </c>
-      <c r="U45" s="460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:22">
       <c r="A46" s="333" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B46" s="185" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C46" s="184" t="s">
         <v>786</v>
       </c>
-      <c r="D46" s="435" t="s">
-        <v>812</v>
+      <c r="D46" s="438" t="s">
+        <v>816</v>
       </c>
       <c r="E46" s="184">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F46" s="184" t="str">
-        <f>B45</f>
-        <v>Shield</v>
+        <f>B43</f>
+        <v>HugeShield</v>
       </c>
       <c r="G46" s="184" t="s">
         <v>431</v>
@@ -10862,24 +11178,24 @@
       <c r="H46" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I46" s="203" t="s">
-        <v>881</v>
-      </c>
-      <c r="J46" s="495" t="str">
-        <f>"실드량 "&amp;INT(M46-100)&amp;"% 증가"</f>
-        <v>실드량 5% 증가</v>
-      </c>
-      <c r="K46" s="489">
-        <v>0</v>
-      </c>
-      <c r="L46" s="436">
-        <v>200</v>
+      <c r="I46" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J46" s="203" t="s">
+        <v>885</v>
+      </c>
+      <c r="K46" s="495" t="str">
+        <f>"방어력의 "&amp;INT(N46)&amp;"% 적용"</f>
+        <v>방어력의 50% 적용</v>
+      </c>
+      <c r="L46" s="489">
+        <v>0</v>
       </c>
       <c r="M46" s="436">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="N46" s="436">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="O46" s="436">
         <v>0</v>
@@ -10899,29 +11215,32 @@
       <c r="T46" s="436">
         <v>0</v>
       </c>
-      <c r="U46" s="403">
+      <c r="U46" s="436">
+        <v>0</v>
+      </c>
+      <c r="V46" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:22">
       <c r="A47" s="333" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B47" s="185" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C47" s="184" t="s">
         <v>786</v>
       </c>
-      <c r="D47" s="437" t="s">
-        <v>813</v>
+      <c r="D47" s="438" t="s">
+        <v>817</v>
       </c>
       <c r="E47" s="184">
         <v>3</v>
       </c>
       <c r="F47" s="184" t="str">
-        <f>B45</f>
-        <v>Shield</v>
+        <f>B44</f>
+        <v>ThornShield</v>
       </c>
       <c r="G47" s="184" t="s">
         <v>431</v>
@@ -10929,24 +11248,24 @@
       <c r="H47" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I47" s="203" t="s">
-        <v>882</v>
-      </c>
-      <c r="J47" s="495" t="str">
-        <f>"거대방패 실드량 "&amp;INT(M47-100)&amp;"% 증가"</f>
-        <v>거대방패 실드량 10% 증가</v>
-      </c>
-      <c r="K47" s="489">
-        <v>0</v>
-      </c>
-      <c r="L47" s="436">
-        <v>600</v>
+      <c r="I47" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J47" s="203" t="s">
+        <v>886</v>
+      </c>
+      <c r="K47" s="495" t="str">
+        <f>"반격 데미지 "&amp;INT(N47-100)&amp;"% 증가"</f>
+        <v>반격 데미지 5% 증가</v>
+      </c>
+      <c r="L47" s="489">
+        <v>0</v>
       </c>
       <c r="M47" s="436">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N47" s="436">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="O47" s="436">
         <v>0</v>
@@ -10966,29 +11285,32 @@
       <c r="T47" s="436">
         <v>0</v>
       </c>
-      <c r="U47" s="403">
+      <c r="U47" s="436">
+        <v>0</v>
+      </c>
+      <c r="V47" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:22">
       <c r="A48" s="333" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B48" s="185" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C48" s="184" t="s">
         <v>786</v>
       </c>
-      <c r="D48" s="437" t="s">
-        <v>814</v>
+      <c r="D48" s="438" t="s">
+        <v>818</v>
       </c>
       <c r="E48" s="184">
         <v>3</v>
       </c>
       <c r="F48" s="184" t="str">
         <f>B45</f>
-        <v>Shield</v>
+        <v>LightningShield</v>
       </c>
       <c r="G48" s="184" t="s">
         <v>431</v>
@@ -10996,24 +11318,24 @@
       <c r="H48" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I48" s="203" t="s">
-        <v>883</v>
-      </c>
-      <c r="J48" s="495" t="str">
-        <f>"가시방패 실드량 "&amp;INT(M48-100)&amp;"% 증가"</f>
-        <v>가시방패 실드량 5% 증가</v>
-      </c>
-      <c r="K48" s="489">
-        <v>0</v>
-      </c>
-      <c r="L48" s="436">
-        <v>200</v>
+      <c r="I48" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J48" s="203" t="s">
+        <v>887</v>
+      </c>
+      <c r="K48" s="495" t="str">
+        <f>"실드 충전시 체력 "&amp;INT(M48)&amp;"% 회복"</f>
+        <v>실드 충전시 체력 1% 회복</v>
+      </c>
+      <c r="L48" s="489">
+        <v>0</v>
       </c>
       <c r="M48" s="436">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="N48" s="436">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O48" s="436">
         <v>0</v>
@@ -11033,63 +11355,66 @@
       <c r="T48" s="436">
         <v>0</v>
       </c>
-      <c r="U48" s="403">
+      <c r="U48" s="436">
+        <v>0</v>
+      </c>
+      <c r="V48" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:22">
       <c r="A49" s="333" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B49" s="185" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C49" s="184" t="s">
         <v>786</v>
       </c>
       <c r="D49" s="437" t="s">
-        <v>815</v>
+        <v>138</v>
       </c>
       <c r="E49" s="184">
         <v>3</v>
       </c>
       <c r="F49" s="184" t="str">
-        <f>B45</f>
+        <f>B42</f>
         <v>Shield</v>
       </c>
       <c r="G49" s="184" t="s">
         <v>431</v>
       </c>
       <c r="H49" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I49" s="203" t="s">
-        <v>884</v>
-      </c>
-      <c r="J49" s="495" t="str">
-        <f>"번개방패 공격력 "&amp;INT(M49-100)&amp;"% 증가"</f>
-        <v>번개방패 공격력 5% 증가</v>
-      </c>
-      <c r="K49" s="489">
-        <v>30</v>
-      </c>
-      <c r="L49" s="436">
-        <v>0.75</v>
+        <v>842</v>
+      </c>
+      <c r="I49" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J49" s="203" t="s">
+        <v>888</v>
+      </c>
+      <c r="K49" s="495" t="str">
+        <f>Q49&amp;"초간 무적"</f>
+        <v>3초간 무적</v>
+      </c>
+      <c r="L49" s="489">
+        <v>0</v>
       </c>
       <c r="M49" s="436">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="N49" s="436">
         <v>0</v>
       </c>
       <c r="O49" s="436">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P49" s="436">
         <v>0</v>
       </c>
       <c r="Q49" s="436">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R49" s="436">
         <v>0</v>
@@ -11100,63 +11425,67 @@
       <c r="T49" s="436">
         <v>0</v>
       </c>
-      <c r="U49" s="403">
+      <c r="U49" s="436">
+        <v>0</v>
+      </c>
+      <c r="V49" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" s="333" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B50" s="185" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C50" s="184" t="s">
         <v>786</v>
       </c>
-      <c r="D50" s="438" t="s">
-        <v>816</v>
+      <c r="D50" s="437" t="s">
+        <v>819</v>
       </c>
       <c r="E50" s="184">
         <v>3</v>
       </c>
       <c r="F50" s="184" t="str">
-        <f>B47</f>
-        <v>HugeShield</v>
-      </c>
-      <c r="G50" s="184" t="s">
-        <v>431</v>
+        <f>B42</f>
+        <v>Shield</v>
+      </c>
+      <c r="G50" s="184" t="str">
+        <f>B55</f>
+        <v>SnowFog</v>
       </c>
       <c r="H50" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I50" s="203" t="s">
-        <v>885</v>
-      </c>
-      <c r="J50" s="495" t="str">
-        <f>"방어력의 "&amp;INT(M50)&amp;"% 적용"</f>
-        <v>방어력의 50% 적용</v>
-      </c>
-      <c r="K50" s="489">
-        <v>0</v>
-      </c>
-      <c r="L50" s="436">
+        <v>843</v>
+      </c>
+      <c r="I50" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J50" s="203" t="s">
+        <v>889</v>
+      </c>
+      <c r="K50" s="495" t="str">
+        <f>Q50&amp;"초간 은신"</f>
+        <v>3초간 은신</v>
+      </c>
+      <c r="L50" s="489">
         <v>0</v>
       </c>
       <c r="M50" s="436">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N50" s="436">
         <v>0</v>
       </c>
       <c r="O50" s="436">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P50" s="436">
         <v>0</v>
       </c>
       <c r="Q50" s="436">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R50" s="436">
         <v>0</v>
@@ -11167,29 +11496,32 @@
       <c r="T50" s="436">
         <v>0</v>
       </c>
-      <c r="U50" s="403">
+      <c r="U50" s="436">
+        <v>0</v>
+      </c>
+      <c r="V50" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:22">
       <c r="A51" s="333" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B51" s="185" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C51" s="184" t="s">
         <v>786</v>
       </c>
       <c r="D51" s="438" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E51" s="184">
         <v>3</v>
       </c>
       <c r="F51" s="184" t="str">
-        <f>B48</f>
-        <v>ThornShield</v>
+        <f>B49</f>
+        <v>Invincible</v>
       </c>
       <c r="G51" s="184" t="s">
         <v>431</v>
@@ -11197,21 +11529,21 @@
       <c r="H51" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I51" s="203" t="s">
-        <v>886</v>
-      </c>
-      <c r="J51" s="495" t="str">
-        <f>"반격 데미지 "&amp;INT(M51-100)&amp;"% 증가"</f>
-        <v>반격 데미지 5% 증가</v>
-      </c>
-      <c r="K51" s="489">
-        <v>0</v>
-      </c>
-      <c r="L51" s="436">
-        <v>5</v>
+      <c r="I51" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J51" s="203" t="s">
+        <v>890</v>
+      </c>
+      <c r="K51" s="495" t="str">
+        <f>"방지한 데미지의 "&amp;M51&amp;"% 만큼 체력회복"</f>
+        <v>방지한 데미지의 30% 만큼 체력회복</v>
+      </c>
+      <c r="L51" s="489">
+        <v>0</v>
       </c>
       <c r="M51" s="436">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N51" s="436">
         <v>0</v>
@@ -11234,231 +11566,240 @@
       <c r="T51" s="436">
         <v>0</v>
       </c>
-      <c r="U51" s="403">
+      <c r="U51" s="436">
+        <v>0</v>
+      </c>
+      <c r="V51" s="403">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="333" t="s">
-        <v>955</v>
-      </c>
-      <c r="B52" s="185" t="s">
-        <v>760</v>
-      </c>
-      <c r="C52" s="184" t="s">
+    <row r="52" spans="1:22" ht="17.25">
+      <c r="A52" s="335" t="s">
+        <v>959</v>
+      </c>
+      <c r="B52" s="187" t="s">
+        <v>764</v>
+      </c>
+      <c r="C52" s="188" t="s">
         <v>786</v>
       </c>
-      <c r="D52" s="438" t="s">
-        <v>818</v>
-      </c>
-      <c r="E52" s="184">
+      <c r="D52" s="461" t="s">
+        <v>821</v>
+      </c>
+      <c r="E52" s="188">
         <v>3</v>
       </c>
-      <c r="F52" s="184" t="str">
-        <f>B49</f>
-        <v>LightningShield</v>
-      </c>
-      <c r="G52" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H52" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I52" s="203" t="s">
-        <v>887</v>
-      </c>
-      <c r="J52" s="495" t="str">
-        <f>"실드 충전시 체력 "&amp;INT(L52)&amp;"% 회복"</f>
-        <v>실드 충전시 체력 1% 회복</v>
-      </c>
-      <c r="K52" s="489">
-        <v>0</v>
-      </c>
-      <c r="L52" s="436">
-        <v>1</v>
-      </c>
-      <c r="M52" s="436">
-        <v>1</v>
-      </c>
-      <c r="N52" s="436">
-        <v>0</v>
-      </c>
-      <c r="O52" s="436">
-        <v>0</v>
-      </c>
-      <c r="P52" s="436">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="436">
-        <v>0</v>
-      </c>
-      <c r="R52" s="436">
-        <v>0</v>
-      </c>
-      <c r="S52" s="436">
-        <v>0</v>
-      </c>
-      <c r="T52" s="436">
-        <v>0</v>
-      </c>
-      <c r="U52" s="403">
+      <c r="F52" s="188" t="str">
+        <f>B50</f>
+        <v>Hide</v>
+      </c>
+      <c r="G52" s="188" t="s">
+        <v>431</v>
+      </c>
+      <c r="H52" s="189" t="s">
+        <v>431</v>
+      </c>
+      <c r="I52" s="527" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J52" s="205" t="s">
+        <v>891</v>
+      </c>
+      <c r="K52" s="496" t="str">
+        <f>"은신 이동속도 "&amp;M52&amp;"% 증가"</f>
+        <v>은신 이동속도 3% 증가</v>
+      </c>
+      <c r="L52" s="490">
+        <v>0</v>
+      </c>
+      <c r="M52" s="462">
+        <v>3</v>
+      </c>
+      <c r="N52" s="462">
+        <v>0</v>
+      </c>
+      <c r="O52" s="462">
+        <v>0</v>
+      </c>
+      <c r="P52" s="462">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="462">
+        <v>0</v>
+      </c>
+      <c r="R52" s="462">
+        <v>0</v>
+      </c>
+      <c r="S52" s="462">
+        <v>0</v>
+      </c>
+      <c r="T52" s="462">
+        <v>0</v>
+      </c>
+      <c r="U52" s="462">
+        <v>0</v>
+      </c>
+      <c r="V52" s="463">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="333" t="s">
-        <v>956</v>
-      </c>
-      <c r="B53" s="185" t="s">
-        <v>761</v>
-      </c>
-      <c r="C53" s="184" t="s">
-        <v>786</v>
-      </c>
-      <c r="D53" s="437" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="184">
-        <v>3</v>
-      </c>
-      <c r="F53" s="184" t="str">
-        <f>B45</f>
-        <v>Shield</v>
-      </c>
-      <c r="G53" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H53" s="186" t="s">
-        <v>842</v>
-      </c>
-      <c r="I53" s="203" t="s">
-        <v>888</v>
-      </c>
-      <c r="J53" s="495" t="str">
-        <f>P53&amp;"초간 무적"</f>
-        <v>3초간 무적</v>
-      </c>
-      <c r="K53" s="489">
-        <v>0</v>
-      </c>
-      <c r="L53" s="436">
-        <v>0</v>
-      </c>
-      <c r="M53" s="436">
-        <v>0</v>
-      </c>
-      <c r="N53" s="436">
-        <v>20</v>
-      </c>
-      <c r="O53" s="436">
-        <v>0</v>
-      </c>
-      <c r="P53" s="436">
-        <v>3</v>
-      </c>
-      <c r="Q53" s="436">
-        <v>0</v>
-      </c>
-      <c r="R53" s="436">
-        <v>0</v>
-      </c>
-      <c r="S53" s="436">
-        <v>0</v>
-      </c>
-      <c r="T53" s="436">
-        <v>0</v>
-      </c>
-      <c r="U53" s="403">
+    <row r="53" spans="1:22">
+      <c r="A53" s="336" t="s">
+        <v>960</v>
+      </c>
+      <c r="B53" s="337" t="s">
+        <v>765</v>
+      </c>
+      <c r="C53" s="338" t="s">
+        <v>787</v>
+      </c>
+      <c r="D53" s="466" t="s">
+        <v>822</v>
+      </c>
+      <c r="E53" s="338">
+        <v>0</v>
+      </c>
+      <c r="F53" s="338" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" s="338" t="s">
+        <v>431</v>
+      </c>
+      <c r="H53" s="249" t="s">
+        <v>431</v>
+      </c>
+      <c r="I53" s="528" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J53" s="368" t="s">
+        <v>892</v>
+      </c>
+      <c r="K53" s="497" t="s">
+        <v>822</v>
+      </c>
+      <c r="L53" s="491">
+        <v>0</v>
+      </c>
+      <c r="M53" s="467">
+        <v>0</v>
+      </c>
+      <c r="N53" s="467">
+        <v>0</v>
+      </c>
+      <c r="O53" s="467">
+        <v>0</v>
+      </c>
+      <c r="P53" s="467">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="467">
+        <v>0</v>
+      </c>
+      <c r="R53" s="467">
+        <v>0</v>
+      </c>
+      <c r="S53" s="467">
+        <v>0</v>
+      </c>
+      <c r="T53" s="467">
+        <v>0</v>
+      </c>
+      <c r="U53" s="467">
+        <v>0</v>
+      </c>
+      <c r="V53" s="474">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:22">
       <c r="A54" s="333" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="B54" s="185" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C54" s="184" t="s">
-        <v>786</v>
-      </c>
-      <c r="D54" s="437" t="s">
-        <v>819</v>
+        <v>787</v>
+      </c>
+      <c r="D54" s="441" t="s">
+        <v>824</v>
       </c>
       <c r="E54" s="184">
         <v>3</v>
       </c>
       <c r="F54" s="184" t="str">
-        <f>B45</f>
-        <v>Shield</v>
-      </c>
-      <c r="G54" s="184" t="str">
-        <f>B60</f>
-        <v>SnowFog</v>
+        <f>B53</f>
+        <v>Field</v>
+      </c>
+      <c r="G54" s="184" t="s">
+        <v>431</v>
       </c>
       <c r="H54" s="186" t="s">
-        <v>843</v>
-      </c>
-      <c r="I54" s="203" t="s">
-        <v>889</v>
-      </c>
-      <c r="J54" s="495" t="str">
-        <f>P54&amp;"초간 은신"</f>
-        <v>3초간 은신</v>
-      </c>
-      <c r="K54" s="489">
-        <v>0</v>
-      </c>
-      <c r="L54" s="436">
-        <v>0</v>
-      </c>
-      <c r="M54" s="436">
-        <v>0</v>
-      </c>
-      <c r="N54" s="436">
+        <v>431</v>
+      </c>
+      <c r="I54" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J54" s="203" t="s">
+        <v>894</v>
+      </c>
+      <c r="K54" s="495" t="str">
+        <f>"눈보라 슬로우 "&amp;INT(M54)&amp;"% 증가"</f>
+        <v>눈보라 슬로우 5% 증가</v>
+      </c>
+      <c r="L54" s="492">
+        <v>0</v>
+      </c>
+      <c r="M54" s="440">
+        <v>5</v>
+      </c>
+      <c r="N54" s="440">
+        <v>0</v>
+      </c>
+      <c r="O54" s="440">
         <v>20</v>
       </c>
-      <c r="O54" s="436">
-        <v>0</v>
-      </c>
-      <c r="P54" s="436">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="436">
-        <v>0</v>
-      </c>
-      <c r="R54" s="436">
-        <v>0</v>
-      </c>
-      <c r="S54" s="436">
-        <v>0</v>
-      </c>
-      <c r="T54" s="436">
-        <v>0</v>
-      </c>
-      <c r="U54" s="403">
+      <c r="P54" s="440">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="440">
+        <v>0</v>
+      </c>
+      <c r="R54" s="440">
+        <v>0</v>
+      </c>
+      <c r="S54" s="440">
+        <v>0</v>
+      </c>
+      <c r="T54" s="440">
+        <v>0</v>
+      </c>
+      <c r="U54" s="440">
+        <v>0</v>
+      </c>
+      <c r="V54" s="406">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:22">
       <c r="A55" s="333" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="B55" s="185" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C55" s="184" t="s">
-        <v>786</v>
-      </c>
-      <c r="D55" s="438" t="s">
-        <v>820</v>
+        <v>787</v>
+      </c>
+      <c r="D55" s="441" t="s">
+        <v>825</v>
       </c>
       <c r="E55" s="184">
         <v>3</v>
       </c>
       <c r="F55" s="184" t="str">
         <f>B53</f>
-        <v>Invincible</v>
+        <v>Field</v>
       </c>
       <c r="G55" s="184" t="s">
         <v>431</v>
@@ -11466,198 +11807,209 @@
       <c r="H55" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I55" s="203" t="s">
-        <v>890</v>
-      </c>
-      <c r="J55" s="495" t="str">
-        <f>"방지한 데미지의 "&amp;L55&amp;"% 만큼 체력회복"</f>
-        <v>방지한 데미지의 30% 만큼 체력회복</v>
-      </c>
-      <c r="K55" s="489">
-        <v>0</v>
-      </c>
-      <c r="L55" s="436">
-        <v>30</v>
-      </c>
-      <c r="M55" s="436">
-        <v>0</v>
-      </c>
-      <c r="N55" s="436">
-        <v>0</v>
-      </c>
-      <c r="O55" s="436">
-        <v>0</v>
-      </c>
-      <c r="P55" s="436">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="436">
-        <v>0</v>
-      </c>
-      <c r="R55" s="436">
-        <v>0</v>
-      </c>
-      <c r="S55" s="436">
-        <v>0</v>
-      </c>
-      <c r="T55" s="436">
-        <v>0</v>
-      </c>
-      <c r="U55" s="403">
+      <c r="I55" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J55" s="203" t="s">
+        <v>895</v>
+      </c>
+      <c r="K55" s="495" t="str">
+        <f>"눈안개 실명확률 "&amp;INT(M55)&amp;"% 증가"</f>
+        <v>눈안개 실명확률 5% 증가</v>
+      </c>
+      <c r="L55" s="492">
+        <v>0</v>
+      </c>
+      <c r="M55" s="440">
+        <v>5</v>
+      </c>
+      <c r="N55" s="440">
+        <v>0</v>
+      </c>
+      <c r="O55" s="440">
+        <v>20</v>
+      </c>
+      <c r="P55" s="440">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="440">
+        <v>0</v>
+      </c>
+      <c r="R55" s="440">
+        <v>0</v>
+      </c>
+      <c r="S55" s="440">
+        <v>0</v>
+      </c>
+      <c r="T55" s="440">
+        <v>0</v>
+      </c>
+      <c r="U55" s="440">
+        <v>0</v>
+      </c>
+      <c r="V55" s="406">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="17.25">
-      <c r="A56" s="335" t="s">
-        <v>959</v>
-      </c>
-      <c r="B56" s="187" t="s">
-        <v>764</v>
-      </c>
-      <c r="C56" s="188" t="s">
-        <v>786</v>
-      </c>
-      <c r="D56" s="461" t="s">
-        <v>821</v>
-      </c>
-      <c r="E56" s="188">
+    <row r="56" spans="1:22">
+      <c r="A56" s="333" t="s">
+        <v>964</v>
+      </c>
+      <c r="B56" s="185" t="s">
+        <v>769</v>
+      </c>
+      <c r="C56" s="184" t="s">
+        <v>787</v>
+      </c>
+      <c r="D56" s="441" t="s">
+        <v>826</v>
+      </c>
+      <c r="E56" s="184">
         <v>3</v>
       </c>
-      <c r="F56" s="188" t="str">
+      <c r="F56" s="184" t="str">
+        <f>B53</f>
+        <v>Field</v>
+      </c>
+      <c r="G56" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H56" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I56" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J56" s="203" t="s">
+        <v>896</v>
+      </c>
+      <c r="K56" s="495" t="str">
+        <f>"오로라 효과 증가"</f>
+        <v>오로라 효과 증가</v>
+      </c>
+      <c r="L56" s="492">
+        <v>0</v>
+      </c>
+      <c r="M56" s="440">
+        <v>0</v>
+      </c>
+      <c r="N56" s="440">
+        <v>0</v>
+      </c>
+      <c r="O56" s="440">
+        <v>20</v>
+      </c>
+      <c r="P56" s="440">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="440">
+        <v>0</v>
+      </c>
+      <c r="R56" s="440">
+        <v>0</v>
+      </c>
+      <c r="S56" s="440">
+        <v>0</v>
+      </c>
+      <c r="T56" s="440">
+        <v>0</v>
+      </c>
+      <c r="U56" s="440">
+        <v>0</v>
+      </c>
+      <c r="V56" s="406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="333" t="s">
+        <v>965</v>
+      </c>
+      <c r="B57" s="185" t="s">
+        <v>770</v>
+      </c>
+      <c r="C57" s="184" t="s">
+        <v>787</v>
+      </c>
+      <c r="D57" s="442" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="184">
+        <v>3</v>
+      </c>
+      <c r="F57" s="184" t="str">
         <f>B54</f>
-        <v>Hide</v>
-      </c>
-      <c r="G56" s="188" t="s">
-        <v>431</v>
-      </c>
-      <c r="H56" s="189" t="s">
-        <v>431</v>
-      </c>
-      <c r="I56" s="205" t="s">
-        <v>891</v>
-      </c>
-      <c r="J56" s="496" t="str">
-        <f>"은신 이동속도 "&amp;L56&amp;"% 증가"</f>
-        <v>은신 이동속도 3% 증가</v>
-      </c>
-      <c r="K56" s="490">
-        <v>0</v>
-      </c>
-      <c r="L56" s="462">
-        <v>3</v>
-      </c>
-      <c r="M56" s="462">
-        <v>0</v>
-      </c>
-      <c r="N56" s="462">
-        <v>0</v>
-      </c>
-      <c r="O56" s="462">
-        <v>0</v>
-      </c>
-      <c r="P56" s="462">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="462">
-        <v>0</v>
-      </c>
-      <c r="R56" s="462">
-        <v>0</v>
-      </c>
-      <c r="S56" s="462">
-        <v>0</v>
-      </c>
-      <c r="T56" s="462">
-        <v>0</v>
-      </c>
-      <c r="U56" s="463">
+        <v>SnowStorm</v>
+      </c>
+      <c r="G57" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H57" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I57" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J57" s="203" t="s">
+        <v>897</v>
+      </c>
+      <c r="K57" s="495" t="str">
+        <f>"블리자드 공격력 "&amp;INT(N57-100)&amp;"% 증가"</f>
+        <v>블리자드 공격력 5% 증가</v>
+      </c>
+      <c r="L57" s="492">
+        <v>0</v>
+      </c>
+      <c r="M57" s="440">
+        <v>0.25</v>
+      </c>
+      <c r="N57" s="440">
+        <v>105</v>
+      </c>
+      <c r="O57" s="440">
+        <v>20</v>
+      </c>
+      <c r="P57" s="440">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="440">
+        <v>0</v>
+      </c>
+      <c r="R57" s="440">
+        <v>0</v>
+      </c>
+      <c r="S57" s="440">
+        <v>0</v>
+      </c>
+      <c r="T57" s="440">
+        <v>0</v>
+      </c>
+      <c r="U57" s="440">
+        <v>0</v>
+      </c>
+      <c r="V57" s="406">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="336" t="s">
-        <v>960</v>
-      </c>
-      <c r="B57" s="337" t="s">
-        <v>765</v>
-      </c>
-      <c r="C57" s="338" t="s">
-        <v>787</v>
-      </c>
-      <c r="D57" s="466" t="s">
-        <v>822</v>
-      </c>
-      <c r="E57" s="338">
-        <v>0</v>
-      </c>
-      <c r="F57" s="338" t="s">
-        <v>431</v>
-      </c>
-      <c r="G57" s="338" t="s">
-        <v>431</v>
-      </c>
-      <c r="H57" s="249" t="s">
-        <v>431</v>
-      </c>
-      <c r="I57" s="368" t="s">
-        <v>892</v>
-      </c>
-      <c r="J57" s="497" t="s">
-        <v>822</v>
-      </c>
-      <c r="K57" s="491">
-        <v>0</v>
-      </c>
-      <c r="L57" s="467">
-        <v>0</v>
-      </c>
-      <c r="M57" s="467">
-        <v>0</v>
-      </c>
-      <c r="N57" s="467">
-        <v>0</v>
-      </c>
-      <c r="O57" s="467">
-        <v>0</v>
-      </c>
-      <c r="P57" s="467">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="467">
-        <v>0</v>
-      </c>
-      <c r="R57" s="467">
-        <v>0</v>
-      </c>
-      <c r="S57" s="467">
-        <v>0</v>
-      </c>
-      <c r="T57" s="467">
-        <v>0</v>
-      </c>
-      <c r="U57" s="474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:22">
       <c r="A58" s="333" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="B58" s="185" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C58" s="184" t="s">
         <v>787</v>
       </c>
-      <c r="D58" s="439" t="s">
-        <v>823</v>
+      <c r="D58" s="442" t="s">
+        <v>827</v>
       </c>
       <c r="E58" s="184">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F58" s="184" t="str">
-        <f>B57</f>
-        <v>Field</v>
+        <f>B55</f>
+        <v>SnowFog</v>
       </c>
       <c r="G58" s="184" t="s">
         <v>431</v>
@@ -11665,26 +12017,27 @@
       <c r="H58" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I58" s="203" t="s">
-        <v>893</v>
-      </c>
-      <c r="J58" s="495" t="s">
-        <v>822</v>
-      </c>
-      <c r="K58" s="492">
-        <v>0</v>
-      </c>
-      <c r="L58" s="440">
+      <c r="I58" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J58" s="203" t="s">
+        <v>898</v>
+      </c>
+      <c r="K58" s="495" t="str">
+        <f>"화이트아웃 공격력 "&amp;INT(N58-100)&amp;"% 증가"</f>
+        <v>화이트아웃 공격력 5% 증가</v>
+      </c>
+      <c r="L58" s="492">
         <v>0</v>
       </c>
       <c r="M58" s="440">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N58" s="440">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O58" s="440">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P58" s="440">
         <v>0</v>
@@ -11701,230 +12054,240 @@
       <c r="T58" s="440">
         <v>0</v>
       </c>
-      <c r="U58" s="406">
+      <c r="U58" s="440">
+        <v>0</v>
+      </c>
+      <c r="V58" s="406">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:22">
       <c r="A59" s="333" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B59" s="185" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C59" s="184" t="s">
         <v>787</v>
       </c>
-      <c r="D59" s="441" t="s">
-        <v>824</v>
+      <c r="D59" s="442" t="s">
+        <v>828</v>
       </c>
       <c r="E59" s="184">
         <v>3</v>
       </c>
       <c r="F59" s="184" t="str">
+        <f>B56</f>
+        <v>Aurora</v>
+      </c>
+      <c r="G59" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H59" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I59" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J59" s="203" t="s">
+        <v>899</v>
+      </c>
+      <c r="K59" s="495" t="str">
+        <f>"서브스톰 효과 증가"</f>
+        <v>서브스톰 효과 증가</v>
+      </c>
+      <c r="L59" s="492">
+        <v>0</v>
+      </c>
+      <c r="M59" s="440">
+        <v>0</v>
+      </c>
+      <c r="N59" s="440">
+        <v>0</v>
+      </c>
+      <c r="O59" s="440">
+        <v>20</v>
+      </c>
+      <c r="P59" s="440">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="440">
+        <v>0</v>
+      </c>
+      <c r="R59" s="440">
+        <v>0</v>
+      </c>
+      <c r="S59" s="440">
+        <v>0</v>
+      </c>
+      <c r="T59" s="440">
+        <v>0</v>
+      </c>
+      <c r="U59" s="440">
+        <v>0</v>
+      </c>
+      <c r="V59" s="406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="17.25">
+      <c r="A60" s="334" t="s">
+        <v>968</v>
+      </c>
+      <c r="B60" s="194" t="s">
+        <v>773</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D60" s="468" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2" t="str">
         <f>B57</f>
-        <v>Field</v>
-      </c>
-      <c r="G59" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H59" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I59" s="203" t="s">
-        <v>894</v>
-      </c>
-      <c r="J59" s="495" t="str">
-        <f>"눈보라 슬로우 "&amp;INT(L59)&amp;"% 증가"</f>
-        <v>눈보라 슬로우 5% 증가</v>
-      </c>
-      <c r="K59" s="492">
-        <v>0</v>
-      </c>
-      <c r="L59" s="440">
-        <v>5</v>
-      </c>
-      <c r="M59" s="440">
-        <v>0</v>
-      </c>
-      <c r="N59" s="440">
+        <v>Blizzard</v>
+      </c>
+      <c r="G60" s="2" t="str">
+        <f>B58</f>
+        <v>WhiteOut</v>
+      </c>
+      <c r="H60" s="195" t="s">
+        <v>738</v>
+      </c>
+      <c r="I60" s="529" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J60" s="204" t="s">
+        <v>900</v>
+      </c>
+      <c r="K60" s="498" t="str">
+        <f>"아이스에이지 공격력 "&amp;INT(N60-100)&amp;"% 증가"</f>
+        <v>아이스에이지 공격력 5% 증가</v>
+      </c>
+      <c r="L60" s="493">
+        <v>0</v>
+      </c>
+      <c r="M60" s="469">
         <v>20</v>
       </c>
-      <c r="O59" s="440">
-        <v>0</v>
-      </c>
-      <c r="P59" s="440">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="440">
-        <v>0</v>
-      </c>
-      <c r="R59" s="440">
-        <v>0</v>
-      </c>
-      <c r="S59" s="440">
-        <v>0</v>
-      </c>
-      <c r="T59" s="440">
-        <v>0</v>
-      </c>
-      <c r="U59" s="406">
+      <c r="N60" s="469">
+        <v>105</v>
+      </c>
+      <c r="O60" s="469">
+        <v>60</v>
+      </c>
+      <c r="P60" s="469">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="469">
+        <v>0</v>
+      </c>
+      <c r="R60" s="469">
+        <v>0</v>
+      </c>
+      <c r="S60" s="469">
+        <v>0</v>
+      </c>
+      <c r="T60" s="469">
+        <v>0</v>
+      </c>
+      <c r="U60" s="469">
+        <v>0</v>
+      </c>
+      <c r="V60" s="475">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="333" t="s">
-        <v>963</v>
-      </c>
-      <c r="B60" s="185" t="s">
-        <v>768</v>
-      </c>
-      <c r="C60" s="184" t="s">
-        <v>787</v>
-      </c>
-      <c r="D60" s="441" t="s">
-        <v>825</v>
-      </c>
-      <c r="E60" s="184">
-        <v>3</v>
-      </c>
-      <c r="F60" s="184" t="str">
-        <f>B57</f>
-        <v>Field</v>
-      </c>
-      <c r="G60" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H60" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I60" s="203" t="s">
-        <v>895</v>
-      </c>
-      <c r="J60" s="495" t="str">
-        <f>"눈안개 실명확률 "&amp;INT(L60)&amp;"% 증가"</f>
-        <v>눈안개 실명확률 5% 증가</v>
-      </c>
-      <c r="K60" s="492">
-        <v>0</v>
-      </c>
-      <c r="L60" s="440">
-        <v>5</v>
-      </c>
-      <c r="M60" s="440">
-        <v>0</v>
-      </c>
-      <c r="N60" s="440">
-        <v>20</v>
-      </c>
-      <c r="O60" s="440">
-        <v>0</v>
-      </c>
-      <c r="P60" s="440">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="440">
-        <v>0</v>
-      </c>
-      <c r="R60" s="440">
-        <v>0</v>
-      </c>
-      <c r="S60" s="440">
-        <v>0</v>
-      </c>
-      <c r="T60" s="440">
-        <v>0</v>
-      </c>
-      <c r="U60" s="406">
+    <row r="61" spans="1:22">
+      <c r="A61" s="332" t="s">
+        <v>969</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="D61" s="310" t="s">
+        <v>829</v>
+      </c>
+      <c r="E61" s="33">
+        <v>0</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="I61" s="146" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J61" s="115" t="s">
+        <v>829</v>
+      </c>
+      <c r="K61" s="494" t="s">
+        <v>829</v>
+      </c>
+      <c r="L61" s="482">
+        <v>0</v>
+      </c>
+      <c r="M61" s="378">
+        <v>0</v>
+      </c>
+      <c r="N61" s="378">
+        <v>0</v>
+      </c>
+      <c r="O61" s="378">
+        <v>0</v>
+      </c>
+      <c r="P61" s="378">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="378">
+        <v>0</v>
+      </c>
+      <c r="R61" s="378">
+        <v>0</v>
+      </c>
+      <c r="S61" s="378">
+        <v>0</v>
+      </c>
+      <c r="T61" s="378">
+        <v>0</v>
+      </c>
+      <c r="U61" s="378">
+        <v>0</v>
+      </c>
+      <c r="V61" s="396">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="333" t="s">
-        <v>964</v>
-      </c>
-      <c r="B61" s="185" t="s">
-        <v>769</v>
-      </c>
-      <c r="C61" s="184" t="s">
-        <v>787</v>
-      </c>
-      <c r="D61" s="441" t="s">
-        <v>826</v>
-      </c>
-      <c r="E61" s="184">
-        <v>3</v>
-      </c>
-      <c r="F61" s="184" t="str">
-        <f>B57</f>
-        <v>Field</v>
-      </c>
-      <c r="G61" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H61" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I61" s="203" t="s">
-        <v>896</v>
-      </c>
-      <c r="J61" s="495" t="str">
-        <f>"오로라 효과 증가"</f>
-        <v>오로라 효과 증가</v>
-      </c>
-      <c r="K61" s="492">
-        <v>0</v>
-      </c>
-      <c r="L61" s="440">
-        <v>0</v>
-      </c>
-      <c r="M61" s="440">
-        <v>0</v>
-      </c>
-      <c r="N61" s="440">
-        <v>20</v>
-      </c>
-      <c r="O61" s="440">
-        <v>0</v>
-      </c>
-      <c r="P61" s="440">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="440">
-        <v>0</v>
-      </c>
-      <c r="R61" s="440">
-        <v>0</v>
-      </c>
-      <c r="S61" s="440">
-        <v>0</v>
-      </c>
-      <c r="T61" s="440">
-        <v>0</v>
-      </c>
-      <c r="U61" s="406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:22">
       <c r="A62" s="333" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="B62" s="185" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="C62" s="184" t="s">
-        <v>787</v>
-      </c>
-      <c r="D62" s="442" t="s">
-        <v>9</v>
+        <v>788</v>
+      </c>
+      <c r="D62" s="429" t="s">
+        <v>831</v>
       </c>
       <c r="E62" s="184">
         <v>3</v>
       </c>
-      <c r="F62" s="184" t="str">
-        <f>B59</f>
-        <v>SnowStorm</v>
+      <c r="F62" s="184" t="s">
+        <v>431</v>
       </c>
       <c r="G62" s="184" t="s">
         <v>431</v>
@@ -11932,66 +12295,68 @@
       <c r="H62" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I62" s="203" t="s">
-        <v>897</v>
-      </c>
-      <c r="J62" s="495" t="str">
-        <f>"블리자드 공격력 "&amp;INT(M62-100)&amp;"% 증가"</f>
-        <v>블리자드 공격력 5% 증가</v>
-      </c>
-      <c r="K62" s="492">
-        <v>0</v>
-      </c>
-      <c r="L62" s="440">
-        <v>0.25</v>
-      </c>
-      <c r="M62" s="440">
+      <c r="I62" s="242" t="s">
+        <v>776</v>
+      </c>
+      <c r="J62" s="203" t="s">
+        <v>901</v>
+      </c>
+      <c r="K62" s="495" t="str">
+        <f>"펫 공격력 "&amp;INT(N62-100)&amp;"% 증가"</f>
+        <v>펫 공격력 5% 증가</v>
+      </c>
+      <c r="L62" s="483">
+        <v>0</v>
+      </c>
+      <c r="M62" s="428">
+        <v>0.5</v>
+      </c>
+      <c r="N62" s="428">
         <v>105</v>
       </c>
-      <c r="N62" s="440">
-        <v>20</v>
-      </c>
-      <c r="O62" s="440">
-        <v>0</v>
-      </c>
-      <c r="P62" s="440">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="440">
-        <v>0</v>
-      </c>
-      <c r="R62" s="440">
-        <v>0</v>
-      </c>
-      <c r="S62" s="440">
-        <v>0</v>
-      </c>
-      <c r="T62" s="440">
-        <v>0</v>
-      </c>
-      <c r="U62" s="406">
+      <c r="O62" s="428">
+        <v>0.5</v>
+      </c>
+      <c r="P62" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="428">
+        <v>0</v>
+      </c>
+      <c r="R62" s="428">
+        <v>0</v>
+      </c>
+      <c r="S62" s="428">
+        <v>0</v>
+      </c>
+      <c r="T62" s="428">
+        <v>0</v>
+      </c>
+      <c r="U62" s="428">
+        <v>0</v>
+      </c>
+      <c r="V62" s="397">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:22">
       <c r="A63" s="333" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="B63" s="185" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C63" s="184" t="s">
-        <v>787</v>
-      </c>
-      <c r="D63" s="442" t="s">
-        <v>827</v>
+        <v>788</v>
+      </c>
+      <c r="D63" s="429" t="s">
+        <v>5</v>
       </c>
       <c r="E63" s="184">
         <v>3</v>
       </c>
-      <c r="F63" s="184" t="str">
-        <f>B60</f>
-        <v>SnowFog</v>
+      <c r="F63" s="184" t="s">
+        <v>431</v>
       </c>
       <c r="G63" s="184" t="s">
         <v>431</v>
@@ -11999,66 +12364,68 @@
       <c r="H63" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I63" s="203" t="s">
-        <v>898</v>
-      </c>
-      <c r="J63" s="495" t="str">
-        <f>"화이트아웃 공격력 "&amp;INT(M63-100)&amp;"% 증가"</f>
-        <v>화이트아웃 공격력 5% 증가</v>
-      </c>
-      <c r="K63" s="492">
-        <v>0</v>
-      </c>
-      <c r="L63" s="440">
-        <v>0.25</v>
-      </c>
-      <c r="M63" s="440">
+      <c r="I63" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J63" s="203" t="s">
+        <v>902</v>
+      </c>
+      <c r="K63" s="495" t="str">
+        <f>"빙벽 공격력 "&amp;INT(N63-100)&amp;"% 증가"</f>
+        <v>빙벽 공격력 5% 증가</v>
+      </c>
+      <c r="L63" s="483">
+        <v>0</v>
+      </c>
+      <c r="M63" s="428">
+        <v>0.5</v>
+      </c>
+      <c r="N63" s="428">
         <v>105</v>
       </c>
-      <c r="N63" s="440">
-        <v>20</v>
-      </c>
-      <c r="O63" s="440">
-        <v>0</v>
-      </c>
-      <c r="P63" s="440">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="440">
-        <v>0</v>
-      </c>
-      <c r="R63" s="440">
-        <v>0</v>
-      </c>
-      <c r="S63" s="440">
-        <v>0</v>
-      </c>
-      <c r="T63" s="440">
-        <v>0</v>
-      </c>
-      <c r="U63" s="406">
+      <c r="O63" s="428">
+        <v>8</v>
+      </c>
+      <c r="P63" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="428">
+        <v>3</v>
+      </c>
+      <c r="R63" s="428">
+        <v>0</v>
+      </c>
+      <c r="S63" s="428">
+        <v>0</v>
+      </c>
+      <c r="T63" s="428">
+        <v>0</v>
+      </c>
+      <c r="U63" s="428">
+        <v>0</v>
+      </c>
+      <c r="V63" s="397">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:22">
       <c r="A64" s="333" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B64" s="185" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C64" s="184" t="s">
-        <v>787</v>
-      </c>
-      <c r="D64" s="442" t="s">
-        <v>828</v>
+        <v>788</v>
+      </c>
+      <c r="D64" s="430" t="s">
+        <v>832</v>
       </c>
       <c r="E64" s="184">
         <v>3</v>
       </c>
-      <c r="F64" s="184" t="str">
-        <f>B61</f>
-        <v>Aurora</v>
+      <c r="F64" s="184" t="s">
+        <v>431</v>
       </c>
       <c r="G64" s="184" t="s">
         <v>431</v>
@@ -12066,195 +12433,203 @@
       <c r="H64" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I64" s="203" t="s">
-        <v>899</v>
-      </c>
-      <c r="J64" s="495" t="str">
-        <f>"서브스톰 효과 증가"</f>
-        <v>서브스톰 효과 증가</v>
-      </c>
-      <c r="K64" s="492">
-        <v>0</v>
-      </c>
-      <c r="L64" s="440">
-        <v>0</v>
-      </c>
-      <c r="M64" s="440">
-        <v>0</v>
-      </c>
-      <c r="N64" s="440">
-        <v>20</v>
-      </c>
-      <c r="O64" s="440">
-        <v>0</v>
-      </c>
-      <c r="P64" s="440">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="440">
-        <v>0</v>
-      </c>
-      <c r="R64" s="440">
-        <v>0</v>
-      </c>
-      <c r="S64" s="440">
-        <v>0</v>
-      </c>
-      <c r="T64" s="440">
-        <v>0</v>
-      </c>
-      <c r="U64" s="406">
+      <c r="I64" s="242" t="s">
+        <v>776</v>
+      </c>
+      <c r="J64" s="203" t="s">
+        <v>903</v>
+      </c>
+      <c r="K64" s="495" t="str">
+        <f>"펫 공격력 "&amp;INT(N64-100)&amp;"% 증가"</f>
+        <v>펫 공격력 5% 증가</v>
+      </c>
+      <c r="L64" s="483">
+        <v>0</v>
+      </c>
+      <c r="M64" s="428">
+        <v>1</v>
+      </c>
+      <c r="N64" s="428">
+        <v>105</v>
+      </c>
+      <c r="O64" s="428">
+        <v>0.5</v>
+      </c>
+      <c r="P64" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="428">
+        <v>0</v>
+      </c>
+      <c r="R64" s="428">
+        <v>0</v>
+      </c>
+      <c r="S64" s="428">
+        <v>0</v>
+      </c>
+      <c r="T64" s="428">
+        <v>0</v>
+      </c>
+      <c r="U64" s="428">
+        <v>0</v>
+      </c>
+      <c r="V64" s="397">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="17.25">
-      <c r="A65" s="334" t="s">
-        <v>968</v>
-      </c>
-      <c r="B65" s="194" t="s">
-        <v>773</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D65" s="468" t="s">
+    <row r="65" spans="1:22">
+      <c r="A65" s="333" t="s">
+        <v>974</v>
+      </c>
+      <c r="B65" s="185" t="s">
+        <v>779</v>
+      </c>
+      <c r="C65" s="184" t="s">
+        <v>788</v>
+      </c>
+      <c r="D65" s="430" t="s">
+        <v>833</v>
+      </c>
+      <c r="E65" s="184">
+        <v>3</v>
+      </c>
+      <c r="F65" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="G65" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H65" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I65" s="242" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J65" s="203" t="s">
+        <v>904</v>
+      </c>
+      <c r="K65" s="495" t="str">
+        <f>"빙산 공격력 "&amp;INT(N65-100)&amp;"% 증가"</f>
+        <v>빙산 공격력 5% 증가</v>
+      </c>
+      <c r="L65" s="483">
+        <v>0</v>
+      </c>
+      <c r="M65" s="428">
+        <v>0.5</v>
+      </c>
+      <c r="N65" s="428">
+        <v>105</v>
+      </c>
+      <c r="O65" s="428">
         <v>8</v>
       </c>
-      <c r="E65" s="2">
+      <c r="P65" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="428">
         <v>3</v>
       </c>
-      <c r="F65" s="2" t="str">
-        <f>B62</f>
-        <v>Blizzard</v>
-      </c>
-      <c r="G65" s="2" t="str">
-        <f>B63</f>
-        <v>WhiteOut</v>
-      </c>
-      <c r="H65" s="195" t="s">
-        <v>738</v>
-      </c>
-      <c r="I65" s="204" t="s">
-        <v>900</v>
-      </c>
-      <c r="J65" s="498" t="str">
-        <f>"아이스에이지 공격력 "&amp;INT(M65-100)&amp;"% 증가"</f>
-        <v>아이스에이지 공격력 5% 증가</v>
-      </c>
-      <c r="K65" s="493">
-        <v>0</v>
-      </c>
-      <c r="L65" s="469">
-        <v>20</v>
-      </c>
-      <c r="M65" s="469">
+      <c r="R65" s="428">
+        <v>0</v>
+      </c>
+      <c r="S65" s="428">
+        <v>0</v>
+      </c>
+      <c r="T65" s="428">
+        <v>0</v>
+      </c>
+      <c r="U65" s="428">
+        <v>0</v>
+      </c>
+      <c r="V65" s="397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="333" t="s">
+        <v>975</v>
+      </c>
+      <c r="B66" s="185" t="s">
+        <v>780</v>
+      </c>
+      <c r="C66" s="184" t="s">
+        <v>788</v>
+      </c>
+      <c r="D66" s="430" t="s">
+        <v>834</v>
+      </c>
+      <c r="E66" s="184">
+        <v>3</v>
+      </c>
+      <c r="F66" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" s="184" t="s">
+        <v>431</v>
+      </c>
+      <c r="H66" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="I66" s="242" t="s">
+        <v>780</v>
+      </c>
+      <c r="J66" s="203" t="s">
+        <v>905</v>
+      </c>
+      <c r="K66" s="495" t="str">
+        <f>"파편 공격력 "&amp;INT(N66-100)&amp;"% 증가"</f>
+        <v>파편 공격력 5% 증가</v>
+      </c>
+      <c r="L66" s="483">
+        <v>0</v>
+      </c>
+      <c r="M66" s="428">
+        <v>0.5</v>
+      </c>
+      <c r="N66" s="428">
         <v>105</v>
       </c>
-      <c r="N65" s="469">
-        <v>60</v>
-      </c>
-      <c r="O65" s="469">
-        <v>0</v>
-      </c>
-      <c r="P65" s="469">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="469">
-        <v>0</v>
-      </c>
-      <c r="R65" s="469">
-        <v>0</v>
-      </c>
-      <c r="S65" s="469">
-        <v>0</v>
-      </c>
-      <c r="T65" s="469">
-        <v>0</v>
-      </c>
-      <c r="U65" s="475">
+      <c r="O66" s="428">
+        <v>0</v>
+      </c>
+      <c r="P66" s="428">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="428">
+        <v>0</v>
+      </c>
+      <c r="R66" s="428">
+        <v>0</v>
+      </c>
+      <c r="S66" s="428">
+        <v>0</v>
+      </c>
+      <c r="T66" s="428">
+        <v>0</v>
+      </c>
+      <c r="U66" s="428">
+        <v>0</v>
+      </c>
+      <c r="V66" s="397">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="332" t="s">
-        <v>969</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>788</v>
-      </c>
-      <c r="D66" s="310" t="s">
-        <v>829</v>
-      </c>
-      <c r="E66" s="33">
-        <v>0</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="I66" s="115" t="s">
-        <v>829</v>
-      </c>
-      <c r="J66" s="494" t="s">
-        <v>829</v>
-      </c>
-      <c r="K66" s="482">
-        <v>0</v>
-      </c>
-      <c r="L66" s="378">
-        <v>0</v>
-      </c>
-      <c r="M66" s="378">
-        <v>0</v>
-      </c>
-      <c r="N66" s="378">
-        <v>0</v>
-      </c>
-      <c r="O66" s="378">
-        <v>0</v>
-      </c>
-      <c r="P66" s="378">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="378">
-        <v>0</v>
-      </c>
-      <c r="R66" s="378">
-        <v>0</v>
-      </c>
-      <c r="S66" s="378">
-        <v>0</v>
-      </c>
-      <c r="T66" s="378">
-        <v>0</v>
-      </c>
-      <c r="U66" s="396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:22">
       <c r="A67" s="333" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="B67" s="185" t="s">
-        <v>775</v>
+        <v>996</v>
       </c>
       <c r="C67" s="184" t="s">
         <v>788</v>
       </c>
-      <c r="D67" s="304" t="s">
-        <v>830</v>
+      <c r="D67" s="444" t="s">
+        <v>835</v>
       </c>
       <c r="E67" s="184">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F67" s="184" t="s">
         <v>431</v>
@@ -12265,26 +12640,27 @@
       <c r="H67" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="I67" s="203" t="s">
-        <v>830</v>
-      </c>
-      <c r="J67" s="495" t="s">
-        <v>829</v>
-      </c>
-      <c r="K67" s="483">
-        <v>0</v>
-      </c>
-      <c r="L67" s="428">
+      <c r="I67" s="242" t="s">
+        <v>776</v>
+      </c>
+      <c r="J67" s="203" t="s">
+        <v>906</v>
+      </c>
+      <c r="K67" s="495" t="str">
+        <f>"펫 공격력 "&amp;INT(N67-100)&amp;"% 증가"</f>
+        <v>펫 공격력 5% 증가</v>
+      </c>
+      <c r="L67" s="483">
         <v>0</v>
       </c>
       <c r="M67" s="428">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67" s="428">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O67" s="428">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P67" s="428">
         <v>0</v>
@@ -12301,534 +12677,147 @@
       <c r="T67" s="428">
         <v>0</v>
       </c>
-      <c r="U67" s="397">
+      <c r="U67" s="428">
+        <v>0</v>
+      </c>
+      <c r="V67" s="397">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="333" t="s">
-        <v>971</v>
-      </c>
-      <c r="B68" s="185" t="s">
-        <v>776</v>
-      </c>
-      <c r="C68" s="184" t="s">
+    <row r="68" spans="1:22" ht="17.25">
+      <c r="A68" s="334" t="s">
+        <v>977</v>
+      </c>
+      <c r="B68" s="194" t="s">
+        <v>782</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="D68" s="429" t="s">
-        <v>831</v>
-      </c>
-      <c r="E68" s="184">
+      <c r="D68" s="350" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" s="2">
         <v>3</v>
       </c>
-      <c r="F68" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="G68" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H68" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I68" s="203" t="s">
-        <v>901</v>
-      </c>
-      <c r="J68" s="495" t="str">
-        <f>"펫 공격력 "&amp;INT(M68-100)&amp;"% 증가"</f>
-        <v>펫 공격력 5% 증가</v>
-      </c>
-      <c r="K68" s="483">
-        <v>0</v>
-      </c>
-      <c r="L68" s="428">
-        <v>0.5</v>
-      </c>
-      <c r="M68" s="428">
+      <c r="F68" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H68" s="195" t="s">
+        <v>431</v>
+      </c>
+      <c r="I68" s="529" t="s">
+        <v>782</v>
+      </c>
+      <c r="J68" s="204" t="s">
+        <v>907</v>
+      </c>
+      <c r="K68" s="498" t="str">
+        <f>"지뢰 공격력 "&amp;INT(N68-100)&amp;"% 증가"</f>
+        <v>지뢰 공격력 5% 증가</v>
+      </c>
+      <c r="L68" s="510">
+        <v>0</v>
+      </c>
+      <c r="M68" s="511">
+        <v>1.5</v>
+      </c>
+      <c r="N68" s="511">
         <v>105</v>
       </c>
-      <c r="N68" s="428">
-        <v>0.5</v>
-      </c>
-      <c r="O68" s="428">
-        <v>0</v>
-      </c>
-      <c r="P68" s="428">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="428">
-        <v>0</v>
-      </c>
-      <c r="R68" s="428">
-        <v>0</v>
-      </c>
-      <c r="S68" s="428">
-        <v>0</v>
-      </c>
-      <c r="T68" s="428">
-        <v>0</v>
-      </c>
-      <c r="U68" s="397">
+      <c r="O68" s="511">
+        <v>5</v>
+      </c>
+      <c r="P68" s="511">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="511">
+        <v>10</v>
+      </c>
+      <c r="R68" s="511">
+        <v>0</v>
+      </c>
+      <c r="S68" s="511">
+        <v>0</v>
+      </c>
+      <c r="T68" s="511">
+        <v>0</v>
+      </c>
+      <c r="U68" s="511">
+        <v>0</v>
+      </c>
+      <c r="V68" s="512">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="333" t="s">
-        <v>972</v>
-      </c>
-      <c r="B69" s="185" t="s">
-        <v>777</v>
-      </c>
-      <c r="C69" s="184" t="s">
-        <v>788</v>
-      </c>
-      <c r="D69" s="429" t="s">
+    <row r="69" spans="1:22" ht="17.25">
+      <c r="A69" s="520" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B69" s="506" t="s">
+        <v>997</v>
+      </c>
+      <c r="C69" s="507" t="s">
+        <v>365</v>
+      </c>
+      <c r="D69" s="507" t="s">
+        <v>702</v>
+      </c>
+      <c r="E69" s="507">
+        <v>1</v>
+      </c>
+      <c r="F69" s="507" t="s">
+        <v>431</v>
+      </c>
+      <c r="G69" s="507" t="s">
+        <v>431</v>
+      </c>
+      <c r="H69" s="508" t="s">
+        <v>431</v>
+      </c>
+      <c r="I69" s="530" t="s">
+        <v>997</v>
+      </c>
+      <c r="J69" s="506" t="s">
+        <v>998</v>
+      </c>
+      <c r="K69" s="508" t="s">
+        <v>998</v>
+      </c>
+      <c r="L69" s="519">
+        <v>0</v>
+      </c>
+      <c r="M69" s="507">
+        <v>1.5</v>
+      </c>
+      <c r="N69" s="507">
+        <v>105</v>
+      </c>
+      <c r="O69" s="507">
         <v>5</v>
       </c>
-      <c r="E69" s="184">
-        <v>3</v>
-      </c>
-      <c r="F69" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="G69" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H69" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I69" s="203" t="s">
-        <v>902</v>
-      </c>
-      <c r="J69" s="495" t="str">
-        <f>"빙벽 공격력 "&amp;INT(M69-100)&amp;"% 증가"</f>
-        <v>빙벽 공격력 5% 증가</v>
-      </c>
-      <c r="K69" s="483">
-        <v>0</v>
-      </c>
-      <c r="L69" s="428">
-        <v>0.5</v>
-      </c>
-      <c r="M69" s="428">
-        <v>105</v>
-      </c>
-      <c r="N69" s="428">
-        <v>8</v>
-      </c>
-      <c r="O69" s="428">
-        <v>0</v>
-      </c>
-      <c r="P69" s="428">
-        <v>3</v>
-      </c>
-      <c r="Q69" s="428">
-        <v>0</v>
-      </c>
-      <c r="R69" s="428">
-        <v>0</v>
-      </c>
-      <c r="S69" s="428">
-        <v>0</v>
-      </c>
-      <c r="T69" s="428">
-        <v>0</v>
-      </c>
-      <c r="U69" s="397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="333" t="s">
-        <v>973</v>
-      </c>
-      <c r="B70" s="185" t="s">
-        <v>778</v>
-      </c>
-      <c r="C70" s="184" t="s">
-        <v>788</v>
-      </c>
-      <c r="D70" s="430" t="s">
-        <v>832</v>
-      </c>
-      <c r="E70" s="184">
-        <v>3</v>
-      </c>
-      <c r="F70" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="G70" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H70" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I70" s="203" t="s">
-        <v>903</v>
-      </c>
-      <c r="J70" s="495" t="str">
-        <f>"펫 공격력 "&amp;INT(M70-100)&amp;"% 증가"</f>
-        <v>펫 공격력 5% 증가</v>
-      </c>
-      <c r="K70" s="483">
-        <v>0</v>
-      </c>
-      <c r="L70" s="428">
-        <v>1</v>
-      </c>
-      <c r="M70" s="428">
-        <v>105</v>
-      </c>
-      <c r="N70" s="428">
-        <v>0.5</v>
-      </c>
-      <c r="O70" s="428">
-        <v>0</v>
-      </c>
-      <c r="P70" s="428">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="428">
-        <v>0</v>
-      </c>
-      <c r="R70" s="428">
-        <v>0</v>
-      </c>
-      <c r="S70" s="428">
-        <v>0</v>
-      </c>
-      <c r="T70" s="428">
-        <v>0</v>
-      </c>
-      <c r="U70" s="397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="333" t="s">
-        <v>974</v>
-      </c>
-      <c r="B71" s="185" t="s">
-        <v>779</v>
-      </c>
-      <c r="C71" s="184" t="s">
-        <v>788</v>
-      </c>
-      <c r="D71" s="430" t="s">
-        <v>833</v>
-      </c>
-      <c r="E71" s="184">
-        <v>3</v>
-      </c>
-      <c r="F71" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="G71" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H71" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I71" s="203" t="s">
-        <v>904</v>
-      </c>
-      <c r="J71" s="495" t="str">
-        <f>"빙산 공격력 "&amp;INT(M71-100)&amp;"% 증가"</f>
-        <v>빙산 공격력 5% 증가</v>
-      </c>
-      <c r="K71" s="483">
-        <v>0</v>
-      </c>
-      <c r="L71" s="428">
-        <v>0.5</v>
-      </c>
-      <c r="M71" s="428">
-        <v>105</v>
-      </c>
-      <c r="N71" s="428">
-        <v>8</v>
-      </c>
-      <c r="O71" s="428">
-        <v>0</v>
-      </c>
-      <c r="P71" s="428">
-        <v>3</v>
-      </c>
-      <c r="Q71" s="428">
-        <v>0</v>
-      </c>
-      <c r="R71" s="428">
-        <v>0</v>
-      </c>
-      <c r="S71" s="428">
-        <v>0</v>
-      </c>
-      <c r="T71" s="428">
-        <v>0</v>
-      </c>
-      <c r="U71" s="397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="333" t="s">
-        <v>975</v>
-      </c>
-      <c r="B72" s="185" t="s">
-        <v>780</v>
-      </c>
-      <c r="C72" s="184" t="s">
-        <v>788</v>
-      </c>
-      <c r="D72" s="430" t="s">
-        <v>834</v>
-      </c>
-      <c r="E72" s="184">
-        <v>3</v>
-      </c>
-      <c r="F72" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="G72" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H72" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I72" s="203" t="s">
-        <v>905</v>
-      </c>
-      <c r="J72" s="495" t="str">
-        <f>"파편 공격력 "&amp;INT(M72-100)&amp;"% 증가"</f>
-        <v>파편 공격력 5% 증가</v>
-      </c>
-      <c r="K72" s="483">
-        <v>0</v>
-      </c>
-      <c r="L72" s="428">
-        <v>0.5</v>
-      </c>
-      <c r="M72" s="428">
-        <v>105</v>
-      </c>
-      <c r="N72" s="428">
-        <v>0</v>
-      </c>
-      <c r="O72" s="428">
-        <v>0</v>
-      </c>
-      <c r="P72" s="428">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="428">
-        <v>0</v>
-      </c>
-      <c r="R72" s="428">
-        <v>0</v>
-      </c>
-      <c r="S72" s="428">
-        <v>0</v>
-      </c>
-      <c r="T72" s="428">
-        <v>0</v>
-      </c>
-      <c r="U72" s="397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="333" t="s">
-        <v>976</v>
-      </c>
-      <c r="B73" s="185" t="s">
-        <v>996</v>
-      </c>
-      <c r="C73" s="184" t="s">
-        <v>788</v>
-      </c>
-      <c r="D73" s="444" t="s">
-        <v>835</v>
-      </c>
-      <c r="E73" s="184">
-        <v>3</v>
-      </c>
-      <c r="F73" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="G73" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="H73" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="I73" s="203" t="s">
-        <v>906</v>
-      </c>
-      <c r="J73" s="495" t="str">
-        <f>"펫 공격력 "&amp;INT(M73-100)&amp;"% 증가"</f>
-        <v>펫 공격력 5% 증가</v>
-      </c>
-      <c r="K73" s="483">
-        <v>0</v>
-      </c>
-      <c r="L73" s="428">
-        <v>2</v>
-      </c>
-      <c r="M73" s="428">
-        <v>105</v>
-      </c>
-      <c r="N73" s="428">
-        <v>0.5</v>
-      </c>
-      <c r="O73" s="428">
-        <v>0</v>
-      </c>
-      <c r="P73" s="428">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="428">
-        <v>0</v>
-      </c>
-      <c r="R73" s="428">
-        <v>0</v>
-      </c>
-      <c r="S73" s="428">
-        <v>0</v>
-      </c>
-      <c r="T73" s="428">
-        <v>0</v>
-      </c>
-      <c r="U73" s="397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="17.25">
-      <c r="A74" s="334" t="s">
-        <v>977</v>
-      </c>
-      <c r="B74" s="194" t="s">
-        <v>782</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D74" s="350" t="s">
-        <v>331</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H74" s="195" t="s">
-        <v>431</v>
-      </c>
-      <c r="I74" s="204" t="s">
-        <v>907</v>
-      </c>
-      <c r="J74" s="498" t="str">
-        <f>"지뢰 공격력 "&amp;INT(M74-100)&amp;"% 증가"</f>
-        <v>지뢰 공격력 5% 증가</v>
-      </c>
-      <c r="K74" s="511">
-        <v>0</v>
-      </c>
-      <c r="L74" s="512">
-        <v>1.5</v>
-      </c>
-      <c r="M74" s="512">
-        <v>105</v>
-      </c>
-      <c r="N74" s="512">
-        <v>5</v>
-      </c>
-      <c r="O74" s="512">
-        <v>0</v>
-      </c>
-      <c r="P74" s="512">
+      <c r="P69" s="507">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="507">
         <v>10</v>
       </c>
-      <c r="Q74" s="512">
-        <v>0</v>
-      </c>
-      <c r="R74" s="512">
-        <v>0</v>
-      </c>
-      <c r="S74" s="512">
-        <v>0</v>
-      </c>
-      <c r="T74" s="512">
-        <v>0</v>
-      </c>
-      <c r="U74" s="513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="17.25">
-      <c r="A75" s="521" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B75" s="506" t="s">
-        <v>997</v>
-      </c>
-      <c r="C75" s="507" t="s">
-        <v>365</v>
-      </c>
-      <c r="D75" s="507" t="s">
-        <v>702</v>
-      </c>
-      <c r="E75" s="507">
-        <v>1</v>
-      </c>
-      <c r="F75" s="507" t="s">
-        <v>431</v>
-      </c>
-      <c r="G75" s="507" t="s">
-        <v>431</v>
-      </c>
-      <c r="H75" s="508" t="s">
-        <v>431</v>
-      </c>
-      <c r="I75" s="506" t="s">
-        <v>998</v>
-      </c>
-      <c r="J75" s="508" t="s">
-        <v>998</v>
-      </c>
-      <c r="K75" s="520">
-        <v>0</v>
-      </c>
-      <c r="L75" s="507">
-        <v>1.5</v>
-      </c>
-      <c r="M75" s="507">
-        <v>105</v>
-      </c>
-      <c r="N75" s="507">
-        <v>5</v>
-      </c>
-      <c r="O75" s="507">
-        <v>0</v>
-      </c>
-      <c r="P75" s="507">
-        <v>10</v>
-      </c>
-      <c r="Q75" s="507">
-        <v>0</v>
-      </c>
-      <c r="R75" s="507">
-        <v>0</v>
-      </c>
-      <c r="S75" s="507">
-        <v>0</v>
-      </c>
-      <c r="T75" s="507">
-        <v>0</v>
-      </c>
-      <c r="U75" s="508">
+      <c r="R69" s="507">
+        <v>0</v>
+      </c>
+      <c r="S69" s="507">
+        <v>0</v>
+      </c>
+      <c r="T69" s="507">
+        <v>0</v>
+      </c>
+      <c r="U69" s="507">
+        <v>0</v>
+      </c>
+      <c r="V69" s="508">
         <v>0</v>
       </c>
     </row>
@@ -12844,7 +12833,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12855,7 +12844,7 @@
     <col min="4" max="4" width="7.38000011" customWidth="1"/>
     <col min="7" max="7" width="9.00500011" customWidth="1"/>
     <col min="11" max="11" width="9.00500011" customWidth="1"/>
-    <col min="14" max="14" width="9.00500011" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.13000011" style="5" customWidth="1"/>
     <col min="21" max="21" width="9.00500011" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13256,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="292" t="s">
-        <v>460</v>
+        <v>1028</v>
       </c>
       <c r="O5" s="300">
         <v>130</v>
@@ -13345,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="273" t="s">
-        <v>459</v>
+        <v>1029</v>
       </c>
       <c r="O6" s="217">
         <v>100</v>
@@ -13523,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="307" t="s">
-        <v>699</v>
+        <v>1030</v>
       </c>
       <c r="O8" s="326">
         <v>100</v>
@@ -14146,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="77" t="s">
-        <v>468</v>
+        <v>1031</v>
       </c>
       <c r="O15" s="217">
         <v>100</v>
@@ -14502,7 +14491,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="77" t="s">
-        <v>699</v>
+        <v>1030</v>
       </c>
       <c r="O19" s="217">
         <v>100</v>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="260" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="status" sheetId="2" r:id="rId6"/>
     <sheet name="boss" sheetId="3" r:id="rId7"/>
     <sheet name="quest" sheetId="4" r:id="rId8"/>
+    <sheet name="crest" sheetId="9" r:id="rId9"/>
+    <sheet name="obstacle" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="1" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1274">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -3430,6 +3432,335 @@
   </si>
   <si>
     <t xml:space="preserve">스킨 강화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icebat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동파</t>
+  </si>
+  <si>
+    <t xml:space="preserve">덩어리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">편자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">gIN2c+7lxUyA9Hh4RVchkQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1USBr3XqQkyLteuVIrp6Vw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S967ChEWIEKLRgWK+MtWwQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jvqEsXErhk2ykvrfzoAUDw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9n73PPnbOUKrgKP6mZ0KMw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HqSj6XY/CUWaccmqb2TmqA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+R5jmtU13UCTK+oHmVQL9g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VpabmivgTEKnYH6RE01lhg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aPYG1as2pUmRi8Rzh7S2AQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeiZUV7/pEK8/DGVWZVVjg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbgZVC/NJ0OEQsbTL/aNIw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip8eCiST5keRgVvdK3Xrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">속</t>
+  </si>
+  <si>
+    <t xml:space="preserve">치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">젠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">실</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초방어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초공격</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈실드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빠따</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼빠따</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초att격</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초def어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def패</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve">oJg4+YMeAE2E4cc1Y5AIpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBQL5VOmSkKeaBjMMrVltw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iUVJhQ1LykGHAIwaOcaSJw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08o6JHIr3kqZrA9X2URzqg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7kUPW3IVBUWJ4bBUUaq08A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/Mf6iTlVkuJYRvesrdixQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9f1yG6P7+kqyrJkHm0VvKw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1EKwnlsWZkaFjWfQNMxpWg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot_whether_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot_w_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h_w_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_w_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_w_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot_n_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_n_rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot_wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot_tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swamp0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swamp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_obstacle0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_obstacle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruin_thunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruin_drill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruin_hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bosszone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HJ0p4TP3sEuAaOeFeDMGsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC1faJAZckWUkEls2we61w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFDDqcw5PES7/IP2DJk2eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyl4bTr2XUGtwzqy3z0MJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3HHWgXFXTEGon0yf696Ikw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0FEf6NAk0e8Qm91ysAKEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbYrxD5GzkeZLBR7RHUc2g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rq3k7BAx9k2+u+iWjAtkhQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEEB8Nx7lE+T208A3kzajg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R78EB3H1D0O4eRtVeBktKQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5TESLb7A7U+u7YH69SaErg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WwDX01JBeUSxjUf6WASqqA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvESpDcbR0CDWtapfzJB+g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8t2KXV+Hkeuj4/URvcWOg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85EAPhAKWUGNxod34rVbYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsbQAZtGf0OELCM4xMD1nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691CRZoCoUCOB/zTMmPJBQ</t>
   </si>
 </sst>
 </file>
@@ -3590,7 +3921,7 @@
       <name val="맑은 고딕"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3900,8 +4231,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.04999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.09998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="92">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -5054,6 +5397,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
@@ -5204,7 +5569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="614">
+  <cellXfs count="675">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
@@ -7046,6 +7411,189 @@
     </xf>
     <xf numFmtId="67" fontId="0" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="18" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="25" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="26" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="27" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="63" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="3" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="64" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="31" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="32" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="65" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="14" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="15" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="19" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="20" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="16" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="21" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="29" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="30" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="22" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="23" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="28" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="62" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -14884,6 +15432,389 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="17.25499916" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="673" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="673" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="673" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D1" s="673" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E1" s="673" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F1" s="673" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="182" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B2" s="182" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C2" s="184">
+        <v>1</v>
+      </c>
+      <c r="D2" s="184">
+        <v>1</v>
+      </c>
+      <c r="E2" s="184">
+        <v>1</v>
+      </c>
+      <c r="F2" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="182" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B3" s="182" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C3" s="184">
+        <v>2</v>
+      </c>
+      <c r="D3" s="184">
+        <v>1</v>
+      </c>
+      <c r="E3" s="184">
+        <v>2</v>
+      </c>
+      <c r="F3" s="184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="182" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B4" s="182" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C4" s="184">
+        <v>1</v>
+      </c>
+      <c r="D4" s="184">
+        <v>2</v>
+      </c>
+      <c r="E4" s="184">
+        <v>2</v>
+      </c>
+      <c r="F4" s="184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="182" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B5" s="182" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C5" s="184">
+        <v>2</v>
+      </c>
+      <c r="D5" s="184">
+        <v>2</v>
+      </c>
+      <c r="E5" s="184">
+        <v>4</v>
+      </c>
+      <c r="F5" s="184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="182" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B6" s="182" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C6" s="184">
+        <v>1</v>
+      </c>
+      <c r="D6" s="184">
+        <v>1</v>
+      </c>
+      <c r="E6" s="184">
+        <v>1</v>
+      </c>
+      <c r="F6" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="182" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B7" s="182" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C7" s="184">
+        <v>1</v>
+      </c>
+      <c r="D7" s="184">
+        <v>2</v>
+      </c>
+      <c r="E7" s="184">
+        <v>2</v>
+      </c>
+      <c r="F7" s="184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="182" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B8" s="182" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C8" s="184">
+        <v>1</v>
+      </c>
+      <c r="D8" s="184">
+        <v>1</v>
+      </c>
+      <c r="E8" s="184">
+        <v>1</v>
+      </c>
+      <c r="F8" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="182" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B9" s="182" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C9" s="184">
+        <v>1</v>
+      </c>
+      <c r="D9" s="184">
+        <v>1</v>
+      </c>
+      <c r="E9" s="184">
+        <v>1</v>
+      </c>
+      <c r="F9" s="184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="182" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B10" s="182" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C10" s="184">
+        <v>7</v>
+      </c>
+      <c r="D10" s="184">
+        <v>7</v>
+      </c>
+      <c r="E10" s="184">
+        <v>49</v>
+      </c>
+      <c r="F10" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="182" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B11" s="182" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C11" s="184">
+        <v>6</v>
+      </c>
+      <c r="D11" s="184">
+        <v>7</v>
+      </c>
+      <c r="E11" s="184">
+        <v>42</v>
+      </c>
+      <c r="F11" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="182" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B12" s="182" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C12" s="184">
+        <v>2</v>
+      </c>
+      <c r="D12" s="184">
+        <v>2</v>
+      </c>
+      <c r="E12" s="184">
+        <v>4</v>
+      </c>
+      <c r="F12" s="184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="182" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B13" s="182" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C13" s="184">
+        <v>2</v>
+      </c>
+      <c r="D13" s="184">
+        <v>3</v>
+      </c>
+      <c r="E13" s="184">
+        <v>6</v>
+      </c>
+      <c r="F13" s="184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="182" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B14" s="182" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C14" s="184">
+        <v>1</v>
+      </c>
+      <c r="D14" s="184">
+        <v>1</v>
+      </c>
+      <c r="E14" s="184">
+        <v>1</v>
+      </c>
+      <c r="F14" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="182" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B15" s="182" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C15" s="184">
+        <v>20</v>
+      </c>
+      <c r="D15" s="184">
+        <v>20</v>
+      </c>
+      <c r="E15" s="184">
+        <v>400</v>
+      </c>
+      <c r="F15" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="182" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B16" s="182" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C16" s="184">
+        <v>14</v>
+      </c>
+      <c r="D16" s="184">
+        <v>14</v>
+      </c>
+      <c r="E16" s="184">
+        <f>C16*D16</f>
+        <v>196</v>
+      </c>
+      <c r="F16" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="182" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B17" s="182" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C17" s="184">
+        <v>14</v>
+      </c>
+      <c r="D17" s="184">
+        <v>14</v>
+      </c>
+      <c r="E17" s="184">
+        <f>C17*D17</f>
+        <v>196</v>
+      </c>
+      <c r="F17" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="182" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B18" s="182" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C18" s="184">
+        <v>14</v>
+      </c>
+      <c r="D18" s="184">
+        <v>14</v>
+      </c>
+      <c r="E18" s="184">
+        <f>C18*D18</f>
+        <v>196</v>
+      </c>
+      <c r="F18" s="184">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC20"/>
@@ -18024,8 +18955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18943,4 +19874,570 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.87999916" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="621" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="622" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="633" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1" s="621" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1" s="623" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="32" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34">
+        <v>2</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="185" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B3" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="185">
+        <v>1</v>
+      </c>
+      <c r="E3" s="186">
+        <v>1</v>
+      </c>
+      <c r="F3" s="203" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G3" s="184" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H3" s="186" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="185" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B4" s="184" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="199" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D4" s="185">
+        <v>1</v>
+      </c>
+      <c r="E4" s="186">
+        <v>1</v>
+      </c>
+      <c r="F4" s="203" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H4" s="186" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="185" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B5" s="184" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="199" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D5" s="185">
+        <v>1</v>
+      </c>
+      <c r="E5" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="203" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G5" s="184" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H5" s="186" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="185" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B6" s="184" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="199" t="s">
+        <v>805</v>
+      </c>
+      <c r="D6" s="185">
+        <v>1</v>
+      </c>
+      <c r="E6" s="186">
+        <v>1</v>
+      </c>
+      <c r="F6" s="203" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G6" s="184" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H6" s="186" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="185" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B7" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="199" t="s">
+        <v>821</v>
+      </c>
+      <c r="D7" s="185">
+        <v>1</v>
+      </c>
+      <c r="E7" s="186">
+        <v>1</v>
+      </c>
+      <c r="F7" s="203" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G7" s="184" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H7" s="186" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="194" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="200" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D8" s="194">
+        <v>2</v>
+      </c>
+      <c r="E8" s="195">
+        <v>1</v>
+      </c>
+      <c r="F8" s="204" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="648" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B9" s="649" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="658" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D9" s="648">
+        <v>1</v>
+      </c>
+      <c r="E9" s="656">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="619" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B10" s="615" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C10" s="635" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D10" s="619">
+        <v>1</v>
+      </c>
+      <c r="E10" s="620">
+        <v>1</v>
+      </c>
+      <c r="F10" s="185" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G10" s="184" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H10" s="186" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="619" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B11" s="615" t="s">
+        <v>786</v>
+      </c>
+      <c r="C11" s="635" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D11" s="619">
+        <v>1</v>
+      </c>
+      <c r="E11" s="620">
+        <v>1</v>
+      </c>
+      <c r="F11" s="185" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G11" s="184" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H11" s="186" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25">
+      <c r="A12" s="650" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B12" s="651" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C12" s="659" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D12" s="650">
+        <v>1</v>
+      </c>
+      <c r="E12" s="657">
+        <v>1</v>
+      </c>
+      <c r="F12" s="187" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G12" s="188" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H12" s="189" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25">
+      <c r="A13" s="247" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B13" s="248" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C13" s="660" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D13" s="247">
+        <v>1</v>
+      </c>
+      <c r="E13" s="240">
+        <v>1</v>
+      </c>
+      <c r="F13" s="668" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G13" s="248" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H13" s="240" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="647" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B14" s="338" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C14" s="661" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="337">
+        <v>2</v>
+      </c>
+      <c r="E14" s="249">
+        <v>0</v>
+      </c>
+      <c r="F14" s="368" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="338" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="249" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="641" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B15" s="184" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C15" s="199" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D15" s="185">
+        <v>2</v>
+      </c>
+      <c r="E15" s="186">
+        <v>0</v>
+      </c>
+      <c r="F15" s="203" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="184" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="186" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="641" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B16" s="184" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C16" s="199" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D16" s="185">
+        <v>2</v>
+      </c>
+      <c r="E16" s="186">
+        <v>0</v>
+      </c>
+      <c r="F16" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="184" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="186" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="641" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B17" s="184" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C17" s="199" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="185">
+        <v>2</v>
+      </c>
+      <c r="E17" s="186">
+        <v>0</v>
+      </c>
+      <c r="F17" s="203" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="186" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="641" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B18" s="184" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C18" s="199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="185">
+        <v>2</v>
+      </c>
+      <c r="E18" s="186">
+        <v>0</v>
+      </c>
+      <c r="F18" s="203" t="s">
+        <v>430</v>
+      </c>
+      <c r="G18" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="186" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="641" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B19" s="184" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C19" s="199" t="s">
+        <v>797</v>
+      </c>
+      <c r="D19" s="185">
+        <v>2</v>
+      </c>
+      <c r="E19" s="186">
+        <v>0</v>
+      </c>
+      <c r="F19" s="203" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G19" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="186" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="641" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B20" s="184" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C20" s="199" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D20" s="185">
+        <v>2</v>
+      </c>
+      <c r="E20" s="186">
+        <v>0</v>
+      </c>
+      <c r="F20" s="203" t="s">
+        <v>786</v>
+      </c>
+      <c r="G20" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="186" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25">
+      <c r="A21" s="642" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B21" s="188" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C21" s="201" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D21" s="187">
+        <v>2</v>
+      </c>
+      <c r="E21" s="189">
+        <v>0</v>
+      </c>
+      <c r="F21" s="205" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G21" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="189" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+</worksheet>
 </file>
--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -7389,10 +7389,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7532,7 +7532,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>487</v>
@@ -7557,16 +7557,16 @@
       </c>
       <c r="M2" s="317" t="str">
         <f>"최대체력 "&amp;INT(O2*100-100)&amp;"% 증가"</f>
-        <v>최대체력 30% 증가</v>
+        <v>최대체력 20% 증가</v>
       </c>
       <c r="N2" s="222" t="s">
         <v>42</v>
       </c>
       <c r="O2" s="223">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P2" s="223">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q2" s="229" t="s">
         <v>469</v>
@@ -7623,7 +7623,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="266" t="s">
         <v>487</v>
@@ -7896,7 +7896,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="266" t="s">
         <v>487</v>
@@ -7920,17 +7920,17 @@
         <v>361</v>
       </c>
       <c r="M6" s="318" t="str">
-        <f>"모든 회복량 "&amp;INT(O6*100-100)&amp;"% 증가"</f>
-        <v>모든 회복량 20% 증가</v>
+        <f>"모든 회복량 "&amp;(O6*100)-100&amp;"% 증가"</f>
+        <v>모든 회복량 15% 증가</v>
       </c>
       <c r="N6" s="224" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="225">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P6" s="225">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="Q6" s="230" t="s">
         <v>469</v>
@@ -21471,7 +21471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/project_week/Assets/9.Data/data.xlsx
+++ b/project_week/Assets/9.Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -7389,7 +7389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
@@ -20497,8 +20497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20575,7 +20575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="188">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J2" s="191">
         <v>0.8</v>
@@ -20584,7 +20584,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="185">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -20622,7 +20622,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="186">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -20651,7 +20651,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="189">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J4" s="192">
         <v>1</v>
@@ -20660,7 +20660,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="186">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25">
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="190">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="193">
         <v>1.2</v>
@@ -20698,7 +20698,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="187">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25">
